--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886645317078</t>
+    <t xml:space="preserve">1.12507796287537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886657238007</t>
   </si>
   <si>
     <t xml:space="preserve">1.10643470287323</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">1.08454918861389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09346532821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617043495178</t>
+    <t xml:space="preserve">1.09346556663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08617031574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.0683376789093</t>
@@ -71,55 +71,55 @@
     <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932061672211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901436328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531175136566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954313755035</t>
+    <t xml:space="preserve">0.975932002067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531294345856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889276504517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954134941101</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349164009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01727151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985659122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979985058307648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266788005829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108155727386</t>
+    <t xml:space="preserve">1.0205135345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01727139949799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985659062862396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646077632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984879493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108274936676</t>
   </si>
   <si>
     <t xml:space="preserve">0.913517832756042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842997789382935</t>
+    <t xml:space="preserve">0.842997848987579</t>
   </si>
   <si>
     <t xml:space="preserve">0.806521952152252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826786279678345</t>
+    <t xml:space="preserve">0.826786398887634</t>
   </si>
   <si>
     <t xml:space="preserve">0.796389818191528</t>
@@ -128,52 +128,52 @@
     <t xml:space="preserve">0.818680584430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420868396759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632437705994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412018299103</t>
+    <t xml:space="preserve">0.875420928001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632318496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161092758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478238105774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213910579681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275638103485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319605827332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372542858124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.002681016922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995386004447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183166027069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152421474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280368804932</t>
+    <t xml:space="preserve">0.932161033153534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478297710419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936214029788971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275459289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509161472321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372602462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00268113613129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995385944843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280189990997</t>
   </si>
   <si>
     <t xml:space="preserve">0.992143630981445</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">1.00511276721954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916576385498</t>
+    <t xml:space="preserve">1.00916564464569</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321864128113</t>
@@ -191,94 +191,94 @@
     <t xml:space="preserve">1.0010598897934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964584112167358</t>
+    <t xml:space="preserve">0.964584171772003</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795800685883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689807415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967015743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879303455353</t>
+    <t xml:space="preserve">0.980795562267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196389198303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689926624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068680286407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701568365097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962925434113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879243850708</t>
   </si>
   <si>
     <t xml:space="preserve">0.950804233551025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93459290266037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903791010379791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893253445625305</t>
+    <t xml:space="preserve">0.934592723846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
     <t xml:space="preserve">0.920002579689026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526623249054</t>
+    <t xml:space="preserve">0.881905555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526682853699</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579560279846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915139079093933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055397510529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947561919689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918898105621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623647212982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918381333351135</t>
+    <t xml:space="preserve">0.915139019489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055337905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561979293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623528003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381214141846</t>
   </si>
   <si>
     <t xml:space="preserve">0.917570650577545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904601573944092</t>
+    <t xml:space="preserve">0.904601693153381</t>
   </si>
   <si>
     <t xml:space="preserve">0.898117005825043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890011191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654391765594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434151172638</t>
+    <t xml:space="preserve">0.890011250972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654451370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434210777283</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967044830322</t>
@@ -290,46 +290,46 @@
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848672032356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094872951508</t>
+    <t xml:space="preserve">0.855156481266022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671972751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094932556152</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868125796318054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716000080109</t>
+    <t xml:space="preserve">0.868125557899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882715940475464</t>
   </si>
   <si>
     <t xml:space="preserve">0.877042055130005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899738073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425539493561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786316871643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986289620399475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771443367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698556423187</t>
+    <t xml:space="preserve">0.899738013744354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425479888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786376476288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98628956079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98377138376236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698616027832</t>
   </si>
   <si>
     <t xml:space="preserve">0.974537968635559</t>
@@ -338,25 +338,22 @@
     <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968662083148956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895438671112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822909355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837902069092</t>
+    <t xml:space="preserve">0.968662142753601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895617485046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822730541229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837842464447</t>
   </si>
   <si>
     <t xml:space="preserve">0.933407604694366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319665431976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604486942291</t>
+    <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
     <t xml:space="preserve">0.93928337097168</t>
@@ -368,28 +365,28 @@
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231785774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392552375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910729408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159256458282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942641019821167</t>
+    <t xml:space="preserve">0.955231845378876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910669803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640900611877</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516666889191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334956169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780186653137</t>
+    <t xml:space="preserve">0.923334777355194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780246257782</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728720664978</t>
@@ -398,16 +395,16 @@
     <t xml:space="preserve">0.916619658470154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906546950340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013601779938</t>
+    <t xml:space="preserve">0.906547009944916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013661384583</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692366600037</t>
+    <t xml:space="preserve">0.926692306995392</t>
   </si>
   <si>
     <t xml:space="preserve">0.934247076511383</t>
@@ -416,61 +413,61 @@
     <t xml:space="preserve">0.919137954711914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914101541042328</t>
+    <t xml:space="preserve">0.914101421833038</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743951797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671124458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905707597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956124782562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634829998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795298576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262128829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816719532013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904539585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189420700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898152947425842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889759063720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881365060806274</t>
+    <t xml:space="preserve">0.910743892192841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671184062958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905707538127899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956005573273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262188434601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816659927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189361095428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898153126239777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889759004116058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88136500120163</t>
   </si>
   <si>
     <t xml:space="preserve">0.878847002983093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879686295986176</t>
+    <t xml:space="preserve">0.879686176776886</t>
   </si>
   <si>
     <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872971057891846</t>
+    <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
     <t xml:space="preserve">0.947677314281464</t>
@@ -479,13 +476,13 @@
     <t xml:space="preserve">0.912422716617584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876328706741333</t>
+    <t xml:space="preserve">0.876328825950623</t>
   </si>
   <si>
     <t xml:space="preserve">0.874650001525879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401414871216</t>
+    <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
@@ -497,7 +494,7 @@
     <t xml:space="preserve">0.885562002658844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89059841632843</t>
+    <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919651508331</t>
@@ -506,58 +503,58 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88808012008667</t>
+    <t xml:space="preserve">0.888080179691315</t>
   </si>
   <si>
     <t xml:space="preserve">0.911583304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092440128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874196529388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95942884683609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553080558777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071317195892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268259048462</t>
+    <t xml:space="preserve">0.982092559337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959428668022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268199443817</t>
   </si>
   <si>
     <t xml:space="preserve">0.988807678222656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975377261638641</t>
+    <t xml:space="preserve">0.975377380847931</t>
   </si>
   <si>
     <t xml:space="preserve">0.97957444190979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966983377933502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501495361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801488399506</t>
+    <t xml:space="preserve">0.966983437538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501674175262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94180154800415</t>
   </si>
   <si>
     <t xml:space="preserve">0.943480372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935925841331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97285932302475</t>
+    <t xml:space="preserve">0.935925781726837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972859084606171</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -566,43 +563,43 @@
     <t xml:space="preserve">0.981253027915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968325614929</t>
+    <t xml:space="preserve">0.995522797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968385219574</t>
   </si>
   <si>
     <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04420781135559</t>
+    <t xml:space="preserve">1.0442076921463</t>
   </si>
   <si>
     <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03665316104889</t>
+    <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344116687775</t>
+    <t xml:space="preserve">1.05344092845917</t>
   </si>
   <si>
     <t xml:space="preserve">1.03581380844116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03077757358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02741980552673</t>
+    <t xml:space="preserve">1.03077745437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12143206596375</t>
+    <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
     <t xml:space="preserve">1.10800170898438</t>
@@ -611,10 +608,10 @@
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20956873893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544444561005</t>
+    <t xml:space="preserve">1.2095685005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544432640076</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872938632965</t>
@@ -623,31 +620,31 @@
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110190868378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18942320346832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759896278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836560726166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16675937175751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14745342731476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13318371772766</t>
+    <t xml:space="preserve">1.19110202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18942308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759884357452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836548805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1667594909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14745330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
     <t xml:space="preserve">1.15668678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16508066654205</t>
+    <t xml:space="preserve">1.16508078575134</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781708717346</t>
@@ -662,16 +659,16 @@
     <t xml:space="preserve">1.20621109008789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24902033805847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2574143409729</t>
+    <t xml:space="preserve">1.24902021884918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26328992843628</t>
+    <t xml:space="preserve">1.26329004764557</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
@@ -683,16 +680,16 @@
     <t xml:space="preserve">1.34303247928619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37409007549286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39255690574646</t>
+    <t xml:space="preserve">1.37409019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38164472579956</t>
+    <t xml:space="preserve">1.38164460659027</t>
   </si>
   <si>
     <t xml:space="preserve">1.37828707695007</t>
@@ -701,28 +698,28 @@
     <t xml:space="preserve">1.39339625835419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38919925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500213623047</t>
+    <t xml:space="preserve">1.38919913768768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3967536687851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157189846039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3724113702774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814154148102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41018402576447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43368709087372</t>
+    <t xml:space="preserve">1.37241125106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35814166069031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41018414497375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
     <t xml:space="preserve">1.41270232200623</t>
@@ -740,19 +737,19 @@
     <t xml:space="preserve">1.43536603450775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44208133220673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47733569145203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5201450586319</t>
+    <t xml:space="preserve">1.44208121299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47733581066132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065983772278</t>
+    <t xml:space="preserve">1.36065995693207</t>
   </si>
   <si>
     <t xml:space="preserve">1.32792329788208</t>
@@ -773,22 +770,22 @@
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617188453674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365358829498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30106258392334</t>
+    <t xml:space="preserve">1.31617176532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
     <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588105201721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29350817203522</t>
+    <t xml:space="preserve">1.27588093280792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29350829124451</t>
   </si>
   <si>
     <t xml:space="preserve">1.34471130371094</t>
@@ -803,25 +800,25 @@
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489034175873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52686011791229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50167834758759</t>
+    <t xml:space="preserve">1.48489022254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.526859998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5016782283783</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609347343445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5193053483963</t>
+    <t xml:space="preserve">1.51930546760559</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729976177216</t>
+    <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957309246063</t>
@@ -830,31 +827,31 @@
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588497638702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245103359222</t>
+    <t xml:space="preserve">1.53588509559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245091438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962110519409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54532849788666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55391371250153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57966935634613</t>
+    <t xml:space="preserve">1.54532861709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55391383171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57966947555542</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704570770264</t>
+    <t xml:space="preserve">1.54704558849335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -863,7 +860,7 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451832294464</t>
+    <t xml:space="preserve">1.57451820373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679165363312</t>
@@ -872,13 +869,13 @@
     <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850874423981</t>
+    <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
+    <t xml:space="preserve">1.53931903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
@@ -887,7 +884,7 @@
     <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5135635137558</t>
+    <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
     <t xml:space="preserve">1.51871466636658</t>
@@ -899,10 +896,10 @@
     <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46806216239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.46806228160858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -923,16 +920,16 @@
     <t xml:space="preserve">1.58482038974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56765007972717</t>
+    <t xml:space="preserve">1.56764996051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57108426094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56421589851379</t>
+    <t xml:space="preserve">1.57108414173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56421601772308</t>
   </si>
   <si>
     <t xml:space="preserve">1.5590648651123</t>
@@ -941,10 +938,10 @@
     <t xml:space="preserve">1.56593310832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5247243642807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143445968628</t>
+    <t xml:space="preserve">1.52472424507141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
     <t xml:space="preserve">1.64234089851379</t>
@@ -956,16 +953,16 @@
     <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995767116547</t>
+    <t xml:space="preserve">1.75995755195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7479385137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71188080310822</t>
+    <t xml:space="preserve">1.74793839454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
     <t xml:space="preserve">1.72561693191528</t>
@@ -977,7 +974,7 @@
     <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69986164569855</t>
+    <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.73076808452606</t>
@@ -986,13 +983,13 @@
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445620059967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67238891124725</t>
+    <t xml:space="preserve">1.72733414173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71445631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
     <t xml:space="preserve">1.62259519100189</t>
@@ -1001,13 +998,13 @@
     <t xml:space="preserve">1.58997142314911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098787784576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45947706699371</t>
+    <t xml:space="preserve">1.56936693191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098799705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45947694778442</t>
   </si>
   <si>
     <t xml:space="preserve">1.46977925300598</t>
@@ -1022,34 +1019,34 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6698135137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.66981339454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885882377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941506385803</t>
+    <t xml:space="preserve">1.60885870456696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57537662982941</t>
+    <t xml:space="preserve">1.588254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739578723907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55133819580078</t>
+    <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
     <t xml:space="preserve">1.5410361289978</t>
@@ -1061,7 +1058,7 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361164569855</t>
+    <t xml:space="preserve">1.54361152648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.54447019100189</t>
@@ -1076,10 +1073,10 @@
     <t xml:space="preserve">1.67410600185394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69127643108368</t>
+    <t xml:space="preserve">1.69556891918182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69127631187439</t>
   </si>
   <si>
     <t xml:space="preserve">1.68698382377625</t>
@@ -1094,16 +1091,16 @@
     <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55820631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669550895691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4809398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5152804851532</t>
+    <t xml:space="preserve">1.55820643901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48093998432159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51528060436249</t>
   </si>
   <si>
     <t xml:space="preserve">1.49811029434204</t>
@@ -1127,7 +1124,7 @@
     <t xml:space="preserve">1.59683966636658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60542464256287</t>
+    <t xml:space="preserve">1.60542488098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.63118028640747</t>
@@ -1136,40 +1133,43 @@
     <t xml:space="preserve">1.64405786991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66122829914093</t>
+    <t xml:space="preserve">1.66122817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839872837067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693557262421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60971736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113227367401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976538181305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264308452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66552090644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6569356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60971736907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113215446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264320373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66552090644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71273934841156</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496964454651</t>
+    <t xml:space="preserve">1.70496952533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725550174713</t>
+    <t xml:space="preserve">1.68725562095642</t>
   </si>
   <si>
     <t xml:space="preserve">1.66068470478058</t>
@@ -1193,28 +1193,28 @@
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854217529297</t>
+    <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6473993062973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6651132106781</t>
+    <t xml:space="preserve">1.64739918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
     <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62968528270721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61197137832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111528396606</t>
+    <t xml:space="preserve">1.62968516349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61197125911713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111540317535</t>
   </si>
   <si>
     <t xml:space="preserve">1.59425723552704</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">1.58097183704376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57654321193695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52340137958527</t>
+    <t xml:space="preserve">1.57654333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52340149879456</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48354482650757</t>
+    <t xml:space="preserve">1.48354494571686</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982872962952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5499724149704</t>
+    <t xml:space="preserve">1.58982884883881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54997229576111</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">1.50125896930695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45697402954102</t>
+    <t xml:space="preserve">1.45697391033173</t>
   </si>
   <si>
     <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47025942802429</t>
+    <t xml:space="preserve">1.47025954723358</t>
   </si>
   <si>
     <t xml:space="preserve">1.51011598110199</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797345161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4924019575119</t>
+    <t xml:space="preserve">1.45254564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797357082367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
     <t xml:space="preserve">1.55440092086792</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">1.7226836681366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73596906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682492256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79796802997589</t>
+    <t xml:space="preserve">1.73596894741058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75368297100067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682480335236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7979679107666</t>
   </si>
   <si>
     <t xml:space="preserve">1.8333957195282</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996687412262</t>
+    <t xml:space="preserve">1.85996675491333</t>
   </si>
   <si>
     <t xml:space="preserve">1.85110974311829</t>
@@ -1373,10 +1373,10 @@
     <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87768077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88653779029846</t>
+    <t xml:space="preserve">1.87768065929413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88653790950775</t>
   </si>
   <si>
     <t xml:space="preserve">1.93082284927368</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510755062103</t>
+    <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253456115723</t>
+    <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
     <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12567639350891</t>
+    <t xml:space="preserve">2.12567663192749</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1079626083374</t>
+    <t xml:space="preserve">2.10796236991882</t>
   </si>
   <si>
     <t xml:space="preserve">2.09910535812378</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310304641724</t>
+    <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
     <t xml:space="preserve">2.18767523765564</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17881846427917</t>
+    <t xml:space="preserve">2.1788182258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -6989,7 +6989,7 @@
         <v>1.125</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>1.125</v>
       </c>
       <c r="G167" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>1.125</v>
       </c>
       <c r="G168" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>1.125</v>
       </c>
       <c r="G169" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>1.11699998378754</v>
       </c>
       <c r="G170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7119,7 +7119,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7171,7 +7171,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7197,7 +7197,7 @@
         <v>1.13100004196167</v>
       </c>
       <c r="G174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7249,7 +7249,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7275,7 +7275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7301,7 +7301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>1.12300002574921</v>
       </c>
       <c r="G180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>1.09099996089935</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G189" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>1.09200000762939</v>
       </c>
       <c r="G190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>1.10199999809265</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>1.11300003528595</v>
       </c>
       <c r="G196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>1.08899998664856</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>1.08200001716614</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>1.07299995422363</v>
       </c>
       <c r="G203" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G206" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>1.06700003147125</v>
       </c>
       <c r="G207" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>1.08800005912781</v>
       </c>
       <c r="G209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8159,7 +8159,7 @@
         <v>1.09700000286102</v>
       </c>
       <c r="G211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>1.07599997520447</v>
       </c>
       <c r="G213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>1.04700005054474</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>1.12899994850159</v>
       </c>
       <c r="G223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G224" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>1.08700001239777</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>1.04200005531311</v>
       </c>
       <c r="G228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>1.05599999427795</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>1.03100001811981</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>1.04900002479553</v>
       </c>
       <c r="G234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>1.05499994754791</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>1.06099998950958</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>1.05900001525879</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>1.04299998283386</v>
       </c>
       <c r="G239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>1.05799996852875</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G243" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G244" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>1.08599996566772</v>
       </c>
       <c r="G246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>1.13399994373322</v>
       </c>
       <c r="G249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>1.1360000371933</v>
       </c>
       <c r="G252" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>1.14900004863739</v>
       </c>
       <c r="G254" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G256" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>1.14400005340576</v>
       </c>
       <c r="G257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G260" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>1.16700005531311</v>
       </c>
       <c r="G261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G274" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G275" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>1.12199997901917</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>1.12399995326996</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10135,7 +10135,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>1.15900003910065</v>
       </c>
       <c r="G288" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>1.15100002288818</v>
       </c>
       <c r="G289" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>1.1690000295639</v>
       </c>
       <c r="G290" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>1.18599998950958</v>
       </c>
       <c r="G291" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>1.17700004577637</v>
       </c>
       <c r="G299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>1.23099994659424</v>
       </c>
       <c r="G302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G303" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>1.25499999523163</v>
       </c>
       <c r="G305" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>1.23399996757507</v>
       </c>
       <c r="G306" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>1.22800004482269</v>
       </c>
       <c r="G307" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>1.21099996566772</v>
       </c>
       <c r="G310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G311" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G312" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G314" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>1.39800000190735</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>1.44099998474121</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>1.44799995422363</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>1.4190000295639</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>1.41700005531311</v>
       </c>
       <c r="G322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>1.39100003242493</v>
       </c>
       <c r="G323" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G324" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G325" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>1.36699998378754</v>
       </c>
       <c r="G326" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G327" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G328" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>1.43900001049042</v>
       </c>
       <c r="G331" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>1.40900003910065</v>
       </c>
       <c r="G332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G333" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>1.43700003623962</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G336" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G337" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>1.50499999523163</v>
       </c>
       <c r="G338" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>1.52100002765656</v>
       </c>
       <c r="G339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G340" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G341" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>1.63699996471405</v>
       </c>
       <c r="G342" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G343" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G344" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G346" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G347" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G350" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G351" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G352" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G353" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G355" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G356" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>1.68299996852875</v>
       </c>
       <c r="G360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G362" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G363" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G364" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G367" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G368" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>1.81099998950958</v>
       </c>
       <c r="G369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G370" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G371" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>1.62100005149841</v>
       </c>
       <c r="G372" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G373" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G374" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G375" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>1.57700002193451</v>
       </c>
       <c r="G376" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G378" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>1.58500003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G380" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>1.567999958992</v>
       </c>
       <c r="G381" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>1.56500005722046</v>
       </c>
       <c r="G382" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G384" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G385" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>1.54100000858307</v>
       </c>
       <c r="G386" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G387" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G388" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G390" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G391" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G392" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G393" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G394" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>1.81900000572205</v>
       </c>
       <c r="G395" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G396" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G397" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G398" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G399" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G400" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>1.75</v>
       </c>
       <c r="G402" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G403" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G404" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G405" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G406" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G407" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G408" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G409" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G410" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G411" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G412" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G413" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G416" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G418" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G419" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>1.82700002193451</v>
       </c>
       <c r="G420" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G421" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>1.80299997329712</v>
       </c>
       <c r="G422" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>1.79299998283386</v>
       </c>
       <c r="G423" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G424" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>1.75</v>
       </c>
       <c r="G425" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>1.73300004005432</v>
       </c>
       <c r="G426" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>1.76300001144409</v>
       </c>
       <c r="G427" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>1.75</v>
       </c>
       <c r="G429" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G430" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G431" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G436" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G437" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G439" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G440" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G441" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G442" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G444" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G445" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G446" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G449" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G453" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G455" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G456" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G459" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G460" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G463" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G464" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>2.01399993896484</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>1.99699997901917</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G478" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G479" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G480" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G481" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G482" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G483" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G484" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G485" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G486" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G487" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G488" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G489" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G490" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>1.86300003528595</v>
       </c>
       <c r="G491" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G492" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G493" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G494" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G497" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>1.84899997711182</v>
       </c>
       <c r="G498" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G499" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G502" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G503" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G504" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G505" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>1.79700005054474</v>
       </c>
       <c r="G506" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>1.78100001811981</v>
       </c>
       <c r="G507" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G508" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>1.79900002479553</v>
       </c>
       <c r="G509" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G510" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G511" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G514" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G521" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G522" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G525" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G526" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G528" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G529" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G530" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G531" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G532" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G533" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G534" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G536" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G537" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G538" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>1.75</v>
       </c>
       <c r="G539" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G540" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G541" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G542" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G543" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G545" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G546" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G547" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G549" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G550" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G552" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G553" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G554" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G555" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G556" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G557" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G558" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>1.75</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>1.75</v>
       </c>
       <c r="G560" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>1.75</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G562" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G564" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G565" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G567" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G568" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G569" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G571" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G572" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G574" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G577" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G579" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G581" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G582" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17831,7 +17831,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17857,7 +17857,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17883,7 +17883,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G585" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17909,7 +17909,7 @@
         <v>1.875</v>
       </c>
       <c r="G586" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17935,7 +17935,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17961,7 +17961,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G588" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17987,7 +17987,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G589" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18013,7 +18013,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G590" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18039,7 +18039,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G591" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18065,7 +18065,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G592" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G593" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G594" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G596" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G598" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G601" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G602" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G603" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G604" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G605" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G606" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G607" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G608" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G609" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G610" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G611" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G612" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G613" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G614" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G615" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G616" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G617" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G618" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G619" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G620" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G621" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G622" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="G624" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="G625" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G627" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G628" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G632" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G635" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19235,7 +19235,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G637" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19261,7 +19261,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G641" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G642" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G645" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G647" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G650" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G651" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G652" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G653" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G654" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G656" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -58425,7 +58425,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6496180556</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>63758</v>
@@ -58446,6 +58446,32 @@
         <v>736</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493402778</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>58015</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.28999996185303</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.28999996185303</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.12507796287537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886657238007</t>
+    <t xml:space="preserve">1.10886645317078</t>
   </si>
   <si>
     <t xml:space="preserve">1.10643470287323</t>
@@ -59,67 +59,67 @@
     <t xml:space="preserve">1.08454918861389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09346556663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617031574249</t>
+    <t xml:space="preserve">1.09346544742584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08617043495178</t>
   </si>
   <si>
     <t xml:space="preserve">1.0683376789093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05374729633331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975932002067566</t>
+    <t xml:space="preserve">1.05374717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531294345856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889276504517</t>
+    <t xml:space="preserve">0.960531115531921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
     <t xml:space="preserve">0.992954134941101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00349164009094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0205135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01727139949799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985659062862396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984879493713</t>
+    <t xml:space="preserve">1.00349175930023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02051377296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985658943653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984939098358</t>
   </si>
   <si>
     <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928108274936676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806521952152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826786398887634</t>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517773151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84299772977829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806522011756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82678633928299</t>
   </si>
   <si>
     <t xml:space="preserve">0.796389818191528</t>
@@ -137,52 +137,52 @@
     <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907843828201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932161033153534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478297710419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936214029788971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275459289551</t>
+    <t xml:space="preserve">0.907843768596649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932161092758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478238105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936213910579681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275638103485</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509161472321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372602462769</t>
+    <t xml:space="preserve">0.943509221076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372423648834</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995385944843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152361869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280189990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511276721954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
+    <t xml:space="preserve">0.995385885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183106422424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152302265167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280130386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511300563812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321864128113</t>
@@ -194,91 +194,91 @@
     <t xml:space="preserve">0.964584171772003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984848439693451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795562267303</t>
+    <t xml:space="preserve">0.984848499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795741081238</t>
   </si>
   <si>
     <t xml:space="preserve">0.996196389198303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456284046173</t>
+    <t xml:space="preserve">0.972689867019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456343650818</t>
   </si>
   <si>
     <t xml:space="preserve">0.971068680286407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96701568365097</t>
+    <t xml:space="preserve">0.96701580286026</t>
   </si>
   <si>
     <t xml:space="preserve">0.962962925434113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971879243850708</t>
+    <t xml:space="preserve">0.971879303455353</t>
   </si>
   <si>
     <t xml:space="preserve">0.950804233551025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790950775146</t>
+    <t xml:space="preserve">0.934592843055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903791069984436</t>
   </si>
   <si>
     <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920002579689026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526682853699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579560279846</t>
+    <t xml:space="preserve">0.920002400875092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579441070557</t>
   </si>
   <si>
     <t xml:space="preserve">0.915139019489288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924055337905884</t>
+    <t xml:space="preserve">0.924055278301239</t>
   </si>
   <si>
     <t xml:space="preserve">0.947561979293823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928918719291687</t>
+    <t xml:space="preserve">0.928918838500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.921623528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918381214141846</t>
+    <t xml:space="preserve">0.91838127374649</t>
   </si>
   <si>
     <t xml:space="preserve">0.917570650577545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904601693153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
+    <t xml:space="preserve">0.904601633548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434091567993</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967044830322</t>
@@ -293,61 +293,61 @@
     <t xml:space="preserve">0.855156481266022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848671972751617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094932556152</t>
+    <t xml:space="preserve">0.848671913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094872951508</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868125557899475</t>
+    <t xml:space="preserve">0.868125736713409</t>
   </si>
   <si>
     <t xml:space="preserve">0.882715940475464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768817901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786376476288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98628956079483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98377138376236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738132953644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768877506256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425420284271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786316871643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986289501190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983771443367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698556423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974538028240204</t>
   </si>
   <si>
     <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968662142753601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895617485046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822730541229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837842464447</t>
+    <t xml:space="preserve">0.968662261962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895557880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822909355164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946838021278381</t>
   </si>
   <si>
     <t xml:space="preserve">0.933407604694366</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.93928337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971180260181427</t>
+    <t xml:space="preserve">0.971180319786072</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
@@ -374,43 +374,43 @@
     <t xml:space="preserve">0.956910669803619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640900611877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948516666889191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334777355194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780246257782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619658470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906547009944916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013661384583</t>
+    <t xml:space="preserve">0.945159137248993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640960216522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948516726493835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923334836959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728780269623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906546950340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013542175293</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247076511383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137954711914</t>
+    <t xml:space="preserve">0.926692426204681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101421833038</t>
@@ -428,67 +428,67 @@
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956005573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262188434601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816659927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189361095428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898153126239777</t>
+    <t xml:space="preserve">0.893956065177917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634770393372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795298576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816600322723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904420375824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189301490784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898153007030487</t>
   </si>
   <si>
     <t xml:space="preserve">0.889759004116058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88136500120163</t>
+    <t xml:space="preserve">0.881365060806274</t>
   </si>
   <si>
     <t xml:space="preserve">0.878847002983093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879686176776886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87297111749649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677314281464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422716617584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328825950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874650001525879</t>
+    <t xml:space="preserve">0.879686236381531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437828540802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872971057891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677195072174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650061130524</t>
   </si>
   <si>
     <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865416586399078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525708198547</t>
+    <t xml:space="preserve">0.865416526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525648593903</t>
   </si>
   <si>
     <t xml:space="preserve">0.885562002658844</t>
@@ -503,76 +503,76 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080179691315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583304405212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092559337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428668022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553140163422</t>
+    <t xml:space="preserve">0.888080239295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583364009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092499732971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959428787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553199768066</t>
   </si>
   <si>
     <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268199443817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377380847931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983437538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501674175262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480372428894</t>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807559013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979574382305145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983258724213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501614570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801428794861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
     <t xml:space="preserve">0.935925781726837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972859084606171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966144025325775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981253027915955</t>
+    <t xml:space="preserve">0.972859144210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96614396572113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.981253087520599</t>
   </si>
   <si>
     <t xml:space="preserve">0.995522797107697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987968385219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001080989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0442076921463</t>
+    <t xml:space="preserve">0.987968325614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04420781135559</t>
   </si>
   <si>
     <t xml:space="preserve">1.03329563140869</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344092845917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03581380844116</t>
+    <t xml:space="preserve">1.05344104766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03581368923187</t>
   </si>
   <si>
     <t xml:space="preserve">1.03077745437622</t>
@@ -599,22 +599,22 @@
     <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12143218517303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800170898438</t>
+    <t xml:space="preserve">1.12143206596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2095685005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544432640076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872938632965</t>
+    <t xml:space="preserve">1.20956861972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544444561005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872926712036</t>
   </si>
   <si>
     <t xml:space="preserve">1.18354737758636</t>
@@ -623,19 +623,19 @@
     <t xml:space="preserve">1.19110202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942308425903</t>
+    <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
     <t xml:space="preserve">1.16759884357452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15836548805237</t>
+    <t xml:space="preserve">1.15836560726166</t>
   </si>
   <si>
     <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14745330810547</t>
+    <t xml:space="preserve">1.14745342731476</t>
   </si>
   <si>
     <t xml:space="preserve">1.13318359851837</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">1.16508078575134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19781708717346</t>
+    <t xml:space="preserve">1.19781720638275</t>
   </si>
   <si>
     <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270802497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20621109008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24902021884918</t>
+    <t xml:space="preserve">1.18270814418793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2062109708786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24902033805847</t>
   </si>
   <si>
     <t xml:space="preserve">1.25741422176361</t>
@@ -677,31 +677,31 @@
     <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34303247928619</t>
+    <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255678653717</t>
+    <t xml:space="preserve">1.39255690574646</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38164460659027</t>
+    <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
     <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39339625835419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919913768768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3967536687851</t>
+    <t xml:space="preserve">1.3933961391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38919925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675390720367</t>
   </si>
   <si>
     <t xml:space="preserve">1.38500225543976</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41018414497375</t>
+    <t xml:space="preserve">1.41018402576447</t>
   </si>
   <si>
     <t xml:space="preserve">1.43368721008301</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">1.42529320716858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42361450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536603450775</t>
+    <t xml:space="preserve">1.42361438274384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43536591529846</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47733581066132</t>
+    <t xml:space="preserve">1.47733569145203</t>
   </si>
   <si>
     <t xml:space="preserve">1.52014493942261</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065995693207</t>
+    <t xml:space="preserve">1.36065971851349</t>
   </si>
   <si>
     <t xml:space="preserve">1.32792329788208</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128094673157</t>
+    <t xml:space="preserve">1.33128082752228</t>
   </si>
   <si>
     <t xml:space="preserve">1.33044159412384</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442035198212</t>
+    <t xml:space="preserve">1.30442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350829124451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471130371094</t>
+    <t xml:space="preserve">1.29350817203522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471118450165</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45299327373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489022254944</t>
+    <t xml:space="preserve">1.45299315452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489034175873</t>
   </si>
   <si>
     <t xml:space="preserve">1.526859998703</t>
@@ -812,25 +812,25 @@
     <t xml:space="preserve">1.53609347343445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51930546760559</t>
+    <t xml:space="preserve">1.51930558681488</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957309246063</t>
+    <t xml:space="preserve">1.52729976177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588509559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245091438293</t>
+    <t xml:space="preserve">1.53588497638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245079517365</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962110519409</t>
@@ -845,61 +845,61 @@
     <t xml:space="preserve">1.57280111312866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57966947555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249904632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54704558849335</t>
+    <t xml:space="preserve">1.57966935634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249892711639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54704582691193</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365965843201</t>
+    <t xml:space="preserve">1.57365953922272</t>
   </si>
   <si>
     <t xml:space="preserve">1.57451820373535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679165363312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219674110413</t>
+    <t xml:space="preserve">1.56679153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54790413379669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53931903839111</t>
+    <t xml:space="preserve">1.54790425300598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48780810832977</t>
+    <t xml:space="preserve">1.48780798912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871466636658</t>
+    <t xml:space="preserve">1.51871478557587</t>
   </si>
   <si>
     <t xml:space="preserve">1.49124205112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46291100978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806228160858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47149634361267</t>
+    <t xml:space="preserve">1.4629111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806216239929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47149622440338</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55563080310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482038974762</t>
+    <t xml:space="preserve">1.5556309223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482027053833</t>
   </si>
   <si>
     <t xml:space="preserve">1.56764996051788</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593310832977</t>
+    <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64234089851379</t>
+    <t xml:space="preserve">1.6423407793045</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75995755195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7170318365097</t>
+    <t xml:space="preserve">1.67067182064056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75995767116547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71703171730042</t>
   </si>
   <si>
     <t xml:space="preserve">1.74793839454651</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561693191528</t>
+    <t xml:space="preserve">1.72561705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905099391937</t>
+    <t xml:space="preserve">1.72905111312866</t>
   </si>
   <si>
     <t xml:space="preserve">1.69986152648926</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733414173126</t>
+    <t xml:space="preserve">1.72733402252197</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445631980896</t>
@@ -992,19 +992,19 @@
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58997142314911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936693191528</t>
+    <t xml:space="preserve">1.6225950717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5899715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.51098799705505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45947694778442</t>
+    <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
     <t xml:space="preserve">1.46977925300598</t>
@@ -1022,43 +1022,43 @@
     <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68269109725952</t>
+    <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885870456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941518306732</t>
+    <t xml:space="preserve">1.60885882377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941506385803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588254570961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5753767490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739578723907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55133831501007</t>
+    <t xml:space="preserve">1.58825445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57537686824799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739602565765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55133843421936</t>
   </si>
   <si>
     <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54275321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901685237885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361152648926</t>
+    <t xml:space="preserve">1.5427531003952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52901697158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
     <t xml:space="preserve">1.54447019100189</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556891918182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69127631187439</t>
+    <t xml:space="preserve">1.69556903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
     <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70415413379669</t>
+    <t xml:space="preserve">1.7041540145874</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
@@ -1106,46 +1106,46 @@
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386581897736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48523247241974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43801403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952519893646</t>
+    <t xml:space="preserve">1.52386569976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48523259162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43801414966583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952507972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683966636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118028640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405786991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122817993164</t>
+    <t xml:space="preserve">1.59683954715729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542476177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118016719818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64405798912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66122829914093</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839872837067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65693557262421</t>
+    <t xml:space="preserve">1.65693581104279</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113227367401</t>
+    <t xml:space="preserve">1.60113215446472</t>
   </si>
   <si>
     <t xml:space="preserve">1.63976538181305</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278736114502</t>
+    <t xml:space="preserve">1.74278724193573</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67397022247314</t>
+    <t xml:space="preserve">1.67397010326385</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854229450226</t>
+    <t xml:space="preserve">1.63854217529297</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954159736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62968516349792</t>
+    <t xml:space="preserve">1.66954171657562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62968528270721</t>
   </si>
   <si>
     <t xml:space="preserve">1.61197125911713</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6075427532196</t>
+    <t xml:space="preserve">1.60754287242889</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097183704376</t>
+    <t xml:space="preserve">1.58097171783447</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583092212677</t>
+    <t xml:space="preserve">1.46583104133606</t>
   </si>
   <si>
     <t xml:space="preserve">1.48354494571686</t>
@@ -1280,40 +1280,40 @@
     <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54997229576111</t>
+    <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125896930695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697391033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540022373199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47025954723358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51011598110199</t>
+    <t xml:space="preserve">1.50125908851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697402954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58540034294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47025942802429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5101158618927</t>
   </si>
   <si>
     <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797357082367</t>
+    <t xml:space="preserve">1.45254552364349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797345161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55440092086792</t>
+    <t xml:space="preserve">1.55440080165863</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69168400764465</t>
+    <t xml:space="preserve">1.68282699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69168412685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939803123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7226836681366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596894741058</t>
+    <t xml:space="preserve">1.70939815044403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72268354892731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596906661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86882364749908</t>
+    <t xml:space="preserve">1.86882376670837</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653790950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93082284927368</t>
+    <t xml:space="preserve">1.88653802871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9308226108551</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0105357170105</t>
+    <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08139157295227</t>
+    <t xml:space="preserve">2.08139133453369</t>
   </si>
   <si>
     <t xml:space="preserve">2.12567663192749</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10796236991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09910535812378</t>
+    <t xml:space="preserve">2.1079626083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0991051197052</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424627304077</t>
+    <t xml:space="preserve">2.21424603462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767523765564</t>
+    <t xml:space="preserve">2.22310304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -58451,7 +58451,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6493402778</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>58015</v>
@@ -58472,6 +58472,32 @@
         <v>748</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.644375</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>14889</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>2.22000002861023</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>2.22000002861023</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>743</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507796287537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886645317078</t>
+    <t xml:space="preserve">1.12507784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886633396149</t>
   </si>
   <si>
     <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07563281059265</t>
+    <t xml:space="preserve">1.07563292980194</t>
   </si>
   <si>
     <t xml:space="preserve">1.08454918861389</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08617043495178</t>
+    <t xml:space="preserve">1.0861701965332</t>
   </si>
   <si>
     <t xml:space="preserve">1.0683376789093</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">1.05374717712402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932121276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901317119598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531115531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954134941101</t>
+    <t xml:space="preserve">0.975932240486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988901436328888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531055927277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99295437335968</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349175930023</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">1.01727151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985658943653107</t>
+    <t xml:space="preserve">0.985659062862396</t>
   </si>
   <si>
     <t xml:space="preserve">1.01646089553833</t>
@@ -107,34 +107,34 @@
     <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928108215332031</t>
+    <t xml:space="preserve">0.928108155727386</t>
   </si>
   <si>
     <t xml:space="preserve">0.913517773151398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84299772977829</t>
+    <t xml:space="preserve">0.842997789382935</t>
   </si>
   <si>
     <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82678633928299</t>
+    <t xml:space="preserve">0.826786398887634</t>
   </si>
   <si>
     <t xml:space="preserve">0.796389818191528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818680584430695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420928001404</t>
+    <t xml:space="preserve">0.818680644035339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420868396759</t>
   </si>
   <si>
     <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905412137508392</t>
+    <t xml:space="preserve">0.905412018299103</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843768596649</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">0.936213910579681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910275638103485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372423648834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00268113613129</t>
+    <t xml:space="preserve">0.91027557849884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319784641266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509161472321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372602462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.002681016922</t>
   </si>
   <si>
     <t xml:space="preserve">0.995385885238647</t>
@@ -179,28 +179,28 @@
     <t xml:space="preserve">0.992143511772156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00511300563812</t>
+    <t xml:space="preserve">1.00511288642883</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01321864128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0010598897934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584171772003</t>
+    <t xml:space="preserve">1.01321876049042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00106000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584112167358</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848499298096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795741081238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196389198303</t>
+    <t xml:space="preserve">0.980795562267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196568012238</t>
   </si>
   <si>
     <t xml:space="preserve">0.972689867019653</t>
@@ -209,67 +209,67 @@
     <t xml:space="preserve">0.939456343650818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971068680286407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701580286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879303455353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804233551025</t>
+    <t xml:space="preserve">0.971068620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962806224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879422664642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
     <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903791069984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89325350522995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002400875092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905436515808</t>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893253445625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002579689026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905496120453</t>
   </si>
   <si>
     <t xml:space="preserve">0.883526563644409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887579441070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139019489288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055278301239</t>
+    <t xml:space="preserve">0.887579500675201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139079093933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055337905884</t>
   </si>
   <si>
     <t xml:space="preserve">0.947561979293823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928918838500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623528003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91838127374649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917570650577545</t>
+    <t xml:space="preserve">0.928918778896332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623587608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91838139295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91757071018219</t>
   </si>
   <si>
     <t xml:space="preserve">0.904601633548737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898117065429688</t>
+    <t xml:space="preserve">0.898117005825043</t>
   </si>
   <si>
     <t xml:space="preserve">0.890011310577393</t>
@@ -278,37 +278,37 @@
     <t xml:space="preserve">0.908654391765594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922434091567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209358692169</t>
+    <t xml:space="preserve">0.922434270381927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967104434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859209299087524</t>
   </si>
   <si>
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156481266022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094872951508</t>
+    <t xml:space="preserve">0.855156421661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671853542328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094932556152</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868125736713409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882715940475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87704199552536</t>
+    <t xml:space="preserve">0.868125557899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716059684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704211473465</t>
   </si>
   <si>
     <t xml:space="preserve">0.899738132953644</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">0.962786316871643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289501190186</t>
+    <t xml:space="preserve">0.986289381980896</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974538028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662261962891</t>
+    <t xml:space="preserve">0.974537909030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304553508759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662202358246</t>
   </si>
   <si>
     <t xml:space="preserve">0.977895557880402</t>
@@ -347,37 +347,37 @@
     <t xml:space="preserve">0.967822909355164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946838021278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93928337097168</t>
+    <t xml:space="preserve">0.946837902069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407545089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604486942291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
     <t xml:space="preserve">0.971180319786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949356138706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231845378876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910669803619</t>
+    <t xml:space="preserve">0.949356019496918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231904983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392492771149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910610198975</t>
   </si>
   <si>
     <t xml:space="preserve">0.945159137248993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942640960216522</t>
+    <t xml:space="preserve">0.942641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">0.923334836959839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915780305862427</t>
+    <t xml:space="preserve">0.915780186653137</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916619777679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906546950340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013542175293</t>
+    <t xml:space="preserve">0.916619718074799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906547009944916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013720989227</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
@@ -410,43 +410,43 @@
     <t xml:space="preserve">0.934247016906738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919137895107269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101421833038</t>
+    <t xml:space="preserve">0.919137954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101481437683</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743892192841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671184062958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905707538127899</t>
+    <t xml:space="preserve">0.910743951797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671124458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905707597732544</t>
   </si>
   <si>
     <t xml:space="preserve">0.893956065177917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895634770393372</t>
+    <t xml:space="preserve">0.895634829998016</t>
   </si>
   <si>
     <t xml:space="preserve">0.894795298576355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913262128829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816600322723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904420375824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189301490784</t>
+    <t xml:space="preserve">0.913262188434601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816779136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904539585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189241886139</t>
   </si>
   <si>
     <t xml:space="preserve">0.898153007030487</t>
@@ -458,28 +458,28 @@
     <t xml:space="preserve">0.881365060806274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878847002983093</t>
+    <t xml:space="preserve">0.878846883773804</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891437828540802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872971057891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677195072174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328706741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874650061130524</t>
+    <t xml:space="preserve">0.891437888145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87297111749649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677254676819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422716617584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328766345978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874649941921234</t>
   </si>
   <si>
     <t xml:space="preserve">0.886401474475861</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">0.880525648593903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885562002658844</t>
+    <t xml:space="preserve">0.885561943054199</t>
   </si>
   <si>
     <t xml:space="preserve">0.890598356723785</t>
@@ -500,13 +500,13 @@
     <t xml:space="preserve">0.888919651508331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875489294528961</t>
+    <t xml:space="preserve">0.875489354133606</t>
   </si>
   <si>
     <t xml:space="preserve">0.888080239295959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911583364009857</t>
+    <t xml:space="preserve">0.911583185195923</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092499732971</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">0.951874256134033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959428787231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553199768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465320110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071257591248</t>
+    <t xml:space="preserve">0.959428906440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553080558777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465141296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071317195892</t>
   </si>
   <si>
     <t xml:space="preserve">0.960268318653107</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">0.988807559013367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975377261638641</t>
+    <t xml:space="preserve">0.975377380847931</t>
   </si>
   <si>
     <t xml:space="preserve">0.979574382305145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966983258724213</t>
+    <t xml:space="preserve">0.966983377933502</t>
   </si>
   <si>
     <t xml:space="preserve">0.969501614570618</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935925781726837</t>
+    <t xml:space="preserve">0.935925841331482</t>
   </si>
   <si>
     <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96614396572113</t>
+    <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
     <t xml:space="preserve">0.981253087520599</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">0.995522797107697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987968325614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001092910767</t>
+    <t xml:space="preserve">0.98796820640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
     <t xml:space="preserve">1.04420781135559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03329563140869</t>
+    <t xml:space="preserve">1.0332955121994</t>
   </si>
   <si>
     <t xml:space="preserve">1.03665328025818</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650774478912</t>
+    <t xml:space="preserve">1.01650762557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143206596375</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">1.16759884357452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15836560726166</t>
+    <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
     <t xml:space="preserve">1.1667594909668</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15668678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508078575134</t>
+    <t xml:space="preserve">1.15668666362762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16508066654205</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781720638275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20788991451263</t>
+    <t xml:space="preserve">1.20788979530334</t>
   </si>
   <si>
     <t xml:space="preserve">1.18270814418793</t>
@@ -659,52 +659,52 @@
     <t xml:space="preserve">1.2062109708786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24902033805847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25741422176361</t>
+    <t xml:space="preserve">1.24902009963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25741410255432</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26329004764557</t>
+    <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29098999500275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303259849548</t>
+    <t xml:space="preserve">1.29098987579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34303247928619</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255690574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660825252533</t>
+    <t xml:space="preserve">1.39255678653717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37660813331604</t>
   </si>
   <si>
     <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828707695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3933961391449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919925689697</t>
+    <t xml:space="preserve">1.37828719615936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39339625835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
     <t xml:space="preserve">1.39675390720367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38500225543976</t>
+    <t xml:space="preserve">1.38500213623047</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157189846039</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41857814788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42529320716858</t>
+    <t xml:space="preserve">1.41857802867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42529332637787</t>
   </si>
   <si>
     <t xml:space="preserve">1.42361438274384</t>
@@ -749,52 +749,52 @@
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065971851349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792329788208</t>
+    <t xml:space="preserve">1.36065983772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792341709137</t>
   </si>
   <si>
     <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31785070896149</t>
+    <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044159412384</t>
+    <t xml:space="preserve">1.33128094673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33044147491455</t>
   </si>
   <si>
     <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31365370750427</t>
+    <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442047119141</t>
+    <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350817203522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471118450165</t>
+    <t xml:space="preserve">1.29350829124451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45215392112732</t>
+    <t xml:space="preserve">1.45215380191803</t>
   </si>
   <si>
     <t xml:space="preserve">1.45299315452576</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5016782283783</t>
+    <t xml:space="preserve">1.50167834758759</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609347343445</t>
@@ -815,25 +815,25 @@
     <t xml:space="preserve">1.51930558681488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50755393505096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52729976177216</t>
+    <t xml:space="preserve">1.50755405426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50240290164948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53588497638702</t>
+    <t xml:space="preserve">1.50240278244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53588509559631</t>
   </si>
   <si>
     <t xml:space="preserve">1.53245079517365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54962110519409</t>
+    <t xml:space="preserve">1.54962122440338</t>
   </si>
   <si>
     <t xml:space="preserve">1.54532861709595</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">1.56249892711639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704582691193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54618716239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365953922272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57451820373535</t>
+    <t xml:space="preserve">1.54704570770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54618728160858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57365965843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57451808452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679153442383</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850862503052</t>
+    <t xml:space="preserve">1.56850850582123</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790425300598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
+    <t xml:space="preserve">1.53931903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48780798912048</t>
+    <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.51356363296509</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">1.46806216239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -908,19 +908,19 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57795226573944</t>
+    <t xml:space="preserve">1.54876267910004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57795238494873</t>
   </si>
   <si>
     <t xml:space="preserve">1.5556309223175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482027053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56764996051788</t>
+    <t xml:space="preserve">1.58482038974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56765007972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6423407793045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69814455509186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67067182064056</t>
+    <t xml:space="preserve">1.64234101772308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69814467430115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
     <t xml:space="preserve">1.75995767116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71703171730042</t>
+    <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
     <t xml:space="preserve">1.74793839454651</t>
@@ -971,28 +971,28 @@
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905111312866</t>
+    <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
     <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076808452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73420214653015</t>
+    <t xml:space="preserve">1.73076820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73420226573944</t>
   </si>
   <si>
     <t xml:space="preserve">1.72733402252197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71445631980896</t>
+    <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6225950717926</t>
+    <t xml:space="preserve">1.62259495258331</t>
   </si>
   <si>
     <t xml:space="preserve">1.5899715423584</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">1.46977925300598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47578883171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61229288578033</t>
+    <t xml:space="preserve">1.4757889509201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61229300498962</t>
   </si>
   <si>
     <t xml:space="preserve">1.66294538974762</t>
@@ -1022,46 +1022,46 @@
     <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885882377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941506385803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60284924507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57537686824799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739602565765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55133843421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5410361289978</t>
+    <t xml:space="preserve">1.60885870456696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941518306732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60284912586212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.588254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753767490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739590644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55133831501007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54103600978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.5427531003952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52901697158813</t>
+    <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54447019100189</t>
+    <t xml:space="preserve">1.5444700717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">1.67410600185394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69127643108368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68698382377625</t>
+    <t xml:space="preserve">1.69556891918182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69127631187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68698370456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.7041540145874</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688767910004</t>
+    <t xml:space="preserve">1.62688755989075</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">1.51528060436249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49811029434204</t>
+    <t xml:space="preserve">1.49811017513275</t>
   </si>
   <si>
     <t xml:space="preserve">1.52386569976807</t>
@@ -1112,49 +1112,49 @@
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801414966583</t>
+    <t xml:space="preserve">1.43801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">1.48952507972717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59254705905914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59683954715729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542476177216</t>
+    <t xml:space="preserve">1.59254693984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.596839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542464256287</t>
   </si>
   <si>
     <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64405798912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122829914093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839872837067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65693581104279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60971736907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113215446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976538181305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264308452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278724193573</t>
+    <t xml:space="preserve">1.64405786991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66122817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693557262421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6097172498703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113203525543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976526260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264296531677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278736114502</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67839860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71382653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70496952533722</t>
+    <t xml:space="preserve">1.67839848995209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71382641792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70496940612793</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1181,31 +1181,31 @@
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725562095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397010326385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65182769298553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63854217529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625619888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64739918708801</t>
+    <t xml:space="preserve">1.68725550174713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67396998405457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65182757377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63854229450226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625607967377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64739906787872</t>
   </si>
   <si>
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954171657562</t>
+    <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
     <t xml:space="preserve">1.62968528270721</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60754287242889</t>
+    <t xml:space="preserve">1.6075427532196</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">1.62082827091217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64297068119049</t>
+    <t xml:space="preserve">1.6429705619812</t>
   </si>
   <si>
     <t xml:space="preserve">1.58097171783447</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340149879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49683058261871</t>
+    <t xml:space="preserve">1.52340137958527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49683046340942</t>
   </si>
   <si>
     <t xml:space="preserve">1.43040299415588</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583104133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48354494571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51897299289703</t>
+    <t xml:space="preserve">1.46583092212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48354482650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51897287368774</t>
   </si>
   <si>
     <t xml:space="preserve">1.52782988548279</t>
@@ -1277,37 +1277,37 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982884883881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5499724149704</t>
+    <t xml:space="preserve">1.58982872962952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54997229576111</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125908851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540034294128</t>
+    <t xml:space="preserve">1.50125896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
     <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5101158618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46140253543854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797345161438</t>
+    <t xml:space="preserve">1.51011598110199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46140241622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4525454044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797333240509</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
@@ -1325,70 +1325,70 @@
     <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69168412685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70939815044403</t>
+    <t xml:space="preserve">1.69168400764465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611251354218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70939791202545</t>
   </si>
   <si>
     <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73596906661987</t>
+    <t xml:space="preserve">1.73596894741058</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682480335236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7979679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.80682492256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79796802997589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82453882694244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78911089897156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84225273132324</t>
+    <t xml:space="preserve">1.82453894615173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78911101818085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84225285053253</t>
   </si>
   <si>
     <t xml:space="preserve">1.85996675491333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85110974311829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86882376670837</t>
+    <t xml:space="preserve">1.85110986232758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653802871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9308226108551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98396456241608</t>
+    <t xml:space="preserve">1.88653790950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082273006439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98396468162537</t>
   </si>
   <si>
     <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99282157421112</t>
+    <t xml:space="preserve">1.99282169342041</t>
   </si>
   <si>
     <t xml:space="preserve">2.03710651397705</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
+    <t xml:space="preserve">2.00167870521545</t>
   </si>
   <si>
     <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0636773109436</t>
+    <t xml:space="preserve">2.06367754936218</t>
   </si>
   <si>
     <t xml:space="preserve">2.04596352577209</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0991051197052</t>
+    <t xml:space="preserve">2.09910535812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,25 +1433,25 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424603462219</t>
+    <t xml:space="preserve">2.21424627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25853109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22310304641724</t>
+    <t xml:space="preserve">2.25853133201599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
     <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1788182258606</t>
+    <t xml:space="preserve">2.16996145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17881846427917</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242327690125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412846565247</t>
+    <t xml:space="preserve">2.12219166755676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412834644318</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071808815002</t>
+    <t xml:space="preserve">2.02157044410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06730723381042</t>
+    <t xml:space="preserve">2.067307472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133883476257</t>
+    <t xml:space="preserve">2.13133907318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940227508545</t>
+    <t xml:space="preserve">2.25940251350403</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288613796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544392108917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226491451263</t>
+    <t xml:space="preserve">1.79288601875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544380187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226503372192</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079121589661</t>
+    <t xml:space="preserve">1.60079109668732</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815419197083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381186008453</t>
+    <t xml:space="preserve">1.46815407276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636988162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381197929382</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745396614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14799582958221</t>
+    <t xml:space="preserve">1.30350124835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745384693146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1479959487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202766895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807507038116</t>
+    <t xml:space="preserve">1.21202754974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807495117188</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094346523285</t>
+    <t xml:space="preserve">1.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699086666107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272789478302</t>
+    <t xml:space="preserve">1.42699098587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295926570892</t>
+    <t xml:space="preserve">1.36295938491821</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2669118642807</t>
+    <t xml:space="preserve">1.26691174507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660137176514</t>
+    <t xml:space="preserve">1.21660125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117507457733</t>
+    <t xml:space="preserve">1.22117495536804</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1571432352066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427484035492</t>
+    <t xml:space="preserve">1.15714335441589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16171705722809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427495956421</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342212677002</t>
+    <t xml:space="preserve">1.14342224597931</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15256953239441</t>
+    <t xml:space="preserve">1.1525696516037</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.394975066185</t>
+    <t xml:space="preserve">1.39497518539429</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838556289673</t>
+    <t xml:space="preserve">1.35838568210602</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5001699924469</t>
+    <t xml:space="preserve">1.50016987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931739807129</t>
+    <t xml:space="preserve">1.509317278862</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055972576141</t>
+    <t xml:space="preserve">1.71055960655212</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141232013702</t>
+    <t xml:space="preserve">1.70141220092773</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513342857361</t>
+    <t xml:space="preserve">1.71513330936432</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745984077454</t>
+    <t xml:space="preserve">1.79745972156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683861732483</t>
+    <t xml:space="preserve">1.69683849811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009662628174</t>
+    <t xml:space="preserve">1.93009650707245</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9483916759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490181922913</t>
+    <t xml:space="preserve">1.94839155673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490193843842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8569176197052</t>
+    <t xml:space="preserve">1.85691773891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924403190613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087021827698</t>
+    <t xml:space="preserve">1.93924391269684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087009906769</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769121170044</t>
+    <t xml:space="preserve">1.68769133090973</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203354358673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598602294922</t>
+    <t xml:space="preserve">1.80203342437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598590373993</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50474369525909</t>
+    <t xml:space="preserve">1.5047435760498</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567529201508</t>
+    <t xml:space="preserve">1.65567541122437</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032811641693</t>
+    <t xml:space="preserve">1.80660712718964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032823562622</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -58477,7 +58477,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.644375</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>14889</v>
@@ -58498,6 +58498,32 @@
         <v>743</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6494791667</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>140532</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>2.39000010490417</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>736</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184443950653</t>
+    <t xml:space="preserve">1.09184432029724</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,73 +47,73 @@
     <t xml:space="preserve">1.12507784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886657238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563281059265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454930782318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346556663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617031574249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06833755970001</t>
+    <t xml:space="preserve">1.10886633396149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643458366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563269138336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08454918861389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09346544742584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08617043495178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0683376789093</t>
   </si>
   <si>
     <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932061672211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901317119598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9605313539505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889276504517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954254150391</t>
+    <t xml:space="preserve">0.975932240486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988901257514954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531175136566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954194545746</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349175930023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0172712802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985659003257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984939098358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266907215118</t>
+    <t xml:space="preserve">1.02051377296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985658943653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108274936676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913517832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
+    <t xml:space="preserve">0.913517773151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997789382935</t>
   </si>
   <si>
     <t xml:space="preserve">0.806521952152252</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">0.818680584430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420987606049</t>
+    <t xml:space="preserve">0.875420928001404</t>
   </si>
   <si>
     <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905412077903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907843887805939</t>
+    <t xml:space="preserve">0.905412137508392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
     <t xml:space="preserve">0.932161033153534</t>
@@ -149,34 +149,34 @@
     <t xml:space="preserve">0.936213970184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910275459289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372662067413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.002681016922</t>
+    <t xml:space="preserve">0.91027557849884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319665431976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509221076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372542858124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00268125534058</t>
   </si>
   <si>
     <t xml:space="preserve">0.995385944843292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949183225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280070781708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
+    <t xml:space="preserve">0.949182987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280189990997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143511772156</t>
   </si>
   <si>
     <t xml:space="preserve">1.00511276721954</t>
@@ -188,28 +188,28 @@
     <t xml:space="preserve">1.01321864128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0010598897934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584112167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795681476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196329593658</t>
+    <t xml:space="preserve">1.00106000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584052562714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984848439693451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795800685883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196508407593</t>
   </si>
   <si>
     <t xml:space="preserve">0.972689926624298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939456224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068739891052</t>
+    <t xml:space="preserve">0.939456403255463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068561077118</t>
   </si>
   <si>
     <t xml:space="preserve">0.96701568365097</t>
@@ -218,136 +218,136 @@
     <t xml:space="preserve">0.962962925434113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971879184246063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804233551025</t>
+    <t xml:space="preserve">0.971879363059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
     <t xml:space="preserve">0.93459278345108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903791010379791</t>
+    <t xml:space="preserve">0.903790950775146</t>
   </si>
   <si>
     <t xml:space="preserve">0.893253564834595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920002579689026</t>
+    <t xml:space="preserve">0.920002520084381</t>
   </si>
   <si>
     <t xml:space="preserve">0.881905496120453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883526682853699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579560279846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139079093933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055278301239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947561919689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918719291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623528003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91838127374649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917570650577545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601693153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898116946220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654391765594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855966985225677</t>
+    <t xml:space="preserve">0.883526563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579500675201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139019489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055397510529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561979293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918838500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623587608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381333351135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91757071018219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601633548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011250972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654451370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434091567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967044830322</t>
   </si>
   <si>
     <t xml:space="preserve">0.859209299087524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.862451612949371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156421661377</t>
+    <t xml:space="preserve">0.862451672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156481266022</t>
   </si>
   <si>
     <t xml:space="preserve">0.848671913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881094872951508</t>
+    <t xml:space="preserve">0.881094932556152</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868125557899475</t>
+    <t xml:space="preserve">0.868125677108765</t>
   </si>
   <si>
     <t xml:space="preserve">0.882716000080109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87704199552536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
+    <t xml:space="preserve">0.877042055130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738132953644</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768877506256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952425420284271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786316871643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986289441585541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771443367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304553508759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662142753601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895557880402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837842464447</t>
+    <t xml:space="preserve">0.952425301074982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786495685577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98628956079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98377138376236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698556423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974538087844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304613113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662261962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822730541229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946838021278381</t>
   </si>
   <si>
     <t xml:space="preserve">0.933407604694366</t>
@@ -356,46 +356,46 @@
     <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93928337097168</t>
+    <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
     <t xml:space="preserve">0.971180260181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949356198310852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231845378876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392373561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910610198975</t>
+    <t xml:space="preserve">0.949356138706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231726169586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910669803619</t>
   </si>
   <si>
     <t xml:space="preserve">0.945159196853638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942640841007233</t>
+    <t xml:space="preserve">0.942641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334777355194</t>
+    <t xml:space="preserve">0.923334956169128</t>
   </si>
   <si>
     <t xml:space="preserve">0.915780246257782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931728780269623</t>
+    <t xml:space="preserve">0.931728839874268</t>
   </si>
   <si>
     <t xml:space="preserve">0.916619658470154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906547069549561</t>
+    <t xml:space="preserve">0.906546950340271</t>
   </si>
   <si>
     <t xml:space="preserve">0.925013661384583</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247076511383</t>
+    <t xml:space="preserve">0.926692366600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247016906738</t>
   </si>
   <si>
     <t xml:space="preserve">0.919137954711914</t>
@@ -422,22 +422,22 @@
     <t xml:space="preserve">0.910743892192841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900671184062958</t>
+    <t xml:space="preserve">0.900671124458313</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956065177917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262188434601</t>
+    <t xml:space="preserve">0.893956124782562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634829998016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795358181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816659927368</t>
@@ -449,16 +449,16 @@
     <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898153126239777</t>
+    <t xml:space="preserve">0.898153007030487</t>
   </si>
   <si>
     <t xml:space="preserve">0.889759004116058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881365060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846943378448</t>
+    <t xml:space="preserve">0.88136500120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878847002983093</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
@@ -470,28 +470,28 @@
     <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677373886108</t>
+    <t xml:space="preserve">0.947677195072174</t>
   </si>
   <si>
     <t xml:space="preserve">0.912422716617584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876328825950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874649941921234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886401414871216</t>
+    <t xml:space="preserve">0.876328706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650061130524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886401534080505</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525767803192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885562002658844</t>
+    <t xml:space="preserve">0.880525708198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885562062263489</t>
   </si>
   <si>
     <t xml:space="preserve">0.890598356723785</t>
@@ -503,58 +503,58 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080179691315</t>
+    <t xml:space="preserve">0.888080239295959</t>
   </si>
   <si>
     <t xml:space="preserve">0.911583304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092559337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874315738678</t>
+    <t xml:space="preserve">0.982092440128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874256134033</t>
   </si>
   <si>
     <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953553140163422</t>
+    <t xml:space="preserve">0.953553020954132</t>
   </si>
   <si>
     <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268259048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807737827301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377321243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979574382305145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983377933502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501614570618</t>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807559013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983199119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501554965973</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801488399506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943480312824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925841331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859144210815</t>
+    <t xml:space="preserve">0.94348019361496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925722122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97285920381546</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -563,22 +563,22 @@
     <t xml:space="preserve">0.981253027915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522797107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968325614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001069068909</t>
+    <t xml:space="preserve">0.995522856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968385219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
     <t xml:space="preserve">1.0442076921463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03329563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03665316104889</t>
+    <t xml:space="preserve">1.0332955121994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
     <t xml:space="preserve">1.04840469360352</t>
@@ -587,28 +587,28 @@
     <t xml:space="preserve">1.05344104766846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077745437622</t>
+    <t xml:space="preserve">1.03581368923187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03077757358551</t>
   </si>
   <si>
     <t xml:space="preserve">1.02741980552673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650762557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12143218517303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800170898438</t>
+    <t xml:space="preserve">1.01650774478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12143206596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2095685005188</t>
+    <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
     <t xml:space="preserve">1.21544432640076</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759884357452</t>
+    <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16675961017609</t>
+    <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745330810547</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15668678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508066654205</t>
+    <t xml:space="preserve">1.15668666362762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16508078575134</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781708717346</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270802497864</t>
+    <t xml:space="preserve">1.18270790576935</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
@@ -677,40 +677,40 @@
     <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34303247928619</t>
+    <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255678653717</t>
+    <t xml:space="preserve">1.39255690574646</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38164460659027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828707695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39339625835419</t>
+    <t xml:space="preserve">1.38164472579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828695774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3933961391449</t>
   </si>
   <si>
     <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3967536687851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500225543976</t>
+    <t xml:space="preserve">1.39675390720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500237464905</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157189846039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3724113702774</t>
+    <t xml:space="preserve">1.37241125106812</t>
   </si>
   <si>
     <t xml:space="preserve">1.35814166069031</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41270232200623</t>
+    <t xml:space="preserve">1.41270220279694</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">1.42529320716858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42361450195312</t>
+    <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
     <t xml:space="preserve">1.43536603450775</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40179014205933</t>
+    <t xml:space="preserve">1.40179002285004</t>
   </si>
   <si>
     <t xml:space="preserve">1.36065983772278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32792341709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32624459266663</t>
+    <t xml:space="preserve">1.32792353630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32624471187592</t>
   </si>
   <si>
     <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32372653484344</t>
+    <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
     <t xml:space="preserve">1.33128094673157</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617176532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365358829498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30106270313263</t>
+    <t xml:space="preserve">1.31617188453674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365382671356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30106282234192</t>
   </si>
   <si>
     <t xml:space="preserve">1.30442035198212</t>
@@ -785,40 +785,40 @@
     <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350829124451</t>
+    <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
     <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35982048511505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45215380191803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45299327373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489034175873</t>
+    <t xml:space="preserve">1.35982024669647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45215392112732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45299339294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489022254944</t>
   </si>
   <si>
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50167834758759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609347343445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51930558681488</t>
+    <t xml:space="preserve">1.5016782283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53609335422516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51930546760559</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729988098145</t>
+    <t xml:space="preserve">1.52729976177216</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957309246063</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588509559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245091438293</t>
+    <t xml:space="preserve">1.53588497638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245079517365</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962110519409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54532861709595</t>
+    <t xml:space="preserve">1.54532849788666</t>
   </si>
   <si>
     <t xml:space="preserve">1.55391383171082</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704558849335</t>
+    <t xml:space="preserve">1.54704570770264</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451820373535</t>
+    <t xml:space="preserve">1.57451808452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55219674110413</t>
+    <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54790413379669</t>
+    <t xml:space="preserve">1.54790425300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.53931903839111</t>
@@ -887,19 +887,19 @@
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871466636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46291100978851</t>
+    <t xml:space="preserve">1.51871478557587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124217033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4629111289978</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149634361267</t>
+    <t xml:space="preserve">1.47149622440338</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -908,22 +908,22 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876279830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57795226573944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55563080310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482038974762</t>
+    <t xml:space="preserve">1.54876267910004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57795238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5556309223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482027053833</t>
   </si>
   <si>
     <t xml:space="preserve">1.56764996051788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56507444381714</t>
+    <t xml:space="preserve">1.56507456302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.57108414173126</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593310832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52472424507141</t>
+    <t xml:space="preserve">1.56593298912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5247243642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64234089851379</t>
+    <t xml:space="preserve">1.6423407793045</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995755195618</t>
+    <t xml:space="preserve">1.75995767116547</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">1.74793839454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71188068389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72561693191528</t>
+    <t xml:space="preserve">1.71188056468964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72561705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076808452606</t>
+    <t xml:space="preserve">1.73076796531677</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733414173126</t>
+    <t xml:space="preserve">1.72733402252197</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445631980896</t>
@@ -992,22 +992,22 @@
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58997142314911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936693191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098799705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45947694778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46977925300598</t>
+    <t xml:space="preserve">1.6225950717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5899715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936705112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098787784576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.459477186203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46977937221527</t>
   </si>
   <si>
     <t xml:space="preserve">1.47578883171082</t>
@@ -1016,34 +1016,34 @@
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294538974762</t>
+    <t xml:space="preserve">1.66294527053833</t>
   </si>
   <si>
     <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68269109725952</t>
+    <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885870456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941518306732</t>
+    <t xml:space="preserve">1.60885882377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941506385803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588254570961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5753767490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739578723907</t>
+    <t xml:space="preserve">1.58825445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57537686824799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739590644836</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
@@ -1052,19 +1052,19 @@
     <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54275321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901685237885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361152648926</t>
+    <t xml:space="preserve">1.5427531003952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52901697158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
     <t xml:space="preserve">1.54447019100189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55047976970673</t>
+    <t xml:space="preserve">1.55047988891602</t>
   </si>
   <si>
     <t xml:space="preserve">1.61400997638702</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69127631187439</t>
+    <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
     <t xml:space="preserve">1.68698382377625</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688767910004</t>
+    <t xml:space="preserve">1.62688755989075</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
@@ -1106,16 +1106,16 @@
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386581897736</t>
+    <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523247241974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952519893646</t>
+    <t xml:space="preserve">1.43801414966583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952507972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.60542488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63118028640747</t>
+    <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.67839872837067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65693557262421</t>
+    <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67397022247314</t>
+    <t xml:space="preserve">1.67397010326385</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854229450226</t>
+    <t xml:space="preserve">1.63854217529297</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954159736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62968516349792</t>
+    <t xml:space="preserve">1.66954171657562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62968528270721</t>
   </si>
   <si>
     <t xml:space="preserve">1.61197125911713</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6075427532196</t>
+    <t xml:space="preserve">1.60754287242889</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097183704376</t>
+    <t xml:space="preserve">1.58097171783447</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583092212677</t>
+    <t xml:space="preserve">1.46583104133606</t>
   </si>
   <si>
     <t xml:space="preserve">1.48354494571686</t>
@@ -1280,40 +1280,40 @@
     <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54997229576111</t>
+    <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125896930695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697391033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540022373199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47025954723358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51011598110199</t>
+    <t xml:space="preserve">1.50125908851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697402954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58540034294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47025942802429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5101158618927</t>
   </si>
   <si>
     <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797357082367</t>
+    <t xml:space="preserve">1.45254552364349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797345161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55440092086792</t>
+    <t xml:space="preserve">1.55440080165863</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69168400764465</t>
+    <t xml:space="preserve">1.68282699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69168412685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939803123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7226836681366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596894741058</t>
+    <t xml:space="preserve">1.70939815044403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72268354892731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596906661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86882364749908</t>
+    <t xml:space="preserve">1.86882376670837</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653790950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93082284927368</t>
+    <t xml:space="preserve">1.88653802871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9308226108551</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0105357170105</t>
+    <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08139157295227</t>
+    <t xml:space="preserve">2.08139133453369</t>
   </si>
   <si>
     <t xml:space="preserve">2.12567663192749</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10796236991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09910535812378</t>
+    <t xml:space="preserve">2.1079626083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0991051197052</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424627304077</t>
+    <t xml:space="preserve">2.21424603462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767523765564</t>
+    <t xml:space="preserve">2.22310304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -58581,7 +58581,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6495949074</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>11289</v>
@@ -58602,6 +58602,32 @@
         <v>746</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6440393519</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>16198</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -47,22 +47,22 @@
     <t xml:space="preserve">1.12507784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886633396149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
+    <t xml:space="preserve">1.10886645317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
     <t xml:space="preserve">1.07563269138336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08454918861389</t>
+    <t xml:space="preserve">1.0845490694046</t>
   </si>
   <si>
     <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08617043495178</t>
+    <t xml:space="preserve">1.08617031574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.0683376789093</t>
@@ -71,55 +71,55 @@
     <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901257514954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531175136566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889252662659</t>
+    <t xml:space="preserve">0.975932121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531294345856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
     <t xml:space="preserve">0.992954194545746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00349175930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02051377296448</t>
+    <t xml:space="preserve">1.00349164009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02051365375519</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985658943653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266847610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108274936676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517773151398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997789382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806521952152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82678633928299</t>
+    <t xml:space="preserve">0.985659062862396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646077632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984879493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266788005829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517892360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997848987579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806522011756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826786398887634</t>
   </si>
   <si>
     <t xml:space="preserve">0.796389818191528</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">0.818680584430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420928001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632318496704</t>
+    <t xml:space="preserve">0.875420987606049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632258892059</t>
   </si>
   <si>
     <t xml:space="preserve">0.905412137508392</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161033153534</t>
+    <t xml:space="preserve">0.932161092758179</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213970184326</t>
+    <t xml:space="preserve">0.936213850975037</t>
   </si>
   <si>
     <t xml:space="preserve">0.91027557849884</t>
@@ -161,31 +161,31 @@
     <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00268125534058</t>
+    <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
     <t xml:space="preserve">0.995385944843292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949182987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152361869812</t>
+    <t xml:space="preserve">0.949183225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152421474457</t>
   </si>
   <si>
     <t xml:space="preserve">0.987280189990997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992143511772156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511276721954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01321864128113</t>
+    <t xml:space="preserve">0.992143630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511288642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01321852207184</t>
   </si>
   <si>
     <t xml:space="preserve">1.00106000900269</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795800685883</t>
+    <t xml:space="preserve">0.980795562267303</t>
   </si>
   <si>
     <t xml:space="preserve">0.996196508407593</t>
@@ -206,28 +206,28 @@
     <t xml:space="preserve">0.972689926624298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939456403255463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068561077118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701568365097</t>
+    <t xml:space="preserve">0.939456224441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068799495697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701580286026</t>
   </si>
   <si>
     <t xml:space="preserve">0.962962925434113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971879363059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95080429315567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93459278345108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790950775146</t>
+    <t xml:space="preserve">0.971879243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934592723846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903790891170502</t>
   </si>
   <si>
     <t xml:space="preserve">0.893253564834595</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">0.920002520084381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526563644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579500675201</t>
+    <t xml:space="preserve">0.881905555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526742458344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579441070557</t>
   </si>
   <si>
     <t xml:space="preserve">0.915139019489288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924055397510529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947561979293823</t>
+    <t xml:space="preserve">0.924055278301239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561919689178</t>
   </si>
   <si>
     <t xml:space="preserve">0.928918838500977</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">0.921623587608337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918381333351135</t>
+    <t xml:space="preserve">0.918381214141846</t>
   </si>
   <si>
     <t xml:space="preserve">0.91757071018219</t>
@@ -269,58 +269,58 @@
     <t xml:space="preserve">0.904601633548737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898117065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
+    <t xml:space="preserve">0.898117005825043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011310577393</t>
   </si>
   <si>
     <t xml:space="preserve">0.908654451370239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922434091567993</t>
+    <t xml:space="preserve">0.922434270381927</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967044830322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451672554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156481266022</t>
+    <t xml:space="preserve">0.859209418296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862451612949371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156421661377</t>
   </si>
   <si>
     <t xml:space="preserve">0.848671913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881094932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262295722961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868125677108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716000080109</t>
+    <t xml:space="preserve">0.881094813346863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262176513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86812561750412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716059684753</t>
   </si>
   <si>
     <t xml:space="preserve">0.877042055130005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899738132953644</t>
+    <t xml:space="preserve">0.899738013744354</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768877506256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952425301074982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786495685577</t>
+    <t xml:space="preserve">0.952425479888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786376476288</t>
   </si>
   <si>
     <t xml:space="preserve">0.98628956079483</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974538087844849</t>
+    <t xml:space="preserve">0.974537968635559</t>
   </si>
   <si>
     <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968662261962891</t>
+    <t xml:space="preserve">0.968662142753601</t>
   </si>
   <si>
     <t xml:space="preserve">0.977895498275757</t>
@@ -347,10 +347,10 @@
     <t xml:space="preserve">0.967822730541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946838021278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
+    <t xml:space="preserve">0.946837961673737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407664299011</t>
   </si>
   <si>
     <t xml:space="preserve">0.937604546546936</t>
@@ -359,43 +359,43 @@
     <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971180260181427</t>
+    <t xml:space="preserve">0.971180379390717</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231726169586</t>
+    <t xml:space="preserve">0.955231964588165</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956910669803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942641019821167</t>
+    <t xml:space="preserve">0.95691055059433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159137248993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640960216522</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334956169128</t>
+    <t xml:space="preserve">0.923334777355194</t>
   </si>
   <si>
     <t xml:space="preserve">0.915780246257782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931728839874268</t>
+    <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
     <t xml:space="preserve">0.916619658470154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906546950340271</t>
+    <t xml:space="preserve">0.906547069549561</t>
   </si>
   <si>
     <t xml:space="preserve">0.925013661384583</t>
@@ -404,16 +404,16 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692366600037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101421833038</t>
+    <t xml:space="preserve">0.926692306995392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247076511383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101541042328</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
@@ -422,25 +422,25 @@
     <t xml:space="preserve">0.910743892192841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900671124458313</t>
+    <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956124782562</t>
+    <t xml:space="preserve">0.893955945968628</t>
   </si>
   <si>
     <t xml:space="preserve">0.895634829998016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894795358181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262128829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816659927368</t>
+    <t xml:space="preserve">0.894795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262188434601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816600322723</t>
   </si>
   <si>
     <t xml:space="preserve">0.909904479980469</t>
@@ -449,40 +449,40 @@
     <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898153007030487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889759004116058</t>
+    <t xml:space="preserve">0.898153126239777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889759063720703</t>
   </si>
   <si>
     <t xml:space="preserve">0.88136500120163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878847002983093</t>
+    <t xml:space="preserve">0.878846943378448</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891437828540802</t>
+    <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
     <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677195072174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422716617584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328706741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874650061130524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886401534080505</t>
+    <t xml:space="preserve">0.947677314281464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422597408295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328766345978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">0.880525708198547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885562062263489</t>
+    <t xml:space="preserve">0.885562002658844</t>
   </si>
   <si>
     <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888919651508331</t>
+    <t xml:space="preserve">0.888919711112976</t>
   </si>
   <si>
     <t xml:space="preserve">0.875489294528961</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">0.888080239295959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911583304405212</t>
+    <t xml:space="preserve">0.911583244800568</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092440128326</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953553020954132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465320110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807559013367</t>
+    <t xml:space="preserve">0.953553140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465439319611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268199443817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807797431946</t>
   </si>
   <si>
     <t xml:space="preserve">0.975377261638641</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">0.97957444190979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966983199119568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501554965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801488399506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94348019361496</t>
+    <t xml:space="preserve">0.966983437538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501435756683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94180154800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480253219604</t>
   </si>
   <si>
     <t xml:space="preserve">0.935925722122192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97285920381546</t>
+    <t xml:space="preserve">0.972859084606171</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -569,10 +569,10 @@
     <t xml:space="preserve">0.987968385219574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04001080989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0442076921463</t>
+    <t xml:space="preserve">1.04001069068909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04420781135559</t>
   </si>
   <si>
     <t xml:space="preserve">1.0332955121994</t>
@@ -584,22 +584,22 @@
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344104766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03581368923187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077757358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02741980552673</t>
+    <t xml:space="preserve">1.05344116687775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03581392765045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03077745437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12143206596375</t>
+    <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
     <t xml:space="preserve">1.10800182819366</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544432640076</t>
+    <t xml:space="preserve">1.21544444561005</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18354737758636</t>
+    <t xml:space="preserve">1.18354749679565</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942320346832</t>
+    <t xml:space="preserve">1.18942308425903</t>
   </si>
   <si>
     <t xml:space="preserve">1.16759896278381</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1667594909668</t>
+    <t xml:space="preserve">1.16675961017609</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745330810547</t>
@@ -644,22 +644,22 @@
     <t xml:space="preserve">1.15668666362762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16508078575134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19781708717346</t>
+    <t xml:space="preserve">1.16508066654205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19781720638275</t>
   </si>
   <si>
     <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270790576935</t>
+    <t xml:space="preserve">1.18270802497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24902021884918</t>
+    <t xml:space="preserve">1.24902033805847</t>
   </si>
   <si>
     <t xml:space="preserve">1.25741422176361</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26329004764557</t>
+    <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34303259849548</t>
+    <t xml:space="preserve">1.34303247928619</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255690574646</t>
+    <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
@@ -695,19 +695,19 @@
     <t xml:space="preserve">1.37828695774078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3933961391449</t>
+    <t xml:space="preserve">1.39339625835419</t>
   </si>
   <si>
     <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39675390720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500237464905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37157189846039</t>
+    <t xml:space="preserve">1.39675378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500225543976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37157201766968</t>
   </si>
   <si>
     <t xml:space="preserve">1.37241125106812</t>
@@ -722,25 +722,25 @@
     <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41270220279694</t>
+    <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529320716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361438274384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536603450775</t>
+    <t xml:space="preserve">1.42529308795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361450195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43536591529846</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47733569145203</t>
+    <t xml:space="preserve">1.47733581066132</t>
   </si>
   <si>
     <t xml:space="preserve">1.52014493942261</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">1.36065983772278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32792353630066</t>
+    <t xml:space="preserve">1.32792329788208</t>
   </si>
   <si>
     <t xml:space="preserve">1.32624471187592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3178505897522</t>
+    <t xml:space="preserve">1.31785070896149</t>
   </si>
   <si>
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128094673157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617188453674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365382671356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30106282234192</t>
+    <t xml:space="preserve">1.33128082752228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33044171333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31617176532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
     <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588093280792</t>
+    <t xml:space="preserve">1.27588081359863</t>
   </si>
   <si>
     <t xml:space="preserve">1.29350817203522</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35982024669647</t>
+    <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45299339294434</t>
+    <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
     <t xml:space="preserve">1.48489022254944</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5016782283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609335422516</t>
+    <t xml:space="preserve">1.50167810916901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53609347343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.51930546760559</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729976177216</t>
+    <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957309246063</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588497638702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245079517365</t>
+    <t xml:space="preserve">1.53588509559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245091438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962110519409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54532849788666</t>
+    <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
     <t xml:space="preserve">1.55391383171082</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704570770264</t>
+    <t xml:space="preserve">1.54704558849335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451808452606</t>
+    <t xml:space="preserve">1.57451820373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55219686031342</t>
+    <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54790425300598</t>
+    <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.53931903839111</t>
@@ -887,19 +887,19 @@
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871478557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124217033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
+    <t xml:space="preserve">1.51871466636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -908,22 +908,22 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876267910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57795238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5556309223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482027053833</t>
+    <t xml:space="preserve">1.54876279830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57795226573944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55563080310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482038974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.56764996051788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56507456302643</t>
+    <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
     <t xml:space="preserve">1.57108414173126</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593298912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5247243642807</t>
+    <t xml:space="preserve">1.56593310832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6423407793045</t>
+    <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995767116547</t>
+    <t xml:space="preserve">1.75995755195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">1.74793839454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71188056468964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72561705112457</t>
+    <t xml:space="preserve">1.71188068389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72561693191528</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076796531677</t>
+    <t xml:space="preserve">1.73076808452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733402252197</t>
+    <t xml:space="preserve">1.72733414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445631980896</t>
@@ -992,22 +992,22 @@
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6225950717926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098787784576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.459477186203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46977937221527</t>
+    <t xml:space="preserve">1.62259519100189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58997142314911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936693191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098799705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45947694778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46977925300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.47578883171082</t>
@@ -1016,34 +1016,34 @@
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294527053833</t>
+    <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885882377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941506385803</t>
+    <t xml:space="preserve">1.60885870456696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57537686824799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739590644836</t>
+    <t xml:space="preserve">1.588254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753767490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739578723907</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
@@ -1052,19 +1052,19 @@
     <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5427531003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901697158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361164569855</t>
+    <t xml:space="preserve">1.54275321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52901685237885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361152648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.54447019100189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55047988891602</t>
+    <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
     <t xml:space="preserve">1.61400997638702</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69127643108368</t>
+    <t xml:space="preserve">1.69127631187439</t>
   </si>
   <si>
     <t xml:space="preserve">1.68698382377625</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688755989075</t>
+    <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
@@ -1106,16 +1106,16 @@
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386569976807</t>
+    <t xml:space="preserve">1.52386581897736</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523247241974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801414966583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952507972717</t>
+    <t xml:space="preserve">1.43801403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952519893646</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.60542488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63118016719818</t>
+    <t xml:space="preserve">1.63118028640747</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.67839872837067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6569356918335</t>
+    <t xml:space="preserve">1.65693557262421</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67397010326385</t>
+    <t xml:space="preserve">1.67397022247314</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854217529297</t>
+    <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954171657562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62968528270721</t>
+    <t xml:space="preserve">1.66954159736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62968516349792</t>
   </si>
   <si>
     <t xml:space="preserve">1.61197125911713</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60754287242889</t>
+    <t xml:space="preserve">1.6075427532196</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097171783447</t>
+    <t xml:space="preserve">1.58097183704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583104133606</t>
+    <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
     <t xml:space="preserve">1.48354494571686</t>
@@ -1280,40 +1280,40 @@
     <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5499724149704</t>
+    <t xml:space="preserve">1.54997229576111</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125908851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540034294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47025942802429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5101158618927</t>
+    <t xml:space="preserve">1.50125896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58540022373199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47025954723358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
     <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797345161438</t>
+    <t xml:space="preserve">1.45254564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797357082367</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55440080165863</t>
+    <t xml:space="preserve">1.55440092086792</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69168412685394</t>
+    <t xml:space="preserve">1.6828271150589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69168400764465</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939815044403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72268354892731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596906661987</t>
+    <t xml:space="preserve">1.70939803123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7226836681366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596894741058</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86882376670837</t>
+    <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653802871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9308226108551</t>
+    <t xml:space="preserve">1.88653790950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01053547859192</t>
+    <t xml:space="preserve">2.0105357170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08139133453369</t>
+    <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12567663192749</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1079626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0991051197052</t>
+    <t xml:space="preserve">2.10796236991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09910535812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424603462219</t>
+    <t xml:space="preserve">2.21424627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310304641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767547607422</t>
+    <t xml:space="preserve">2.22310328483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767523765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -58607,7 +58607,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6440393519</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>16198</v>
@@ -58628,6 +58628,32 @@
         <v>724</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6493287037</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>9479</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>2.22000002861023</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>2.22000002861023</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>743</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -44,40 +44,40 @@
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886645317078</t>
+    <t xml:space="preserve">1.12507796287537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886657238007</t>
   </si>
   <si>
     <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07563269138336</t>
+    <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
     <t xml:space="preserve">1.0845490694046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09346544742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617031574249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0683376789093</t>
+    <t xml:space="preserve">1.09346556663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0861701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06833755970001</t>
   </si>
   <si>
     <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932121276855</t>
+    <t xml:space="preserve">0.9759321808815</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531294345856</t>
+    <t xml:space="preserve">0.960531234741211</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">1.00349164009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
+    <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727151870728</t>
@@ -98,64 +98,64 @@
     <t xml:space="preserve">0.985659062862396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984879493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266788005829</t>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913517892360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
+    <t xml:space="preserve">0.913517832756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997789382935</t>
   </si>
   <si>
     <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826786398887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389818191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680584430695</t>
+    <t xml:space="preserve">0.82678633928299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389877796173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680644035339</t>
   </si>
   <si>
     <t xml:space="preserve">0.875420987606049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891632258892059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412137508392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907843828201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932161092758179</t>
+    <t xml:space="preserve">0.891632318496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412077903748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907843887805939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932160973548889</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213850975037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91027557849884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319665431976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509221076965</t>
+    <t xml:space="preserve">0.936213970184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275459289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509101867676</t>
   </si>
   <si>
     <t xml:space="preserve">0.948372542858124</t>
@@ -164,76 +164,76 @@
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995385944843292</t>
+    <t xml:space="preserve">0.995385825634003</t>
   </si>
   <si>
     <t xml:space="preserve">0.949183225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962152421474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280189990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511288642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916576385498</t>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280130386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99214369058609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511276721954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916564464569</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321852207184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00106000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584052562714</t>
+    <t xml:space="preserve">1.0010598897934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584171772003</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795562267303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
+    <t xml:space="preserve">0.980795621871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196448802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689867019653</t>
   </si>
   <si>
     <t xml:space="preserve">0.939456224441528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971068799495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701580286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804233551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790891170502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893253564834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002520084381</t>
+    <t xml:space="preserve">0.971068680286407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015624046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962985038757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879184246063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95080429315567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93459278345108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89325350522995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002460479736</t>
   </si>
   <si>
     <t xml:space="preserve">0.881905555725098</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">0.915139019489288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924055278301239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947561919689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918838500977</t>
+    <t xml:space="preserve">0.924055218696594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561979293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918778896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.921623587608337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918381214141846</t>
+    <t xml:space="preserve">0.91838127374649</t>
   </si>
   <si>
     <t xml:space="preserve">0.91757071018219</t>
@@ -269,103 +269,103 @@
     <t xml:space="preserve">0.904601633548737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434270381927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209418296814</t>
+    <t xml:space="preserve">0.898117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011250972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434151172638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967104434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859209358692169</t>
   </si>
   <si>
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671913146973</t>
+    <t xml:space="preserve">0.855156362056732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671972751617</t>
   </si>
   <si>
     <t xml:space="preserve">0.881094813346863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863262176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86812561750412</t>
+    <t xml:space="preserve">0.863262295722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868125677108765</t>
   </si>
   <si>
     <t xml:space="preserve">0.882716059684753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768877506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786376476288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98628956079483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98377138376236</t>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425599098206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786436080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986289620399475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983771443367004</t>
   </si>
   <si>
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974537968635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
+    <t xml:space="preserve">0.974538028240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304493904114</t>
   </si>
   <si>
     <t xml:space="preserve">0.968662142753601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977895498275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822730541229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837961673737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407664299011</t>
+    <t xml:space="preserve">0.977895557880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946838021278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407604694366</t>
   </si>
   <si>
     <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939283311367035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180379390717</t>
+    <t xml:space="preserve">0.93928337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180319786072</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231964588165</t>
+    <t xml:space="preserve">0.955231845378876</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392433166504</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">0.95691055059433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945159137248993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640960216522</t>
+    <t xml:space="preserve">0.945159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640841007233</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334777355194</t>
+    <t xml:space="preserve">0.923334836959839</t>
   </si>
   <si>
     <t xml:space="preserve">0.915780246257782</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916619658470154</t>
+    <t xml:space="preserve">0.916619718074799</t>
   </si>
   <si>
     <t xml:space="preserve">0.906547069549561</t>
@@ -404,46 +404,46 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247076511383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137895107269</t>
+    <t xml:space="preserve">0.926692366600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137835502625</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101541042328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908225774765015</t>
+    <t xml:space="preserve">0.90822571516037</t>
   </si>
   <si>
     <t xml:space="preserve">0.910743892192841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900671184062958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905707538127899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893955945968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634829998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795417785645</t>
+    <t xml:space="preserve">0.900671124458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905707597732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956065177917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634770393372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795358181</t>
   </si>
   <si>
     <t xml:space="preserve">0.913262188434601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920816600322723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904479980469</t>
+    <t xml:space="preserve">0.920816719532013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904420375824</t>
   </si>
   <si>
     <t xml:space="preserve">0.903189301490784</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">0.889759063720703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88136500120163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846943378448</t>
+    <t xml:space="preserve">0.881365060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878847002983093</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87297111749649</t>
+    <t xml:space="preserve">0.872971057891846</t>
   </si>
   <si>
     <t xml:space="preserve">0.947677314281464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912422597408295</t>
+    <t xml:space="preserve">0.912422657012939</t>
   </si>
   <si>
     <t xml:space="preserve">0.876328766345978</t>
@@ -485,22 +485,22 @@
     <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865416586399078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525708198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885562002658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890598356723785</t>
+    <t xml:space="preserve">0.865416526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525648593903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885561943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89059841632843</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919711112976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875489294528961</t>
+    <t xml:space="preserve">0.875489354133606</t>
   </si>
   <si>
     <t xml:space="preserve">0.888080239295959</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.911583244800568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092440128326</t>
+    <t xml:space="preserve">0.982092499732971</t>
   </si>
   <si>
     <t xml:space="preserve">0.951874256134033</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953553140163422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465439319611</t>
+    <t xml:space="preserve">0.953553080558777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
     <t xml:space="preserve">0.956071376800537</t>
@@ -530,55 +530,55 @@
     <t xml:space="preserve">0.960268199443817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988807797431946</t>
+    <t xml:space="preserve">0.988807678222656</t>
   </si>
   <si>
     <t xml:space="preserve">0.975377261638641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983437538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501435756683</t>
+    <t xml:space="preserve">0.979574382305145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983377933502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501614570618</t>
   </si>
   <si>
     <t xml:space="preserve">0.94180154800415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943480253219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925722122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859084606171</t>
+    <t xml:space="preserve">0.943480312824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925781726837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253027915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968385219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001069068909</t>
+    <t xml:space="preserve">0.981253087520599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968444824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
     <t xml:space="preserve">1.04420781135559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0332955121994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03665328025818</t>
+    <t xml:space="preserve">1.03329563140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03665316104889</t>
   </si>
   <si>
     <t xml:space="preserve">1.04840469360352</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">1.05344116687775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581392765045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077745437622</t>
+    <t xml:space="preserve">1.03581380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03077733516693</t>
   </si>
   <si>
     <t xml:space="preserve">1.02741992473602</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10800182819366</t>
+    <t xml:space="preserve">1.10800170898438</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20956861972809</t>
+    <t xml:space="preserve">1.20956873893738</t>
   </si>
   <si>
     <t xml:space="preserve">1.21544444561005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20872938632965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18354749679565</t>
+    <t xml:space="preserve">1.20872926712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942308425903</t>
+    <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
     <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15836548805237</t>
+    <t xml:space="preserve">1.15836560726166</t>
   </si>
   <si>
     <t xml:space="preserve">1.16675961017609</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15668666362762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508066654205</t>
+    <t xml:space="preserve">1.15668678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16508078575134</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781720638275</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270802497864</t>
+    <t xml:space="preserve">1.18270814418793</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">1.34303247928619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37409019470215</t>
+    <t xml:space="preserve">1.37409007549286</t>
   </si>
   <si>
     <t xml:space="preserve">1.39255678653717</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828695774078</t>
+    <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.39339625835419</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39675378799438</t>
+    <t xml:space="preserve">1.39675390720367</t>
   </si>
   <si>
     <t xml:space="preserve">1.38500225543976</t>
@@ -719,19 +719,19 @@
     <t xml:space="preserve">1.41018414497375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43368721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41270232200623</t>
+    <t xml:space="preserve">1.43368709087372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41270244121552</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529308795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361450195312</t>
+    <t xml:space="preserve">1.42529320716858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
     <t xml:space="preserve">1.43536591529846</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">1.47733581066132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52014493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40179002285004</t>
+    <t xml:space="preserve">1.5201450586319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
     <t xml:space="preserve">1.36065983772278</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">1.32792329788208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32624471187592</t>
+    <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
     <t xml:space="preserve">1.31785070896149</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044171333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617176532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365370750427</t>
+    <t xml:space="preserve">1.33128094673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33044159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31617188453674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">1.27588081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350817203522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471130371094</t>
+    <t xml:space="preserve">1.29350829124451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471118450165</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45215392112732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45299327373505</t>
+    <t xml:space="preserve">1.45215380191803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45299315452576</t>
   </si>
   <si>
     <t xml:space="preserve">1.48489022254944</t>
@@ -806,28 +806,28 @@
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50167810916901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609347343445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51930546760559</t>
+    <t xml:space="preserve">1.5016782283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53609359264374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51930558681488</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957309246063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50240290164948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53588509559631</t>
+    <t xml:space="preserve">1.52729976177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957321166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50240278244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53588497638702</t>
   </si>
   <si>
     <t xml:space="preserve">1.53245091438293</t>
@@ -845,28 +845,28 @@
     <t xml:space="preserve">1.57280111312866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57966947555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249904632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54704558849335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54618716239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365965843201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57451820373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679165363312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219674110413</t>
+    <t xml:space="preserve">1.57966923713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249892711639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54704570770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54618728160858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57365953922272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57451832294464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931903839111</t>
+    <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48780810832977</t>
+    <t xml:space="preserve">1.48780798912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.51356363296509</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46806228160858</t>
+    <t xml:space="preserve">1.46806216239929</t>
   </si>
   <si>
     <t xml:space="preserve">1.47149634361267</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">1.55563080310822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482038974762</t>
+    <t xml:space="preserve">1.58482027053833</t>
   </si>
   <si>
     <t xml:space="preserve">1.56764996051788</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593310832977</t>
+    <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61143434047699</t>
+    <t xml:space="preserve">1.61143445968628</t>
   </si>
   <si>
     <t xml:space="preserve">1.64234089851379</t>
@@ -950,43 +950,43 @@
     <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75995755195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7170318365097</t>
+    <t xml:space="preserve">1.67067182064056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75995767116547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71703171730042</t>
   </si>
   <si>
     <t xml:space="preserve">1.74793839454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71188068389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72561693191528</t>
+    <t xml:space="preserve">1.71188080310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72561705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905099391937</t>
+    <t xml:space="preserve">1.72905111312866</t>
   </si>
   <si>
     <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076808452606</t>
+    <t xml:space="preserve">1.73076820373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733414173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445631980896</t>
+    <t xml:space="preserve">1.72733402252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
     <t xml:space="preserve">1.67238903045654</t>
@@ -998,13 +998,13 @@
     <t xml:space="preserve">1.58997142314911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56936693191528</t>
+    <t xml:space="preserve">1.56936705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.51098799705505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45947694778442</t>
+    <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
     <t xml:space="preserve">1.46977925300598</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66981339454651</t>
+    <t xml:space="preserve">1.6698135137558</t>
   </si>
   <si>
     <t xml:space="preserve">1.68269109725952</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885870456696</t>
+    <t xml:space="preserve">1.60885882377625</t>
   </si>
   <si>
     <t xml:space="preserve">1.59941518306732</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739578723907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55133831501007</t>
+    <t xml:space="preserve">1.58739590644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55133843421936</t>
   </si>
   <si>
     <t xml:space="preserve">1.5410361289978</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54447019100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047976970673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.54361164569855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5444700717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55047965049744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556891918182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69127631187439</t>
+    <t xml:space="preserve">1.69556903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
     <t xml:space="preserve">1.68698382377625</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">1.55820643901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50669538974762</t>
+    <t xml:space="preserve">1.50669550895691</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
@@ -1106,61 +1106,61 @@
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386581897736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48523247241974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43801403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952519893646</t>
+    <t xml:space="preserve">1.52386569976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48523259162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43801414966583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952507972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683966636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118028640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405786991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122817993164</t>
+    <t xml:space="preserve">1.59683954715729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542476177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118016719818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64405798912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66122829914093</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839872837067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65693557262421</t>
+    <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113227367401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976538181305</t>
+    <t xml:space="preserve">1.60113215446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976526260376</t>
   </si>
   <si>
     <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278736114502</t>
+    <t xml:space="preserve">1.74278724193573</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71273922920227</t>
+    <t xml:space="preserve">1.71273934841156</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
@@ -58633,7 +58633,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6493287037</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>9479</v>
@@ -58654,6 +58654,32 @@
         <v>743</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.649375</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184443950653</t>
+    <t xml:space="preserve">1.09184432029724</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">1.12507784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563281059265</t>
+    <t xml:space="preserve">1.10886657238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563292980194</t>
   </si>
   <si>
     <t xml:space="preserve">1.08454918861389</t>
@@ -71,22 +71,22 @@
     <t xml:space="preserve">1.05374717712402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932121276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901436328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531234741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99295437335968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349164009094</t>
+    <t xml:space="preserve">0.9759321808815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531115531921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349175930023</t>
   </si>
   <si>
     <t xml:space="preserve">1.02051365375519</t>
@@ -95,61 +95,61 @@
     <t xml:space="preserve">1.01727139949799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985658943653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984939098358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266847610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108155727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517773151398</t>
+    <t xml:space="preserve">0.985658884048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979985058307648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266907215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517892360687</t>
   </si>
   <si>
     <t xml:space="preserve">0.842997848987579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806522011756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826786398887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389758586884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680644035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420928001404</t>
+    <t xml:space="preserve">0.806521952152252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82678633928299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389818191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680584430695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420868396759</t>
   </si>
   <si>
     <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905412077903748</t>
+    <t xml:space="preserve">0.905412018299103</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843887805939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161033153534</t>
+    <t xml:space="preserve">0.932160973548889</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213970184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91027569770813</t>
+    <t xml:space="preserve">0.936213910579681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275638103485</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319725036621</t>
@@ -161,28 +161,28 @@
     <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00268113613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94918304681778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152421474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280249595642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511300563812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
+    <t xml:space="preserve">1.002681016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995385944843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280189990997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511276721954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321864128113</t>
@@ -194,163 +194,163 @@
     <t xml:space="preserve">0.964584112167358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795621871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196568012238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689986228943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967015743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962806224823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879303455353</t>
+    <t xml:space="preserve">0.984848380088806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795681476593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196448802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689926624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068739891052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701568365097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962925434113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879184246063</t>
   </si>
   <si>
     <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93459290266037</t>
+    <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
     <t xml:space="preserve">0.903791010379791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893253564834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526563644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579560279846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139019489288</t>
+    <t xml:space="preserve">0.89325350522995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002520084381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526623249054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579500675201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139079093933</t>
   </si>
   <si>
     <t xml:space="preserve">0.924055278301239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947561979293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918778896332</t>
+    <t xml:space="preserve">0.947562038898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918719291687</t>
   </si>
   <si>
     <t xml:space="preserve">0.921623647212982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918381333351135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
+    <t xml:space="preserve">0.918381452560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917570650577545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601633548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898116886615753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011370182037</t>
   </si>
   <si>
     <t xml:space="preserve">0.908654391765594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922434210777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967104434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451672554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671853542328</t>
+    <t xml:space="preserve">0.922434151172638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855966985225677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85920923948288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862451612949371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156362056732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671913146973</t>
   </si>
   <si>
     <t xml:space="preserve">0.881094932556152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863262295722961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868125557899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716000080109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425360679626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786316871643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986289381980896</t>
+    <t xml:space="preserve">0.863262355327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86812561750412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716119289398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738013744354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768996715546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425420284271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786376476288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986289441585541</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973698556423187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537909030914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304553508759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662202358246</t>
+    <t xml:space="preserve">0.973698616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97453784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662261962891</t>
   </si>
   <si>
     <t xml:space="preserve">0.977895557880402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967822909355164</t>
+    <t xml:space="preserve">0.967822849750519</t>
   </si>
   <si>
     <t xml:space="preserve">0.946837902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933407545089722</t>
+    <t xml:space="preserve">0.933407485485077</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319784641266</t>
@@ -359,16 +359,16 @@
     <t xml:space="preserve">0.937604486942291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939283311367035</t>
+    <t xml:space="preserve">0.93928325176239</t>
   </si>
   <si>
     <t xml:space="preserve">0.971180319786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949356019496918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231904983521</t>
+    <t xml:space="preserve">0.949356198310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231785774231</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392492771149</t>
@@ -377,106 +377,106 @@
     <t xml:space="preserve">0.956910610198975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945159137248993</t>
+    <t xml:space="preserve">0.945159196853638</t>
   </si>
   <si>
     <t xml:space="preserve">0.942641019821167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948516726493835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780186653137</t>
+    <t xml:space="preserve">0.948516666889191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923334777355194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780305862427</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916619718074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906547009944916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013720989227</t>
+    <t xml:space="preserve">0.916619777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906546950340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013601779938</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692426204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101481437683</t>
+    <t xml:space="preserve">0.926692306995392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934246957302094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101541042328</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743951797485</t>
+    <t xml:space="preserve">0.91074401140213</t>
   </si>
   <si>
     <t xml:space="preserve">0.900671124458313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905707597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956065177917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634829998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795298576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262188434601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816779136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904539585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189241886139</t>
+    <t xml:space="preserve">0.905707478523254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956124782562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795358181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816719532013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
     <t xml:space="preserve">0.898153007030487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889759004116058</t>
+    <t xml:space="preserve">0.889758944511414</t>
   </si>
   <si>
     <t xml:space="preserve">0.881365060806274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878846883773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686236381531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
+    <t xml:space="preserve">0.878846943378448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686295986176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
     <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677254676819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422716617584</t>
+    <t xml:space="preserve">0.947677373886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422776222229</t>
   </si>
   <si>
     <t xml:space="preserve">0.876328766345978</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">0.874649941921234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401474475861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865416526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525648593903</t>
+    <t xml:space="preserve">0.886401414871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865416586399078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525767803192</t>
   </si>
   <si>
     <t xml:space="preserve">0.885561943054199</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888919651508331</t>
+    <t xml:space="preserve">0.888919591903687</t>
   </si>
   <si>
     <t xml:space="preserve">0.875489354133606</t>
@@ -509,61 +509,61 @@
     <t xml:space="preserve">0.888080239295959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911583185195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092499732971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428906440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553080558777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465141296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071317195892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807559013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377380847931</t>
+    <t xml:space="preserve">0.911583304405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092440128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95942884683609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553199768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807618618011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
   </si>
   <si>
     <t xml:space="preserve">0.979574382305145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966983377933502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501614570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801428794861</t>
+    <t xml:space="preserve">0.966983318328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501554965973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94180154800415</t>
   </si>
   <si>
     <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935925841331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859144210815</t>
+    <t xml:space="preserve">0.935925781726837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97285920381546</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253087520599</t>
+    <t xml:space="preserve">0.981253147125244</t>
   </si>
   <si>
     <t xml:space="preserve">0.995522797107697</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04420781135559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0332955121994</t>
+    <t xml:space="preserve">1.0442076921463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
     <t xml:space="preserve">1.03665328025818</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344104766846</t>
+    <t xml:space="preserve">1.05344116687775</t>
   </si>
   <si>
     <t xml:space="preserve">1.03581368923187</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">1.03077745437622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02741992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01650762557983</t>
+    <t xml:space="preserve">1.02741968631744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143206596375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10800182819366</t>
+    <t xml:space="preserve">1.10800194740295</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544444561005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872926712036</t>
+    <t xml:space="preserve">1.21544432640076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110202789307</t>
+    <t xml:space="preserve">1.19110190868378</t>
   </si>
   <si>
     <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759884357452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836548805237</t>
+    <t xml:space="preserve">1.16759896278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836560726166</t>
   </si>
   <si>
     <t xml:space="preserve">1.1667594909668</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">1.16508066654205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19781720638275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20788979530334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18270814418793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2062109708786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24902009963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25741410255432</t>
+    <t xml:space="preserve">1.19781708717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20788991451263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18270802497864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20621109008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24902021884918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
@@ -674,52 +674,52 @@
     <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27672028541565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29098987579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303247928619</t>
+    <t xml:space="preserve">1.27672040462494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29098999500275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255678653717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38164472579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828719615936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39339625835419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919913768768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675390720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500213623047</t>
+    <t xml:space="preserve">1.39255690574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37660837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38164460659027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828695774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3933961391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38919925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157189846039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37241125106812</t>
+    <t xml:space="preserve">1.37241148948669</t>
   </si>
   <si>
     <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41018402576447</t>
+    <t xml:space="preserve">1.41018390655518</t>
   </si>
   <si>
     <t xml:space="preserve">1.43368721008301</t>
@@ -728,25 +728,25 @@
     <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41857802867889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42529332637787</t>
+    <t xml:space="preserve">1.41857814788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42529320716858</t>
   </si>
   <si>
     <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536591529846</t>
+    <t xml:space="preserve">1.43536615371704</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47733569145203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014493942261</t>
+    <t xml:space="preserve">1.47733557224274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52014482021332</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">1.32792341709137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32624459266663</t>
+    <t xml:space="preserve">1.32624471187592</t>
   </si>
   <si>
     <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32372641563416</t>
+    <t xml:space="preserve">1.32372653484344</t>
   </si>
   <si>
     <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33044147491455</t>
+    <t xml:space="preserve">1.33044171333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.31617176532745</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30106270313263</t>
+    <t xml:space="preserve">1.30106258392334</t>
   </si>
   <si>
     <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588093280792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29350829124451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35982036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45215380191803</t>
+    <t xml:space="preserve">1.27588081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29350817203522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471118450165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35982048511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
     <t xml:space="preserve">1.45299315452576</t>
@@ -806,34 +806,34 @@
     <t xml:space="preserve">1.48489034175873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.526859998703</t>
+    <t xml:space="preserve">1.52686011791229</t>
   </si>
   <si>
     <t xml:space="preserve">1.50167834758759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53609347343445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51930558681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50755405426025</t>
+    <t xml:space="preserve">1.53609359264374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51930546760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
     <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50240278244019</t>
+    <t xml:space="preserve">1.51957309246063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50240302085876</t>
   </si>
   <si>
     <t xml:space="preserve">1.53588509559631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53245079517365</t>
+    <t xml:space="preserve">1.53245091438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962122440338</t>
@@ -842,25 +842,25 @@
     <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55391383171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280111312866</t>
+    <t xml:space="preserve">1.55391371250153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280123233795</t>
   </si>
   <si>
     <t xml:space="preserve">1.57966935634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249892711639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54704570770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54618728160858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365965843201</t>
+    <t xml:space="preserve">1.56249904632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54704558849335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54618716239929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57365953922272</t>
   </si>
   <si>
     <t xml:space="preserve">1.57451808452606</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850850582123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54790425300598</t>
+    <t xml:space="preserve">1.56850862503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.53931903839111</t>
@@ -887,19 +887,19 @@
     <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51356363296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871478557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806216239929</t>
+    <t xml:space="preserve">1.5135635137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51871466636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124217033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806240081787</t>
   </si>
   <si>
     <t xml:space="preserve">1.47149634361267</t>
@@ -908,55 +908,55 @@
     <t xml:space="preserve">1.49381768703461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48609101772308</t>
+    <t xml:space="preserve">1.48609089851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.54876267910004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57795238494873</t>
+    <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
     <t xml:space="preserve">1.5556309223175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482038974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56765007972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56507444381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57108414173126</t>
+    <t xml:space="preserve">1.58482027053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56764996051788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56507456302643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57108426094055</t>
   </si>
   <si>
     <t xml:space="preserve">1.56421601772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5590648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56593298912048</t>
+    <t xml:space="preserve">1.55906498432159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56593310832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61143434047699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64234101772308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69814467430115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75995767116547</t>
+    <t xml:space="preserve">1.6114342212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64234089851379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69814455509186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67067205905914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75995755195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561705112457</t>
+    <t xml:space="preserve">1.72561693191528</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
@@ -983,28 +983,28 @@
     <t xml:space="preserve">1.73076820373535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73420226573944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72733402252197</t>
+    <t xml:space="preserve">1.73420214653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72733414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67238903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62259495258331</t>
+    <t xml:space="preserve">1.67238891124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6225950717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.5899715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098799705505</t>
+    <t xml:space="preserve">1.56936717033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098787784576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
@@ -1013,37 +1013,37 @@
     <t xml:space="preserve">1.46977925300598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4757889509201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61229300498962</t>
+    <t xml:space="preserve">1.47578883171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66981339454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269109725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68183267116547</t>
+    <t xml:space="preserve">1.66981363296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269121646881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68183255195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.60885870456696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59941518306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60284912586212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.588254570961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5753767490387</t>
+    <t xml:space="preserve">1.59941530227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60284924507141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58825445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57537662982941</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739590644836</t>
@@ -1052,46 +1052,46 @@
     <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54103600978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5427531003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901685237885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5444700717926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047976970673</t>
+    <t xml:space="preserve">1.54103589057922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54275321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52901697158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54447019100189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55047965049744</t>
   </si>
   <si>
     <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67410600185394</t>
+    <t xml:space="preserve">1.67410612106323</t>
   </si>
   <si>
     <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69127631187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68698370456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7041540145874</t>
+    <t xml:space="preserve">1.69127655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68698382377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70415425300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688755989075</t>
+    <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">1.51528060436249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49811017513275</t>
+    <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
     <t xml:space="preserve">1.52386569976807</t>
@@ -1115,19 +1115,19 @@
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952507972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59254693984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.596839427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542464256287</t>
+    <t xml:space="preserve">1.43801426887512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952519893646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59254705905914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59683966636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542488098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.63118016719818</t>
@@ -1139,25 +1139,25 @@
     <t xml:space="preserve">1.66122817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67839860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65693557262421</t>
+    <t xml:space="preserve">1.67839848995209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693581104279</t>
   </si>
   <si>
     <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113203525543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264296531677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
+    <t xml:space="preserve">1.60113227367401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976538181305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264308452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278712272644</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
@@ -1166,13 +1166,10 @@
     <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67839848995209</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.71382641792297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496940612793</t>
+    <t xml:space="preserve">1.70496952533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1187,22 +1184,22 @@
     <t xml:space="preserve">1.68725550174713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66068458557129</t>
+    <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
     <t xml:space="preserve">1.67396998405457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65182757377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63854229450226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625607967377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64739906787872</t>
+    <t xml:space="preserve">1.65182769298553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63854217529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625619888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64739918708801</t>
   </si>
   <si>
     <t xml:space="preserve">1.66511309146881</t>
@@ -1220,7 +1217,7 @@
     <t xml:space="preserve">1.54111540317535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59425723552704</t>
+    <t xml:space="preserve">1.59425711631775</t>
   </si>
   <si>
     <t xml:space="preserve">1.6075427532196</t>
@@ -1232,13 +1229,13 @@
     <t xml:space="preserve">1.62082827091217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6429705619812</t>
+    <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
     <t xml:space="preserve">1.58097171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57654333114624</t>
+    <t xml:space="preserve">1.57654321193695</t>
   </si>
   <si>
     <t xml:space="preserve">1.52340137958527</t>
@@ -1253,7 +1250,7 @@
     <t xml:space="preserve">1.51454436779022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47911643981934</t>
+    <t xml:space="preserve">1.47911632061005</t>
   </si>
   <si>
     <t xml:space="preserve">1.47468793392181</t>
@@ -1265,7 +1262,7 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583092212677</t>
+    <t xml:space="preserve">1.46583104133606</t>
   </si>
   <si>
     <t xml:space="preserve">1.48354482650757</t>
@@ -1283,7 +1280,7 @@
     <t xml:space="preserve">1.58982872962952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54997229576111</t>
+    <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
@@ -1292,7 +1289,7 @@
     <t xml:space="preserve">1.50125896930695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45697391033173</t>
+    <t xml:space="preserve">1.45697402954102</t>
   </si>
   <si>
     <t xml:space="preserve">1.58540022373199</t>
@@ -1301,13 +1298,13 @@
     <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51011598110199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46140241622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4525454044342</t>
+    <t xml:space="preserve">1.5101158618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46140253543854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
     <t xml:space="preserve">1.48797333240509</t>
@@ -1322,7 +1319,7 @@
     <t xml:space="preserve">1.56325781345367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60311424732208</t>
+    <t xml:space="preserve">1.60311412811279</t>
   </si>
   <si>
     <t xml:space="preserve">1.68282699584961</t>
@@ -1334,13 +1331,13 @@
     <t xml:space="preserve">1.69611251354218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939791202545</t>
+    <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
     <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73596894741058</t>
+    <t xml:space="preserve">1.73596906661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
@@ -1349,7 +1346,7 @@
     <t xml:space="preserve">1.80682492256165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79796802997589</t>
+    <t xml:space="preserve">1.7979679107666</t>
   </si>
   <si>
     <t xml:space="preserve">1.83339583873749</t>
@@ -1373,16 +1370,16 @@
     <t xml:space="preserve">1.85110986232758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86882364749908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87768065929413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88653790950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93082273006439</t>
+    <t xml:space="preserve">1.86882376670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87768077850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88653802871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396468162537</t>
@@ -1400,13 +1397,13 @@
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
+    <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
     <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06367754936218</t>
+    <t xml:space="preserve">2.0636773109436</t>
   </si>
   <si>
     <t xml:space="preserve">2.04596352577209</t>
@@ -1433,55 +1430,58 @@
     <t xml:space="preserve">2.02824950218201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19653248786926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21424627304077</t>
+    <t xml:space="preserve">2.19653224945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21424603462219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23196005821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25853109359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22310304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767523765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17881846427917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24110770225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20451807975769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25853133201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22310328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996145248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17881846427917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110770225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20451807975769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22281289100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1556,19 +1556,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1577,25 +1577,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1604,16 +1604,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1787,13 +1787,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -19784,7 +19784,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19810,7 +19810,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19836,7 +19836,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G660" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19862,7 +19862,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19888,7 +19888,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19914,7 +19914,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19940,7 +19940,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19966,7 +19966,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G665" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19992,7 +19992,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G666" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20018,7 +20018,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G667" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20044,7 +20044,7 @@
         <v>1.875</v>
       </c>
       <c r="G668" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20070,7 +20070,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G669" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20096,7 +20096,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G670" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20122,7 +20122,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G671" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20148,7 +20148,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G672" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20174,7 +20174,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G673" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20200,7 +20200,7 @@
         <v>1.875</v>
       </c>
       <c r="G674" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20226,7 +20226,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G675" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20252,7 +20252,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G676" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20278,7 +20278,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G677" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20304,7 +20304,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G678" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20330,7 +20330,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G679" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20356,7 +20356,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G680" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20382,7 +20382,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G681" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20408,7 +20408,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G682" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20434,7 +20434,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G683" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20460,7 +20460,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G684" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20486,7 +20486,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G685" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20512,7 +20512,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20538,7 +20538,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G687" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20564,7 +20564,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G688" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20590,7 +20590,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G689" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20616,7 +20616,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G690" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20642,7 +20642,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G691" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20668,7 +20668,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G692" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20694,7 +20694,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G693" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20720,7 +20720,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G694" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20746,7 +20746,7 @@
         <v>1.875</v>
       </c>
       <c r="G695" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20772,7 +20772,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G696" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20798,7 +20798,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G697" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20824,7 +20824,7 @@
         <v>1.875</v>
       </c>
       <c r="G698" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20850,7 +20850,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G699" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20876,7 +20876,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G700" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20902,7 +20902,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20928,7 +20928,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G702" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20954,7 +20954,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G703" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20980,7 +20980,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G704" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21006,7 +21006,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G705" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21032,7 +21032,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G706" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21058,7 +21058,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G707" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21084,7 +21084,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21110,7 +21110,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G709" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21136,7 +21136,7 @@
         <v>1.61500000953674</v>
       </c>
       <c r="G710" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21162,7 +21162,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21188,7 +21188,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G712" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21214,7 +21214,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G713" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21240,7 +21240,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21266,7 +21266,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21292,7 +21292,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G716" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21318,7 +21318,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G717" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21344,7 +21344,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G718" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21370,7 +21370,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G719" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21396,7 +21396,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G720" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21422,7 +21422,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21448,7 +21448,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G722" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21474,7 +21474,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G723" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21500,7 +21500,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21526,7 +21526,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G725" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21552,7 +21552,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21578,7 +21578,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G727" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21604,7 +21604,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21630,7 +21630,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G729" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21656,7 +21656,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G730" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21682,7 +21682,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21708,7 +21708,7 @@
         <v>1.75</v>
       </c>
       <c r="G732" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21734,7 +21734,7 @@
         <v>1.75</v>
       </c>
       <c r="G733" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21760,7 +21760,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G734" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21786,7 +21786,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G735" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21812,7 +21812,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G736" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21838,7 +21838,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21864,7 +21864,7 @@
         <v>1.64499998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21890,7 +21890,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G739" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21916,7 +21916,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21942,7 +21942,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G741" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21968,7 +21968,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21994,7 +21994,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22020,7 +22020,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G744" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22046,7 +22046,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G745" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22072,7 +22072,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G746" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22098,7 +22098,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G747" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22124,7 +22124,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G748" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22150,7 +22150,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G749" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22176,7 +22176,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G750" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22202,7 +22202,7 @@
         <v>1.75</v>
       </c>
       <c r="G751" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22228,7 +22228,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G752" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22254,7 +22254,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G753" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22280,7 +22280,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G754" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22306,7 +22306,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G755" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22332,7 +22332,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G756" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22358,7 +22358,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G757" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22384,7 +22384,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G758" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22410,7 +22410,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G759" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22436,7 +22436,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G760" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22462,7 +22462,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G761" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22488,7 +22488,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22514,7 +22514,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G763" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22540,7 +22540,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G764" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22566,7 +22566,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G765" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22592,7 +22592,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22618,7 +22618,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G767" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22644,7 +22644,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22670,7 +22670,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G769" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22696,7 +22696,7 @@
         <v>1.75</v>
       </c>
       <c r="G770" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22722,7 +22722,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G771" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22748,7 +22748,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G772" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22774,7 +22774,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G773" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22800,7 +22800,7 @@
         <v>1.75</v>
       </c>
       <c r="G774" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22826,7 +22826,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22852,7 +22852,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G776" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22878,7 +22878,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G777" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22904,7 +22904,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G778" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22930,7 +22930,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22956,7 +22956,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G780" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22982,7 +22982,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G781" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23008,7 +23008,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G782" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23034,7 +23034,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G783" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23060,7 +23060,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G784" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23086,7 +23086,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G785" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23112,7 +23112,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G786" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23138,7 +23138,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G787" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23164,7 +23164,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G788" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23190,7 +23190,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G789" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23216,7 +23216,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G790" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23242,7 +23242,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G791" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23268,7 +23268,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23294,7 +23294,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G793" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23320,7 +23320,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G794" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23346,7 +23346,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G795" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23372,7 +23372,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G796" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23398,7 +23398,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G797" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23424,7 +23424,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23450,7 +23450,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G799" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23476,7 +23476,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G800" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23502,7 +23502,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G801" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23528,7 +23528,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G802" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23554,7 +23554,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G803" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23580,7 +23580,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G804" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23606,7 +23606,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23632,7 +23632,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G806" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23658,7 +23658,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23684,7 +23684,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G808" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23710,7 +23710,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G809" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23736,7 +23736,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G810" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23762,7 +23762,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23788,7 +23788,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G812" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23814,7 +23814,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23840,7 +23840,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G814" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23866,7 +23866,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G815" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23892,7 +23892,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23918,7 +23918,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G817" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23944,7 +23944,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G818" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23970,7 +23970,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G819" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23996,7 +23996,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G820" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24022,7 +24022,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G821" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24048,7 +24048,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24074,7 +24074,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G823" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24100,7 +24100,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G824" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24126,7 +24126,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24152,7 +24152,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G826" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24178,7 +24178,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24204,7 +24204,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G828" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24230,7 +24230,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G829" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24256,7 +24256,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G830" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24282,7 +24282,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24308,7 +24308,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G832" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24334,7 +24334,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24360,7 +24360,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G834" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24386,7 +24386,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G835" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24412,7 +24412,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G836" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24438,7 +24438,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G837" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24464,7 +24464,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G838" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24490,7 +24490,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24516,7 +24516,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G840" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24542,7 +24542,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G841" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24568,7 +24568,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G842" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24594,7 +24594,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G843" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24620,7 +24620,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G844" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24646,7 +24646,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G845" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24672,7 +24672,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24698,7 +24698,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24724,7 +24724,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G848" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24750,7 +24750,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24776,7 +24776,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24802,7 +24802,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24828,7 +24828,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G852" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24854,7 +24854,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G853" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24880,7 +24880,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G854" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24906,7 +24906,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G855" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24932,7 +24932,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G856" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24958,7 +24958,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G857" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24984,7 +24984,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G858" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25010,7 +25010,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G859" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25036,7 +25036,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G860" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25062,7 +25062,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G861" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25088,7 +25088,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25114,7 +25114,7 @@
         <v>2.25</v>
       </c>
       <c r="G863" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25140,7 +25140,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G864" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25166,7 +25166,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G865" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25192,7 +25192,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G866" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25218,7 +25218,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G867" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25244,7 +25244,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G868" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25270,7 +25270,7 @@
         <v>2.25</v>
       </c>
       <c r="G869" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25296,7 +25296,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G870" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25322,7 +25322,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G871" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25348,7 +25348,7 @@
         <v>2.25</v>
       </c>
       <c r="G872" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25374,7 +25374,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25400,7 +25400,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G874" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25426,7 +25426,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G875" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25452,7 +25452,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G876" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25478,7 +25478,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G877" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25504,7 +25504,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G878" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25530,7 +25530,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G879" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25556,7 +25556,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G880" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25582,7 +25582,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G881" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25608,7 +25608,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G882" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25634,7 +25634,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G883" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25660,7 +25660,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G884" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25686,7 +25686,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G885" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25712,7 +25712,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G886" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25738,7 +25738,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G887" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25764,7 +25764,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G888" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25790,7 +25790,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G889" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25816,7 +25816,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G890" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25842,7 +25842,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G891" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25868,7 +25868,7 @@
         <v>2.5</v>
       </c>
       <c r="G892" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25894,7 +25894,7 @@
         <v>2.5</v>
       </c>
       <c r="G893" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25920,7 +25920,7 @@
         <v>2.5</v>
       </c>
       <c r="G894" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25946,7 +25946,7 @@
         <v>2.5</v>
       </c>
       <c r="G895" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25972,7 +25972,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G896" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25998,7 +25998,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G897" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26024,7 +26024,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G898" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26050,7 +26050,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G899" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26076,7 +26076,7 @@
         <v>2.5</v>
       </c>
       <c r="G900" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26102,7 +26102,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G901" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26128,7 +26128,7 @@
         <v>2.5</v>
       </c>
       <c r="G902" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26154,7 +26154,7 @@
         <v>2.5</v>
       </c>
       <c r="G903" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26180,7 +26180,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G904" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26206,7 +26206,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26232,7 +26232,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G906" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26258,7 +26258,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G907" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26284,7 +26284,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G908" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26310,7 +26310,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26336,7 +26336,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G910" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26362,7 +26362,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G911" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26388,7 +26388,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G912" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26414,7 +26414,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G913" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28130,7 +28130,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G979" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28156,7 +28156,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G980" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28208,7 +28208,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G982" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28260,7 +28260,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G984" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28364,7 +28364,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G988" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28416,7 +28416,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G990" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28858,7 +28858,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1007" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28884,7 +28884,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1008" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28936,7 +28936,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1010" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28962,7 +28962,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1011" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29014,7 +29014,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1013" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29040,7 +29040,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1014" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29118,7 +29118,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1017" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29196,7 +29196,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1020" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29222,7 +29222,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1021" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29248,7 +29248,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1022" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29274,7 +29274,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1023" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -58688,7 +58688,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.4825810185</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>262</v>
@@ -58709,6 +58709,32 @@
         <v>744</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6494328704</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>8566</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>749</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184432029724</t>
+    <t xml:space="preserve">1.09184420108795</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,76 +47,76 @@
     <t xml:space="preserve">1.12507796287537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
+    <t xml:space="preserve">1.10886657238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
     <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08454930782318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346544742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617043495178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06833779811859</t>
+    <t xml:space="preserve">1.0845490694046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09346556663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08617031574249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0683376789093</t>
   </si>
   <si>
     <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932061672211</t>
+    <t xml:space="preserve">0.9759321808815</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531175136566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954313755035</t>
+    <t xml:space="preserve">0.960531234741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954194545746</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349164009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
+    <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985659003257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979985058307648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266788005829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108155727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517773151398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806522071361542</t>
+    <t xml:space="preserve">0.985658943653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979985117912292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266907215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517832756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997789382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">0.82678633928299</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">0.818680644035339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420868396759</t>
+    <t xml:space="preserve">0.875420987606049</t>
   </si>
   <si>
     <t xml:space="preserve">0.891632318496704</t>
@@ -140,49 +140,49 @@
     <t xml:space="preserve">0.907843887805939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161033153534</t>
+    <t xml:space="preserve">0.932160973548889</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213850975037</t>
+    <t xml:space="preserve">0.936213970184326</t>
   </si>
   <si>
     <t xml:space="preserve">0.91027557849884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319665431976</t>
+    <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
     <t xml:space="preserve">0.943509221076965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948372602462769</t>
+    <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995385885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152421474457</t>
+    <t xml:space="preserve">0.995385944843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183106422424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152361869812</t>
   </si>
   <si>
     <t xml:space="preserve">0.987280130386353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992143750190735</t>
+    <t xml:space="preserve">0.99214369058609</t>
   </si>
   <si>
     <t xml:space="preserve">1.00511288642883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916576385498</t>
+    <t xml:space="preserve">1.00916564464569</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321864128113</t>
@@ -191,28 +191,28 @@
     <t xml:space="preserve">1.0010598897934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964584112167358</t>
+    <t xml:space="preserve">0.964584171772003</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795681476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068501472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967015743255615</t>
+    <t xml:space="preserve">0.980795621871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196448802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689867019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456105232239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068680286407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015624046326</t>
   </si>
   <si>
     <t xml:space="preserve">0.962962985038757</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">0.971879184246063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95080441236496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934592843055725</t>
+    <t xml:space="preserve">0.95080429315567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93459278345108</t>
   </si>
   <si>
     <t xml:space="preserve">0.903790950775146</t>
@@ -233,34 +233,34 @@
     <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920002400875092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905436515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526623249054</t>
+    <t xml:space="preserve">0.920002579689026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905496120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526742458344</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579500675201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915138959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055337905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947562158107758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918719291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623587608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918381452560425</t>
+    <t xml:space="preserve">0.915139019489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055218696594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561979293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918778896332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623528003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91838127374649</t>
   </si>
   <si>
     <t xml:space="preserve">0.91757071018219</t>
@@ -269,16 +269,16 @@
     <t xml:space="preserve">0.904601633548737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898117005825043</t>
+    <t xml:space="preserve">0.898117065429688</t>
   </si>
   <si>
     <t xml:space="preserve">0.890011250972748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434270381927</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967104434967</t>
@@ -287,115 +287,115 @@
     <t xml:space="preserve">0.859209299087524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.862451672554016</t>
+    <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
     <t xml:space="preserve">0.855156362056732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848671913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262176513672</t>
+    <t xml:space="preserve">0.848671972751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094872951508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
     <t xml:space="preserve">0.868125677108765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882715940475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768877506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425420284271</t>
+    <t xml:space="preserve">0.882716059684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899737954139709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425479888916</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786316871643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289381980896</t>
+    <t xml:space="preserve">0.986289501190186</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973698556423187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662202358246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895438671112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822909355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837961673737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407723903656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604486942291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939283430576324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180260181427</t>
+    <t xml:space="preserve">0.973698616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974538028240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662261962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895557880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837902069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407604694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604546546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93928337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180319786072</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231904983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910669803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159077644348</t>
+    <t xml:space="preserve">0.955231964588165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392373561859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95691055059433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
   </si>
   <si>
     <t xml:space="preserve">0.942640960216522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948516607284546</t>
+    <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
     <t xml:space="preserve">0.923334836959839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915780127048492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619718074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906546950340271</t>
+    <t xml:space="preserve">0.915780186653137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728661060333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906547069549561</t>
   </si>
   <si>
     <t xml:space="preserve">0.925013661384583</t>
@@ -407,31 +407,31 @@
     <t xml:space="preserve">0.926692426204681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934247076511383</t>
+    <t xml:space="preserve">0.934247016906738</t>
   </si>
   <si>
     <t xml:space="preserve">0.919137895107269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914101481437683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908225774765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910743951797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671124458313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905707597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956005573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634889602661</t>
+    <t xml:space="preserve">0.914101541042328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90822571516037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910743892192841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671184062958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905707538127899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956065177917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634829998016</t>
   </si>
   <si>
     <t xml:space="preserve">0.894795358181</t>
@@ -440,43 +440,43 @@
     <t xml:space="preserve">0.913262128829956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920816779136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904539585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189361095428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898152947425842</t>
+    <t xml:space="preserve">0.920816600322723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904420375824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189301490784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898153126239777</t>
   </si>
   <si>
     <t xml:space="preserve">0.889759004116058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88136500120163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846883773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686295986176</t>
+    <t xml:space="preserve">0.881365060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878847002983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686236381531</t>
   </si>
   <si>
     <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87297111749649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677195072174</t>
+    <t xml:space="preserve">0.872971057891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677314281464</t>
   </si>
   <si>
     <t xml:space="preserve">0.912422716617584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876328706741333</t>
+    <t xml:space="preserve">0.876328766345978</t>
   </si>
   <si>
     <t xml:space="preserve">0.874650001525879</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865416526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525708198547</t>
+    <t xml:space="preserve">0.865416586399078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525648593903</t>
   </si>
   <si>
     <t xml:space="preserve">0.885561943054199</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">0.888919651508331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875489294528961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888080239295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583244800568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092440128326</t>
+    <t xml:space="preserve">0.875489354133606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888080179691315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583364009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092499732971</t>
   </si>
   <si>
     <t xml:space="preserve">0.951874256134033</t>
@@ -518,34 +518,34 @@
     <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953553140163422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807559013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377142429352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979574203491211</t>
+    <t xml:space="preserve">0.953553199768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268199443817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979574382305145</t>
   </si>
   <si>
     <t xml:space="preserve">0.966983377933502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969501495361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801488399506</t>
+    <t xml:space="preserve">0.969501614570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801428794861</t>
   </si>
   <si>
     <t xml:space="preserve">0.943480312824249</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">0.935925781726837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97285920381546</t>
+    <t xml:space="preserve">0.972859025001526</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253266334534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522737503052</t>
+    <t xml:space="preserve">0.981253087520599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522677898407</t>
   </si>
   <si>
     <t xml:space="preserve">0.987968325614929</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">1.04420781135559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0332955121994</t>
+    <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
     <t xml:space="preserve">1.03665316104889</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">1.05344116687775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581368923187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077757358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02742004394531</t>
+    <t xml:space="preserve">1.03581380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03077745437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.01650774478912</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10800194740295</t>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544444561005</t>
+    <t xml:space="preserve">1.21544432640076</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872926712036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18354725837708</t>
+    <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110202789307</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759872436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836560726166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16675937175751</t>
+    <t xml:space="preserve">1.16759896278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836548805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745342731476</t>
@@ -644,25 +644,25 @@
     <t xml:space="preserve">1.15668678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16508066654205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19781708717346</t>
+    <t xml:space="preserve">1.16508078575134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19781720638275</t>
   </si>
   <si>
     <t xml:space="preserve">1.20788979530334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270790576935</t>
+    <t xml:space="preserve">1.18270814418793</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24902033805847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25741410255432</t>
+    <t xml:space="preserve">1.24902021884918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255678653717</t>
+    <t xml:space="preserve">1.39255690574646</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660837173462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38164460659027</t>
+    <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
     <t xml:space="preserve">1.37828707695007</t>
@@ -698,34 +698,34 @@
     <t xml:space="preserve">1.39339625835419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38919925689697</t>
+    <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
     <t xml:space="preserve">1.39675378799438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38500213623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3715717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3724113702774</t>
+    <t xml:space="preserve">1.38500225543976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37157201766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37241125106812</t>
   </si>
   <si>
     <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41018402576447</t>
+    <t xml:space="preserve">1.41018414497375</t>
   </si>
   <si>
     <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41270220279694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41857802867889</t>
+    <t xml:space="preserve">1.41270244121552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
     <t xml:space="preserve">1.42529320716858</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">1.42361450195312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536603450775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208133220673</t>
+    <t xml:space="preserve">1.43536591529846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
     <t xml:space="preserve">1.47733581066132</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40179002285004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36065995693207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792341709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32624471187592</t>
+    <t xml:space="preserve">1.40179014205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36065971851349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
     <t xml:space="preserve">1.31785070896149</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128094673157</t>
+    <t xml:space="preserve">1.33128082752228</t>
   </si>
   <si>
     <t xml:space="preserve">1.33044159412384</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31365358829498</t>
+    <t xml:space="preserve">1.31365370750427</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442023277283</t>
+    <t xml:space="preserve">1.30442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588093280792</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471130371094</t>
+    <t xml:space="preserve">1.34471118450165</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
@@ -797,109 +797,109 @@
     <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45299327373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489046096802</t>
+    <t xml:space="preserve">1.45299315452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489022254944</t>
   </si>
   <si>
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50167834758759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609359264374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51930546760559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50755405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52730000019073</t>
+    <t xml:space="preserve">1.5016782283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53609347343445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51930558681488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50755393505096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52729976177216</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50240290164948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53588509559631</t>
+    <t xml:space="preserve">1.50240278244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53588497638702</t>
   </si>
   <si>
     <t xml:space="preserve">1.53245091438293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54962122440338</t>
+    <t xml:space="preserve">1.54962110519409</t>
   </si>
   <si>
     <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55391371250153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280123233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57966935634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249904632568</t>
+    <t xml:space="preserve">1.55391383171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57966923713684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249892711639</t>
   </si>
   <si>
     <t xml:space="preserve">1.54704570770264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54618716239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365965843201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57451820373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679165363312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219674110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56850874423981</t>
+    <t xml:space="preserve">1.54618728160858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57365953922272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57451832294464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219686031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52815842628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48780810832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5135635137558</t>
+    <t xml:space="preserve">1.53931891918182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5281583070755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48780798912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
     <t xml:space="preserve">1.51871466636658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49124217033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
+    <t xml:space="preserve">1.49124205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806216239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -908,25 +908,25 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876255989075</t>
+    <t xml:space="preserve">1.54876279830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5556309223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482038974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56765007972717</t>
+    <t xml:space="preserve">1.55563080310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482027053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56764996051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57108426094055</t>
+    <t xml:space="preserve">1.57108414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.56421601772308</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5247243642807</t>
+    <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.61143445968628</t>
@@ -947,40 +947,40 @@
     <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69814467430115</t>
+    <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
     <t xml:space="preserve">1.67067182064056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995755195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7170318365097</t>
+    <t xml:space="preserve">1.75995767116547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71703171730042</t>
   </si>
   <si>
     <t xml:space="preserve">1.74793839454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71188068389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72561693191528</t>
+    <t xml:space="preserve">1.71188080310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72561705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905099391937</t>
+    <t xml:space="preserve">1.72905111312866</t>
   </si>
   <si>
     <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076808452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73420226573944</t>
+    <t xml:space="preserve">1.73076820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
     <t xml:space="preserve">1.72733402252197</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259495258331</t>
+    <t xml:space="preserve">1.62259519100189</t>
   </si>
   <si>
     <t xml:space="preserve">1.58997142314911</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">1.47578883171082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61229300498962</t>
+    <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
     <t xml:space="preserve">1.66294538974762</t>
@@ -1034,25 +1034,25 @@
     <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60284912586212</t>
+    <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.588254570961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57537686824799</t>
+    <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739590644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55133831501007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54103600978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5427531003952</t>
+    <t xml:space="preserve">1.55133843421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5410361289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54275321960449</t>
   </si>
   <si>
     <t xml:space="preserve">1.52901685237885</t>
@@ -1061,25 +1061,25 @@
     <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54447019100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047976970673</t>
+    <t xml:space="preserve">1.5444700717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55047965049744</t>
   </si>
   <si>
     <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67410612106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69556891918182</t>
+    <t xml:space="preserve">1.67410600185394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69556903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698370456696</t>
+    <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688755989075</t>
+    <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">1.50669550895691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4809398651123</t>
+    <t xml:space="preserve">1.48093998432159</t>
   </si>
   <si>
     <t xml:space="preserve">1.51528060436249</t>
@@ -1106,16 +1106,16 @@
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386581897736</t>
+    <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952519893646</t>
+    <t xml:space="preserve">1.43801414966583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952507972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64405786991119</t>
+    <t xml:space="preserve">1.64405798912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.66122829914093</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6097172498703</t>
+    <t xml:space="preserve">1.60971736907959</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113215446472</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278736114502</t>
+    <t xml:space="preserve">1.74278724193573</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71273922920227</t>
+    <t xml:space="preserve">1.71273934841156</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825516223907</t>
+    <t xml:space="preserve">1.71825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725550174713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397010326385</t>
+    <t xml:space="preserve">1.68725562095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068470478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397022247314</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62968528270721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61197137832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111528396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59425735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60754287242889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639988422394</t>
+    <t xml:space="preserve">1.62968516349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61197125911713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111540317535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59425723552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6075427532196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097171783447</t>
+    <t xml:space="preserve">1.58097183704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340137958527</t>
+    <t xml:space="preserve">1.52340149879456</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454448699951</t>
+    <t xml:space="preserve">1.51454436779022</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48354482650757</t>
+    <t xml:space="preserve">1.48354494571686</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1277,40 +1277,40 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982872962952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5499724149704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882942676544</t>
+    <t xml:space="preserve">1.58982884883881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54997229576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45697402954102</t>
+    <t xml:space="preserve">1.45697391033173</t>
   </si>
   <si>
     <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47025942802429</t>
+    <t xml:space="preserve">1.47025954723358</t>
   </si>
   <si>
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140241622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797333240509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4924019575119</t>
+    <t xml:space="preserve">1.46140253543854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45254564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797357082367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
     <t xml:space="preserve">1.55440092086792</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
+    <t xml:space="preserve">1.6828271150589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72268354892731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682492256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79796802997589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83339583873749</t>
+    <t xml:space="preserve">1.7226836681366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596894741058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75368297100067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682480335236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7979679107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8333957195282</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996663570404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110986232758</t>
+    <t xml:space="preserve">1.85996675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
@@ -1376,31 +1376,31 @@
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653779029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9308226108551</t>
+    <t xml:space="preserve">1.88653790950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510755062103</t>
+    <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01053547859192</t>
+    <t xml:space="preserve">2.00167846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0105357170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253456115723</t>
+    <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
     <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12567639350891</t>
+    <t xml:space="preserve">2.12567663192749</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1079626083374</t>
+    <t xml:space="preserve">2.10796236991882</t>
   </si>
   <si>
     <t xml:space="preserve">2.09910535812378</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18767547607422</t>
+    <t xml:space="preserve">2.18767523765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17881846427917</t>
+    <t xml:space="preserve">2.1788182258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -58737,13 +58737,13 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6495717593</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>434</v>
       </c>
       <c r="C2157" t="n">
-        <v>2.20000004768372</v>
+        <v>2.21000003814697</v>
       </c>
       <c r="D2157" t="n">
         <v>2.17000007629395</v>
@@ -58758,6 +58758,32 @@
         <v>748</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6294212963</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>3831</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184420108795</t>
+    <t xml:space="preserve">1.09184443950653</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507784366608</t>
+    <t xml:space="preserve">1.12507796287537</t>
   </si>
   <si>
     <t xml:space="preserve">1.10886645317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10643482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563269138336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454930782318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346556663513</t>
+    <t xml:space="preserve">1.10643470287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563292980194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08454918861389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
     <t xml:space="preserve">1.0861701965332</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">1.06833755970001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05374717712402</t>
+    <t xml:space="preserve">1.05374705791473</t>
   </si>
   <si>
     <t xml:space="preserve">0.975932240486145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988901317119598</t>
+    <t xml:space="preserve">0.988901436328888</t>
   </si>
   <si>
     <t xml:space="preserve">0.960531175136566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01889264583588</t>
+    <t xml:space="preserve">1.01889252662659</t>
   </si>
   <si>
     <t xml:space="preserve">0.992954254150391</t>
@@ -92,22 +92,22 @@
     <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01727139949799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985658943653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984819889069</t>
+    <t xml:space="preserve">1.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985659062862396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646077632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984939098358</t>
   </si>
   <si>
     <t xml:space="preserve">0.940266788005829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928108274936676</t>
+    <t xml:space="preserve">0.928108155727386</t>
   </si>
   <si>
     <t xml:space="preserve">0.913517832756042</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82678633928299</t>
+    <t xml:space="preserve">0.826786398887634</t>
   </si>
   <si>
     <t xml:space="preserve">0.796389818191528</t>
@@ -128,43 +128,43 @@
     <t xml:space="preserve">0.818680584430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420928001404</t>
+    <t xml:space="preserve">0.875420868396759</t>
   </si>
   <si>
     <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905412077903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907843828201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932160973548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478297710419</t>
+    <t xml:space="preserve">0.905411958694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907843768596649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932161092758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478357315063</t>
   </si>
   <si>
     <t xml:space="preserve">0.936213970184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910275518894196</t>
+    <t xml:space="preserve">0.91027557849884</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509101867676</t>
+    <t xml:space="preserve">0.943509221076965</t>
   </si>
   <si>
     <t xml:space="preserve">0.948372602462769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00268113613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385885238647</t>
+    <t xml:space="preserve">1.002681016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995386004447937</t>
   </si>
   <si>
     <t xml:space="preserve">0.949183106422424</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">0.992143630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00511300563812</t>
+    <t xml:space="preserve">1.00511288642883</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916564464569</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">1.01321864128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0010598897934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584171772003</t>
+    <t xml:space="preserve">1.00106000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584052562714</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848499298096</t>
@@ -200,52 +200,52 @@
     <t xml:space="preserve">0.980795621871948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996196448802948</t>
+    <t xml:space="preserve">0.996196568012238</t>
   </si>
   <si>
     <t xml:space="preserve">0.972689867019653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939456224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068680286407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701568365097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879065036774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804233551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93459278345108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790891170502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893253445625305</t>
+    <t xml:space="preserve">0.939456343650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701580286026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962806224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879422664642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950804352760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93459290266037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
     <t xml:space="preserve">0.920002460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905436515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526682853699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579441070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915138900279999</t>
+    <t xml:space="preserve">0.881905496120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579500675201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139019489288</t>
   </si>
   <si>
     <t xml:space="preserve">0.924055278301239</t>
@@ -257,34 +257,34 @@
     <t xml:space="preserve">0.928918778896332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921623528003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91838127374649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898116946220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654570579529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209358692169</t>
+    <t xml:space="preserve">0.921623587608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381333351135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917570769786835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601514339447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117005825043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011370182037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434270381927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967104434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85920923948288</t>
   </si>
   <si>
     <t xml:space="preserve">0.862451612949371</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.848671913146973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881094813346863</t>
+    <t xml:space="preserve">0.881094932556152</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262236118317</t>
@@ -305,25 +305,25 @@
     <t xml:space="preserve">0.86812561750412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882716000080109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87704199552536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738073348999</t>
+    <t xml:space="preserve">0.882716059684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877042055130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738132953644</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768877506256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952425479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786376476288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986289501190186</t>
+    <t xml:space="preserve">0.952425360679626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786257266998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986289381980896</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771324157715</t>
@@ -332,25 +332,25 @@
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974538028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304493904114</t>
+    <t xml:space="preserve">0.974537909030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
     <t xml:space="preserve">0.968662261962891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977895557880402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822730541229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946838021278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407545089722</t>
+    <t xml:space="preserve">0.977895438671112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822849750519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837902069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407664299011</t>
   </si>
   <si>
     <t xml:space="preserve">0.937604546546936</t>
@@ -374,10 +374,10 @@
     <t xml:space="preserve">0.956910610198975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640841007233</t>
+    <t xml:space="preserve">0.945159137248993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640960216522</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516607284546</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">0.923334896564484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915780246257782</t>
+    <t xml:space="preserve">0.915780186653137</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728720664978</t>
@@ -395,37 +395,37 @@
     <t xml:space="preserve">0.916619718074799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906547069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013601779938</t>
+    <t xml:space="preserve">0.906547009944916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013661384583</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
+    <t xml:space="preserve">0.926692366600037</t>
   </si>
   <si>
     <t xml:space="preserve">0.934247076511383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919137835502625</t>
+    <t xml:space="preserve">0.919137895107269</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101481437683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90822571516037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910743951797485</t>
+    <t xml:space="preserve">0.908225834369659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910743892192841</t>
   </si>
   <si>
     <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905707538127899</t>
+    <t xml:space="preserve">0.905707597732544</t>
   </si>
   <si>
     <t xml:space="preserve">0.893956065177917</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">0.895634829998016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262128829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816659927368</t>
+    <t xml:space="preserve">0.894795358181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262188434601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816779136658</t>
   </si>
   <si>
     <t xml:space="preserve">0.909904479980469</t>
@@ -449,22 +449,22 @@
     <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898153126239777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889759063720703</t>
+    <t xml:space="preserve">0.898153066635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889759004116058</t>
   </si>
   <si>
     <t xml:space="preserve">0.881365060806274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878846943378448</t>
+    <t xml:space="preserve">0.878846883773804</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891437828540802</t>
+    <t xml:space="preserve">0.891437947750092</t>
   </si>
   <si>
     <t xml:space="preserve">0.872971057891846</t>
@@ -473,40 +473,40 @@
     <t xml:space="preserve">0.947677195072174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912422657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328766345978</t>
+    <t xml:space="preserve">0.912422716617584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328706741333</t>
   </si>
   <si>
     <t xml:space="preserve">0.874649941921234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401474475861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865416586399078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525708198547</t>
+    <t xml:space="preserve">0.886401534080505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865416526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525648593903</t>
   </si>
   <si>
     <t xml:space="preserve">0.885562002658844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890598356723785</t>
+    <t xml:space="preserve">0.89059841632843</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919591903687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875489354133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888080179691315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583304405212</t>
+    <t xml:space="preserve">0.875489294528961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888080239295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583185195923</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092499732971</t>
@@ -515,13 +515,13 @@
     <t xml:space="preserve">0.951874315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959428787231445</t>
+    <t xml:space="preserve">0.959428906440735</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553080558777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964465320110321</t>
+    <t xml:space="preserve">0.964465200901031</t>
   </si>
   <si>
     <t xml:space="preserve">0.956071317195892</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">0.960268259048462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377380847931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979574382305145</t>
+    <t xml:space="preserve">0.988807559013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979574263095856</t>
   </si>
   <si>
     <t xml:space="preserve">0.966983377933502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969501733779907</t>
+    <t xml:space="preserve">0.969501614570618</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801428794861</t>
@@ -551,25 +551,25 @@
     <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935925722122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859025001526</t>
+    <t xml:space="preserve">0.935925841331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253087520599</t>
+    <t xml:space="preserve">0.981253206729889</t>
   </si>
   <si>
     <t xml:space="preserve">0.995522677898407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987968325614929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001092910767</t>
+    <t xml:space="preserve">0.98796820640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
     <t xml:space="preserve">1.04420781135559</t>
@@ -578,67 +578,67 @@
     <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03665316104889</t>
+    <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344104766846</t>
+    <t xml:space="preserve">1.05344116687775</t>
   </si>
   <si>
     <t xml:space="preserve">1.03581368923187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03077745437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02741992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01650774478912</t>
+    <t xml:space="preserve">1.03077757358551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02742004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01650762557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10800170898438</t>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20956861972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544432640076</t>
+    <t xml:space="preserve">1.20956873893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544456481934</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872926712036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18354737758636</t>
+    <t xml:space="preserve">1.18354725837708</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110190868378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942320346832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759896278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836560726166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1667594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14745330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13318383693695</t>
+    <t xml:space="preserve">1.18942308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759884357452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836548805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16675937175751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14745342731476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13318371772766</t>
   </si>
   <si>
     <t xml:space="preserve">1.15668678283691</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">1.16508066654205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19781732559204</t>
+    <t xml:space="preserve">1.19781708717346</t>
   </si>
   <si>
     <t xml:space="preserve">1.20788979530334</t>
@@ -656,25 +656,25 @@
     <t xml:space="preserve">1.18270802497864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20621109008789</t>
+    <t xml:space="preserve">1.2062109708786</t>
   </si>
   <si>
     <t xml:space="preserve">1.24902021884918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2574143409729</t>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26328992843628</t>
+    <t xml:space="preserve">1.26329004764557</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29099011421204</t>
+    <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
     <t xml:space="preserve">1.34303247928619</t>
@@ -683,31 +683,31 @@
     <t xml:space="preserve">1.37409007549286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255690574646</t>
+    <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38164472579956</t>
+    <t xml:space="preserve">1.38164460659027</t>
   </si>
   <si>
     <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3933961391449</t>
+    <t xml:space="preserve">1.39339625835419</t>
   </si>
   <si>
     <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39675378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500225543976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37157189846039</t>
+    <t xml:space="preserve">1.39675390720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500213623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3715717792511</t>
   </si>
   <si>
     <t xml:space="preserve">1.37241125106812</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529320716858</t>
+    <t xml:space="preserve">1.42529332637787</t>
   </si>
   <si>
     <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536579608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208121299744</t>
+    <t xml:space="preserve">1.43536603450775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208133220673</t>
   </si>
   <si>
     <t xml:space="preserve">1.47733569145203</t>
@@ -764,28 +764,28 @@
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617188453674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365370750427</t>
+    <t xml:space="preserve">1.33128094673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33044147491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31617176532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442047119141</t>
+    <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350829124451</t>
+    <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
     <t xml:space="preserve">1.34471130371094</t>
@@ -794,19 +794,19 @@
     <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45215380191803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45299315452576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489022254944</t>
+    <t xml:space="preserve">1.45215392112732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45299327373505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489034175873</t>
   </si>
   <si>
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5016782283783</t>
+    <t xml:space="preserve">1.50167834758759</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609347343445</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729976177216</t>
+    <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957321166992</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588497638702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245091438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962122440338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532861709595</t>
+    <t xml:space="preserve">1.53588509559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245079517365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962134361267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532873630524</t>
   </si>
   <si>
     <t xml:space="preserve">1.55391383171082</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451832294464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679153442383</t>
+    <t xml:space="preserve">1.57451820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
     <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850862503052</t>
+    <t xml:space="preserve">1.56850850582123</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
@@ -878,25 +878,25 @@
     <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52815818786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48780798912048</t>
+    <t xml:space="preserve">1.5281583070755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871466636658</t>
+    <t xml:space="preserve">1.51871478557587</t>
   </si>
   <si>
     <t xml:space="preserve">1.49124205112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46291100978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806216239929</t>
+    <t xml:space="preserve">1.4629111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
     <t xml:space="preserve">1.47149622440338</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876279830933</t>
+    <t xml:space="preserve">1.54876267910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">1.57108414173126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56421589851379</t>
+    <t xml:space="preserve">1.56421601772308</t>
   </si>
   <si>
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593298912048</t>
+    <t xml:space="preserve">1.56593286991119</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">1.67238891124725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
+    <t xml:space="preserve">1.6225950717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.5899715423584</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">1.56936705112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51098799705505</t>
+    <t xml:space="preserve">1.51098811626434</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6698135137558</t>
+    <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
     <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183279037476</t>
+    <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
     <t xml:space="preserve">1.60885870456696</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57537662982941</t>
+    <t xml:space="preserve">1.588254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739590644836</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54447019100189</t>
+    <t xml:space="preserve">1.54361152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5444700717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698382377625</t>
+    <t xml:space="preserve">1.68698370456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48523247241974</t>
+    <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
     <t xml:space="preserve">1.43801403045654</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683966636658</t>
+    <t xml:space="preserve">1.59683954715729</t>
   </si>
   <si>
     <t xml:space="preserve">1.60542476177216</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60971736907959</t>
+    <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113215446472</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">1.63976526260376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65264320373535</t>
+    <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.74278736114502</t>
@@ -1160,19 +1160,19 @@
     <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71273934841156</t>
+    <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496964454651</t>
+    <t xml:space="preserve">1.70496952533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825504302979</t>
+    <t xml:space="preserve">1.71825516223907</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">1.68725550174713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397022247314</t>
+    <t xml:space="preserve">1.66068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397010326385</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854217529297</t>
+    <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6473993062973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6651132106781</t>
+    <t xml:space="preserve">1.64739918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
     <t xml:space="preserve">1.66954159736633</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">1.54111528396606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59425723552704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6075427532196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639976501465</t>
+    <t xml:space="preserve">1.59425735473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60754287242889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639988422394</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097183704376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57654321193695</t>
+    <t xml:space="preserve">1.58097171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
     <t xml:space="preserve">1.52340137958527</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454436779022</t>
+    <t xml:space="preserve">1.51454448699951</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882930755615</t>
+    <t xml:space="preserve">1.55882942676544</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140253543854</t>
+    <t xml:space="preserve">1.46140241622925</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48797345161438</t>
+    <t xml:space="preserve">1.48797333240509</t>
   </si>
   <si>
     <t xml:space="preserve">1.4924019575119</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
+    <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7226836681366</t>
+    <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596906661987</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">1.79796802997589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1361,22 +1361,22 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996687412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110974311829</t>
+    <t xml:space="preserve">1.85996663570404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110986232758</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87768077850342</t>
+    <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
     <t xml:space="preserve">1.88653779029846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93082284927368</t>
+    <t xml:space="preserve">1.9308226108551</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0105357170105</t>
+    <t xml:space="preserve">2.00167870521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310304641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767523765564</t>
+    <t xml:space="preserve">2.22310328483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -58838,7 +58838,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6493402778</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>21938</v>
@@ -58859,6 +58859,32 @@
         <v>721</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493402778</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>5570</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184432029724</t>
+    <t xml:space="preserve">1.09184420108795</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507772445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886633396149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643470287323</t>
+    <t xml:space="preserve">1.12507796287537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886645317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643458366394</t>
   </si>
   <si>
     <t xml:space="preserve">1.07563281059265</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988901257514954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531175136566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889252662659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954194545746</t>
+    <t xml:space="preserve">0.988901376724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531115531921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889264583588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954313755035</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349164009094</t>
@@ -95,28 +95,28 @@
     <t xml:space="preserve">1.01727139949799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985659062862396</t>
+    <t xml:space="preserve">0.985659003257751</t>
   </si>
   <si>
     <t xml:space="preserve">1.01646077632904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979985117912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266728401184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108334541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517892360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997789382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806521952152252</t>
+    <t xml:space="preserve">0.979985177516937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517773151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997848987579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">0.82678633928299</t>
@@ -125,40 +125,40 @@
     <t xml:space="preserve">0.796389818191528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818680584430695</t>
+    <t xml:space="preserve">0.818680644035339</t>
   </si>
   <si>
     <t xml:space="preserve">0.875420868396759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891632378101349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412137508392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907843828201294</t>
+    <t xml:space="preserve">0.891632318496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412077903748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907843887805939</t>
   </si>
   <si>
     <t xml:space="preserve">0.932161152362823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956478178501129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213970184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275638103485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319665431976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372602462769</t>
+    <t xml:space="preserve">0.956478238105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936213850975037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275518894196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
     <t xml:space="preserve">1.002681016922</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">0.995385944843292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949183166027069</t>
+    <t xml:space="preserve">0.949183106422424</t>
   </si>
   <si>
     <t xml:space="preserve">0.962152361869812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987280189990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143511772156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511288642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916576385498</t>
+    <t xml:space="preserve">0.987280130386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99214369058609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511276721954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916588306427</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321852207184</t>
@@ -191,31 +191,31 @@
     <t xml:space="preserve">1.00106000900269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964584171772003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848439693451</t>
+    <t xml:space="preserve">0.964584112167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984848380088806</t>
   </si>
   <si>
     <t xml:space="preserve">0.980795681476593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456403255463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068680286407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701568365097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
+    <t xml:space="preserve">0.996196627616882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689986228943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068501472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962865829468</t>
   </si>
   <si>
     <t xml:space="preserve">0.971879243850708</t>
@@ -224,49 +224,49 @@
     <t xml:space="preserve">0.950804352760315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790891170502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89325338602066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002520084381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526623249054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579500675201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915138900279999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055218696594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947562038898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918838500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623647212982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91838127374649</t>
+    <t xml:space="preserve">0.934592843055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893253564834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002400875092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579560279846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915138959884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055278301239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947562098503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623587608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381452560425</t>
   </si>
   <si>
     <t xml:space="preserve">0.91757071018219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904601454734802</t>
+    <t xml:space="preserve">0.904601633548737</t>
   </si>
   <si>
     <t xml:space="preserve">0.898117005825043</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">0.890011250972748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908654510974884</t>
+    <t xml:space="preserve">0.908654451370239</t>
   </si>
   <si>
     <t xml:space="preserve">0.922434210777283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855967104434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209358692169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451732158661</t>
+    <t xml:space="preserve">0.855967044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859209299087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862451672554016</t>
   </si>
   <si>
     <t xml:space="preserve">0.855156421661377</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">0.881094932556152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863262355327606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86812561750412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882715940475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738132953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768817901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425360679626</t>
+    <t xml:space="preserve">0.863262236118317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868125677108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716000080109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768937110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425420284271</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786376476288</t>
@@ -326,100 +326,100 @@
     <t xml:space="preserve">0.986289441585541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98377138376236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698437213898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
+    <t xml:space="preserve">0.983771324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698556423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974537909030914</t>
   </si>
   <si>
     <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968662261962891</t>
+    <t xml:space="preserve">0.968662202358246</t>
   </si>
   <si>
     <t xml:space="preserve">0.977895498275757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967822730541229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837902069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604546546936</t>
+    <t xml:space="preserve">0.967822849750519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837961673737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407723903656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604486942291</t>
   </si>
   <si>
     <t xml:space="preserve">0.939283430576324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971180379390717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356198310852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231845378876</t>
+    <t xml:space="preserve">0.971180319786072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949356079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231904983521</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95691055059433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159137248993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948516726493835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334896564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780246257782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728899478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619777679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906547009944916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92585301399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926692366600037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934246957302094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101421833038</t>
+    <t xml:space="preserve">0.956910669803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159077644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640900611877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948516607284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923334836959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780127048492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728780269623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619718074799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906546950340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013661384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925853133201599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926692426204681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247076511383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101481437683</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743892192841</t>
+    <t xml:space="preserve">0.910743951797485</t>
   </si>
   <si>
     <t xml:space="preserve">0.900671124458313</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956065177917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634829998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795417785645</t>
+    <t xml:space="preserve">0.893956005573273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795358181</t>
   </si>
   <si>
     <t xml:space="preserve">0.913262128829956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920816600322723</t>
+    <t xml:space="preserve">0.920816719532013</t>
   </si>
   <si>
     <t xml:space="preserve">0.909904539585114</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">0.889759004116058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881365060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846943378448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686236381531</t>
+    <t xml:space="preserve">0.88136500120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878846883773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686295986176</t>
   </si>
   <si>
     <t xml:space="preserve">0.891437828540802</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677135467529</t>
+    <t xml:space="preserve">0.947677254676819</t>
   </si>
   <si>
     <t xml:space="preserve">0.912422716617584</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">0.874650001525879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401534080505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865416586399078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525648593903</t>
+    <t xml:space="preserve">0.886401474475861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865416526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525708198547</t>
   </si>
   <si>
     <t xml:space="preserve">0.885562002658844</t>
@@ -509,22 +509,22 @@
     <t xml:space="preserve">0.911583244800568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092559337616</t>
+    <t xml:space="preserve">0.982092499732971</t>
   </si>
   <si>
     <t xml:space="preserve">0.951874256134033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959428906440735</t>
+    <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553140163422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964465320110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071376800537</t>
+    <t xml:space="preserve">0.964465200901031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071257591248</t>
   </si>
   <si>
     <t xml:space="preserve">0.960268318653107</t>
@@ -533,46 +533,46 @@
     <t xml:space="preserve">0.988807559013367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975377380847931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9795743227005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501554965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94348019361496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925722122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97285932302475</t>
+    <t xml:space="preserve">0.975377202033997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979574263095856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983377933502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501495361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801428794861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480312824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925781726837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97285920381546</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968385219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001080989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0442076921463</t>
+    <t xml:space="preserve">0.981253206729889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522737503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968325614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001069068909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04420781135559</t>
   </si>
   <si>
     <t xml:space="preserve">1.0332955121994</t>
@@ -581,64 +581,64 @@
     <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04840481281281</t>
+    <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
     <t xml:space="preserve">1.05344104766846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077745437622</t>
+    <t xml:space="preserve">1.03581368923187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03077757358551</t>
   </si>
   <si>
     <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650774478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12143194675446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800170898438</t>
+    <t xml:space="preserve">1.01650762557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12143218517303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20956873893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544444561005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872926712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18354749679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19110190868378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18942320346832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759884357452</t>
+    <t xml:space="preserve">1.20956861972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544456481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872938632965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18354737758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19110202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18942308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759872436523</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1667594909668</t>
+    <t xml:space="preserve">1.16675937175751</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745342731476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318371772766</t>
+    <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
     <t xml:space="preserve">1.15668678283691</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">1.20621109008789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24902021884918</t>
+    <t xml:space="preserve">1.24902033805847</t>
   </si>
   <si>
     <t xml:space="preserve">1.25741410255432</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">1.26580822467804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26329004764557</t>
+    <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29098999500275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303259849548</t>
+    <t xml:space="preserve">1.29098987579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34303247928619</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37660825252533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38164460659027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828695774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39339625835419</t>
+    <t xml:space="preserve">1.37660837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38164472579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828707695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3933961391449</t>
   </si>
   <si>
     <t xml:space="preserve">1.38919925689697</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">1.39675390720367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38500237464905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37157189846039</t>
+    <t xml:space="preserve">1.38500213623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3715717792511</t>
   </si>
   <si>
     <t xml:space="preserve">1.37241125106812</t>
@@ -722,28 +722,28 @@
     <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41270220279694</t>
+    <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529308795929</t>
+    <t xml:space="preserve">1.42529332637787</t>
   </si>
   <si>
     <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536591529846</t>
+    <t xml:space="preserve">1.43536603450775</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47733569145203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014482021332</t>
+    <t xml:space="preserve">1.47733581066132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179002285004</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">1.32792341709137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32624459266663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31785070896149</t>
+    <t xml:space="preserve">1.32624471187592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.32372641563416</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33044171333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617176532745</t>
+    <t xml:space="preserve">1.33044159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31617188453674</t>
   </si>
   <si>
     <t xml:space="preserve">1.31365370750427</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442035198212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588105201721</t>
+    <t xml:space="preserve">1.30442023277283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588081359863</t>
   </si>
   <si>
     <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35982024669647</t>
+    <t xml:space="preserve">1.34471142292023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35982048511505</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45299327373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489022254944</t>
+    <t xml:space="preserve">1.45299315452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489046096802</t>
   </si>
   <si>
     <t xml:space="preserve">1.526859998703</t>
@@ -809,19 +809,19 @@
     <t xml:space="preserve">1.50167834758759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53609347343445</t>
+    <t xml:space="preserve">1.53609359264374</t>
   </si>
   <si>
     <t xml:space="preserve">1.51930546760559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50755393505096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52729976177216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957309246063</t>
+    <t xml:space="preserve">1.50755405426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52729988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">1.53588509559631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53245091438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532849788666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55391383171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280111312866</t>
+    <t xml:space="preserve">1.53245079517365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962122440338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532861709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55391371250153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280123233795</t>
   </si>
   <si>
     <t xml:space="preserve">1.57966947555542</t>
@@ -857,40 +857,40 @@
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365965843201</t>
+    <t xml:space="preserve">1.57365953922272</t>
   </si>
   <si>
     <t xml:space="preserve">1.57451808452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679165363312</t>
+    <t xml:space="preserve">1.56679153442383</t>
   </si>
   <si>
     <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850850582123</t>
+    <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5281583070755</t>
+    <t xml:space="preserve">1.53931891918182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52815842628479</t>
   </si>
   <si>
     <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51356375217438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871466636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124205112457</t>
+    <t xml:space="preserve">1.5135635137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51871478557587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124217033386</t>
   </si>
   <si>
     <t xml:space="preserve">1.4629111289978</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">1.49381768703461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48609113693237</t>
+    <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
     <t xml:space="preserve">1.54876267910004</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">1.5556309223175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482027053833</t>
+    <t xml:space="preserve">1.58482038974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.56765007972717</t>
@@ -926,28 +926,28 @@
     <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57108414173126</t>
+    <t xml:space="preserve">1.57108426094055</t>
   </si>
   <si>
     <t xml:space="preserve">1.56421613693237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5590648651123</t>
+    <t xml:space="preserve">1.55906498432159</t>
   </si>
   <si>
     <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5247243642807</t>
+    <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6423407793045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69814455509186</t>
+    <t xml:space="preserve">1.64234089851379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69814467430115</t>
   </si>
   <si>
     <t xml:space="preserve">1.67067193984985</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74793839454651</t>
+    <t xml:space="preserve">1.74793827533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.71188068389893</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">1.69986140727997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076808452606</t>
+    <t xml:space="preserve">1.73076820373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445631980896</t>
+    <t xml:space="preserve">1.72733390331268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
     <t xml:space="preserve">1.67238891124725</t>
@@ -995,19 +995,19 @@
     <t xml:space="preserve">1.62259495258331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098787784576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.459477186203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46977937221527</t>
+    <t xml:space="preserve">1.58997142314911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936693191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098799705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45947706699371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46977913379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.47578883171082</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294527053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66981339454651</t>
+    <t xml:space="preserve">1.66294538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6698135137558</t>
   </si>
   <si>
     <t xml:space="preserve">1.68269121646881</t>
@@ -1028,16 +1028,16 @@
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885882377625</t>
+    <t xml:space="preserve">1.60885870456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60284924507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58825445175171</t>
+    <t xml:space="preserve">1.60284912586212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.588254570961</t>
   </si>
   <si>
     <t xml:space="preserve">1.5753767490387</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5410361289978</t>
+    <t xml:space="preserve">1.54103600978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.54275321960449</t>
@@ -1064,37 +1064,37 @@
     <t xml:space="preserve">1.54447019100189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55047988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.55047976970673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410612106323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556903839111</t>
+    <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698382377625</t>
+    <t xml:space="preserve">1.68698370456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64835059642792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62688767910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669538974762</t>
+    <t xml:space="preserve">1.64835047721863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62688755989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820655822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669550895691</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">1.60542476177216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63118028640747</t>
+    <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66122817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839872837067</t>
+    <t xml:space="preserve">1.66122829914093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
     <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60971736907959</t>
+    <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113227367401</t>
@@ -1160,16 +1160,16 @@
     <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71273922920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71382653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70496952533722</t>
+    <t xml:space="preserve">1.71273934841156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839848995209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71382641792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70496940612793</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1181,31 +1181,31 @@
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725562095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397010326385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65182769298553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63854217529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625619888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64739918708801</t>
+    <t xml:space="preserve">1.68725550174713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67396998405457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65182757377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63854229450226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625607967377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64739906787872</t>
   </si>
   <si>
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954171657562</t>
+    <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
     <t xml:space="preserve">1.62968528270721</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60754287242889</t>
+    <t xml:space="preserve">1.6075427532196</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">1.62082827091217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64297068119049</t>
+    <t xml:space="preserve">1.6429705619812</t>
   </si>
   <si>
     <t xml:space="preserve">1.58097171783447</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340149879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49683058261871</t>
+    <t xml:space="preserve">1.52340137958527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49683046340942</t>
   </si>
   <si>
     <t xml:space="preserve">1.43040299415588</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583104133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48354494571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51897299289703</t>
+    <t xml:space="preserve">1.46583092212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48354482650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51897287368774</t>
   </si>
   <si>
     <t xml:space="preserve">1.52782988548279</t>
@@ -1277,37 +1277,37 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982884883881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5499724149704</t>
+    <t xml:space="preserve">1.58982872962952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54997229576111</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125908851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540034294128</t>
+    <t xml:space="preserve">1.50125896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
     <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5101158618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46140253543854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797345161438</t>
+    <t xml:space="preserve">1.51011598110199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46140241622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4525454044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797333240509</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
@@ -1325,70 +1325,70 @@
     <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69168412685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70939815044403</t>
+    <t xml:space="preserve">1.69168400764465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611251354218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70939791202545</t>
   </si>
   <si>
     <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73596906661987</t>
+    <t xml:space="preserve">1.73596894741058</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682480335236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7979679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.80682492256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79796802997589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82453882694244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78911089897156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84225273132324</t>
+    <t xml:space="preserve">1.82453894615173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78911101818085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84225285053253</t>
   </si>
   <si>
     <t xml:space="preserve">1.85996675491333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85110974311829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86882376670837</t>
+    <t xml:space="preserve">1.85110986232758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653802871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9308226108551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98396456241608</t>
+    <t xml:space="preserve">1.88653790950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082273006439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98396468162537</t>
   </si>
   <si>
     <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99282157421112</t>
+    <t xml:space="preserve">1.99282169342041</t>
   </si>
   <si>
     <t xml:space="preserve">2.03710651397705</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
+    <t xml:space="preserve">2.00167870521545</t>
   </si>
   <si>
     <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0636773109436</t>
+    <t xml:space="preserve">2.06367754936218</t>
   </si>
   <si>
     <t xml:space="preserve">2.04596352577209</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0991051197052</t>
+    <t xml:space="preserve">2.09910535812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,25 +1433,25 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424603462219</t>
+    <t xml:space="preserve">2.21424627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25853109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22310304641724</t>
+    <t xml:space="preserve">2.25853133201599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
     <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16996121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1788182258606</t>
+    <t xml:space="preserve">2.16996145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17881846427917</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242327690125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412846565247</t>
+    <t xml:space="preserve">2.12219166755676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412834644318</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071808815002</t>
+    <t xml:space="preserve">2.02157044410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06730723381042</t>
+    <t xml:space="preserve">2.067307472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133883476257</t>
+    <t xml:space="preserve">2.13133907318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940227508545</t>
+    <t xml:space="preserve">2.25940251350403</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288613796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544392108917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226491451263</t>
+    <t xml:space="preserve">1.79288601875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544380187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226503372192</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079121589661</t>
+    <t xml:space="preserve">1.60079109668732</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815419197083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381186008453</t>
+    <t xml:space="preserve">1.46815407276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636988162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381197929382</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745396614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14799582958221</t>
+    <t xml:space="preserve">1.30350124835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745384693146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1479959487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202766895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807507038116</t>
+    <t xml:space="preserve">1.21202754974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807495117188</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094346523285</t>
+    <t xml:space="preserve">1.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699086666107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272789478302</t>
+    <t xml:space="preserve">1.42699098587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295926570892</t>
+    <t xml:space="preserve">1.36295938491821</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2669118642807</t>
+    <t xml:space="preserve">1.26691174507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660137176514</t>
+    <t xml:space="preserve">1.21660125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117507457733</t>
+    <t xml:space="preserve">1.22117495536804</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1571432352066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427484035492</t>
+    <t xml:space="preserve">1.15714335441589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16171705722809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427495956421</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342212677002</t>
+    <t xml:space="preserve">1.14342224597931</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15256953239441</t>
+    <t xml:space="preserve">1.1525696516037</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.394975066185</t>
+    <t xml:space="preserve">1.39497518539429</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838556289673</t>
+    <t xml:space="preserve">1.35838568210602</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5001699924469</t>
+    <t xml:space="preserve">1.50016987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931739807129</t>
+    <t xml:space="preserve">1.509317278862</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055972576141</t>
+    <t xml:space="preserve">1.71055960655212</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141232013702</t>
+    <t xml:space="preserve">1.70141220092773</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513342857361</t>
+    <t xml:space="preserve">1.71513330936432</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745984077454</t>
+    <t xml:space="preserve">1.79745972156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683861732483</t>
+    <t xml:space="preserve">1.69683849811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009662628174</t>
+    <t xml:space="preserve">1.93009650707245</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9483916759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490181922913</t>
+    <t xml:space="preserve">1.94839155673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490193843842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8569176197052</t>
+    <t xml:space="preserve">1.85691773891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924403190613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087021827698</t>
+    <t xml:space="preserve">1.93924391269684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087009906769</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769121170044</t>
+    <t xml:space="preserve">1.68769133090973</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203354358673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598602294922</t>
+    <t xml:space="preserve">1.80203342437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598590373993</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50474369525909</t>
+    <t xml:space="preserve">1.5047435760498</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567529201508</t>
+    <t xml:space="preserve">1.65567541122437</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032811641693</t>
+    <t xml:space="preserve">1.80660712718964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032823562622</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -58971,7 +58971,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.4337037037</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>2475</v>
@@ -58992,6 +58992,32 @@
         <v>725</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.649375</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>14922</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>728</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -47,82 +47,82 @@
     <t xml:space="preserve">1.12507796287537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
+    <t xml:space="preserve">1.10886633396149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
     <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08454918861389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346556663513</t>
+    <t xml:space="preserve">1.08454930782318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
     <t xml:space="preserve">1.08617031574249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0683376789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374729633331</t>
+    <t xml:space="preserve">1.06833755970001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05374717712402</t>
   </si>
   <si>
     <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988901436328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531175136566</t>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531234741211</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954194545746</t>
+    <t xml:space="preserve">0.992954254150391</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349175930023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
+    <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727139949799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985659062862396</t>
+    <t xml:space="preserve">0.985659003257751</t>
   </si>
   <si>
     <t xml:space="preserve">1.01646077632904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979984998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266728401184</t>
+    <t xml:space="preserve">0.979985177516937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913517832756042</t>
+    <t xml:space="preserve">0.913517892360687</t>
   </si>
   <si>
     <t xml:space="preserve">0.842997848987579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806522071361542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826786398887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389758586884</t>
+    <t xml:space="preserve">0.806522011756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82678633928299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389818191528</t>
   </si>
   <si>
     <t xml:space="preserve">0.818680584430695</t>
@@ -140,37 +140,37 @@
     <t xml:space="preserve">0.907843887805939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161033153534</t>
+    <t xml:space="preserve">0.932160973548889</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213910579681</t>
+    <t xml:space="preserve">0.936213850975037</t>
   </si>
   <si>
     <t xml:space="preserve">0.910275638103485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319844245911</t>
+    <t xml:space="preserve">0.944319665431976</t>
   </si>
   <si>
     <t xml:space="preserve">0.943509221076965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948372483253479</t>
+    <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995386064052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183106422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152540683746</t>
+    <t xml:space="preserve">0.995385944843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183166027069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152481079102</t>
   </si>
   <si>
     <t xml:space="preserve">0.987280309200287</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">0.992143630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00511276721954</t>
+    <t xml:space="preserve">1.00511288642883</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916576385498</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">1.01321864128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00106000900269</t>
+    <t xml:space="preserve">1.0010598897934</t>
   </si>
   <si>
     <t xml:space="preserve">0.964584052562714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984848439693451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795443058014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689807415009</t>
+    <t xml:space="preserve">0.984848380088806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795562267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196568012238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689867019653</t>
   </si>
   <si>
     <t xml:space="preserve">0.939456284046173</t>
@@ -215,52 +215,52 @@
     <t xml:space="preserve">0.96701580286026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962962806224823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804233551025</t>
+    <t xml:space="preserve">0.962962865829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879184246063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
     <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903790950775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89325350522995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526504039764</t>
+    <t xml:space="preserve">0.903791010379791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893253564834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002400875092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905496120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526623249054</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579441070557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915138959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055278301239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947561979293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918838500977</t>
+    <t xml:space="preserve">0.915139019489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055337905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947562098503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918778896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.921623587608337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91838127374649</t>
+    <t xml:space="preserve">0.918381333351135</t>
   </si>
   <si>
     <t xml:space="preserve">0.917570650577545</t>
@@ -269,16 +269,16 @@
     <t xml:space="preserve">0.904601633548737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
+    <t xml:space="preserve">0.898116946220398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654510974884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434151172638</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967104434967</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">0.855156421661377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848671913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094992160797</t>
+    <t xml:space="preserve">0.848671972751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094872951508</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868125736713409</t>
+    <t xml:space="preserve">0.868125677108765</t>
   </si>
   <si>
     <t xml:space="preserve">0.882715940475464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738073348999</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768817901611</t>
@@ -320,37 +320,37 @@
     <t xml:space="preserve">0.952425479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962786495685577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98628956079483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98377126455307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895617485046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822730541229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837842464447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407485485077</t>
+    <t xml:space="preserve">0.962786316871643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986289322376251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983771324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698556423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97453784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662202358246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895557880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837902069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407545089722</t>
   </si>
   <si>
     <t xml:space="preserve">0.937604546546936</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956910789012909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159077644348</t>
+    <t xml:space="preserve">0.956910729408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
   </si>
   <si>
     <t xml:space="preserve">0.942641019821167</t>
@@ -386,22 +386,22 @@
     <t xml:space="preserve">0.923334896564484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915780246257782</t>
+    <t xml:space="preserve">0.915780305862427</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728839874268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916619718074799</t>
+    <t xml:space="preserve">0.916619777679443</t>
   </si>
   <si>
     <t xml:space="preserve">0.906546950340271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925013661384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925853073596954</t>
+    <t xml:space="preserve">0.925013542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925853133201599</t>
   </si>
   <si>
     <t xml:space="preserve">0.926692306995392</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">0.934246957302094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919137954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101421833038</t>
+    <t xml:space="preserve">0.91913777589798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101541042328</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">0.91074401140213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900671064853668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905707538127899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956065177917</t>
+    <t xml:space="preserve">0.900671124458313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905707478523254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956124782562</t>
   </si>
   <si>
     <t xml:space="preserve">0.895634889602661</t>
@@ -440,37 +440,37 @@
     <t xml:space="preserve">0.913262069225311</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920816659927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189361095428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898153007030487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889758944511414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881364941596985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878847002983093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686176776886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
+    <t xml:space="preserve">0.920816600322723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904539585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189301490784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898152947425842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889759004116058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88136500120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878846943378448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686236381531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
     <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677314281464</t>
+    <t xml:space="preserve">0.947677254676819</t>
   </si>
   <si>
     <t xml:space="preserve">0.912422776222229</t>
@@ -482,109 +482,109 @@
     <t xml:space="preserve">0.874650001525879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401474475861</t>
+    <t xml:space="preserve">0.886401414871216</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525708198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885562002658844</t>
+    <t xml:space="preserve">0.880525767803192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885561943054199</t>
   </si>
   <si>
     <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888919651508331</t>
+    <t xml:space="preserve">0.888919591903687</t>
   </si>
   <si>
     <t xml:space="preserve">0.875489354133606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080239295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583304405212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092559337616</t>
+    <t xml:space="preserve">0.888080298900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583364009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092440128326</t>
   </si>
   <si>
     <t xml:space="preserve">0.951874315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959428787231445</t>
+    <t xml:space="preserve">0.95942884683609</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553140163422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964465200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268199443817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807678222656</t>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071317195892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807737827301</t>
   </si>
   <si>
     <t xml:space="preserve">0.975377380847931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501674175262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480372428894</t>
+    <t xml:space="preserve">0.979574382305145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983199119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501614570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801488399506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480253219604</t>
   </si>
   <si>
     <t xml:space="preserve">0.935925781726837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972859084606171</t>
+    <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968385219574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001080989838</t>
+    <t xml:space="preserve">0.981253266334534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968325614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001069068909</t>
   </si>
   <si>
     <t xml:space="preserve">1.0442076921463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03329563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03665328025818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05344092845917</t>
+    <t xml:space="preserve">1.0332955121994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03665316104889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04840481281281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05344116687775</t>
   </si>
   <si>
     <t xml:space="preserve">1.03581368923187</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">1.02741980552673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650774478912</t>
+    <t xml:space="preserve">1.01650762557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143206596375</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544432640076</t>
+    <t xml:space="preserve">1.21544444561005</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872938632965</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">1.19110202789307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759884357452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836548805237</t>
+    <t xml:space="preserve">1.18942320346832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759896278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836560726166</t>
   </si>
   <si>
     <t xml:space="preserve">1.1667594909668</t>
@@ -638,31 +638,31 @@
     <t xml:space="preserve">1.14745330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318359851837</t>
+    <t xml:space="preserve">1.13318371772766</t>
   </si>
   <si>
     <t xml:space="preserve">1.15668678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16508078575134</t>
+    <t xml:space="preserve">1.16508066654205</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781708717346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20788991451263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18270814418793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2062109708786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24902021884918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25741410255432</t>
+    <t xml:space="preserve">1.20788979530334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18270802497864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20621120929718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24902033805847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29098987579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303247928619</t>
+    <t xml:space="preserve">1.29098999500275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409019470215</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828695774078</t>
+    <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.3933961391449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38919925689697</t>
+    <t xml:space="preserve">1.38919937610626</t>
   </si>
   <si>
     <t xml:space="preserve">1.39675378799438</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3715717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814166069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41018402576447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4336873292923</t>
+    <t xml:space="preserve">1.37157189846039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37241148948669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35814154148102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41018414497375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
     <t xml:space="preserve">1.41270232200623</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">1.43536603450775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44208121299744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47733581066132</t>
+    <t xml:space="preserve">1.44208109378815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47733557224274</t>
   </si>
   <si>
     <t xml:space="preserve">1.52014482021332</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065995693207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792341709137</t>
+    <t xml:space="preserve">1.36065983772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792353630066</t>
   </si>
   <si>
     <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31785070896149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32372641563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33128106594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044159412384</t>
+    <t xml:space="preserve">1.3178505897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32372653484344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33128094673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33044171333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31365370750427</t>
+    <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">1.29350829124451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35982024669647</t>
+    <t xml:space="preserve">1.34471118450165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
@@ -818,19 +818,19 @@
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957309246063</t>
+    <t xml:space="preserve">1.52730000019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588509559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245079517365</t>
+    <t xml:space="preserve">1.53588497638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245091438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962122440338</t>
@@ -839,28 +839,28 @@
     <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55391383171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280111312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57966935634613</t>
+    <t xml:space="preserve">1.55391371250153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57966923713684</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704558849335</t>
+    <t xml:space="preserve">1.54704570770264</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365953922272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57451820373535</t>
+    <t xml:space="preserve">1.57365965843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57451832294464</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679165363312</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850862503052</t>
+    <t xml:space="preserve">1.56850874423981</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
+    <t xml:space="preserve">1.53931903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871478557587</t>
+    <t xml:space="preserve">1.51871466636658</t>
   </si>
   <si>
     <t xml:space="preserve">1.49124217033386</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149634361267</t>
+    <t xml:space="preserve">1.47149622440338</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">1.58482027053833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56764996051788</t>
+    <t xml:space="preserve">1.56765007972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">1.57108426094055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56421601772308</t>
+    <t xml:space="preserve">1.56421589851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.5590648651123</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">1.5247243642807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6114342212677</t>
+    <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
     <t xml:space="preserve">1.64234089851379</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67067193984985</t>
+    <t xml:space="preserve">1.67067182064056</t>
   </si>
   <si>
     <t xml:space="preserve">1.75995755195618</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74793839454651</t>
+    <t xml:space="preserve">1.7479385137558</t>
   </si>
   <si>
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561693191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70844662189484</t>
+    <t xml:space="preserve">1.72561681270599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70844674110413</t>
   </si>
   <si>
     <t xml:space="preserve">1.72905099391937</t>
@@ -980,28 +980,28 @@
     <t xml:space="preserve">1.73076808452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73420202732086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72733414173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445631980896</t>
+    <t xml:space="preserve">1.73420226573944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72733402252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
     <t xml:space="preserve">1.67238891124725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098799705505</t>
+    <t xml:space="preserve">1.6225950717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58997142314911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936717033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098787784576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">1.47578883171082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61229288578033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66294527053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66981339454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269109725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68183267116547</t>
+    <t xml:space="preserve">1.61229300498962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66294538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6698135137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269121646881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68183255195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.60885882377625</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60284924507141</t>
+    <t xml:space="preserve">1.60284912586212</t>
   </si>
   <si>
     <t xml:space="preserve">1.588254570961</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739578723907</t>
+    <t xml:space="preserve">1.58739590644836</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
@@ -1052,19 +1052,19 @@
     <t xml:space="preserve">1.54103600978851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54275321960449</t>
+    <t xml:space="preserve">1.5427531003952</t>
   </si>
   <si>
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54447031021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047976970673</t>
+    <t xml:space="preserve">1.54361164569855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54447019100189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55047965049744</t>
   </si>
   <si>
     <t xml:space="preserve">1.61400997638702</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">1.67410612106323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556879997253</t>
+    <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688767910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820643901825</t>
+    <t xml:space="preserve">1.62688755989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820631980896</t>
   </si>
   <si>
     <t xml:space="preserve">1.50669538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48093998432159</t>
+    <t xml:space="preserve">1.4809398651123</t>
   </si>
   <si>
     <t xml:space="preserve">1.51528060436249</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801414966583</t>
+    <t xml:space="preserve">1.43801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">1.48952519893646</t>
@@ -1121,31 +1121,31 @@
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683966636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118028640747</t>
+    <t xml:space="preserve">1.59683954715729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542476177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66122817993164</t>
+    <t xml:space="preserve">1.66122829914093</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65693557262421</t>
+    <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113227367401</t>
+    <t xml:space="preserve">1.60113215446472</t>
   </si>
   <si>
     <t xml:space="preserve">1.63976538181305</t>
@@ -1172,19 +1172,19 @@
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825504302979</t>
+    <t xml:space="preserve">1.71825516223907</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725562095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397022247314</t>
+    <t xml:space="preserve">1.68725550174713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397010326385</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
@@ -1205,22 +1205,22 @@
     <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62968516349792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61197125911713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111540317535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59425723552704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6075427532196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639976501465</t>
+    <t xml:space="preserve">1.62968528270721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61197137832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111528396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59425735473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60754287242889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639988422394</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097183704376</t>
+    <t xml:space="preserve">1.58097171783447</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340149879456</t>
+    <t xml:space="preserve">1.52340137958527</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454436779022</t>
+    <t xml:space="preserve">1.51454448699951</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48354494571686</t>
+    <t xml:space="preserve">1.48354482650757</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1274,40 +1274,40 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982884883881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54997229576111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882930755615</t>
+    <t xml:space="preserve">1.58982872962952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5499724149704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882942676544</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45697391033173</t>
+    <t xml:space="preserve">1.45697402954102</t>
   </si>
   <si>
     <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47025954723358</t>
+    <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140253543854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797357082367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49240183830261</t>
+    <t xml:space="preserve">1.46140241622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45254552364349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797333240509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4924019575119</t>
   </si>
   <si>
     <t xml:space="preserve">1.55440092086792</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
+    <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1331,22 +1331,22 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7226836681366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596894741058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75368297100067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682480335236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7979679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.72268354892731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596906661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75368309020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682492256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79796802997589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110974311829</t>
+    <t xml:space="preserve">1.85996663570404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110986232758</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
@@ -1373,31 +1373,31 @@
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653790950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93082284927368</t>
+    <t xml:space="preserve">1.88653779029846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9308226108551</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510766983032</t>
+    <t xml:space="preserve">1.97510755062103</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0105357170105</t>
+    <t xml:space="preserve">2.00167870521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253432273865</t>
+    <t xml:space="preserve">2.07253456115723</t>
   </si>
   <si>
     <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12567663192749</t>
+    <t xml:space="preserve">2.12567639350891</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10796236991882</t>
+    <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
     <t xml:space="preserve">2.09910535812378</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18767523765564</t>
+    <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1788182258606</t>
+    <t xml:space="preserve">2.17881846427917</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242327690125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412846565247</t>
+    <t xml:space="preserve">2.12219166755676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412834644318</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071808815002</t>
+    <t xml:space="preserve">2.02157044410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06730723381042</t>
+    <t xml:space="preserve">2.067307472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133883476257</t>
+    <t xml:space="preserve">2.13133907318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940227508545</t>
+    <t xml:space="preserve">2.25940251350403</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1550,19 +1550,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288613796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544392108917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226491451263</t>
+    <t xml:space="preserve">1.79288601875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544380187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226503372192</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079121589661</t>
+    <t xml:space="preserve">1.60079109668732</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1571,25 +1571,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815419197083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381186008453</t>
+    <t xml:space="preserve">1.46815407276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636988162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381197929382</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745396614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14799582958221</t>
+    <t xml:space="preserve">1.30350124835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745384693146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1479959487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202766895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807507038116</t>
+    <t xml:space="preserve">1.21202754974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807495117188</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094346523285</t>
+    <t xml:space="preserve">1.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1628,10 +1628,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699086666107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272789478302</t>
+    <t xml:space="preserve">1.42699098587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295926570892</t>
+    <t xml:space="preserve">1.36295938491821</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2669118642807</t>
+    <t xml:space="preserve">1.26691174507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660137176514</t>
+    <t xml:space="preserve">1.21660125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117507457733</t>
+    <t xml:space="preserve">1.22117495536804</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1571432352066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427484035492</t>
+    <t xml:space="preserve">1.15714335441589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16171705722809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427495956421</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342212677002</t>
+    <t xml:space="preserve">1.14342224597931</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15256953239441</t>
+    <t xml:space="preserve">1.1525696516037</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.394975066185</t>
+    <t xml:space="preserve">1.39497518539429</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838556289673</t>
+    <t xml:space="preserve">1.35838568210602</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5001699924469</t>
+    <t xml:space="preserve">1.50016987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931739807129</t>
+    <t xml:space="preserve">1.509317278862</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055972576141</t>
+    <t xml:space="preserve">1.71055960655212</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141232013702</t>
+    <t xml:space="preserve">1.70141220092773</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513342857361</t>
+    <t xml:space="preserve">1.71513330936432</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745984077454</t>
+    <t xml:space="preserve">1.79745972156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683861732483</t>
+    <t xml:space="preserve">1.69683849811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009662628174</t>
+    <t xml:space="preserve">1.93009650707245</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9483916759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490181922913</t>
+    <t xml:space="preserve">1.94839155673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490193843842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8569176197052</t>
+    <t xml:space="preserve">1.85691773891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1895,31 +1895,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924403190613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087021827698</t>
+    <t xml:space="preserve">1.93924391269684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087009906769</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769121170044</t>
+    <t xml:space="preserve">1.68769133090973</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203354358673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598602294922</t>
+    <t xml:space="preserve">1.80203342437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598590373993</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50474369525909</t>
+    <t xml:space="preserve">1.5047435760498</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567529201508</t>
+    <t xml:space="preserve">1.65567541122437</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032811641693</t>
+    <t xml:space="preserve">1.80660712718964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032823562622</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -59020,7 +59020,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6495949074</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>16183</v>
@@ -59041,6 +59041,32 @@
         <v>746</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6494212963</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>32382</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184443950653</t>
+    <t xml:space="preserve">1.09184455871582</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,94 +47,94 @@
     <t xml:space="preserve">1.12507784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643470287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563281059265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454930782318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346544742584</t>
+    <t xml:space="preserve">1.10886657238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643458366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563304901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08454918861389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09346556663513</t>
   </si>
   <si>
     <t xml:space="preserve">1.08617031574249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06833755970001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374717712402</t>
+    <t xml:space="preserve">1.0683376789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
     <t xml:space="preserve">0.9759321808815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988901436328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531115531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349164009094</t>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531234741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954194545746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349175930023</t>
   </si>
   <si>
     <t xml:space="preserve">1.02051365375519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01727139949799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985659003257751</t>
+    <t xml:space="preserve">1.0172712802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985658943653107</t>
   </si>
   <si>
     <t xml:space="preserve">1.01646089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979985177516937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266847610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108155727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806521952152252</t>
+    <t xml:space="preserve">0.979985117912292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266907215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517951965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997789382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
     <t xml:space="preserve">0.82678633928299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796389758586884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680584430695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420868396759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632378101349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412018299103</t>
+    <t xml:space="preserve">0.796389877796173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680644035339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420928001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632258892059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412077903748</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843887805939</t>
@@ -143,220 +143,220 @@
     <t xml:space="preserve">0.932161092758179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956478178501129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213970184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275518894196</t>
+    <t xml:space="preserve">0.956478357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936213910579681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275638103485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319784641266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509221076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372602462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00268125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995385944843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280130386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99214369058609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511276721954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916564464569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01321864128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00106000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584112167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98484855890274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795621871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196448802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689986228943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068680286407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962806224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879184246063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95080429315567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934592723846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893253445625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002520084381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905496120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526623249054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579500675201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139019489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055337905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947562038898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381333351135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91757071018219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601633548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898116946220398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434151172638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967104434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85920923948288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862451612949371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156362056732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671972751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094932556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262295722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868125677108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716000080109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877042055130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738013744354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768937110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425539493561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786376476288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98628956079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98377138376236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974537968635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304613113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662261962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895617485046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822730541229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837961673737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407485485077</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372542858124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.002681016922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385944843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183106422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152361869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280189990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511276721954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01321864128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00106000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584112167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795681476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196448802948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701580286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962806224823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879303455353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95080429315567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93459290266037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903791010379791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89325362443924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002400875092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526563644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579441070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915138959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055278301239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947562038898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918778896332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623587608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918381452560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917570650577545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601633548737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90865433216095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451612949371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156362056732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671853542328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262236118317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868125557899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716059684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87704199552536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738132953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425420284271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786316871643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986289441585541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771443367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698556423187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662202358246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895557880402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822909355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837902069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319784641266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604486942291</t>
+    <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
     <t xml:space="preserve">0.939283311367035</t>
@@ -371,37 +371,37 @@
     <t xml:space="preserve">0.955231845378876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954392433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159077644348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640900611877</t>
+    <t xml:space="preserve">0.954392552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910669803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516666889191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780246257782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728899478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619718074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906546950340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013720989227</t>
+    <t xml:space="preserve">0.923334777355194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728720664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906547009944916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013601779938</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">0.926692306995392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934247076511383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137835502625</t>
+    <t xml:space="preserve">0.934246957302094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101481437683</t>
@@ -422,58 +422,58 @@
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743951797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671184062958</t>
+    <t xml:space="preserve">0.91074401140213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671124458313</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956005573273</t>
+    <t xml:space="preserve">0.893956065177917</t>
   </si>
   <si>
     <t xml:space="preserve">0.895634889602661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894795358181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262248039246</t>
+    <t xml:space="preserve">0.894795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816719532013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909904539585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189241886139</t>
+    <t xml:space="preserve">0.909904479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189361095428</t>
   </si>
   <si>
     <t xml:space="preserve">0.898153007030487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889759004116058</t>
+    <t xml:space="preserve">0.889758944511414</t>
   </si>
   <si>
     <t xml:space="preserve">0.881364941596985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878846883773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686295986176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87297111749649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677254676819</t>
+    <t xml:space="preserve">0.878847002983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686236381531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437828540802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872971057891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677314281464</t>
   </si>
   <si>
     <t xml:space="preserve">0.912422776222229</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">0.876328706741333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874649941921234</t>
+    <t xml:space="preserve">0.874650001525879</t>
   </si>
   <si>
     <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865416526794434</t>
+    <t xml:space="preserve">0.865416646003723</t>
   </si>
   <si>
     <t xml:space="preserve">0.880525708198547</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888919711112976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875489294528961</t>
+    <t xml:space="preserve">0.888919591903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875489354133606</t>
   </si>
   <si>
     <t xml:space="preserve">0.888080239295959</t>
@@ -512,52 +512,52 @@
     <t xml:space="preserve">0.911583304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092440128326</t>
+    <t xml:space="preserve">0.982092559337616</t>
   </si>
   <si>
     <t xml:space="preserve">0.951874315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95942884683609</t>
+    <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553140163422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964465200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071436405182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807618618011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377261638641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979574382305145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983199119568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501614570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801488399506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480312824249</t>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268199443817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807559013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377380847931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983318328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501554965973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94180154800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480253219604</t>
   </si>
   <si>
     <t xml:space="preserve">0.935925781726837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972859263420105</t>
+    <t xml:space="preserve">0.97285920381546</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">0.981253147125244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98796820640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001069068909</t>
+    <t xml:space="preserve">0.995522797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968266010284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
     <t xml:space="preserve">1.0442076921463</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05344116687775</t>
+    <t xml:space="preserve">1.04840481281281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05344092845917</t>
   </si>
   <si>
     <t xml:space="preserve">1.03581368923187</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">1.03077745437622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02741980552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01650762557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12143218517303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800170898438</t>
+    <t xml:space="preserve">1.02741992473602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01650774478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12143206596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
@@ -614,22 +614,22 @@
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544456481934</t>
+    <t xml:space="preserve">1.21544432640076</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18354737758636</t>
+    <t xml:space="preserve">1.18354725837708</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110190868378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942320346832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759884357452</t>
+    <t xml:space="preserve">1.18942308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836548805237</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1.14745342731476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318371772766</t>
+    <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
     <t xml:space="preserve">1.15668678283691</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">1.20621109008789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24902033805847</t>
+    <t xml:space="preserve">1.24902021884918</t>
   </si>
   <si>
     <t xml:space="preserve">1.25741410255432</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27672028541565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29098999500275</t>
+    <t xml:space="preserve">1.27672040462494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29098987579346</t>
   </si>
   <si>
     <t xml:space="preserve">1.34303259849548</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255690574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38164460659027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828719615936</t>
+    <t xml:space="preserve">1.39255678653717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37660825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38164472579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828695774078</t>
   </si>
   <si>
     <t xml:space="preserve">1.3933961391449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38919913768768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3967536687851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500213623047</t>
+    <t xml:space="preserve">1.38919925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675390720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157189846039</t>
@@ -716,28 +716,28 @@
     <t xml:space="preserve">1.3724113702774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35814166069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41018414497375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43368721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41270232200623</t>
+    <t xml:space="preserve">1.35814154148102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41018402576447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4336873292923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41270220279694</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529332637787</t>
+    <t xml:space="preserve">1.42529320716858</t>
   </si>
   <si>
     <t xml:space="preserve">1.42361450195312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536603450775</t>
+    <t xml:space="preserve">1.43536615371704</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208121299744</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">1.47733569145203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52014493942261</t>
+    <t xml:space="preserve">1.52014482021332</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065983772278</t>
+    <t xml:space="preserve">1.36065995693207</t>
   </si>
   <si>
     <t xml:space="preserve">1.32792341709137</t>
@@ -761,37 +761,37 @@
     <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3178505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32372653484344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33128106594086</t>
+    <t xml:space="preserve">1.31785070896149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32372641563416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617164611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365358829498</t>
+    <t xml:space="preserve">1.31617176532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365370750427</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442023277283</t>
+    <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350829124451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471130371094</t>
+    <t xml:space="preserve">1.29350817203522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471118450165</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489046096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526859998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50167834758759</t>
+    <t xml:space="preserve">1.48489022254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52686011791229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5016782283783</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609359264374</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">1.53245091438293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54962122440338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532861709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55391371250153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280123233795</t>
+    <t xml:space="preserve">1.54962110519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532849788666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55391383171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280111312866</t>
   </si>
   <si>
     <t xml:space="preserve">1.57966935634613</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704570770264</t>
+    <t xml:space="preserve">1.54704558849335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451820373535</t>
+    <t xml:space="preserve">1.57451808452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55219674110413</t>
+    <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
@@ -878,31 +878,31 @@
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52815842628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48780822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5135635137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871478557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806228160858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.53931903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5281583070755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48780810832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51356363296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51871466636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124217033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806240081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55563080310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482038974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56765007972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56507444381714</t>
+    <t xml:space="preserve">1.5556309223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482027053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56764996051788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56507456302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.57108426094055</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">1.5247243642807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61143445968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64234089851379</t>
+    <t xml:space="preserve">1.6114342212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6423407793045</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995767116547</t>
+    <t xml:space="preserve">1.75995755195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7479385137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71188080310822</t>
+    <t xml:space="preserve">1.74793839454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
     <t xml:space="preserve">1.72561693191528</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69986164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73076808452606</t>
+    <t xml:space="preserve">1.69986152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73076820373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733402252197</t>
+    <t xml:space="preserve">1.72733414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445620059967</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">1.6225950717926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58997142314911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098799705505</t>
+    <t xml:space="preserve">1.5899715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936717033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098787784576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46977925300598</t>
+    <t xml:space="preserve">1.46977937221527</t>
   </si>
   <si>
     <t xml:space="preserve">1.47578883171082</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294538974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66981339454651</t>
+    <t xml:space="preserve">1.66294527053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6698135137558</t>
   </si>
   <si>
     <t xml:space="preserve">1.68269121646881</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">1.60885882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59941506385803</t>
+    <t xml:space="preserve">1.59941530227661</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">1.588254570961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5753767490387</t>
+    <t xml:space="preserve">1.57537662982941</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739578723907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55133819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5410361289978</t>
+    <t xml:space="preserve">1.55133831501007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54103600978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.54275321960449</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">1.54361152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5444700717926</t>
+    <t xml:space="preserve">1.54447019100189</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67410600185394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69556903839111</t>
+    <t xml:space="preserve">1.67410612106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698370456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70415413379669</t>
+    <t xml:space="preserve">1.68698382377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70415425300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
@@ -1094,49 +1094,49 @@
     <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55820643901825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669550895691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4809398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5152804851532</t>
+    <t xml:space="preserve">1.55820631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48093998432159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51528060436249</t>
   </si>
   <si>
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386581897736</t>
+    <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801403045654</t>
+    <t xml:space="preserve">1.43801426887512</t>
   </si>
   <si>
     <t xml:space="preserve">1.48952519893646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59254693984985</t>
+    <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
     <t xml:space="preserve">1.59683954715729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60542464256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118016719818</t>
+    <t xml:space="preserve">1.60542488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118028640747</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66122829914093</t>
+    <t xml:space="preserve">1.66122817993164</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113215446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976526260376</t>
+    <t xml:space="preserve">1.60113227367401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976538181305</t>
   </si>
   <si>
     <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278736114502</t>
+    <t xml:space="preserve">1.74278724193573</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552102565765</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825516223907</t>
+    <t xml:space="preserve">1.71825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725550174713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068458557129</t>
+    <t xml:space="preserve">1.68725562095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
     <t xml:space="preserve">1.67397010326385</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854229450226</t>
+    <t xml:space="preserve">1.63854217529297</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954159736633</t>
+    <t xml:space="preserve">1.66954171657562</t>
   </si>
   <si>
     <t xml:space="preserve">1.62968528270721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61197137832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111528396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59425735473633</t>
+    <t xml:space="preserve">1.61197125911713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111540317535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
     <t xml:space="preserve">1.60754287242889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61639988422394</t>
+    <t xml:space="preserve">1.61639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340137958527</t>
+    <t xml:space="preserve">1.52340149879456</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454448699951</t>
+    <t xml:space="preserve">1.51454436779022</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583092212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48354482650757</t>
+    <t xml:space="preserve">1.46583104133606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48354494571686</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1277,43 +1277,43 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982872962952</t>
+    <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
     <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882942676544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50125896930695</t>
+    <t xml:space="preserve">1.55882930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50125908851624</t>
   </si>
   <si>
     <t xml:space="preserve">1.45697402954102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58540022373199</t>
+    <t xml:space="preserve">1.58540034294128</t>
   </si>
   <si>
     <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51011598110199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46140241622925</t>
+    <t xml:space="preserve">1.5101158618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48797333240509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4924019575119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55440092086792</t>
+    <t xml:space="preserve">1.48797345161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49240183830261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55440080165863</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69168400764465</t>
+    <t xml:space="preserve">1.69168412685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939803123474</t>
+    <t xml:space="preserve">1.70939815044403</t>
   </si>
   <si>
     <t xml:space="preserve">1.72268354892731</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">1.73596906661987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682492256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79796802997589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83339583873749</t>
+    <t xml:space="preserve">1.75368297100067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682480335236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7979679107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8333957195282</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,19 +1364,19 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996663570404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110986232758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86882364749908</t>
+    <t xml:space="preserve">1.85996675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110974311829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86882376670837</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653779029846</t>
+    <t xml:space="preserve">1.88653802871704</t>
   </si>
   <si>
     <t xml:space="preserve">1.9308226108551</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510755062103</t>
+    <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
+    <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
     <t xml:space="preserve">2.01053547859192</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253456115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08139157295227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12567639350891</t>
+    <t xml:space="preserve">2.07253432273865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08139133453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12567663192749</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09910535812378</t>
+    <t xml:space="preserve">2.0991051197052</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424627304077</t>
+    <t xml:space="preserve">2.21424603462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310328483582</t>
+    <t xml:space="preserve">2.22310304641724</t>
   </si>
   <si>
     <t xml:space="preserve">2.18767547607422</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17881846427917</t>
+    <t xml:space="preserve">2.1788182258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -59075,7 +59075,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6495949074</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>52891</v>
@@ -59096,6 +59096,32 @@
         <v>725</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6495717593</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>35378</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>728</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -44,46 +44,46 @@
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886657238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563304901123</t>
+    <t xml:space="preserve">1.12507796287537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886645317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
     <t xml:space="preserve">1.08454918861389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09346556663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617031574249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0683376789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374729633331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9759321808815</t>
+    <t xml:space="preserve">1.09346532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0861701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06833755970001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05374717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531234741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889252662659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954194545746</t>
+    <t xml:space="preserve">0.960531175136566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889264583588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954134941101</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349175930023</t>
@@ -92,46 +92,46 @@
     <t xml:space="preserve">1.02051365375519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0172712802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985658943653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979985117912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266907215118</t>
+    <t xml:space="preserve">1.01727139949799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985659003257751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646077632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979985058307648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266788005829</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913517951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997789382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806522011756897</t>
+    <t xml:space="preserve">0.913517832756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997848987579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806521952152252</t>
   </si>
   <si>
     <t xml:space="preserve">0.82678633928299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796389877796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680644035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420928001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632258892059</t>
+    <t xml:space="preserve">0.796389758586884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680584430695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420868396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
     <t xml:space="preserve">0.905412077903748</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">0.932161092758179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956478357315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213910579681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275638103485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319784641266</t>
+    <t xml:space="preserve">0.956478238105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936213970184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91027557849884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319665431976</t>
   </si>
   <si>
     <t xml:space="preserve">0.943509221076965</t>
@@ -161,31 +161,31 @@
     <t xml:space="preserve">0.948372602462769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00268125534058</t>
+    <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
     <t xml:space="preserve">0.995385944843292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949183225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152361869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280130386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99214369058609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511276721954</t>
+    <t xml:space="preserve">0.949183106422424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152421474457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280189990997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143750190735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511288642883</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916564464569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01321864128113</t>
+    <t xml:space="preserve">1.01321852207184</t>
   </si>
   <si>
     <t xml:space="preserve">1.00106000900269</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">0.964584112167358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98484855890274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795621871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196448802948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689986228943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456284046173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068680286407</t>
+    <t xml:space="preserve">0.984848499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795562267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196568012238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689807415009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456343650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068561077118</t>
   </si>
   <si>
     <t xml:space="preserve">0.967015743255615</t>
@@ -224,94 +224,94 @@
     <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790950775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893253445625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002520084381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526623249054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579500675201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139019489288</t>
+    <t xml:space="preserve">0.93459290266037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903791010379791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89325362443924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002460479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579441070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915138959884644</t>
   </si>
   <si>
     <t xml:space="preserve">0.924055337905884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947562038898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918719291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918381333351135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601633548737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898116946220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011310577393</t>
+    <t xml:space="preserve">0.947562098503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918778896332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623468399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381452560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9175705909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117005825043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011250972748</t>
   </si>
   <si>
     <t xml:space="preserve">0.908654391765594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922434151172638</t>
+    <t xml:space="preserve">0.922434270381927</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967104434967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85920923948288</t>
+    <t xml:space="preserve">0.859209299087524</t>
   </si>
   <si>
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156362056732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671972751617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262295722961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868125677108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716000080109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
+    <t xml:space="preserve">0.855156421661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671853542328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094813346863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262176513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86812561750412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716059684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738132953644</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768937110901</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">0.952425539493561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962786376476288</t>
+    <t xml:space="preserve">0.962786316871643</t>
   </si>
   <si>
     <t xml:space="preserve">0.98628956079483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98377138376236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698616027832</t>
+    <t xml:space="preserve">0.983771443367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698437213898</t>
   </si>
   <si>
     <t xml:space="preserve">0.974537968635559</t>
@@ -338,82 +338,82 @@
     <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968662261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895617485046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822730541229</t>
+    <t xml:space="preserve">0.968662321567535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895438671112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822909355164</t>
   </si>
   <si>
     <t xml:space="preserve">0.946837961673737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933407485485077</t>
+    <t xml:space="preserve">0.933407604694366</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937604546546936</t>
+    <t xml:space="preserve">0.937604486942291</t>
   </si>
   <si>
     <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971180260181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356138706207</t>
+    <t xml:space="preserve">0.971180319786072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949356079101562</t>
   </si>
   <si>
     <t xml:space="preserve">0.955231845378876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954392552375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910669803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948516666889191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334777355194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780305862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728720664978</t>
+    <t xml:space="preserve">0.954392373561859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910610198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159137248993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640960216522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94851678609848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923334836959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780246257782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728899478912</t>
   </si>
   <si>
     <t xml:space="preserve">0.916619777679443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906547009944916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013601779938</t>
+    <t xml:space="preserve">0.906546950340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013720989227</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934246957302094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137895107269</t>
+    <t xml:space="preserve">0.926692366600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247136116028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137835502625</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101481437683</t>
@@ -422,34 +422,34 @@
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91074401140213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671124458313</t>
+    <t xml:space="preserve">0.910743951797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956065177917</t>
+    <t xml:space="preserve">0.893956005573273</t>
   </si>
   <si>
     <t xml:space="preserve">0.895634889602661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262128829956</t>
+    <t xml:space="preserve">0.894795358181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262248039246</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816719532013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909904479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189361095428</t>
+    <t xml:space="preserve">0.909904539585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189241886139</t>
   </si>
   <si>
     <t xml:space="preserve">0.898153007030487</t>
@@ -458,106 +458,106 @@
     <t xml:space="preserve">0.889758944511414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881364941596985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878847002983093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686236381531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437828540802</t>
+    <t xml:space="preserve">0.88136500120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878846883773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686295986176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
     <t xml:space="preserve">0.872971057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677314281464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422776222229</t>
+    <t xml:space="preserve">0.947677254676819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422716617584</t>
   </si>
   <si>
     <t xml:space="preserve">0.876328706741333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874650001525879</t>
+    <t xml:space="preserve">0.874649941921234</t>
   </si>
   <si>
     <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865416646003723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525708198547</t>
+    <t xml:space="preserve">0.865416586399078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880525767803192</t>
   </si>
   <si>
     <t xml:space="preserve">0.885561943054199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890598356723785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888919591903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875489354133606</t>
+    <t xml:space="preserve">0.890598297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888919651508331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
     <t xml:space="preserve">0.888080239295959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911583304405212</t>
+    <t xml:space="preserve">0.911583244800568</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092559337616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951874315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428787231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553140163422</t>
+    <t xml:space="preserve">0.951874256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95942884683609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553080558777</t>
   </si>
   <si>
     <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268199443817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807559013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377380847931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501554965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480253219604</t>
+    <t xml:space="preserve">0.956071317195892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807618618011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979574382305145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983199119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501614570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801488399506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
     <t xml:space="preserve">0.935925781726837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97285920381546</t>
+    <t xml:space="preserve">0.972859263420105</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">0.981253147125244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522797107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968266010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001080989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0442076921463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0332955121994</t>
+    <t xml:space="preserve">0.995522856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968325614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0400105714798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04420757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
     <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04840481281281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05344092845917</t>
+    <t xml:space="preserve">1.04840457439423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05344116687775</t>
   </si>
   <si>
     <t xml:space="preserve">1.03581368923187</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650774478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12143206596375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800182819366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347466945648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20956861972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544432640076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872938632965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18354725837708</t>
+    <t xml:space="preserve">1.01650762557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12143218517303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347455024719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2095685005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544444561005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872926712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110190868378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18942308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759896278381</t>
+    <t xml:space="preserve">1.18942320346832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759884357452</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836548805237</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1.14745342731476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318359851837</t>
+    <t xml:space="preserve">1.13318371772766</t>
   </si>
   <si>
     <t xml:space="preserve">1.15668678283691</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">1.27672040462494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29098987579346</t>
+    <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
     <t xml:space="preserve">1.34303259849548</t>
@@ -689,25 +689,25 @@
     <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37660825252533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38164472579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828695774078</t>
+    <t xml:space="preserve">1.37660837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38164460659027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828719615936</t>
   </si>
   <si>
     <t xml:space="preserve">1.3933961391449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38919925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675390720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500225543976</t>
+    <t xml:space="preserve">1.38919913768768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500213623047</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157189846039</t>
@@ -716,55 +716,55 @@
     <t xml:space="preserve">1.3724113702774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35814154148102</t>
+    <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
     <t xml:space="preserve">1.41018402576447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4336873292923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41270220279694</t>
+    <t xml:space="preserve">1.43368721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529320716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536615371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208121299744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47733569145203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014482021332</t>
+    <t xml:space="preserve">1.42529332637787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361438274384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43536603450775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208133220673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47733581066132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065995693207</t>
+    <t xml:space="preserve">1.36065983772278</t>
   </si>
   <si>
     <t xml:space="preserve">1.32792341709137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32624459266663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31785070896149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32372641563416</t>
+    <t xml:space="preserve">1.32624471187592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3178505897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32372653484344</t>
   </si>
   <si>
     <t xml:space="preserve">1.33128094673157</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617176532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365370750427</t>
+    <t xml:space="preserve">1.31617164611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588081359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29350817203522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471118450165</t>
+    <t xml:space="preserve">1.27588093280792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29350829124451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489022254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52686011791229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5016782283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609359264374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51930546760559</t>
+    <t xml:space="preserve">1.48489046096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.526859998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50167834758759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53609347343445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51930558681488</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957309246063</t>
+    <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">1.53588509559631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53245091438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532849788666</t>
+    <t xml:space="preserve">1.53245079517365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962134361267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532873630524</t>
   </si>
   <si>
     <t xml:space="preserve">1.55391383171082</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704558849335</t>
+    <t xml:space="preserve">1.54704570770264</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451808452606</t>
+    <t xml:space="preserve">1.57451820373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55219686031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56850862503052</t>
+    <t xml:space="preserve">1.55219674110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56850850582123</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931903839111</t>
+    <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871466636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124217033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46291100978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47149634361267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49381768703461</t>
+    <t xml:space="preserve">1.51871478557587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4629111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806228160858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47149622440338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49381756782532</t>
   </si>
   <si>
     <t xml:space="preserve">1.48609101772308</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">1.5556309223175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482027053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56764996051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56507456302643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57108426094055</t>
+    <t xml:space="preserve">1.58482038974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56765007972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56507444381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57108414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.56421601772308</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593298912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5247243642807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6114342212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6423407793045</t>
+    <t xml:space="preserve">1.56593286991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52472424507141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143434047699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995755195618</t>
+    <t xml:space="preserve">1.75995767116547</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905099391937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69986152648926</t>
+    <t xml:space="preserve">1.72905111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69986164569855</t>
   </si>
   <si>
     <t xml:space="preserve">1.73076820373535</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733414173126</t>
+    <t xml:space="preserve">1.72733402252197</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445620059967</t>
@@ -1001,40 +1001,40 @@
     <t xml:space="preserve">1.5899715423584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56936717033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098787784576</t>
+    <t xml:space="preserve">1.56936705112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098811626434</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46977937221527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47578883171082</t>
+    <t xml:space="preserve">1.46977925300598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4757889509201</t>
   </si>
   <si>
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294527053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6698135137558</t>
+    <t xml:space="preserve">1.66294538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
     <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183255195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60885882377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941530227661</t>
+    <t xml:space="preserve">1.68183267116547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60885870456696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941506385803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">1.588254570961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57537662982941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739578723907</t>
+    <t xml:space="preserve">1.5753767490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739590644836</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">1.54361152648926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54447019100189</t>
+    <t xml:space="preserve">1.5444700717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67410612106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69556891918182</t>
+    <t xml:space="preserve">1.67410600185394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69556903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698382377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70415425300598</t>
+    <t xml:space="preserve">1.68698370456696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70415413379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
@@ -1094,10 +1094,10 @@
     <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55820631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669538974762</t>
+    <t xml:space="preserve">1.55820643901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669550895691</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801426887512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952519893646</t>
+    <t xml:space="preserve">1.43801403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952507972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
@@ -1127,16 +1127,16 @@
     <t xml:space="preserve">1.59683954715729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118028640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405786991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122817993164</t>
+    <t xml:space="preserve">1.60542476177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118016719818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64405798912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66122829914093</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
@@ -1148,19 +1148,19 @@
     <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113227367401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976538181305</t>
+    <t xml:space="preserve">1.60113215446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976526260376</t>
   </si>
   <si>
     <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278724193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66552102565765</t>
+    <t xml:space="preserve">1.74278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
     <t xml:space="preserve">1.71273922920227</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825504302979</t>
+    <t xml:space="preserve">1.71825516223907</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725562095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068470478058</t>
+    <t xml:space="preserve">1.68725550174713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068458557129</t>
   </si>
   <si>
     <t xml:space="preserve">1.67397010326385</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854217529297</t>
+    <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954171657562</t>
+    <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
     <t xml:space="preserve">1.62968528270721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61197125911713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111540317535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59425723552704</t>
+    <t xml:space="preserve">1.61197137832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111528396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59425735473633</t>
   </si>
   <si>
     <t xml:space="preserve">1.60754287242889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61639976501465</t>
+    <t xml:space="preserve">1.61639988422394</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340149879456</t>
+    <t xml:space="preserve">1.52340137958527</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454436779022</t>
+    <t xml:space="preserve">1.51454448699951</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583104133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48354494571686</t>
+    <t xml:space="preserve">1.46583092212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48354482650757</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1277,43 +1277,43 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982884883881</t>
+    <t xml:space="preserve">1.58982872962952</t>
   </si>
   <si>
     <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50125908851624</t>
+    <t xml:space="preserve">1.55882942676544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50125896930695</t>
   </si>
   <si>
     <t xml:space="preserve">1.45697402954102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58540034294128</t>
+    <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
     <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5101158618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46140253543854</t>
+    <t xml:space="preserve">1.51011598110199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46140241622925</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48797345161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49240183830261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55440080165863</t>
+    <t xml:space="preserve">1.48797333240509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4924019575119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55440092086792</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69168412685394</t>
+    <t xml:space="preserve">1.69168400764465</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939815044403</t>
+    <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
     <t xml:space="preserve">1.72268354892731</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">1.73596906661987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75368297100067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682480335236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7979679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.75368309020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682492256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79796802997589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,19 +1364,19 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110974311829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86882376670837</t>
+    <t xml:space="preserve">1.85996663570404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110986232758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653802871704</t>
+    <t xml:space="preserve">1.88653779029846</t>
   </si>
   <si>
     <t xml:space="preserve">1.9308226108551</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510766983032</t>
+    <t xml:space="preserve">1.97510755062103</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
+    <t xml:space="preserve">2.00167870521545</t>
   </si>
   <si>
     <t xml:space="preserve">2.01053547859192</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253432273865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08139133453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12567663192749</t>
+    <t xml:space="preserve">2.07253456115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08139157295227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12567639350891</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0991051197052</t>
+    <t xml:space="preserve">2.09910535812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424603462219</t>
+    <t xml:space="preserve">2.21424627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310304641724</t>
+    <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
     <t xml:space="preserve">2.18767547607422</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1788182258606</t>
+    <t xml:space="preserve">2.17881846427917</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242327690125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412846565247</t>
+    <t xml:space="preserve">2.12219166755676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412834644318</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071808815002</t>
+    <t xml:space="preserve">2.02157044410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06730723381042</t>
+    <t xml:space="preserve">2.067307472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133883476257</t>
+    <t xml:space="preserve">2.13133907318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940227508545</t>
+    <t xml:space="preserve">2.25940251350403</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288613796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544392108917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226491451263</t>
+    <t xml:space="preserve">1.79288601875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544380187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226503372192</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079121589661</t>
+    <t xml:space="preserve">1.60079109668732</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815419197083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381186008453</t>
+    <t xml:space="preserve">1.46815407276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636988162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381197929382</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745396614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14799582958221</t>
+    <t xml:space="preserve">1.30350124835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745384693146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1479959487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202766895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807507038116</t>
+    <t xml:space="preserve">1.21202754974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807495117188</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094346523285</t>
+    <t xml:space="preserve">1.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699086666107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272789478302</t>
+    <t xml:space="preserve">1.42699098587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295926570892</t>
+    <t xml:space="preserve">1.36295938491821</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2669118642807</t>
+    <t xml:space="preserve">1.26691174507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660137176514</t>
+    <t xml:space="preserve">1.21660125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117507457733</t>
+    <t xml:space="preserve">1.22117495536804</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1571432352066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427484035492</t>
+    <t xml:space="preserve">1.15714335441589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16171705722809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427495956421</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342212677002</t>
+    <t xml:space="preserve">1.14342224597931</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15256953239441</t>
+    <t xml:space="preserve">1.1525696516037</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.394975066185</t>
+    <t xml:space="preserve">1.39497518539429</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838556289673</t>
+    <t xml:space="preserve">1.35838568210602</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5001699924469</t>
+    <t xml:space="preserve">1.50016987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931739807129</t>
+    <t xml:space="preserve">1.509317278862</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055972576141</t>
+    <t xml:space="preserve">1.71055960655212</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141232013702</t>
+    <t xml:space="preserve">1.70141220092773</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513342857361</t>
+    <t xml:space="preserve">1.71513330936432</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745984077454</t>
+    <t xml:space="preserve">1.79745972156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683861732483</t>
+    <t xml:space="preserve">1.69683849811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009662628174</t>
+    <t xml:space="preserve">1.93009650707245</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9483916759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490181922913</t>
+    <t xml:space="preserve">1.94839155673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490193843842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8569176197052</t>
+    <t xml:space="preserve">1.85691773891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924403190613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087021827698</t>
+    <t xml:space="preserve">1.93924391269684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087009906769</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769121170044</t>
+    <t xml:space="preserve">1.68769133090973</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203354358673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598602294922</t>
+    <t xml:space="preserve">1.80203342437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598590373993</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50474369525909</t>
+    <t xml:space="preserve">1.5047435760498</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567529201508</t>
+    <t xml:space="preserve">1.65567541122437</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032811641693</t>
+    <t xml:space="preserve">1.80660712718964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032823562622</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -59101,7 +59101,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6495717593</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>35378</v>
@@ -59122,6 +59122,32 @@
         <v>728</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6495833333</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>24411</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>725</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184455871582</t>
+    <t xml:space="preserve">1.09184420108795</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">1.10886645317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10643470287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563281059265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454918861389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346532821655</t>
+    <t xml:space="preserve">1.10643458366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563292980194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08454930782318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
     <t xml:space="preserve">1.0861701965332</t>
@@ -68,40 +68,40 @@
     <t xml:space="preserve">1.06833755970001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05374717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975932121276855</t>
+    <t xml:space="preserve">1.05374729633331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9759321808815</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531175136566</t>
+    <t xml:space="preserve">0.960531234741211</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954134941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349175930023</t>
+    <t xml:space="preserve">0.992954194545746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349164009094</t>
   </si>
   <si>
     <t xml:space="preserve">1.02051365375519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01727139949799</t>
+    <t xml:space="preserve">1.01727163791656</t>
   </si>
   <si>
     <t xml:space="preserve">0.985659003257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979985058307648</t>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984998703003</t>
   </si>
   <si>
     <t xml:space="preserve">0.940266788005829</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">0.842997848987579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806521952152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82678633928299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389758586884</t>
+    <t xml:space="preserve">0.806522011756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826786398887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389877796173</t>
   </si>
   <si>
     <t xml:space="preserve">0.818680584430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420868396759</t>
+    <t xml:space="preserve">0.875420928001404</t>
   </si>
   <si>
     <t xml:space="preserve">0.891632318496704</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">0.905412077903748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907843887805939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932161092758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478238105774</t>
+    <t xml:space="preserve">0.907843768596649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932161033153534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478357315063</t>
   </si>
   <si>
     <t xml:space="preserve">0.936213970184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91027557849884</t>
+    <t xml:space="preserve">0.910275638103485</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319665431976</t>
@@ -158,124 +158,124 @@
     <t xml:space="preserve">0.943509221076965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948372602462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00268113613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385944843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183106422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152421474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280189990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143750190735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511288642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01321852207184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00106000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584112167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795562267303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196568012238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689807415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068561077118</t>
+    <t xml:space="preserve">0.948372483253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00268125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995385885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183166027069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152302265167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280130386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511276721954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01321864128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0010598897934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584052562714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984848439693451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795681476593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196508407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689926624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068739891052</t>
   </si>
   <si>
     <t xml:space="preserve">0.967015743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962962806224823</t>
+    <t xml:space="preserve">0.962962985038757</t>
   </si>
   <si>
     <t xml:space="preserve">0.971879184246063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95080429315567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93459290266037</t>
+    <t xml:space="preserve">0.950804352760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">0.903791010379791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89325362443924</t>
+    <t xml:space="preserve">0.893253445625305</t>
   </si>
   <si>
     <t xml:space="preserve">0.920002460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905555725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526563644409</t>
+    <t xml:space="preserve">0.881905436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526742458344</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579441070557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915138959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055337905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947562098503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918778896332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623468399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918381452560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9175705909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654391765594</t>
+    <t xml:space="preserve">0.915139019489288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055278301239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561979293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918719291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623528003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91838127374649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917570769786835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601752758026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898116946220398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654451370239</t>
   </si>
   <si>
     <t xml:space="preserve">0.922434270381927</t>
@@ -293,115 +293,112 @@
     <t xml:space="preserve">0.855156421661377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848671853542328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094813346863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262176513672</t>
+    <t xml:space="preserve">0.848672032356262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094872951508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262236118317</t>
   </si>
   <si>
     <t xml:space="preserve">0.86812561750412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882716059684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87704199552536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738132953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425539493561</t>
+    <t xml:space="preserve">0.882716000080109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877042055130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768877506256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425420284271</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786316871643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98628956079483</t>
+    <t xml:space="preserve">0.986289501190186</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973698437213898</t>
+    <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
     <t xml:space="preserve">0.974537968635559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.965304613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662321567535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895438671112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822909355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837961673737</t>
+    <t xml:space="preserve">0.965304493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662202358246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895557880402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837842464447</t>
   </si>
   <si>
     <t xml:space="preserve">0.933407604694366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604486942291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939283311367035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180319786072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231845378876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392373561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159137248993</t>
+    <t xml:space="preserve">0.937604546546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93928337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180260181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949356257915497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231964588165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95691055059433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159256458282</t>
   </si>
   <si>
     <t xml:space="preserve">0.942640960216522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94851678609848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334836959839</t>
+    <t xml:space="preserve">0.948516726493835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923334777355194</t>
   </si>
   <si>
     <t xml:space="preserve">0.915780246257782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931728899478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619777679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906546950340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013720989227</t>
+    <t xml:space="preserve">0.931728720664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619598865509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906547009944916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013661384583</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
@@ -413,61 +410,61 @@
     <t xml:space="preserve">0.934247136116028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919137835502625</t>
+    <t xml:space="preserve">0.919137895107269</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101481437683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908225774765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910743951797485</t>
+    <t xml:space="preserve">0.90822571516037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910743892192841</t>
   </si>
   <si>
     <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905707538127899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956005573273</t>
+    <t xml:space="preserve">0.905707597732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956065177917</t>
   </si>
   <si>
     <t xml:space="preserve">0.895634889602661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894795358181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262248039246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816719532013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904539585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189241886139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898153007030487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889758944511414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88136500120163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846883773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686295986176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
+    <t xml:space="preserve">0.894795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816600322723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189361095428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898153126239777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889759063720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881365060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878846943378448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686236381531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
     <t xml:space="preserve">0.872971057891846</t>
@@ -476,10 +473,10 @@
     <t xml:space="preserve">0.947677254676819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912422716617584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328706741333</t>
+    <t xml:space="preserve">0.912422657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328766345978</t>
   </si>
   <si>
     <t xml:space="preserve">0.874649941921234</t>
@@ -491,13 +488,13 @@
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525767803192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885561943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890598297119141</t>
+    <t xml:space="preserve">0.880525708198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885562002658844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919651508331</t>
@@ -506,19 +503,19 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080239295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583244800568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092559337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95942884683609</t>
+    <t xml:space="preserve">0.888080179691315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583304405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092440128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959428727626801</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553080558777</t>
@@ -527,37 +524,37 @@
     <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071317195892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807618618011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377261638641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979574382305145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983199119568</t>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807797431946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377380847931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983377933502</t>
   </si>
   <si>
     <t xml:space="preserve">0.969501614570618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941801488399506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480312824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925781726837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859263420105</t>
+    <t xml:space="preserve">0.94180154800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480372428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925841331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -572,49 +569,49 @@
     <t xml:space="preserve">0.987968325614929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0400105714798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04420757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03329563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03665328025818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04840457439423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05344116687775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03581368923187</t>
+    <t xml:space="preserve">1.04001080989838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04420781135559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0332955121994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03665316104889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04840469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05344104766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03581380844116</t>
   </si>
   <si>
     <t xml:space="preserve">1.03077745437622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02741992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01650762557983</t>
+    <t xml:space="preserve">1.02741980552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10800170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347455024719</t>
+    <t xml:space="preserve">1.10800182819366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
     <t xml:space="preserve">1.2095685005188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544444561005</t>
+    <t xml:space="preserve">1.21544432640076</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872926712036</t>
@@ -623,13 +620,13 @@
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110190868378</t>
+    <t xml:space="preserve">1.19110202789307</t>
   </si>
   <si>
     <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759884357452</t>
+    <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836548805237</t>
@@ -647,16 +644,16 @@
     <t xml:space="preserve">1.15668678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16508066654205</t>
+    <t xml:space="preserve">1.16508078575134</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781708717346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20788991451263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18270802497864</t>
+    <t xml:space="preserve">1.20788979530334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18270790576935</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
@@ -665,7 +662,7 @@
     <t xml:space="preserve">1.24902021884918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25741410255432</t>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
@@ -683,34 +680,34 @@
     <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37409019470215</t>
+    <t xml:space="preserve">1.37409007549286</t>
   </si>
   <si>
     <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37660837173462</t>
+    <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
     <t xml:space="preserve">1.38164460659027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828719615936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3933961391449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919913768768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675378799438</t>
+    <t xml:space="preserve">1.37828695774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39339625835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38919925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3967536687851</t>
   </si>
   <si>
     <t xml:space="preserve">1.38500213623047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37157189846039</t>
+    <t xml:space="preserve">1.37157201766968</t>
   </si>
   <si>
     <t xml:space="preserve">1.3724113702774</t>
@@ -722,31 +719,31 @@
     <t xml:space="preserve">1.41018402576447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43368721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41270232200623</t>
+    <t xml:space="preserve">1.43368709087372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41270220279694</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529332637787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361438274384</t>
+    <t xml:space="preserve">1.42529320716858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361462116241</t>
   </si>
   <si>
     <t xml:space="preserve">1.43536603450775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44208133220673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47733581066132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014493942261</t>
+    <t xml:space="preserve">1.44208121299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47733569145203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5201450586319</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
@@ -755,16 +752,16 @@
     <t xml:space="preserve">1.36065983772278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32792341709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32624471187592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3178505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32372653484344</t>
+    <t xml:space="preserve">1.32792329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32624459266663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31785070896149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
     <t xml:space="preserve">1.33128094673157</t>
@@ -773,28 +770,28 @@
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617164611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365358829498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30106270313263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30442035198212</t>
+    <t xml:space="preserve">1.31617176532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365370750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30106258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30442023277283</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350829124451</t>
+    <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
     <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35982036590576</t>
+    <t xml:space="preserve">1.35982048511505</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
@@ -803,19 +800,19 @@
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489046096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526859998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50167834758759</t>
+    <t xml:space="preserve">1.48489022254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52686011791229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5016782283783</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609347343445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51930558681488</t>
+    <t xml:space="preserve">1.51930546760559</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
@@ -824,34 +821,34 @@
     <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957321166992</t>
+    <t xml:space="preserve">1.51957309246063</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588509559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245079517365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962134361267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532873630524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55391383171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280111312866</t>
+    <t xml:space="preserve">1.53588497638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245103359222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962110519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532861709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55391371250153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280123233795</t>
   </si>
   <si>
     <t xml:space="preserve">1.57966935634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249904632568</t>
+    <t xml:space="preserve">1.56249892711639</t>
   </si>
   <si>
     <t xml:space="preserve">1.54704570770264</t>
@@ -860,7 +857,7 @@
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365965843201</t>
+    <t xml:space="preserve">1.5736597776413</t>
   </si>
   <si>
     <t xml:space="preserve">1.57451820373535</t>
@@ -872,13 +869,13 @@
     <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850850582123</t>
+    <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
+    <t xml:space="preserve">1.53931903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
@@ -887,37 +884,37 @@
     <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51356363296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871478557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806228160858</t>
+    <t xml:space="preserve">1.5135635137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51871454715729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124217033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806216239929</t>
   </si>
   <si>
     <t xml:space="preserve">1.47149622440338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49381756782532</t>
+    <t xml:space="preserve">1.49381768703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876267910004</t>
+    <t xml:space="preserve">1.54876279830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5556309223175</t>
+    <t xml:space="preserve">1.55563080310822</t>
   </si>
   <si>
     <t xml:space="preserve">1.58482038974762</t>
@@ -938,13 +935,13 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593286991119</t>
+    <t xml:space="preserve">1.56593310832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61143434047699</t>
+    <t xml:space="preserve">1.61143445968628</t>
   </si>
   <si>
     <t xml:space="preserve">1.64234089851379</t>
@@ -956,7 +953,7 @@
     <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75995767116547</t>
+    <t xml:space="preserve">1.75995755195618</t>
   </si>
   <si>
     <t xml:space="preserve">1.7170318365097</t>
@@ -971,49 +968,49 @@
     <t xml:space="preserve">1.72561693191528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70844662189484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72905111312866</t>
+    <t xml:space="preserve">1.70844674110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
     <t xml:space="preserve">1.69986164569855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73076820373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73420214653015</t>
+    <t xml:space="preserve">1.73076808452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73420226573944</t>
   </si>
   <si>
     <t xml:space="preserve">1.72733402252197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71445620059967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67238891124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6225950717926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5899715423584</t>
+    <t xml:space="preserve">1.71445631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67238903045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62259519100189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58997142314911</t>
   </si>
   <si>
     <t xml:space="preserve">1.56936705112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51098811626434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45947706699371</t>
+    <t xml:space="preserve">1.51098799705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45947694778442</t>
   </si>
   <si>
     <t xml:space="preserve">1.46977925300598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4757889509201</t>
+    <t xml:space="preserve">1.47578883171082</t>
   </si>
   <si>
     <t xml:space="preserve">1.61229288578033</t>
@@ -1022,19 +1019,19 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66981339454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.6698135137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885870456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941506385803</t>
+    <t xml:space="preserve">1.60885882377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
@@ -1052,25 +1049,25 @@
     <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54103600978851</t>
+    <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
     <t xml:space="preserve">1.54275321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52901685237885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361152648926</t>
+    <t xml:space="preserve">1.52901697158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
     <t xml:space="preserve">1.5444700717926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55047976970673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61400985717773</t>
+    <t xml:space="preserve">1.55047965049744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61400997638702</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
@@ -1082,7 +1079,7 @@
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698370456696</t>
+    <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1091,25 +1088,25 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688767910004</t>
+    <t xml:space="preserve">1.62688755989075</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50669550895691</t>
+    <t xml:space="preserve">1.50669538974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51528060436249</t>
+    <t xml:space="preserve">1.5152804851532</t>
   </si>
   <si>
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386569976807</t>
+    <t xml:space="preserve">1.52386581897736</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523259162903</t>
@@ -1118,19 +1115,19 @@
     <t xml:space="preserve">1.43801403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48952507972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59254705905914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59683954715729</t>
+    <t xml:space="preserve">1.48952519893646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59254693984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59683966636658</t>
   </si>
   <si>
     <t xml:space="preserve">1.60542476177216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63118016719818</t>
+    <t xml:space="preserve">1.63118028640747</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405798912048</t>
@@ -1139,43 +1136,46 @@
     <t xml:space="preserve">1.66122829914093</t>
   </si>
   <si>
+    <t xml:space="preserve">1.67839872837067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6569356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60971736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113215446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976526260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264320373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66552090644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71273922920227</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6569356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6097172498703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113215446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264308452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66552090644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71273922920227</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496952533722</t>
+    <t xml:space="preserve">1.70496964454651</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825516223907</t>
+    <t xml:space="preserve">1.71825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">1.68725550174713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397010326385</t>
+    <t xml:space="preserve">1.66068470478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397022247314</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854229450226</t>
+    <t xml:space="preserve">1.63854217529297</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64739918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66511309146881</t>
+    <t xml:space="preserve">1.6473993062973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6651132106781</t>
   </si>
   <si>
     <t xml:space="preserve">1.66954159736633</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">1.54111528396606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59425735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60754287242889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639988422394</t>
+    <t xml:space="preserve">1.59425723552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6075427532196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57654333114624</t>
+    <t xml:space="preserve">1.58097183704376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57654321193695</t>
   </si>
   <si>
     <t xml:space="preserve">1.52340137958527</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454448699951</t>
+    <t xml:space="preserve">1.51454436779022</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882942676544</t>
+    <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140241622925</t>
+    <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48797333240509</t>
+    <t xml:space="preserve">1.48797345161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.4924019575119</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
+    <t xml:space="preserve">1.6828271150589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72268354892731</t>
+    <t xml:space="preserve">1.7226836681366</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596906661987</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">1.79796802997589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83339583873749</t>
+    <t xml:space="preserve">1.8333957195282</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996663570404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110986232758</t>
+    <t xml:space="preserve">1.85996687412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87768065929413</t>
+    <t xml:space="preserve">1.87768077850342</t>
   </si>
   <si>
     <t xml:space="preserve">1.88653779029846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9308226108551</t>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01053547859192</t>
+    <t xml:space="preserve">2.00167846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0105357170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767547607422</t>
+    <t xml:space="preserve">2.22310304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767523765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -6989,7 +6989,7 @@
         <v>1.125</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>1.125</v>
       </c>
       <c r="G167" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>1.125</v>
       </c>
       <c r="G168" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>1.125</v>
       </c>
       <c r="G169" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>1.11699998378754</v>
       </c>
       <c r="G170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7119,7 +7119,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7171,7 +7171,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7197,7 +7197,7 @@
         <v>1.13100004196167</v>
       </c>
       <c r="G174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7249,7 +7249,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7275,7 +7275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7301,7 +7301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>1.12300002574921</v>
       </c>
       <c r="G180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>1.09099996089935</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G189" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>1.09200000762939</v>
       </c>
       <c r="G190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>1.10199999809265</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>1.11300003528595</v>
       </c>
       <c r="G196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>1.08899998664856</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>1.08200001716614</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>1.07299995422363</v>
       </c>
       <c r="G203" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G206" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>1.06700003147125</v>
       </c>
       <c r="G207" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>1.08800005912781</v>
       </c>
       <c r="G209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8159,7 +8159,7 @@
         <v>1.09700000286102</v>
       </c>
       <c r="G211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>1.07599997520447</v>
       </c>
       <c r="G213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>1.04700005054474</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>1.12899994850159</v>
       </c>
       <c r="G223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G224" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>1.08700001239777</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>1.04200005531311</v>
       </c>
       <c r="G228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>1.05599999427795</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>1.03100001811981</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>1.04900002479553</v>
       </c>
       <c r="G234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>1.05499994754791</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>1.06099998950958</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>1.05900001525879</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>1.04299998283386</v>
       </c>
       <c r="G239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>1.05799996852875</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G243" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G244" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>1.08599996566772</v>
       </c>
       <c r="G246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>1.13399994373322</v>
       </c>
       <c r="G249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>1.1360000371933</v>
       </c>
       <c r="G252" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>1.14900004863739</v>
       </c>
       <c r="G254" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G256" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>1.14400005340576</v>
       </c>
       <c r="G257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G260" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>1.16700005531311</v>
       </c>
       <c r="G261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G274" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G275" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>1.12199997901917</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>1.12399995326996</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10135,7 +10135,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>1.15900003910065</v>
       </c>
       <c r="G288" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>1.15100002288818</v>
       </c>
       <c r="G289" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>1.1690000295639</v>
       </c>
       <c r="G290" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>1.18599998950958</v>
       </c>
       <c r="G291" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>1.17700004577637</v>
       </c>
       <c r="G299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>1.23099994659424</v>
       </c>
       <c r="G302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G303" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>1.25499999523163</v>
       </c>
       <c r="G305" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>1.23399996757507</v>
       </c>
       <c r="G306" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>1.22800004482269</v>
       </c>
       <c r="G307" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>1.21099996566772</v>
       </c>
       <c r="G310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G311" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G312" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G314" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>1.39800000190735</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>1.44099998474121</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>1.44799995422363</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>1.4190000295639</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>1.41700005531311</v>
       </c>
       <c r="G322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>1.39100003242493</v>
       </c>
       <c r="G323" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G324" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G325" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>1.36699998378754</v>
       </c>
       <c r="G326" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G327" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G328" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>1.43900001049042</v>
       </c>
       <c r="G331" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>1.40900003910065</v>
       </c>
       <c r="G332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G333" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>1.43700003623962</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G336" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G337" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>1.50499999523163</v>
       </c>
       <c r="G338" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>1.52100002765656</v>
       </c>
       <c r="G339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G340" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G341" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>1.63699996471405</v>
       </c>
       <c r="G342" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G343" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G344" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G346" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G347" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G350" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G351" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G352" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G353" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G355" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G356" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>1.68299996852875</v>
       </c>
       <c r="G360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G362" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G363" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G364" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G367" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G368" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>1.81099998950958</v>
       </c>
       <c r="G369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G370" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G371" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>1.62100005149841</v>
       </c>
       <c r="G372" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G373" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G374" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G375" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>1.57700002193451</v>
       </c>
       <c r="G376" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G378" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>1.58500003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G380" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>1.567999958992</v>
       </c>
       <c r="G381" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>1.56500005722046</v>
       </c>
       <c r="G382" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G384" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G385" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>1.54100000858307</v>
       </c>
       <c r="G386" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G387" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G388" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G390" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G391" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G392" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G393" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G394" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>1.81900000572205</v>
       </c>
       <c r="G395" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G396" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G397" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G398" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G399" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G400" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>1.75</v>
       </c>
       <c r="G402" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G403" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G404" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G405" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G406" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G407" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G408" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G409" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G410" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G411" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G412" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G413" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G416" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G418" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G419" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>1.82700002193451</v>
       </c>
       <c r="G420" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G421" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>1.80299997329712</v>
       </c>
       <c r="G422" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>1.79299998283386</v>
       </c>
       <c r="G423" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G424" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>1.75</v>
       </c>
       <c r="G425" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>1.73300004005432</v>
       </c>
       <c r="G426" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>1.76300001144409</v>
       </c>
       <c r="G427" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>1.75</v>
       </c>
       <c r="G429" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G430" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G431" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G436" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G437" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G439" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G440" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G441" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G442" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G444" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G445" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G446" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G449" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G453" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G455" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G456" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G459" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G460" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G463" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G464" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>2.01399993896484</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>1.99699997901917</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G478" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G479" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G480" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G481" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G482" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G483" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G484" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G485" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G486" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G487" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G488" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G489" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G490" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>1.86300003528595</v>
       </c>
       <c r="G491" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G492" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G493" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G494" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G497" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>1.84899997711182</v>
       </c>
       <c r="G498" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G499" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G502" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G503" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G504" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G505" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>1.79700005054474</v>
       </c>
       <c r="G506" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>1.78100001811981</v>
       </c>
       <c r="G507" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G508" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>1.79900002479553</v>
       </c>
       <c r="G509" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G510" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G511" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G514" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G521" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G522" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G525" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G526" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G528" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G529" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G530" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G531" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G532" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G533" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G534" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G536" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G537" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G538" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>1.75</v>
       </c>
       <c r="G539" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G540" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G541" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G542" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G543" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G545" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G546" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G547" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G549" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G550" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G552" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G553" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G554" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G555" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G556" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G557" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G558" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>1.75</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>1.75</v>
       </c>
       <c r="G560" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>1.75</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G562" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G564" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G565" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G567" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G568" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G569" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G571" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G572" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G574" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G577" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G579" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G581" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G582" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17831,7 +17831,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17857,7 +17857,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17883,7 +17883,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G585" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17909,7 +17909,7 @@
         <v>1.875</v>
       </c>
       <c r="G586" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17935,7 +17935,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17961,7 +17961,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G588" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17987,7 +17987,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G589" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18013,7 +18013,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G590" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18039,7 +18039,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G591" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18065,7 +18065,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G592" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G593" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G594" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G596" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G598" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G601" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G602" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G603" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G604" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G605" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G606" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G607" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G608" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G609" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G610" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G611" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G612" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G613" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G614" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G615" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G616" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G617" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G618" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G619" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G620" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G621" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G622" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="G624" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="G625" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G627" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G628" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G632" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G635" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19235,7 +19235,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G637" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19261,7 +19261,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G641" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G642" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G645" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G647" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G650" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G651" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G652" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G653" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G654" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G656" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -59127,7 +59127,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6495833333</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>24411</v>
@@ -59148,6 +59148,32 @@
         <v>725</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6495833333</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>56715</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>2.19000005722046</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>723</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184420108795</t>
+    <t xml:space="preserve">1.09184432029724</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">1.12507796287537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563292980194</t>
+    <t xml:space="preserve">1.10886633396149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
     <t xml:space="preserve">1.08454930782318</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0861701965332</t>
+    <t xml:space="preserve">1.08617031574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.06833755970001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05374729633331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9759321808815</t>
+    <t xml:space="preserve">1.05374717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
@@ -83,28 +83,28 @@
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954194545746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349164009094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02051365375519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01727163791656</t>
+    <t xml:space="preserve">0.992954134941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349175930023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02051389217377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01727151870728</t>
   </si>
   <si>
     <t xml:space="preserve">0.985659003257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266788005829</t>
+    <t xml:space="preserve">1.01646077632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979985177516937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266966819763</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108215332031</t>
@@ -113,19 +113,19 @@
     <t xml:space="preserve">0.913517832756042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842997848987579</t>
+    <t xml:space="preserve">0.842997789382935</t>
   </si>
   <si>
     <t xml:space="preserve">0.806522011756897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826786398887634</t>
+    <t xml:space="preserve">0.82678633928299</t>
   </si>
   <si>
     <t xml:space="preserve">0.796389877796173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818680584430695</t>
+    <t xml:space="preserve">0.818680644035339</t>
   </si>
   <si>
     <t xml:space="preserve">0.875420928001404</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905412077903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907843768596649</t>
+    <t xml:space="preserve">0.905412197113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
     <t xml:space="preserve">0.932161033153534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956478357315063</t>
+    <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
     <t xml:space="preserve">0.936213970184326</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">0.943509221076965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948372483253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00268125534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385885238647</t>
+    <t xml:space="preserve">0.948372542858124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00268113613129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995386064052582</t>
   </si>
   <si>
     <t xml:space="preserve">0.949183166027069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962152302265167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280130386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280189990997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143511772156</t>
   </si>
   <si>
     <t xml:space="preserve">1.00511276721954</t>
@@ -194,28 +194,28 @@
     <t xml:space="preserve">0.964584052562714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984848439693451</t>
+    <t xml:space="preserve">0.984848380088806</t>
   </si>
   <si>
     <t xml:space="preserve">0.980795681476593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456284046173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068739891052</t>
+    <t xml:space="preserve">0.996196448802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689867019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456403255463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068799495697</t>
   </si>
   <si>
     <t xml:space="preserve">0.967015743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962962985038757</t>
+    <t xml:space="preserve">0.962962865829468</t>
   </si>
   <si>
     <t xml:space="preserve">0.971879184246063</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">0.950804352760315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934592723846436</t>
+    <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
     <t xml:space="preserve">0.903791010379791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893253445625305</t>
+    <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
     <t xml:space="preserve">0.920002460479736</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">0.881905436515808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883526742458344</t>
+    <t xml:space="preserve">0.883526623249054</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579441070557</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">0.947561979293823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928918719291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623528003693</t>
+    <t xml:space="preserve">0.928918778896332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623468399048</t>
   </si>
   <si>
     <t xml:space="preserve">0.91838127374649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917570769786835</t>
+    <t xml:space="preserve">0.917570650577545</t>
   </si>
   <si>
     <t xml:space="preserve">0.904601752758026</t>
@@ -281,49 +281,49 @@
     <t xml:space="preserve">0.922434270381927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855967104434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451612949371</t>
+    <t xml:space="preserve">0.855967044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859209358692169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862451672554016</t>
   </si>
   <si>
     <t xml:space="preserve">0.855156421661377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848672032356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094872951508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262236118317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86812561750412</t>
+    <t xml:space="preserve">0.848671913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094813346863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262295722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868125736713409</t>
   </si>
   <si>
     <t xml:space="preserve">0.882716000080109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768877506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425420284271</t>
+    <t xml:space="preserve">0.877041935920715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738132953644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425360679626</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786316871643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289501190186</t>
+    <t xml:space="preserve">0.986289441585541</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">0.967822790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946837842464447</t>
+    <t xml:space="preserve">0.946837782859802</t>
   </si>
   <si>
     <t xml:space="preserve">0.933407604694366</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93928337097168</t>
+    <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
     <t xml:space="preserve">0.971180260181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949356257915497</t>
+    <t xml:space="preserve">0.949356198310852</t>
   </si>
   <si>
     <t xml:space="preserve">0.955231964588165</t>
@@ -371,28 +371,28 @@
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95691055059433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159256458282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640960216522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948516726493835</t>
+    <t xml:space="preserve">0.956910610198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640900611877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948516666889191</t>
   </si>
   <si>
     <t xml:space="preserve">0.923334777355194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915780246257782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619598865509</t>
+    <t xml:space="preserve">0.915780305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728780269623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619658470154</t>
   </si>
   <si>
     <t xml:space="preserve">0.906547009944916</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692366600037</t>
+    <t xml:space="preserve">0.926692306995392</t>
   </si>
   <si>
     <t xml:space="preserve">0.934247136116028</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">0.914101481437683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90822571516037</t>
+    <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
     <t xml:space="preserve">0.910743892192841</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905707597732544</t>
+    <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
     <t xml:space="preserve">0.893956065177917</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">0.894795417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913262128829956</t>
+    <t xml:space="preserve">0.913262188434601</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816600322723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909904479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189361095428</t>
+    <t xml:space="preserve">0.909904539585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
     <t xml:space="preserve">0.898153126239777</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872971057891846</t>
+    <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
     <t xml:space="preserve">0.947677254676819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912422657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328766345978</t>
+    <t xml:space="preserve">0.912422716617584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328825950623</t>
   </si>
   <si>
     <t xml:space="preserve">0.874649941921234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401474475861</t>
+    <t xml:space="preserve">0.886401414871216</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
@@ -500,13 +500,13 @@
     <t xml:space="preserve">0.888919651508331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875489294528961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888080179691315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583304405212</t>
+    <t xml:space="preserve">0.875489354133606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888080239295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583364009857</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092440128326</t>
@@ -515,40 +515,40 @@
     <t xml:space="preserve">0.951874315738678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959428727626801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553080558777</t>
+    <t xml:space="preserve">0.959428787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553140163422</t>
   </si>
   <si>
     <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268259048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807797431946</t>
+    <t xml:space="preserve">0.956071317195892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807737827301</t>
   </si>
   <si>
     <t xml:space="preserve">0.975377380847931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983377933502</t>
+    <t xml:space="preserve">0.979574382305145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983318328857</t>
   </si>
   <si>
     <t xml:space="preserve">0.969501614570618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480372428894</t>
+    <t xml:space="preserve">0.941801488399506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
     <t xml:space="preserve">0.935925841331482</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">0.981253147125244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522856712341</t>
+    <t xml:space="preserve">0.995522797107697</t>
   </si>
   <si>
     <t xml:space="preserve">0.987968325614929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04001080989838</t>
+    <t xml:space="preserve">1.04001069068909</t>
   </si>
   <si>
     <t xml:space="preserve">1.04420781135559</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">1.02741980552673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650774478912</t>
+    <t xml:space="preserve">1.01650762557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10800182819366</t>
+    <t xml:space="preserve">1.10800170898438</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">1.2095685005188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544432640076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872926712036</t>
+    <t xml:space="preserve">1.21544444561005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110202789307</t>
+    <t xml:space="preserve">1.19110190868378</t>
   </si>
   <si>
     <t xml:space="preserve">1.18942320346832</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1667594909668</t>
+    <t xml:space="preserve">1.16675961017609</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745342731476</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1.13318371772766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15668678283691</t>
+    <t xml:space="preserve">1.15668666362762</t>
   </si>
   <si>
     <t xml:space="preserve">1.16508078575134</t>
@@ -650,13 +650,13 @@
     <t xml:space="preserve">1.19781708717346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20788979530334</t>
+    <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.18270790576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20621109008789</t>
+    <t xml:space="preserve">1.20621120929718</t>
   </si>
   <si>
     <t xml:space="preserve">1.24902021884918</t>
@@ -671,28 +671,28 @@
     <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27672040462494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29098999500275</t>
+    <t xml:space="preserve">1.27672028541565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29099011421204</t>
   </si>
   <si>
     <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37409007549286</t>
+    <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
     <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37660825252533</t>
+    <t xml:space="preserve">1.37660837173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.38164460659027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828695774078</t>
+    <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.39339625835419</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">1.3967536687851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38500213623047</t>
+    <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
     <t xml:space="preserve">1.37157201766968</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41018402576447</t>
+    <t xml:space="preserve">1.41018414497375</t>
   </si>
   <si>
     <t xml:space="preserve">1.43368709087372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41270220279694</t>
+    <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
@@ -734,31 +734,31 @@
     <t xml:space="preserve">1.42361462116241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536603450775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208121299744</t>
+    <t xml:space="preserve">1.43536591529846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208109378815</t>
   </si>
   <si>
     <t xml:space="preserve">1.47733569145203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5201450586319</t>
+    <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065983772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792329788208</t>
+    <t xml:space="preserve">1.36065971851349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792341709137</t>
   </si>
   <si>
     <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31785070896149</t>
+    <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.32372641563416</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33044159412384</t>
+    <t xml:space="preserve">1.33044171333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.31617176532745</t>
@@ -779,13 +779,13 @@
     <t xml:space="preserve">1.30106258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442023277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588093280792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29350817203522</t>
+    <t xml:space="preserve">1.30442035198212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29350829124451</t>
   </si>
   <si>
     <t xml:space="preserve">1.34471130371094</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">1.48489022254944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52686011791229</t>
+    <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
     <t xml:space="preserve">1.5016782283783</t>
@@ -59153,7 +59153,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6495833333</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>56715</v>
@@ -59174,6 +59174,32 @@
         <v>723</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493865741</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>60420</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>722</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184443950653</t>
+    <t xml:space="preserve">1.09184420108795</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">1.12507784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
+    <t xml:space="preserve">1.10886633396149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
     <t xml:space="preserve">1.07563281059265</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">1.08617031574249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06833779811859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374729633331</t>
+    <t xml:space="preserve">1.0683376789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0537474155426</t>
   </si>
   <si>
     <t xml:space="preserve">0.975932061672211</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531175136566</t>
+    <t xml:space="preserve">0.960531234741211</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954194545746</t>
+    <t xml:space="preserve">0.992954313755035</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349164009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
+    <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985659003257751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266847610474</t>
+    <t xml:space="preserve">0.985659122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984879493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266788005829</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108155727386</t>
@@ -113,28 +113,28 @@
     <t xml:space="preserve">0.913517832756042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842997789382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806521952152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826786279678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389818191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680644035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420868396759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632318496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412197113037</t>
+    <t xml:space="preserve">0.842997848987579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806522011756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82678633928299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389877796173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680584430695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420928001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632378101349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843828201294</t>
@@ -143,37 +143,37 @@
     <t xml:space="preserve">0.932161033153534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956478238105774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213970184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275638103485</t>
+    <t xml:space="preserve">0.956478297710419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936213910579681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91027557849884</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319665431976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372483253479</t>
+    <t xml:space="preserve">0.943509042263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372423648834</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995385885238647</t>
+    <t xml:space="preserve">0.995386004447937</t>
   </si>
   <si>
     <t xml:space="preserve">0.949183225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962152540683746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280249595642</t>
+    <t xml:space="preserve">0.962152421474457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280130386353</t>
   </si>
   <si>
     <t xml:space="preserve">0.992143630981445</t>
@@ -185,31 +185,31 @@
     <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01321852207184</t>
+    <t xml:space="preserve">1.01321864128113</t>
   </si>
   <si>
     <t xml:space="preserve">1.0010598897934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964584052562714</t>
+    <t xml:space="preserve">0.964584112167358</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795800685883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196627616882</t>
+    <t xml:space="preserve">0.980795681476593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196508407593</t>
   </si>
   <si>
     <t xml:space="preserve">0.972689926624298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939456343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068501472473</t>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068739891052</t>
   </si>
   <si>
     <t xml:space="preserve">0.967015743255615</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">0.971879184246063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95080429315567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934592843055725</t>
+    <t xml:space="preserve">0.950804173946381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">0.903790950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893253564834595</t>
+    <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
     <t xml:space="preserve">0.920002460479736</t>
@@ -242,64 +242,64 @@
     <t xml:space="preserve">0.883526742458344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887579560279846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139019489288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055457115173</t>
+    <t xml:space="preserve">0.887579441070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139079093933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055278301239</t>
   </si>
   <si>
     <t xml:space="preserve">0.947562038898468</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928918898105621</t>
+    <t xml:space="preserve">0.928918778896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.921623587608337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91838139295578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898116946220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011131763458</t>
+    <t xml:space="preserve">0.918381333351135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917570769786835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601514339447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117005825043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011191368103</t>
   </si>
   <si>
     <t xml:space="preserve">0.908654451370239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922434091567993</t>
+    <t xml:space="preserve">0.922434329986572</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967104434967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859209358692169</t>
+    <t xml:space="preserve">0.859209299087524</t>
   </si>
   <si>
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156421661377</t>
+    <t xml:space="preserve">0.855156362056732</t>
   </si>
   <si>
     <t xml:space="preserve">0.848671972751617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881094813346863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262295722961</t>
+    <t xml:space="preserve">0.881094753742218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262236118317</t>
   </si>
   <si>
     <t xml:space="preserve">0.868125677108765</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">0.899738073348999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425420284271</t>
+    <t xml:space="preserve">0.886768877506256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425539493561</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786316871643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289381980896</t>
+    <t xml:space="preserve">0.986289620399475</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">0.974537968635559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.965304493904114</t>
+    <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
     <t xml:space="preserve">0.968662202358246</t>
@@ -344,37 +344,37 @@
     <t xml:space="preserve">0.977895438671112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967822909355164</t>
+    <t xml:space="preserve">0.967822790145874</t>
   </si>
   <si>
     <t xml:space="preserve">0.946837961673737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933407604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604606151581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939283430576324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180260181427</t>
+    <t xml:space="preserve">0.933407664299011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604546546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939283311367035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180379390717</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231785774231</t>
+    <t xml:space="preserve">0.955231964588165</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956910789012909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159077644348</t>
+    <t xml:space="preserve">0.95691055059433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159137248993</t>
   </si>
   <si>
     <t xml:space="preserve">0.942640960216522</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">0.915780246257782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931728720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619718074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906546950340271</t>
+    <t xml:space="preserve">0.931728780269623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916619658470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906547069549561</t>
   </si>
   <si>
     <t xml:space="preserve">0.925013661384583</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692426204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934246957302094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137895107269</t>
+    <t xml:space="preserve">0.926692306995392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247076511383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137835502625</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101600646973</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743951797485</t>
+    <t xml:space="preserve">0.910743892192841</t>
   </si>
   <si>
     <t xml:space="preserve">0.900671124458313</t>
@@ -428,55 +428,55 @@
     <t xml:space="preserve">0.905707597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956065177917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262128829956</t>
+    <t xml:space="preserve">0.893956005573273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634829998016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795358181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262188434601</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816659927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909904539585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189361095428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898152947425842</t>
+    <t xml:space="preserve">0.909904420375824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189301490784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898153066635132</t>
   </si>
   <si>
     <t xml:space="preserve">0.889759063720703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881365060806274</t>
+    <t xml:space="preserve">0.88136500120163</t>
   </si>
   <si>
     <t xml:space="preserve">0.878846943378448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87968635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872971057891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677314281464</t>
+    <t xml:space="preserve">0.879686236381531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437828540802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87297111749649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677254676819</t>
   </si>
   <si>
     <t xml:space="preserve">0.912422597408295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876328706741333</t>
+    <t xml:space="preserve">0.876328766345978</t>
   </si>
   <si>
     <t xml:space="preserve">0.874650001525879</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525767803192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885562002658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89059841632843</t>
+    <t xml:space="preserve">0.880525708198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885561943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919651508331</t>
@@ -503,67 +503,67 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080179691315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583244800568</t>
+    <t xml:space="preserve">0.888080239295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583304405212</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092440128326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951874136924744</t>
+    <t xml:space="preserve">0.951874256134033</t>
   </si>
   <si>
     <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953553140163422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377142429352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9795743227005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983377933502</t>
+    <t xml:space="preserve">0.953553080558777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268199443817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807797431946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983497142792</t>
   </si>
   <si>
     <t xml:space="preserve">0.969501495361328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941801488399506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480312824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925781726837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97285920381546</t>
+    <t xml:space="preserve">0.94180154800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480253219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925722122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522737503052</t>
+    <t xml:space="preserve">0.981253027915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522856712341</t>
   </si>
   <si>
     <t xml:space="preserve">0.987968325614929</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04420781135559</t>
+    <t xml:space="preserve">1.04420793056488</t>
   </si>
   <si>
     <t xml:space="preserve">1.0332955121994</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">1.03581380844116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03077757358551</t>
+    <t xml:space="preserve">1.03077745437622</t>
   </si>
   <si>
     <t xml:space="preserve">1.02741992473602</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12143206596375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800194740295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347466945648</t>
+    <t xml:space="preserve">1.12143218517303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800182819366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17347455024719</t>
   </si>
   <si>
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544432640076</t>
+    <t xml:space="preserve">1.21544444561005</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872926712036</t>
@@ -620,28 +620,28 @@
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110190868378</t>
+    <t xml:space="preserve">1.19110202789307</t>
   </si>
   <si>
     <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759884357452</t>
+    <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836560726166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16675937175751</t>
+    <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318371772766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15668666362762</t>
+    <t xml:space="preserve">1.13318359851837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15668678283691</t>
   </si>
   <si>
     <t xml:space="preserve">1.16508066654205</t>
@@ -668,31 +668,31 @@
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26328992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27672028541565</t>
+    <t xml:space="preserve">1.26328980922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27672040462494</t>
   </si>
   <si>
     <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34303259849548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37409019470215</t>
+    <t xml:space="preserve">1.34303247928619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37409007549286</t>
   </si>
   <si>
     <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38164460659027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828707695007</t>
+    <t xml:space="preserve">1.37660825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38164472579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828695774078</t>
   </si>
   <si>
     <t xml:space="preserve">1.39339625835419</t>
@@ -707,43 +707,43 @@
     <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3715717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814154148102</t>
+    <t xml:space="preserve">1.37157201766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3724113702774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
     <t xml:space="preserve">1.41018402576447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43368721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41270220279694</t>
+    <t xml:space="preserve">1.43368709087372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529308795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536603450775</t>
+    <t xml:space="preserve">1.42529320716858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361462116241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43536591529846</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208133220673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47733581066132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014493942261</t>
+    <t xml:space="preserve">1.47733569145203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5201450586319</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179002285004</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">1.32792329788208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32624471187592</t>
+    <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
     <t xml:space="preserve">1.31785070896149</t>
@@ -767,34 +767,34 @@
     <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33044159412384</t>
+    <t xml:space="preserve">1.33044171333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31365358829498</t>
+    <t xml:space="preserve">1.31365370750427</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442035198212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588093280792</t>
+    <t xml:space="preserve">1.30442023277283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588081359863</t>
   </si>
   <si>
     <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471130371094</t>
+    <t xml:space="preserve">1.34471118450165</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45215392112732</t>
+    <t xml:space="preserve">1.45215380191803</t>
   </si>
   <si>
     <t xml:space="preserve">1.45299327373505</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">1.5016782283783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53609359264374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5193053483963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50755405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52730000019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957321166992</t>
+    <t xml:space="preserve">1.53609347343445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51930558681488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50755393505096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52729988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957309246063</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588509559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245091438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962122440338</t>
+    <t xml:space="preserve">1.53588497638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245103359222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962110519409</t>
   </si>
   <si>
     <t xml:space="preserve">1.54532861709595</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">1.57966935634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249904632568</t>
+    <t xml:space="preserve">1.56249892711639</t>
   </si>
   <si>
     <t xml:space="preserve">1.54704570770264</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365965843201</t>
+    <t xml:space="preserve">1.5736597776413</t>
   </si>
   <si>
     <t xml:space="preserve">1.57451820373535</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850874423981</t>
+    <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">1.53931903839111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52815842628479</t>
+    <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
     <t xml:space="preserve">1.48780810832977</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">1.5135635137558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871466636658</t>
+    <t xml:space="preserve">1.51871454715729</t>
   </si>
   <si>
     <t xml:space="preserve">1.49124217033386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4629111289978</t>
+    <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806216239929</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876255989075</t>
+    <t xml:space="preserve">1.54876279830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5556309223175</t>
+    <t xml:space="preserve">1.55563080310822</t>
   </si>
   <si>
     <t xml:space="preserve">1.58482038974762</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57108426094055</t>
+    <t xml:space="preserve">1.57108414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.56421601772308</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593298912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5247243642807</t>
+    <t xml:space="preserve">1.56593310832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.61143445968628</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69814467430115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67067182064056</t>
+    <t xml:space="preserve">1.69814455509186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67067193984985</t>
   </si>
   <si>
     <t xml:space="preserve">1.75995755195618</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">1.72561693191528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70844662189484</t>
+    <t xml:space="preserve">1.70844674110413</t>
   </si>
   <si>
     <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69986152648926</t>
+    <t xml:space="preserve">1.69986164569855</t>
   </si>
   <si>
     <t xml:space="preserve">1.73076808452606</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">1.72733402252197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71445620059967</t>
+    <t xml:space="preserve">1.71445631980896</t>
   </si>
   <si>
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259495258331</t>
+    <t xml:space="preserve">1.62259519100189</t>
   </si>
   <si>
     <t xml:space="preserve">1.58997142314911</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">1.51098799705505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45947706699371</t>
+    <t xml:space="preserve">1.45947694778442</t>
   </si>
   <si>
     <t xml:space="preserve">1.46977925300598</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">1.47578883171082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61229300498962</t>
+    <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
     <t xml:space="preserve">1.66294538974762</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60284912586212</t>
+    <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.588254570961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57537686824799</t>
+    <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739590644836</t>
@@ -1049,37 +1049,37 @@
     <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54103600978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5427531003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901685237885</t>
+    <t xml:space="preserve">1.5410361289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54275321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52901697158813</t>
   </si>
   <si>
     <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54447019100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047976970673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61400985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67410612106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69556891918182</t>
+    <t xml:space="preserve">1.5444700717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55047965049744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61400997638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67410600185394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69556903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698370456696</t>
+    <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">1.55820643901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50669550895691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4809398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51528060436249</t>
+    <t xml:space="preserve">1.50669538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48093998432159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5152804851532</t>
   </si>
   <si>
     <t xml:space="preserve">1.49811029434204</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">1.48952519893646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59254705905914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59683954715729</t>
+    <t xml:space="preserve">1.59254693984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59683966636658</t>
   </si>
   <si>
     <t xml:space="preserve">1.60542476177216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63118016719818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405786991119</t>
+    <t xml:space="preserve">1.63118028640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64405798912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.66122829914093</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6097172498703</t>
+    <t xml:space="preserve">1.60971736907959</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113215446472</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">1.63976526260376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65264308452606</t>
+    <t xml:space="preserve">1.65264320373535</t>
   </si>
   <si>
     <t xml:space="preserve">1.74278736114502</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496952533722</t>
+    <t xml:space="preserve">1.70496964454651</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825516223907</t>
+    <t xml:space="preserve">1.71825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">1.68725550174713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397010326385</t>
+    <t xml:space="preserve">1.66068470478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397022247314</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854229450226</t>
+    <t xml:space="preserve">1.63854217529297</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64739918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66511309146881</t>
+    <t xml:space="preserve">1.6473993062973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6651132106781</t>
   </si>
   <si>
     <t xml:space="preserve">1.66954159736633</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">1.54111528396606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59425735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60754287242889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639988422394</t>
+    <t xml:space="preserve">1.59425723552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6075427532196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57654333114624</t>
+    <t xml:space="preserve">1.58097183704376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57654321193695</t>
   </si>
   <si>
     <t xml:space="preserve">1.52340137958527</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454448699951</t>
+    <t xml:space="preserve">1.51454436779022</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882942676544</t>
+    <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140241622925</t>
+    <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48797333240509</t>
+    <t xml:space="preserve">1.48797345161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.4924019575119</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
+    <t xml:space="preserve">1.6828271150589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72268354892731</t>
+    <t xml:space="preserve">1.7226836681366</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596906661987</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">1.79796802997589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83339583873749</t>
+    <t xml:space="preserve">1.8333957195282</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996663570404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110986232758</t>
+    <t xml:space="preserve">1.85996687412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87768065929413</t>
+    <t xml:space="preserve">1.87768077850342</t>
   </si>
   <si>
     <t xml:space="preserve">1.88653779029846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9308226108551</t>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01053547859192</t>
+    <t xml:space="preserve">2.00167846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0105357170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767547607422</t>
+    <t xml:space="preserve">2.22310304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767523765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -59283,7 +59283,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6493518519</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>45725</v>
@@ -59304,6 +59304,32 @@
         <v>721</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493171296</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>59096</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>744</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184420108795</t>
+    <t xml:space="preserve">1.09184432029724</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507784366608</t>
+    <t xml:space="preserve">1.12507796287537</t>
   </si>
   <si>
     <t xml:space="preserve">1.10886633396149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10643470287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563281059265</t>
+    <t xml:space="preserve">1.10643458366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563269138336</t>
   </si>
   <si>
     <t xml:space="preserve">1.08454918861389</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08617031574249</t>
+    <t xml:space="preserve">1.08617043495178</t>
   </si>
   <si>
     <t xml:space="preserve">1.0683376789093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0537474155426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975932061672211</t>
+    <t xml:space="preserve">1.05374729633331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975932240486145</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">0.960531234741211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954313755035</t>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954254150391</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349164009094</t>
@@ -95,25 +95,25 @@
     <t xml:space="preserve">1.01727151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985659122467041</t>
+    <t xml:space="preserve">0.985658943653107</t>
   </si>
   <si>
     <t xml:space="preserve">1.01646089553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979984879493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266788005829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108155727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
+    <t xml:space="preserve">0.979984939098358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517773151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84299772977829</t>
   </si>
   <si>
     <t xml:space="preserve">0.806522011756897</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">0.82678633928299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796389877796173</t>
+    <t xml:space="preserve">0.796389818191528</t>
   </si>
   <si>
     <t xml:space="preserve">0.818680584430695</t>
@@ -131,19 +131,19 @@
     <t xml:space="preserve">0.875420928001404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891632378101349</t>
+    <t xml:space="preserve">0.891632318496704</t>
   </si>
   <si>
     <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907843828201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932161033153534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478297710419</t>
+    <t xml:space="preserve">0.907843768596649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932160973548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478238105774</t>
   </si>
   <si>
     <t xml:space="preserve">0.936213910579681</t>
@@ -152,37 +152,37 @@
     <t xml:space="preserve">0.91027557849884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319665431976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509042263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372423648834</t>
+    <t xml:space="preserve">0.944319725036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943509221076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995386004447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152421474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280130386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511276721954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916576385498</t>
+    <t xml:space="preserve">0.995385885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949182987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280249595642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511288642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916564464569</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321864128113</t>
@@ -194,40 +194,40 @@
     <t xml:space="preserve">0.964584112167358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984848439693451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795681476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456284046173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068739891052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967015743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879184246063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804173946381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903790950775146</t>
+    <t xml:space="preserve">0.984848499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795741081238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196448802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689867019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456343650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701568365097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962925434113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879303455353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950804233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934592843055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903791010379791</t>
   </si>
   <si>
     <t xml:space="preserve">0.89325350522995</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">0.920002460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526742458344</t>
+    <t xml:space="preserve">0.881905436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526563644409</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579441070557</t>
@@ -248,40 +248,40 @@
     <t xml:space="preserve">0.915139079093933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924055278301239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947562038898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918778896332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623587608337</t>
+    <t xml:space="preserve">0.924055397510529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947561979293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918838500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623647212982</t>
   </si>
   <si>
     <t xml:space="preserve">0.918381333351135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917570769786835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601514339447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434329986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967104434967</t>
+    <t xml:space="preserve">0.91757071018219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434091567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967044830322</t>
   </si>
   <si>
     <t xml:space="preserve">0.859209299087524</t>
@@ -290,40 +290,40 @@
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156362056732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671972751617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094753742218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262236118317</t>
+    <t xml:space="preserve">0.855156481266022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094932556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
     <t xml:space="preserve">0.868125677108765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882716059684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738073348999</t>
+    <t xml:space="preserve">0.882716000080109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704199552536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738192558289</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768877506256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952425539493561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786316871643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986289620399475</t>
+    <t xml:space="preserve">0.952425301074982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786436080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986289501190186</t>
   </si>
   <si>
     <t xml:space="preserve">0.983771443367004</t>
@@ -332,49 +332,49 @@
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974537968635559</t>
+    <t xml:space="preserve">0.974538028240204</t>
   </si>
   <si>
     <t xml:space="preserve">0.965304613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968662202358246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895438671112</t>
+    <t xml:space="preserve">0.968662261962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895557880402</t>
   </si>
   <si>
     <t xml:space="preserve">0.967822790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946837961673737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407664299011</t>
+    <t xml:space="preserve">0.946838021278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407604694366</t>
   </si>
   <si>
     <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939283311367035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180379390717</t>
+    <t xml:space="preserve">0.93928337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180200576782</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231964588165</t>
+    <t xml:space="preserve">0.955231726169586</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95691055059433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159137248993</t>
+    <t xml:space="preserve">0.956910669803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
   </si>
   <si>
     <t xml:space="preserve">0.942640960216522</t>
@@ -383,19 +383,19 @@
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780246257782</t>
+    <t xml:space="preserve">0.923334956169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780305862427</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916619658470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906547069549561</t>
+    <t xml:space="preserve">0.916619718074799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906546950340271</t>
   </si>
   <si>
     <t xml:space="preserve">0.925013661384583</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247076511383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137835502625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908225774765015</t>
+    <t xml:space="preserve">0.926692366600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101421833038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90822571516037</t>
   </si>
   <si>
     <t xml:space="preserve">0.910743892192841</t>
@@ -425,25 +425,25 @@
     <t xml:space="preserve">0.900671124458313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905707597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956005573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634829998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795358181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262188434601</t>
+    <t xml:space="preserve">0.905707538127899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956124782562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634770393372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795298576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816659927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909904420375824</t>
+    <t xml:space="preserve">0.909904479980469</t>
   </si>
   <si>
     <t xml:space="preserve">0.903189301490784</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">0.898153066635132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889759063720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88136500120163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846943378448</t>
+    <t xml:space="preserve">0.889759004116058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881365060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878847002983093</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
@@ -467,19 +467,19 @@
     <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87297111749649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677254676819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422597408295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328766345978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874650001525879</t>
+    <t xml:space="preserve">0.872971057891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677195072174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422716617584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650061130524</t>
   </si>
   <si>
     <t xml:space="preserve">0.886401474475861</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525708198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885561943054199</t>
+    <t xml:space="preserve">0.880525648593903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885562002658844</t>
   </si>
   <si>
     <t xml:space="preserve">0.890598356723785</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.911583304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092440128326</t>
+    <t xml:space="preserve">0.982092499732971</t>
   </si>
   <si>
     <t xml:space="preserve">0.951874256134033</t>
@@ -524,34 +524,34 @@
     <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268199443817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807797431946</t>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807559013367</t>
   </si>
   <si>
     <t xml:space="preserve">0.975377261638641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97957444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983497142792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501495361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94180154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480253219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925722122192</t>
+    <t xml:space="preserve">0.979574382305145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983258724213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501614570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801428794861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94348019361496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925781726837</t>
   </si>
   <si>
     <t xml:space="preserve">0.972859144210815</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">0.981253027915955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522856712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968325614929</t>
+    <t xml:space="preserve">0.995522797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968444824219</t>
   </si>
   <si>
     <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04420793056488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0332955121994</t>
+    <t xml:space="preserve">1.04420781135559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
     <t xml:space="preserve">1.03665316104889</t>
@@ -584,31 +584,31 @@
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344116687775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03581380844116</t>
+    <t xml:space="preserve">1.05344104766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03581368923187</t>
   </si>
   <si>
     <t xml:space="preserve">1.03077745437622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02741992473602</t>
+    <t xml:space="preserve">1.02741980552673</t>
   </si>
   <si>
     <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12143218517303</t>
+    <t xml:space="preserve">1.12143206596375</t>
   </si>
   <si>
     <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347455024719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20956861972809</t>
+    <t xml:space="preserve">1.17347466945648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20956873893738</t>
   </si>
   <si>
     <t xml:space="preserve">1.21544444561005</t>
@@ -629,28 +629,28 @@
     <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15836560726166</t>
+    <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
     <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14745330810547</t>
+    <t xml:space="preserve">1.14745342731476</t>
   </si>
   <si>
     <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15668678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508066654205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19781720638275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20788979530334</t>
+    <t xml:space="preserve">1.15668666362762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16508078575134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19781708717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.18270802497864</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26328980922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27672040462494</t>
+    <t xml:space="preserve">1.26329004764557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
     <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34303247928619</t>
+    <t xml:space="preserve">1.34303259849548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37409007549286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255678653717</t>
+    <t xml:space="preserve">1.39255690574646</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
@@ -692,34 +692,34 @@
     <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828695774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39339625835419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500225543976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37157201766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3724113702774</t>
+    <t xml:space="preserve">1.37828707695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3933961391449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38919913768768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675402641296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500237464905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37157189846039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37241125106812</t>
   </si>
   <si>
     <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41018402576447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43368709087372</t>
+    <t xml:space="preserve">1.41018414497375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43368721008301</t>
   </si>
   <si>
     <t xml:space="preserve">1.41270232200623</t>
@@ -728,37 +728,37 @@
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529320716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361462116241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536591529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208133220673</t>
+    <t xml:space="preserve">1.42529332637787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361438274384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43536603450775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
     <t xml:space="preserve">1.47733569145203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5201450586319</t>
+    <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179002285004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065983772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792329788208</t>
+    <t xml:space="preserve">1.36065971851349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792341709137</t>
   </si>
   <si>
     <t xml:space="preserve">1.32624459266663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31785070896149</t>
+    <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.32372641563416</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33044171333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617176532745</t>
+    <t xml:space="preserve">1.33044159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31617188453674</t>
   </si>
   <si>
     <t xml:space="preserve">1.31365370750427</t>
@@ -779,34 +779,34 @@
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442023277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588081359863</t>
+    <t xml:space="preserve">1.30442035198212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
     <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471118450165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35982036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45215380191803</t>
+    <t xml:space="preserve">1.34471130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35982024669647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489034175873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52686011791229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5016782283783</t>
+    <t xml:space="preserve">1.48489022254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.526859998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50167834758759</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609347343445</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957309246063</t>
+    <t xml:space="preserve">1.52729976177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.53588497638702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53245103359222</t>
+    <t xml:space="preserve">1.53245079517365</t>
   </si>
   <si>
     <t xml:space="preserve">1.54962110519409</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55391371250153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280123233795</t>
+    <t xml:space="preserve">1.55391383171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280111312866</t>
   </si>
   <si>
     <t xml:space="preserve">1.57966935634613</t>
@@ -851,49 +851,49 @@
     <t xml:space="preserve">1.56249892711639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704570770264</t>
+    <t xml:space="preserve">1.54704582691193</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5736597776413</t>
+    <t xml:space="preserve">1.57365953922272</t>
   </si>
   <si>
     <t xml:space="preserve">1.57451820373535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679165363312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219674110413</t>
+    <t xml:space="preserve">1.56679153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54790413379669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53931903839111</t>
+    <t xml:space="preserve">1.54790425300598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48780810832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5135635137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871454715729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124217033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46291100978851</t>
+    <t xml:space="preserve">1.48780798912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51356363296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51871478557587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4629111289978</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806216239929</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55563080310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482038974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56765007972717</t>
+    <t xml:space="preserve">1.5556309223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482027053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56764996051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
@@ -935,28 +935,28 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593310832977</t>
+    <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61143445968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64234089851379</t>
+    <t xml:space="preserve">1.61143434047699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6423407793045</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75995755195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7170318365097</t>
+    <t xml:space="preserve">1.67067182064056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75995767116547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71703171730042</t>
   </si>
   <si>
     <t xml:space="preserve">1.74793839454651</t>
@@ -965,22 +965,22 @@
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561693191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70844674110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72905099391937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69986164569855</t>
+    <t xml:space="preserve">1.72561705112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70844662189484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72905111312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69986152648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.73076808452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73420226573944</t>
+    <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
     <t xml:space="preserve">1.72733402252197</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58997142314911</t>
+    <t xml:space="preserve">1.6225950717926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5899715423584</t>
   </si>
   <si>
     <t xml:space="preserve">1.56936705112457</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">1.51098799705505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45947694778442</t>
+    <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
     <t xml:space="preserve">1.46977925300598</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6698135137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269109725952</t>
+    <t xml:space="preserve">1.66981339454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">1.60885882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59941518306732</t>
+    <t xml:space="preserve">1.59941506385803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588254570961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5753767490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739590644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55133831501007</t>
+    <t xml:space="preserve">1.58825445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57537686824799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739602565765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55133843421936</t>
   </si>
   <si>
     <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54275321960449</t>
+    <t xml:space="preserve">1.5427531003952</t>
   </si>
   <si>
     <t xml:space="preserve">1.52901697158813</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5444700717926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047965049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.54447019100189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55047976970673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70415413379669</t>
+    <t xml:space="preserve">1.7041540145874</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688755989075</t>
+    <t xml:space="preserve">1.62688767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820643901825</t>
@@ -1100,34 +1100,34 @@
     <t xml:space="preserve">1.48093998432159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5152804851532</t>
+    <t xml:space="preserve">1.51528060436249</t>
   </si>
   <si>
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386581897736</t>
+    <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43801403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952519893646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59254693984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59683966636658</t>
+    <t xml:space="preserve">1.43801414966583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952507972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59254705905914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59683954715729</t>
   </si>
   <si>
     <t xml:space="preserve">1.60542476177216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63118028640747</t>
+    <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405798912048</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.67839872837067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6569356918335</t>
+    <t xml:space="preserve">1.65693581104279</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">1.60113215446472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63976526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264320373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
+    <t xml:space="preserve">1.63976538181305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264308452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278724193573</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496964454651</t>
+    <t xml:space="preserve">1.70496952533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725550174713</t>
+    <t xml:space="preserve">1.68725562095642</t>
   </si>
   <si>
     <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67397022247314</t>
+    <t xml:space="preserve">1.67397010326385</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
@@ -1199,28 +1199,28 @@
     <t xml:space="preserve">1.65625619888306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6473993062973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6651132106781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66954159736633</t>
+    <t xml:space="preserve">1.64739918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66511309146881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66954171657562</t>
   </si>
   <si>
     <t xml:space="preserve">1.62968528270721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61197137832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111528396606</t>
+    <t xml:space="preserve">1.61197125911713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111540317535</t>
   </si>
   <si>
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6075427532196</t>
+    <t xml:space="preserve">1.60754287242889</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097183704376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57654321193695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52340137958527</t>
+    <t xml:space="preserve">1.58097171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57654333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52340149879456</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583092212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48354482650757</t>
+    <t xml:space="preserve">1.46583104133606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48354494571686</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982872962952</t>
+    <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
     <t xml:space="preserve">1.5499724149704</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125896930695</t>
+    <t xml:space="preserve">1.50125908851624</t>
   </si>
   <si>
     <t xml:space="preserve">1.45697402954102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58540022373199</t>
+    <t xml:space="preserve">1.58540034294128</t>
   </si>
   <si>
     <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51011598110199</t>
+    <t xml:space="preserve">1.5101158618927</t>
   </si>
   <si>
     <t xml:space="preserve">1.46140253543854</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">1.48797345161438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4924019575119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55440092086792</t>
+    <t xml:space="preserve">1.49240183830261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55440080165863</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69168400764465</t>
+    <t xml:space="preserve">1.68282699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69168412685394</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939803123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7226836681366</t>
+    <t xml:space="preserve">1.70939815044403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596906661987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682492256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79796802997589</t>
+    <t xml:space="preserve">1.75368297100067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682480335236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7979679107666</t>
   </si>
   <si>
     <t xml:space="preserve">1.8333957195282</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996687412262</t>
+    <t xml:space="preserve">1.85996675491333</t>
   </si>
   <si>
     <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86882364749908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87768077850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88653779029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93082284927368</t>
+    <t xml:space="preserve">1.86882376670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87768065929413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88653802871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9308226108551</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510755062103</t>
+    <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0105357170105</t>
+    <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1409,13 +1409,13 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253456115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08139157295227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12567639350891</t>
+    <t xml:space="preserve">2.07253432273865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08139133453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12567663192749</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09910535812378</t>
+    <t xml:space="preserve">2.0991051197052</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424627304077</t>
+    <t xml:space="preserve">2.21424603462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">2.22310304641724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18767523765564</t>
+    <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17881846427917</t>
+    <t xml:space="preserve">2.1788182258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -59309,7 +59309,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493171296</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>59096</v>
@@ -59330,6 +59330,32 @@
         <v>744</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6495833333</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>741</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184432029724</t>
+    <t xml:space="preserve">1.09184443950653</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">1.10643458366394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07563269138336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454918861389</t>
+    <t xml:space="preserve">1.07563281059265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08454930782318</t>
   </si>
   <si>
     <t xml:space="preserve">1.09346544742584</t>
@@ -65,55 +65,55 @@
     <t xml:space="preserve">1.08617043495178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0683376789093</t>
+    <t xml:space="preserve">1.06833755970001</t>
   </si>
   <si>
     <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932240486145</t>
+    <t xml:space="preserve">0.975932061672211</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531234741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889252662659</t>
+    <t xml:space="preserve">0.960531175136566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
     <t xml:space="preserve">0.992954254150391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00349164009094</t>
+    <t xml:space="preserve">1.00349175930023</t>
   </si>
   <si>
     <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01727151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985658943653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
+    <t xml:space="preserve">1.0172712802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985659122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646077632904</t>
   </si>
   <si>
     <t xml:space="preserve">0.979984939098358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940266847610474</t>
+    <t xml:space="preserve">0.940266788005829</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913517773151398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84299772977829</t>
+    <t xml:space="preserve">0.913517832756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997848987579</t>
   </si>
   <si>
     <t xml:space="preserve">0.806522011756897</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">0.82678633928299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796389818191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680584430695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420928001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632318496704</t>
+    <t xml:space="preserve">0.796389877796173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680644035339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420868396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632378101349</t>
   </si>
   <si>
     <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907843768596649</t>
+    <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
     <t xml:space="preserve">0.932160973548889</t>
@@ -146,82 +146,82 @@
     <t xml:space="preserve">0.956478238105774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213910579681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91027557849884</t>
+    <t xml:space="preserve">0.936213970184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910275638103485</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372542858124</t>
+    <t xml:space="preserve">0.943509101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372483253479</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995385885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949182987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152361869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280249595642</t>
+    <t xml:space="preserve">0.995386064052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183106422424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280309200287</t>
   </si>
   <si>
     <t xml:space="preserve">0.992143511772156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00511288642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
+    <t xml:space="preserve">1.00511276721954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321864128113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0010598897934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584112167358</t>
+    <t xml:space="preserve">1.00106000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584052562714</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848499298096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795741081238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196448802948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689867019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701568365097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879303455353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804233551025</t>
+    <t xml:space="preserve">0.980795562267303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196568012238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689926624298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456224441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068680286407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701580286026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962985038757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879184246063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
     <t xml:space="preserve">0.934592843055725</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">0.903791010379791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89325350522995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002460479736</t>
+    <t xml:space="preserve">0.893253564834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002341270447</t>
   </si>
   <si>
     <t xml:space="preserve">0.881905436515808</t>
@@ -242,43 +242,43 @@
     <t xml:space="preserve">0.883526563644409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887579441070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139079093933</t>
+    <t xml:space="preserve">0.887579500675201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915139019489288</t>
   </si>
   <si>
     <t xml:space="preserve">0.924055397510529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947561979293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918838500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623647212982</t>
+    <t xml:space="preserve">0.947562098503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928918778896332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921623587608337</t>
   </si>
   <si>
     <t xml:space="preserve">0.918381333351135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654391765594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434091567993</t>
+    <t xml:space="preserve">0.917570650577545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601633548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117005825043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011250972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654451370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434210777283</t>
   </si>
   <si>
     <t xml:space="preserve">0.855967044830322</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156481266022</t>
+    <t xml:space="preserve">0.855156421661377</t>
   </si>
   <si>
     <t xml:space="preserve">0.848671913146973</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">0.863262295722961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868125677108765</t>
+    <t xml:space="preserve">0.868125736713409</t>
   </si>
   <si>
     <t xml:space="preserve">0.882716000080109</t>
@@ -311,31 +311,31 @@
     <t xml:space="preserve">0.87704199552536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899738192558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768877506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425301074982</t>
+    <t xml:space="preserve">0.899738013744354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768937110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425479888916</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786436080933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289501190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771443367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698556423187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974538028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
+    <t xml:space="preserve">0.986289441585541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983771324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974537968635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304553508759</t>
   </si>
   <si>
     <t xml:space="preserve">0.968662261962891</t>
@@ -347,34 +347,37 @@
     <t xml:space="preserve">0.967822790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946838021278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
+    <t xml:space="preserve">0.946837842464447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407485485077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944319844245911</t>
   </si>
   <si>
     <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93928337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180200576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356138706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231726169586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910669803619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159196853638</t>
+    <t xml:space="preserve">0.93928325176239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180260181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949356198310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231845378876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392373561859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910729408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159137248993</t>
   </si>
   <si>
     <t xml:space="preserve">0.942640960216522</t>
@@ -383,13 +386,13 @@
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334956169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780305862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728780269623</t>
+    <t xml:space="preserve">0.923334896564484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780246257782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931728839874268</t>
   </si>
   <si>
     <t xml:space="preserve">0.916619718074799</t>
@@ -404,25 +407,25 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692366600037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137895107269</t>
+    <t xml:space="preserve">0.926692306995392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934246957302094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137954711914</t>
   </si>
   <si>
     <t xml:space="preserve">0.914101421833038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90822571516037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910743892192841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671124458313</t>
+    <t xml:space="preserve">0.908225774765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91074401140213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671064853668</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
@@ -431,13 +434,13 @@
     <t xml:space="preserve">0.893956124782562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895634770393372</t>
+    <t xml:space="preserve">0.895634889602661</t>
   </si>
   <si>
     <t xml:space="preserve">0.894795298576355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913262128829956</t>
+    <t xml:space="preserve">0.913262069225311</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816659927368</t>
@@ -449,16 +452,16 @@
     <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898153066635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889759004116058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881365060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878847002983093</t>
+    <t xml:space="preserve">0.898153007030487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889758944511414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88136500120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878846943378448</t>
   </si>
   <si>
     <t xml:space="preserve">0.879686236381531</t>
@@ -467,28 +470,28 @@
     <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872971057891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677195072174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422716617584</t>
+    <t xml:space="preserve">0.87297111749649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947677373886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422776222229</t>
   </si>
   <si>
     <t xml:space="preserve">0.876328706741333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874650061130524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886401474475861</t>
+    <t xml:space="preserve">0.874649941921234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886401414871216</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525648593903</t>
+    <t xml:space="preserve">0.880525767803192</t>
   </si>
   <si>
     <t xml:space="preserve">0.885562002658844</t>
@@ -500,7 +503,7 @@
     <t xml:space="preserve">0.888919651508331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875489294528961</t>
+    <t xml:space="preserve">0.875489354133606</t>
   </si>
   <si>
     <t xml:space="preserve">0.888080239295959</t>
@@ -509,31 +512,31 @@
     <t xml:space="preserve">0.911583304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092499732971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428787231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553080558777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465320110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807559013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377261638641</t>
+    <t xml:space="preserve">0.982092559337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874315738678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95942884683609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465200901031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268259048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807737827301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377321243286</t>
   </si>
   <si>
     <t xml:space="preserve">0.979574382305145</t>
@@ -545,13 +548,13 @@
     <t xml:space="preserve">0.969501614570618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941801428794861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94348019361496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925781726837</t>
+    <t xml:space="preserve">0.941801488399506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943480312824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925841331482</t>
   </si>
   <si>
     <t xml:space="preserve">0.972859144210815</t>
@@ -560,19 +563,19 @@
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253027915955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522797107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001080989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04420781135559</t>
+    <t xml:space="preserve">0.981253147125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968325614929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04001069068909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0442076921463</t>
   </si>
   <si>
     <t xml:space="preserve">1.03329563140869</t>
@@ -593,10 +596,10 @@
     <t xml:space="preserve">1.03077745437622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02741980552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01650774478912</t>
+    <t xml:space="preserve">1.02741968631744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01650762557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143206596375</t>
@@ -605,16 +608,16 @@
     <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347466945648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20956873893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544444561005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872926712036</t>
+    <t xml:space="preserve">1.17347478866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20956861972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544432640076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
     <t xml:space="preserve">1.18354737758636</t>
@@ -626,25 +629,25 @@
     <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759896278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836548805237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1667594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14745342731476</t>
+    <t xml:space="preserve">1.16759884357452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836560726166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16675961017609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14745330810547</t>
   </si>
   <si>
     <t xml:space="preserve">1.13318359851837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15668666362762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508078575134</t>
+    <t xml:space="preserve">1.15668678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16508066654205</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781708717346</t>
@@ -653,7 +656,7 @@
     <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270802497864</t>
+    <t xml:space="preserve">1.18270814418793</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
@@ -662,28 +665,28 @@
     <t xml:space="preserve">1.24902033805847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25741422176361</t>
+    <t xml:space="preserve">1.25741410255432</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26329004764557</t>
+    <t xml:space="preserve">1.26328992843628</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29098999500275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303259849548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37409007549286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39255690574646</t>
+    <t xml:space="preserve">1.29098987579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34303247928619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37409019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660825252533</t>
@@ -692,31 +695,31 @@
     <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828707695007</t>
+    <t xml:space="preserve">1.37828695774078</t>
   </si>
   <si>
     <t xml:space="preserve">1.3933961391449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38919913768768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675402641296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500237464905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37157189846039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241125106812</t>
+    <t xml:space="preserve">1.38919925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500225543976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3715717792511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3724113702774</t>
   </si>
   <si>
     <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41018414497375</t>
+    <t xml:space="preserve">1.41018402576447</t>
   </si>
   <si>
     <t xml:space="preserve">1.43368721008301</t>
@@ -728,7 +731,7 @@
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529332637787</t>
+    <t xml:space="preserve">1.42529320716858</t>
   </si>
   <si>
     <t xml:space="preserve">1.42361438274384</t>
@@ -743,16 +746,16 @@
     <t xml:space="preserve">1.47733569145203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52014493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40179002285004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36065971851349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792341709137</t>
+    <t xml:space="preserve">1.52014482021332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40179014205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36065983772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792353630066</t>
   </si>
   <si>
     <t xml:space="preserve">1.32624459266663</t>
@@ -761,19 +764,19 @@
     <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32372641563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33128094673157</t>
+    <t xml:space="preserve">1.32372653484344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33128106594086</t>
   </si>
   <si>
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617188453674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365370750427</t>
+    <t xml:space="preserve">1.31617176532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365358829498</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
@@ -782,16 +785,16 @@
     <t xml:space="preserve">1.30442035198212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588093280792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29350817203522</t>
+    <t xml:space="preserve">1.27588081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29350829124451</t>
   </si>
   <si>
     <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35982024669647</t>
+    <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
@@ -800,16 +803,16 @@
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489022254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526859998703</t>
+    <t xml:space="preserve">1.48489046096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52686011791229</t>
   </si>
   <si>
     <t xml:space="preserve">1.50167834758759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53609347343445</t>
+    <t xml:space="preserve">1.53609359264374</t>
   </si>
   <si>
     <t xml:space="preserve">1.51930558681488</t>
@@ -818,22 +821,22 @@
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729976177216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957321166992</t>
+    <t xml:space="preserve">1.52729988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957309246063</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588497638702</t>
+    <t xml:space="preserve">1.53588509559631</t>
   </si>
   <si>
     <t xml:space="preserve">1.53245079517365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54962110519409</t>
+    <t xml:space="preserve">1.54962122440338</t>
   </si>
   <si>
     <t xml:space="preserve">1.54532861709595</t>
@@ -848,10 +851,10 @@
     <t xml:space="preserve">1.57966935634613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249892711639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54704582691193</t>
+    <t xml:space="preserve">1.56249904632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54704558849335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -863,16 +866,16 @@
     <t xml:space="preserve">1.57451820373535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219686031342</t>
+    <t xml:space="preserve">1.56679165363312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54790425300598</t>
+    <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.53931891918182</t>
@@ -881,7 +884,7 @@
     <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48780798912048</t>
+    <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.51356363296509</t>
@@ -890,16 +893,16 @@
     <t xml:space="preserve">1.51871478557587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49124205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806216239929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.49124217033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806228160858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -908,7 +911,7 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876279830933</t>
+    <t xml:space="preserve">1.54876267910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
@@ -926,7 +929,7 @@
     <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57108414173126</t>
+    <t xml:space="preserve">1.57108426094055</t>
   </si>
   <si>
     <t xml:space="preserve">1.56421601772308</t>
@@ -938,25 +941,25 @@
     <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52472424507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143434047699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6423407793045</t>
+    <t xml:space="preserve">1.5247243642807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6114342212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67067182064056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75995767116547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71703171730042</t>
+    <t xml:space="preserve">1.67067193984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75995755195618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
     <t xml:space="preserve">1.74793839454651</t>
@@ -965,13 +968,13 @@
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561705112457</t>
+    <t xml:space="preserve">1.72561693191528</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905111312866</t>
+    <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
     <t xml:space="preserve">1.69986152648926</t>
@@ -980,19 +983,19 @@
     <t xml:space="preserve">1.73076808452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73420214653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72733402252197</t>
+    <t xml:space="preserve">1.73420202732086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72733414173126</t>
   </si>
   <si>
     <t xml:space="preserve">1.71445631980896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67238903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6225950717926</t>
+    <t xml:space="preserve">1.67238891124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62259519100189</t>
   </si>
   <si>
     <t xml:space="preserve">1.5899715423584</t>
@@ -1016,13 +1019,13 @@
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294538974762</t>
+    <t xml:space="preserve">1.66294527053833</t>
   </si>
   <si>
     <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
@@ -1031,49 +1034,49 @@
     <t xml:space="preserve">1.60885882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59941506385803</t>
+    <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57537686824799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739602565765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55133843421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5410361289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5427531003952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901697158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54447019100189</t>
+    <t xml:space="preserve">1.588254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753767490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58739578723907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55133831501007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54103600978851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54275321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52901685237885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54361152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54447031021118</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67410600185394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69556903839111</t>
+    <t xml:space="preserve">1.61400997638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67410612106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69556879997253</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
@@ -1082,7 +1085,7 @@
     <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7041540145874</t>
+    <t xml:space="preserve">1.70415413379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
@@ -1115,37 +1118,37 @@
     <t xml:space="preserve">1.43801414966583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48952507972717</t>
+    <t xml:space="preserve">1.48952519893646</t>
   </si>
   <si>
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683954715729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542476177216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118016719818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405798912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122829914093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839872837067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65693581104279</t>
+    <t xml:space="preserve">1.59683966636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118028640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64405786991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66122817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839860916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693557262421</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971736907959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113215446472</t>
+    <t xml:space="preserve">1.60113227367401</t>
   </si>
   <si>
     <t xml:space="preserve">1.63976538181305</t>
@@ -1163,9 +1166,6 @@
     <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67839860916138</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">1.66068470478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67397010326385</t>
+    <t xml:space="preserve">1.67397022247314</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854217529297</t>
+    <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66954171657562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62968528270721</t>
+    <t xml:space="preserve">1.66954159736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62968516349792</t>
   </si>
   <si>
     <t xml:space="preserve">1.61197125911713</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.59425723552704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60754287242889</t>
+    <t xml:space="preserve">1.6075427532196</t>
   </si>
   <si>
     <t xml:space="preserve">1.61639976501465</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097171783447</t>
+    <t xml:space="preserve">1.58097183704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.44811701774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46583104133606</t>
+    <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
     <t xml:space="preserve">1.48354494571686</t>
@@ -1280,40 +1280,40 @@
     <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5499724149704</t>
+    <t xml:space="preserve">1.54997229576111</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50125908851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540034294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47025942802429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5101158618927</t>
+    <t xml:space="preserve">1.50125896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58540022373199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47025954723358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
     <t xml:space="preserve">1.46140253543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797345161438</t>
+    <t xml:space="preserve">1.45254564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797357082367</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55440080165863</t>
+    <t xml:space="preserve">1.55440092086792</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69168412685394</t>
+    <t xml:space="preserve">1.6828271150589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69168400764465</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939815044403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72268354892731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596906661987</t>
+    <t xml:space="preserve">1.70939803123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7226836681366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596894741058</t>
   </si>
   <si>
     <t xml:space="preserve">1.75368297100067</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86882376670837</t>
+    <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653802871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9308226108551</t>
+    <t xml:space="preserve">1.88653790950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.00167846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01053547859192</t>
+    <t xml:space="preserve">2.0105357170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08139133453369</t>
+    <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12567663192749</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1079626083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0991051197052</t>
+    <t xml:space="preserve">2.10796236991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09910535812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.02824950218201</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.19653248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21424603462219</t>
+    <t xml:space="preserve">2.21424627304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.23196029663086</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310304641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767547607422</t>
+    <t xml:space="preserve">2.22310328483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767523765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -6989,7 +6989,7 @@
         <v>1.125</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>1.125</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>1.125</v>
       </c>
       <c r="G168" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>1.125</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>1.11699998378754</v>
       </c>
       <c r="G170" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7119,7 +7119,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G171" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G172" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7171,7 +7171,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G173" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7197,7 +7197,7 @@
         <v>1.13100004196167</v>
       </c>
       <c r="G174" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G175" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7249,7 +7249,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G176" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7275,7 +7275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G177" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7301,7 +7301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G178" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G179" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>1.12300002574921</v>
       </c>
       <c r="G180" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G182" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G183" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G185" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>1.09099996089935</v>
       </c>
       <c r="G186" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G187" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G189" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>1.09200000762939</v>
       </c>
       <c r="G190" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G191" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>1.10199999809265</v>
       </c>
       <c r="G192" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G193" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G194" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G195" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>1.11300003528595</v>
       </c>
       <c r="G196" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G197" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>1.08899998664856</v>
       </c>
       <c r="G198" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G199" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>1.08200001716614</v>
       </c>
       <c r="G200" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G201" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G202" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>1.07299995422363</v>
       </c>
       <c r="G203" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G204" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G205" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G206" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>1.06700003147125</v>
       </c>
       <c r="G207" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G208" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>1.08800005912781</v>
       </c>
       <c r="G209" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G210" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8159,7 +8159,7 @@
         <v>1.09700000286102</v>
       </c>
       <c r="G211" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G212" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>1.07599997520447</v>
       </c>
       <c r="G213" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G214" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G215" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G216" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>1.04700005054474</v>
       </c>
       <c r="G217" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G218" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G219" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G220" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G222" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>1.12899994850159</v>
       </c>
       <c r="G223" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G224" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>1.08700001239777</v>
       </c>
       <c r="G225" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G226" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G227" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>1.04200005531311</v>
       </c>
       <c r="G228" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G229" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>1.05599999427795</v>
       </c>
       <c r="G230" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>1.03100001811981</v>
       </c>
       <c r="G231" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G232" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G233" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>1.04900002479553</v>
       </c>
       <c r="G234" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>1.05499994754791</v>
       </c>
       <c r="G235" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>1.06099998950958</v>
       </c>
       <c r="G237" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>1.05900001525879</v>
       </c>
       <c r="G238" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>1.04299998283386</v>
       </c>
       <c r="G239" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G240" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>1.05799996852875</v>
       </c>
       <c r="G241" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G242" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G243" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G244" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G245" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>1.08599996566772</v>
       </c>
       <c r="G246" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G247" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G248" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>1.13399994373322</v>
       </c>
       <c r="G249" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G250" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>1.1360000371933</v>
       </c>
       <c r="G252" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G253" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>1.14900004863739</v>
       </c>
       <c r="G254" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G255" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G256" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>1.14400005340576</v>
       </c>
       <c r="G257" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G258" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G259" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G260" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>1.16700005531311</v>
       </c>
       <c r="G261" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G263" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G265" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G266" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G267" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G269" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G270" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G271" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G274" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G275" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G276" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G277" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G278" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>1.12199997901917</v>
       </c>
       <c r="G279" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G280" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G281" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G282" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G283" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>1.12399995326996</v>
       </c>
       <c r="G284" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10135,7 +10135,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G287" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>1.15900003910065</v>
       </c>
       <c r="G288" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>1.15100002288818</v>
       </c>
       <c r="G289" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>1.1690000295639</v>
       </c>
       <c r="G290" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>1.18599998950958</v>
       </c>
       <c r="G291" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G296" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G297" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G298" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>1.17700004577637</v>
       </c>
       <c r="G299" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G300" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G301" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>1.23099994659424</v>
       </c>
       <c r="G302" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G303" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G304" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>1.25499999523163</v>
       </c>
       <c r="G305" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>1.23399996757507</v>
       </c>
       <c r="G306" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>1.22800004482269</v>
       </c>
       <c r="G307" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G308" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>1.21099996566772</v>
       </c>
       <c r="G310" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G311" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G312" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G313" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G314" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G315" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>1.39800000190735</v>
       </c>
       <c r="G316" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>1.44099998474121</v>
       </c>
       <c r="G317" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>1.44799995422363</v>
       </c>
       <c r="G318" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G319" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G320" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>1.4190000295639</v>
       </c>
       <c r="G321" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>1.41700005531311</v>
       </c>
       <c r="G322" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>1.39100003242493</v>
       </c>
       <c r="G323" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G324" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G325" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>1.36699998378754</v>
       </c>
       <c r="G326" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G327" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G328" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G329" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>1.43900001049042</v>
       </c>
       <c r="G331" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>1.40900003910065</v>
       </c>
       <c r="G332" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G333" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>1.43700003623962</v>
       </c>
       <c r="G334" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G335" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G336" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G337" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>1.50499999523163</v>
       </c>
       <c r="G338" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>1.52100002765656</v>
       </c>
       <c r="G339" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G340" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G341" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>1.63699996471405</v>
       </c>
       <c r="G342" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G343" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G344" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G345" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G346" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G347" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G348" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G349" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G350" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G351" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G352" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G353" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G355" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G356" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G357" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G358" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G359" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>1.68299996852875</v>
       </c>
       <c r="G360" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G361" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G362" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G363" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G364" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G366" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G367" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G368" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>1.81099998950958</v>
       </c>
       <c r="G369" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G370" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G371" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>1.62100005149841</v>
       </c>
       <c r="G372" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G373" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G374" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G375" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>1.57700002193451</v>
       </c>
       <c r="G376" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G377" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G378" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>1.58500003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G380" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>1.567999958992</v>
       </c>
       <c r="G381" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>1.56500005722046</v>
       </c>
       <c r="G382" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G383" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G384" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G385" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>1.54100000858307</v>
       </c>
       <c r="G386" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G387" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G388" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G389" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G390" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G391" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G392" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G393" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G394" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>1.81900000572205</v>
       </c>
       <c r="G395" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G396" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G397" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G398" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G399" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G400" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>1.75</v>
       </c>
       <c r="G402" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G403" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G404" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G405" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G406" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G407" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G408" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G409" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G410" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G411" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G412" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G413" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G415" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G416" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G417" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G418" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G419" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>1.82700002193451</v>
       </c>
       <c r="G420" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G421" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>1.80299997329712</v>
       </c>
       <c r="G422" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>1.79299998283386</v>
       </c>
       <c r="G423" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G424" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>1.75</v>
       </c>
       <c r="G425" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>1.73300004005432</v>
       </c>
       <c r="G426" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>1.76300001144409</v>
       </c>
       <c r="G427" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G428" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>1.75</v>
       </c>
       <c r="G429" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G430" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G431" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G433" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G436" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G437" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G438" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G439" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G440" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G441" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G442" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G443" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G444" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G445" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G446" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G447" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G448" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G449" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G450" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G451" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G452" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G453" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G455" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G456" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G457" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G458" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G459" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G460" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G461" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G463" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G464" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G465" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G466" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>2.01399993896484</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G471" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G473" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>1.99699997901917</v>
       </c>
       <c r="G474" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G475" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G476" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G477" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G478" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G479" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G480" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G481" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G482" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G483" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G484" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G485" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G486" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G487" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G488" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G489" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G490" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>1.86300003528595</v>
       </c>
       <c r="G491" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G492" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G493" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G494" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G495" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G497" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>1.84899997711182</v>
       </c>
       <c r="G498" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G499" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G500" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G501" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G502" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G503" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G504" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G505" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>1.79700005054474</v>
       </c>
       <c r="G506" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>1.78100001811981</v>
       </c>
       <c r="G507" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G508" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>1.79900002479553</v>
       </c>
       <c r="G509" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G510" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G511" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G512" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G513" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G514" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G515" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G516" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G517" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G521" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G522" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G525" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G526" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G528" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G529" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G530" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G531" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G532" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G533" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G534" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G536" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G537" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G538" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>1.75</v>
       </c>
       <c r="G539" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G540" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G541" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G542" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G543" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G545" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G546" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G547" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G549" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G550" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G552" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G553" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G554" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G555" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G556" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G557" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G558" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>1.75</v>
       </c>
       <c r="G559" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>1.75</v>
       </c>
       <c r="G560" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>1.75</v>
       </c>
       <c r="G561" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G562" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G563" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G564" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G565" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G567" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G568" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G569" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G570" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G571" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G572" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G574" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G577" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G579" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G580" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G581" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G582" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17831,7 +17831,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17857,7 +17857,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17883,7 +17883,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G585" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17909,7 +17909,7 @@
         <v>1.875</v>
       </c>
       <c r="G586" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17935,7 +17935,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17961,7 +17961,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G588" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17987,7 +17987,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G589" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18013,7 +18013,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G590" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18039,7 +18039,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G591" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18065,7 +18065,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G592" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G593" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G594" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G595" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G596" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G597" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G598" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G599" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G600" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G601" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G602" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G603" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G604" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G605" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G606" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G607" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G608" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G609" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G610" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G611" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G612" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G613" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G614" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G615" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G616" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G617" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G618" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G619" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G620" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G621" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G622" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="G624" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="G625" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G627" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G628" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G632" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G635" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19235,7 +19235,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G637" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19261,7 +19261,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G638" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G641" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G642" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G645" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G647" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G650" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G651" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G652" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G653" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G654" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G655" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G656" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -59335,7 +59335,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6495833333</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>45606</v>
@@ -59356,6 +59356,32 @@
         <v>741</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6495717593</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>53049</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>2.22000002861023</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>743</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184443950653</t>
+    <t xml:space="preserve">1.09184432029724</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507796287537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886633396149</t>
+    <t xml:space="preserve">1.12507784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886645317078</t>
   </si>
   <si>
     <t xml:space="preserve">1.10643458366394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07563281059265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454930782318</t>
+    <t xml:space="preserve">1.07563292980194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08454918861389</t>
   </si>
   <si>
     <t xml:space="preserve">1.09346544742584</t>
@@ -65,28 +65,28 @@
     <t xml:space="preserve">1.08617043495178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06833755970001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374729633331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975932061672211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901317119598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531175136566</t>
+    <t xml:space="preserve">1.0683376789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05374717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975932121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988901257514954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531234741211</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349175930023</t>
+    <t xml:space="preserve">0.992954194545746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349152088165</t>
   </si>
   <si>
     <t xml:space="preserve">1.02051377296448</t>
@@ -98,49 +98,49 @@
     <t xml:space="preserve">0.985659122467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01646077632904</t>
+    <t xml:space="preserve">1.01646089553833</t>
   </si>
   <si>
     <t xml:space="preserve">0.979984939098358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940266788005829</t>
+    <t xml:space="preserve">0.940266907215118</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913517832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806522011756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82678633928299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389877796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680644035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420868396759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632378101349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412137508392</t>
+    <t xml:space="preserve">0.913517892360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997789382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806521952152252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826786279678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389818191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818680584430695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875420808792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632318496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932160973548889</t>
+    <t xml:space="preserve">0.932161092758179</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478238105774</t>
@@ -155,43 +155,43 @@
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372483253479</t>
+    <t xml:space="preserve">0.943509221076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372602462769</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995386064052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183106422424</t>
+    <t xml:space="preserve">0.995385944843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183166027069</t>
   </si>
   <si>
     <t xml:space="preserve">0.962152481079102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987280309200287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143511772156</t>
+    <t xml:space="preserve">0.987280249595642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143571376801</t>
   </si>
   <si>
     <t xml:space="preserve">1.00511276721954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916576385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01321864128113</t>
+    <t xml:space="preserve">1.00916588306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01321852207184</t>
   </si>
   <si>
     <t xml:space="preserve">1.00106000900269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964584052562714</t>
+    <t xml:space="preserve">0.964584171772003</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848499298096</t>
@@ -200,58 +200,58 @@
     <t xml:space="preserve">0.980795562267303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996196568012238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689926624298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068680286407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701580286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962985038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879184246063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95080429315567</t>
+    <t xml:space="preserve">0.996196508407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689867019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456343650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068739891052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962925434113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950804352760315</t>
   </si>
   <si>
     <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903791010379791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893253564834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002341270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905436515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526563644409</t>
+    <t xml:space="preserve">0.903790950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89325350522995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002460479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881905555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526623249054</t>
   </si>
   <si>
     <t xml:space="preserve">0.887579500675201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915139019489288</t>
+    <t xml:space="preserve">0.915139079093933</t>
   </si>
   <si>
     <t xml:space="preserve">0.924055397510529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947562098503113</t>
+    <t xml:space="preserve">0.947561919689178</t>
   </si>
   <si>
     <t xml:space="preserve">0.928918778896332</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">0.921623587608337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918381333351135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917570650577545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601633548737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
+    <t xml:space="preserve">0.91838127374649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91757071018219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898116946220398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011131763458</t>
   </si>
   <si>
     <t xml:space="preserve">0.908654451370239</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">0.859209299087524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.862451612949371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094932556152</t>
+    <t xml:space="preserve">0.862451672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156481266022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671972751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881094872951508</t>
   </si>
   <si>
     <t xml:space="preserve">0.863262295722961</t>
@@ -305,22 +305,22 @@
     <t xml:space="preserve">0.868125736713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882716000080109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87704199552536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786436080933</t>
+    <t xml:space="preserve">0.882716059684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877042055130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768996715546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425539493561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962786376476288</t>
   </si>
   <si>
     <t xml:space="preserve">0.986289441585541</t>
@@ -329,70 +329,67 @@
     <t xml:space="preserve">0.983771324157715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537968635559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304553508759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895557880402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837842464447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407485485077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319844245911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93928325176239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180260181427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356198310852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231845378876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392373561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910729408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159137248993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640960216522</t>
+    <t xml:space="preserve">0.973698556423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974537909030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662202358246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977895498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822849750519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946837961673737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407604694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604606151581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939283430576324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180319786072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949356079101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231785774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910789012909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159077644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640900611877</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334896564484</t>
+    <t xml:space="preserve">0.923334836959839</t>
   </si>
   <si>
     <t xml:space="preserve">0.915780246257782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931728839874268</t>
+    <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
     <t xml:space="preserve">0.916619718074799</t>
@@ -404,121 +401,121 @@
     <t xml:space="preserve">0.925013661384583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925853073596954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926692306995392</t>
+    <t xml:space="preserve">0.925853133201599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926692426204681</t>
   </si>
   <si>
     <t xml:space="preserve">0.934246957302094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919137954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101421833038</t>
+    <t xml:space="preserve">0.919137895107269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101600646973</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91074401140213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671064853668</t>
+    <t xml:space="preserve">0.910743951797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671124458313</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956124782562</t>
+    <t xml:space="preserve">0.893956065177917</t>
   </si>
   <si>
     <t xml:space="preserve">0.895634889602661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894795298576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262069225311</t>
+    <t xml:space="preserve">0.894795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913262128829956</t>
   </si>
   <si>
     <t xml:space="preserve">0.920816659927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909904479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189301490784</t>
+    <t xml:space="preserve">0.909904539585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903189361095428</t>
   </si>
   <si>
     <t xml:space="preserve">0.898153007030487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889758944511414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88136500120163</t>
+    <t xml:space="preserve">0.889759063720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881365060806274</t>
   </si>
   <si>
     <t xml:space="preserve">0.878846943378448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879686236381531</t>
+    <t xml:space="preserve">0.87968635559082</t>
   </si>
   <si>
     <t xml:space="preserve">0.891437828540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87297111749649</t>
+    <t xml:space="preserve">0.872971057891846</t>
   </si>
   <si>
     <t xml:space="preserve">0.947677373886108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912422776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328706741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874649941921234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886401414871216</t>
+    <t xml:space="preserve">0.912422597408295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328766345978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880525767803192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885562002658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890598356723785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888919651508331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875489354133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888080239295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583304405212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092559337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874315738678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95942884683609</t>
+    <t xml:space="preserve">0.880525708198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885562062263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89059841632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888919711112976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875489294528961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888080179691315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583244800568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092499732971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874136924744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959428787231445</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553140163422</t>
@@ -527,37 +524,37 @@
     <t xml:space="preserve">0.964465200901031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268259048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807737827301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377321243286</t>
+    <t xml:space="preserve">0.956071257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377202033997</t>
   </si>
   <si>
     <t xml:space="preserve">0.979574382305145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966983258724213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501614570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801488399506</t>
+    <t xml:space="preserve">0.966983377933502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501495361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801428794861</t>
   </si>
   <si>
     <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935925841331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859144210815</t>
+    <t xml:space="preserve">0.935925781726837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97285920381546</t>
   </si>
   <si>
     <t xml:space="preserve">0.966144025325775</t>
@@ -566,7 +563,7 @@
     <t xml:space="preserve">0.981253147125244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522856712341</t>
+    <t xml:space="preserve">0.995522737503052</t>
   </si>
   <si>
     <t xml:space="preserve">0.987968325614929</t>
@@ -575,13 +572,13 @@
     <t xml:space="preserve">1.04001069068909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0442076921463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03329563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03665316104889</t>
+    <t xml:space="preserve">1.04420781135559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0332955121994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
     <t xml:space="preserve">1.04840469360352</t>
@@ -590,13 +587,13 @@
     <t xml:space="preserve">1.05344104766846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581368923187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077745437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02741968631744</t>
+    <t xml:space="preserve">1.03581380844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03077757358551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02741980552673</t>
   </si>
   <si>
     <t xml:space="preserve">1.01650762557983</t>
@@ -608,13 +605,13 @@
     <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17347478866577</t>
+    <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
     <t xml:space="preserve">1.20956861972809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21544432640076</t>
+    <t xml:space="preserve">1.21544444561005</t>
   </si>
   <si>
     <t xml:space="preserve">1.20872938632965</t>
@@ -623,40 +620,40 @@
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110202789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18942320346832</t>
+    <t xml:space="preserve">1.19110190868378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18942308425903</t>
   </si>
   <si>
     <t xml:space="preserve">1.16759884357452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15836560726166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16675961017609</t>
+    <t xml:space="preserve">1.15836548805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16675937175751</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318359851837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15668678283691</t>
+    <t xml:space="preserve">1.13318371772766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15668666362762</t>
   </si>
   <si>
     <t xml:space="preserve">1.16508066654205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19781708717346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20788991451263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18270814418793</t>
+    <t xml:space="preserve">1.19781720638275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20788979530334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18270802497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.20621109008789</t>
@@ -665,10 +662,10 @@
     <t xml:space="preserve">1.24902033805847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25741410255432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26580810546875</t>
+    <t xml:space="preserve">1.25741422176361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26580822467804</t>
   </si>
   <si>
     <t xml:space="preserve">1.26328992843628</t>
@@ -677,7 +674,7 @@
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29098987579346</t>
+    <t xml:space="preserve">1.29098999500275</t>
   </si>
   <si>
     <t xml:space="preserve">1.34303247928619</t>
@@ -689,13 +686,13 @@
     <t xml:space="preserve">1.39255678653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37660825252533</t>
+    <t xml:space="preserve">1.37660837173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.38164472579956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828695774078</t>
+    <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.3933961391449</t>
@@ -704,7 +701,7 @@
     <t xml:space="preserve">1.38919925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39675378799438</t>
+    <t xml:space="preserve">1.39675390720367</t>
   </si>
   <si>
     <t xml:space="preserve">1.38500225543976</t>
@@ -713,13 +710,13 @@
     <t xml:space="preserve">1.3715717792511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3724113702774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814166069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41018402576447</t>
+    <t xml:space="preserve">1.37241113185883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35814154148102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41018414497375</t>
   </si>
   <si>
     <t xml:space="preserve">1.43368721008301</t>
@@ -737,46 +734,46 @@
     <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536603450775</t>
+    <t xml:space="preserve">1.43536591529846</t>
   </si>
   <si>
     <t xml:space="preserve">1.44208121299744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47733569145203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014482021332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40179014205933</t>
+    <t xml:space="preserve">1.47733581066132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52014493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40179002285004</t>
   </si>
   <si>
     <t xml:space="preserve">1.36065983772278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32792353630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32624459266663</t>
+    <t xml:space="preserve">1.32792329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32624471187592</t>
   </si>
   <si>
     <t xml:space="preserve">1.3178505897522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32372653484344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33128106594086</t>
+    <t xml:space="preserve">1.32372641563416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617176532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365358829498</t>
+    <t xml:space="preserve">1.31617188453674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31365370750427</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
@@ -788,43 +785,43 @@
     <t xml:space="preserve">1.27588081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29350829124451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35982036590576</t>
+    <t xml:space="preserve">1.29350817203522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34471142292023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35982048511505</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45299327373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489046096802</t>
+    <t xml:space="preserve">1.45299315452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489034175873</t>
   </si>
   <si>
     <t xml:space="preserve">1.52686011791229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50167834758759</t>
+    <t xml:space="preserve">1.5016782283783</t>
   </si>
   <si>
     <t xml:space="preserve">1.53609359264374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51930558681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50755393505096</t>
+    <t xml:space="preserve">1.51930546760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50755405426025</t>
   </si>
   <si>
     <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957309246063</t>
+    <t xml:space="preserve">1.51957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
@@ -842,19 +839,19 @@
     <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55391383171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280111312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57966935634613</t>
+    <t xml:space="preserve">1.55391371250153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280123233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57966947555542</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704558849335</t>
+    <t xml:space="preserve">1.54704570770264</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
@@ -863,13 +860,13 @@
     <t xml:space="preserve">1.57365953922272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451820373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679165363312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219674110413</t>
+    <t xml:space="preserve">1.57451808452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219686031342</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
@@ -881,13 +878,13 @@
     <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5281583070755</t>
+    <t xml:space="preserve">1.52815842628479</t>
   </si>
   <si>
     <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51356363296509</t>
+    <t xml:space="preserve">1.5135635137558</t>
   </si>
   <si>
     <t xml:space="preserve">1.51871478557587</t>
@@ -896,13 +893,13 @@
     <t xml:space="preserve">1.49124217033386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46291100978851</t>
+    <t xml:space="preserve">1.4629111289978</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149634361267</t>
+    <t xml:space="preserve">1.47149622440338</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -920,10 +917,10 @@
     <t xml:space="preserve">1.5556309223175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58482027053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56764996051788</t>
+    <t xml:space="preserve">1.58482038974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56765007972717</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
@@ -932,25 +929,25 @@
     <t xml:space="preserve">1.57108426094055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56421601772308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5590648651123</t>
+    <t xml:space="preserve">1.56421613693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55906498432159</t>
   </si>
   <si>
     <t xml:space="preserve">1.56593298912048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5247243642807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6114342212677</t>
+    <t xml:space="preserve">1.52472424507141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143434047699</t>
   </si>
   <si>
     <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69814455509186</t>
+    <t xml:space="preserve">1.69814467430115</t>
   </si>
   <si>
     <t xml:space="preserve">1.67067193984985</t>
@@ -962,13 +959,13 @@
     <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74793839454651</t>
+    <t xml:space="preserve">1.74793827533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561693191528</t>
+    <t xml:space="preserve">1.72561705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
@@ -977,31 +974,31 @@
     <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69986152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73076808452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73420202732086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72733414173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445631980896</t>
+    <t xml:space="preserve">1.69986140727997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73076820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73420214653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72733390331268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
     <t xml:space="preserve">1.67238891124725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936705112457</t>
+    <t xml:space="preserve">1.62259495258331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58997142314911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56936693191528</t>
   </si>
   <si>
     <t xml:space="preserve">1.51098799705505</t>
@@ -1010,7 +1007,7 @@
     <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46977925300598</t>
+    <t xml:space="preserve">1.46977913379669</t>
   </si>
   <si>
     <t xml:space="preserve">1.47578883171082</t>
@@ -1019,25 +1016,25 @@
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294527053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66981339454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269109725952</t>
+    <t xml:space="preserve">1.66294538974762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6698135137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885882377625</t>
+    <t xml:space="preserve">1.60885870456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60284924507141</t>
+    <t xml:space="preserve">1.60284912586212</t>
   </si>
   <si>
     <t xml:space="preserve">1.588254570961</t>
@@ -1046,7 +1043,7 @@
     <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739578723907</t>
+    <t xml:space="preserve">1.58739590644836</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
@@ -1061,28 +1058,28 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54447031021118</t>
+    <t xml:space="preserve">1.54361164569855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54447019100189</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410612106323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556879997253</t>
+    <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698382377625</t>
+    <t xml:space="preserve">1.68698370456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1091,13 +1088,13 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688767910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820643901825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669538974762</t>
+    <t xml:space="preserve">1.62688755989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820655822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669550895691</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
@@ -1109,7 +1106,7 @@
     <t xml:space="preserve">1.49811029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52386569976807</t>
+    <t xml:space="preserve">1.52386581897736</t>
   </si>
   <si>
     <t xml:space="preserve">1.48523259162903</t>
@@ -1124,28 +1121,28 @@
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683966636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118028640747</t>
+    <t xml:space="preserve">1.59683954715729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542476177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118016719818</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66122817993164</t>
+    <t xml:space="preserve">1.66122829914093</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65693557262421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60971736907959</t>
+    <t xml:space="preserve">1.6569356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113227367401</t>
@@ -1157,19 +1154,22 @@
     <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278724193573</t>
+    <t xml:space="preserve">1.74278736114502</t>
   </si>
   <si>
     <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71273922920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71382653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70496952533722</t>
+    <t xml:space="preserve">1.71273934841156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839848995209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71382641792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70496940612793</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725562095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397022247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65182769298553</t>
+    <t xml:space="preserve">1.68725550174713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67396998405457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65182757377625</t>
   </si>
   <si>
     <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625619888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64739918708801</t>
+    <t xml:space="preserve">1.65625607967377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64739906787872</t>
   </si>
   <si>
     <t xml:space="preserve">1.66511309146881</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62968516349792</t>
+    <t xml:space="preserve">1.62968528270721</t>
   </si>
   <si>
     <t xml:space="preserve">1.61197125911713</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">1.62082827091217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64297068119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58097183704376</t>
+    <t xml:space="preserve">1.6429705619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58097171783447</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340149879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49683058261871</t>
+    <t xml:space="preserve">1.52340137958527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49683046340942</t>
   </si>
   <si>
     <t xml:space="preserve">1.43040299415588</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48354494571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51897299289703</t>
+    <t xml:space="preserve">1.48354482650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51897287368774</t>
   </si>
   <si>
     <t xml:space="preserve">1.52782988548279</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982884883881</t>
+    <t xml:space="preserve">1.58982872962952</t>
   </si>
   <si>
     <t xml:space="preserve">1.54997229576111</t>
@@ -1295,25 +1295,25 @@
     <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47025954723358</t>
+    <t xml:space="preserve">1.47025942802429</t>
   </si>
   <si>
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140253543854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797357082367</t>
+    <t xml:space="preserve">1.46140241622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4525454044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797333240509</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55440092086792</t>
+    <t xml:space="preserve">1.55440080165863</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
+    <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69611263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70939803123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7226836681366</t>
+    <t xml:space="preserve">1.69611251354218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70939791202545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596894741058</t>
@@ -1343,31 +1343,31 @@
     <t xml:space="preserve">1.75368297100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682480335236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7979679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.80682492256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79796802997589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82453882694244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78911089897156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84225273132324</t>
+    <t xml:space="preserve">1.82453894615173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78911101818085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84225285053253</t>
   </si>
   <si>
     <t xml:space="preserve">1.85996675491333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85110974311829</t>
+    <t xml:space="preserve">1.85110986232758</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
@@ -1379,31 +1379,31 @@
     <t xml:space="preserve">1.88653790950775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93082284927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98396456241608</t>
+    <t xml:space="preserve">1.93082273006439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98396468162537</t>
   </si>
   <si>
     <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99282157421112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">1.99282169342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0105357170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0636773109436</t>
+    <t xml:space="preserve">2.00167870521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01053547859192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06367754936218</t>
   </si>
   <si>
     <t xml:space="preserve">2.04596352577209</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08139157295227</t>
+    <t xml:space="preserve">2.08139133453369</t>
   </si>
   <si>
     <t xml:space="preserve">2.12567663192749</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10796236991882</t>
+    <t xml:space="preserve">2.1079626083374</t>
   </si>
   <si>
     <t xml:space="preserve">2.09910535812378</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">2.23196029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25853109359741</t>
+    <t xml:space="preserve">2.25853133201599</t>
   </si>
   <si>
     <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18767523765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1788182258606</t>
+    <t xml:space="preserve">2.18767547607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996145248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17881846427917</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242327690125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412846565247</t>
+    <t xml:space="preserve">2.12219166755676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242303848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412834644318</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071808815002</t>
+    <t xml:space="preserve">2.02157044410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06730723381042</t>
+    <t xml:space="preserve">2.067307472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133883476257</t>
+    <t xml:space="preserve">2.13133907318115</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940227508545</t>
+    <t xml:space="preserve">2.25940251350403</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288613796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544392108917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226491451263</t>
+    <t xml:space="preserve">1.79288601875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544380187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226503372192</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079121589661</t>
+    <t xml:space="preserve">1.60079109668732</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815419197083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381186008453</t>
+    <t xml:space="preserve">1.46815407276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636988162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381197929382</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745396614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14799582958221</t>
+    <t xml:space="preserve">1.30350124835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745384693146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1479959487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202766895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807507038116</t>
+    <t xml:space="preserve">1.21202754974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807495117188</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094346523285</t>
+    <t xml:space="preserve">1.33094358444214</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699086666107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272789478302</t>
+    <t xml:space="preserve">1.42699098587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295926570892</t>
+    <t xml:space="preserve">1.36295938491821</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2669118642807</t>
+    <t xml:space="preserve">1.26691174507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660137176514</t>
+    <t xml:space="preserve">1.21660125255585</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117507457733</t>
+    <t xml:space="preserve">1.22117495536804</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1571432352066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427484035492</t>
+    <t xml:space="preserve">1.15714335441589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16171705722809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427495956421</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342212677002</t>
+    <t xml:space="preserve">1.14342224597931</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15256953239441</t>
+    <t xml:space="preserve">1.1525696516037</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.394975066185</t>
+    <t xml:space="preserve">1.39497518539429</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838556289673</t>
+    <t xml:space="preserve">1.35838568210602</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5001699924469</t>
+    <t xml:space="preserve">1.50016987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931739807129</t>
+    <t xml:space="preserve">1.509317278862</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055972576141</t>
+    <t xml:space="preserve">1.71055960655212</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141232013702</t>
+    <t xml:space="preserve">1.70141220092773</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513342857361</t>
+    <t xml:space="preserve">1.71513330936432</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745984077454</t>
+    <t xml:space="preserve">1.79745972156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683861732483</t>
+    <t xml:space="preserve">1.69683849811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009662628174</t>
+    <t xml:space="preserve">1.93009650707245</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9483916759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490181922913</t>
+    <t xml:space="preserve">1.94839155673981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490193843842</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8569176197052</t>
+    <t xml:space="preserve">1.85691773891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924403190613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087021827698</t>
+    <t xml:space="preserve">1.93924391269684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087009906769</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769121170044</t>
+    <t xml:space="preserve">1.68769133090973</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203354358673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598602294922</t>
+    <t xml:space="preserve">1.80203342437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598590373993</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50474369525909</t>
+    <t xml:space="preserve">1.5047435760498</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567529201508</t>
+    <t xml:space="preserve">1.65567541122437</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032811641693</t>
+    <t xml:space="preserve">1.80660712718964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032823562622</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -6989,7 +6989,7 @@
         <v>1.125</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>1.125</v>
       </c>
       <c r="G167" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>1.125</v>
       </c>
       <c r="G168" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>1.125</v>
       </c>
       <c r="G169" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>1.11699998378754</v>
       </c>
       <c r="G170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7119,7 +7119,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7171,7 +7171,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7197,7 +7197,7 @@
         <v>1.13100004196167</v>
       </c>
       <c r="G174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7249,7 +7249,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7275,7 +7275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7301,7 +7301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>1.12300002574921</v>
       </c>
       <c r="G180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>1.09099996089935</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G189" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>1.09200000762939</v>
       </c>
       <c r="G190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>1.10199999809265</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>1.11300003528595</v>
       </c>
       <c r="G196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>1.08899998664856</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>1.08200001716614</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>1.07299995422363</v>
       </c>
       <c r="G203" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G206" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>1.06700003147125</v>
       </c>
       <c r="G207" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>1.08800005912781</v>
       </c>
       <c r="G209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8159,7 +8159,7 @@
         <v>1.09700000286102</v>
       </c>
       <c r="G211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>1.07599997520447</v>
       </c>
       <c r="G213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>1.04700005054474</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>1.12899994850159</v>
       </c>
       <c r="G223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G224" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>1.08700001239777</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>1.04200005531311</v>
       </c>
       <c r="G228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>1.05599999427795</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>1.03100001811981</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>1.04900002479553</v>
       </c>
       <c r="G234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>1.05499994754791</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>1.06099998950958</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>1.05900001525879</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>1.04299998283386</v>
       </c>
       <c r="G239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>1.05799996852875</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G243" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G244" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>1.08599996566772</v>
       </c>
       <c r="G246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>1.13399994373322</v>
       </c>
       <c r="G249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>1.1360000371933</v>
       </c>
       <c r="G252" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>1.14900004863739</v>
       </c>
       <c r="G254" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G256" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>1.14400005340576</v>
       </c>
       <c r="G257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G260" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>1.16700005531311</v>
       </c>
       <c r="G261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G274" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G275" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>1.12199997901917</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>1.12399995326996</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10135,7 +10135,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>1.15900003910065</v>
       </c>
       <c r="G288" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>1.15100002288818</v>
       </c>
       <c r="G289" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>1.1690000295639</v>
       </c>
       <c r="G290" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>1.18599998950958</v>
       </c>
       <c r="G291" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>1.17700004577637</v>
       </c>
       <c r="G299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>1.23099994659424</v>
       </c>
       <c r="G302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G303" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>1.25499999523163</v>
       </c>
       <c r="G305" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>1.23399996757507</v>
       </c>
       <c r="G306" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>1.22800004482269</v>
       </c>
       <c r="G307" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>1.21099996566772</v>
       </c>
       <c r="G310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G311" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G312" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G314" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>1.39800000190735</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>1.44099998474121</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>1.44799995422363</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>1.4190000295639</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>1.41700005531311</v>
       </c>
       <c r="G322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>1.39100003242493</v>
       </c>
       <c r="G323" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G324" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G325" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>1.36699998378754</v>
       </c>
       <c r="G326" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G327" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G328" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>1.43900001049042</v>
       </c>
       <c r="G331" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>1.40900003910065</v>
       </c>
       <c r="G332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G333" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>1.43700003623962</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G336" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G337" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>1.50499999523163</v>
       </c>
       <c r="G338" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>1.52100002765656</v>
       </c>
       <c r="G339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G340" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G341" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>1.63699996471405</v>
       </c>
       <c r="G342" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G343" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G344" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G346" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G347" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G350" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G351" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G352" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G353" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G355" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G356" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>1.68299996852875</v>
       </c>
       <c r="G360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G362" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G363" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G364" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G367" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G368" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>1.81099998950958</v>
       </c>
       <c r="G369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G370" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G371" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>1.62100005149841</v>
       </c>
       <c r="G372" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G373" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G374" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G375" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>1.57700002193451</v>
       </c>
       <c r="G376" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G378" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>1.58500003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G380" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>1.567999958992</v>
       </c>
       <c r="G381" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>1.56500005722046</v>
       </c>
       <c r="G382" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G384" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G385" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>1.54100000858307</v>
       </c>
       <c r="G386" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G387" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G388" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G390" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G391" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G392" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G393" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G394" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>1.81900000572205</v>
       </c>
       <c r="G395" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G396" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G397" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G398" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G399" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G400" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>1.75</v>
       </c>
       <c r="G402" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G403" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G404" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G405" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G406" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G407" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G408" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G409" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G410" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G411" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G412" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G413" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G416" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G418" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G419" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>1.82700002193451</v>
       </c>
       <c r="G420" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G421" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>1.80299997329712</v>
       </c>
       <c r="G422" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>1.79299998283386</v>
       </c>
       <c r="G423" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G424" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>1.75</v>
       </c>
       <c r="G425" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>1.73300004005432</v>
       </c>
       <c r="G426" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>1.76300001144409</v>
       </c>
       <c r="G427" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>1.75</v>
       </c>
       <c r="G429" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G430" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G431" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G436" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G437" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G439" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G440" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G441" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G442" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G444" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G445" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G446" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G449" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G453" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G455" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G456" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G459" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G460" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G463" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G464" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>2.01399993896484</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>1.99699997901917</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G478" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G479" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G480" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G481" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G482" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G483" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G484" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G485" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G486" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G487" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G488" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G489" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G490" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>1.86300003528595</v>
       </c>
       <c r="G491" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G492" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G493" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G494" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G497" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>1.84899997711182</v>
       </c>
       <c r="G498" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G499" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G502" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G503" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G504" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G505" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>1.79700005054474</v>
       </c>
       <c r="G506" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>1.78100001811981</v>
       </c>
       <c r="G507" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G508" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>1.79900002479553</v>
       </c>
       <c r="G509" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G510" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G511" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G514" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G521" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G522" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G525" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G526" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G528" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G529" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G530" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G531" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G532" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G533" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G534" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G536" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G537" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G538" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>1.75</v>
       </c>
       <c r="G539" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G540" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G541" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G542" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G543" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G545" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G546" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G547" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G549" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G550" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G552" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G553" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G554" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G555" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G556" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G557" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G558" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>1.75</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>1.75</v>
       </c>
       <c r="G560" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>1.75</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G562" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G564" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G565" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G567" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G568" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G569" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G571" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G572" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G574" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G577" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G579" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G581" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G582" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17831,7 +17831,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17857,7 +17857,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17883,7 +17883,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G585" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17909,7 +17909,7 @@
         <v>1.875</v>
       </c>
       <c r="G586" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17935,7 +17935,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17961,7 +17961,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G588" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17987,7 +17987,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G589" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18013,7 +18013,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G590" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18039,7 +18039,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G591" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18065,7 +18065,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G592" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G593" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G594" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G596" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G598" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G601" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G602" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G603" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G604" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G605" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G606" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G607" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G608" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G609" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G610" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G611" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G612" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G613" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G614" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G615" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G616" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G617" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G618" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G619" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G620" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G621" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G622" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="G624" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="G625" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G627" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G628" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G632" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G635" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19235,7 +19235,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G637" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19261,7 +19261,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G641" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G642" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G645" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G647" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G650" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G651" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G652" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G653" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G654" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G656" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -59361,7 +59361,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6495717593</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>53049</v>
@@ -59382,6 +59382,32 @@
         <v>743</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6496180556</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>39809</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>2.21000003814697</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>741</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -50,10 +50,10 @@
     <t xml:space="preserve">1.10886645317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10643458366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563292980194</t>
+    <t xml:space="preserve">1.10643470287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
     <t xml:space="preserve">1.08454918861389</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08617043495178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0683376789093</t>
+    <t xml:space="preserve">1.08617031574249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06833755970001</t>
   </si>
   <si>
     <t xml:space="preserve">1.05374717712402</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988901257514954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531234741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954194545746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349152088165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02051377296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0172712802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985659122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984939098358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266907215118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108215332031</t>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531175136566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01889252662659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992954313755035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349175930023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02051365375519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985658943653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01646065711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266788005829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928108274936676</t>
   </si>
   <si>
     <t xml:space="preserve">0.913517892360687</t>
@@ -119,70 +119,70 @@
     <t xml:space="preserve">0.806521952152252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826786279678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389818191528</t>
+    <t xml:space="preserve">0.826786398887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389758586884</t>
   </si>
   <si>
     <t xml:space="preserve">0.818680584430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875420808792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632318496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412197113037</t>
+    <t xml:space="preserve">0.875420868396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891632378101349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161092758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478238105774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213970184326</t>
+    <t xml:space="preserve">0.932161033153534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478178501129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936213910579681</t>
   </si>
   <si>
     <t xml:space="preserve">0.910275638103485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372602462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00268113613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385944843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183166027069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280249595642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143571376801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511276721954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916588306427</t>
+    <t xml:space="preserve">0.944319665431976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94350928068161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372483253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.002681016922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995386064052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152421474457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280309200287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511288642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
     <t xml:space="preserve">1.01321852207184</t>
@@ -191,49 +191,49 @@
     <t xml:space="preserve">1.00106000900269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964584171772003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795562267303</t>
+    <t xml:space="preserve">0.964584052562714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98484855890274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980795681476593</t>
   </si>
   <si>
     <t xml:space="preserve">0.996196508407593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972689867019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068739891052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967015743255615</t>
+    <t xml:space="preserve">0.972689807415009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068561077118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701580286026</t>
   </si>
   <si>
     <t xml:space="preserve">0.962962925434113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971879243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950804352760315</t>
+    <t xml:space="preserve">0.971879363059998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950804173946381</t>
   </si>
   <si>
     <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903790950775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89325350522995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002460479736</t>
+    <t xml:space="preserve">0.903790891170502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893253564834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920002639293671</t>
   </si>
   <si>
     <t xml:space="preserve">0.881905555725098</t>
@@ -242,55 +242,55 @@
     <t xml:space="preserve">0.883526623249054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887579500675201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915139079093933</t>
+    <t xml:space="preserve">0.887579560279846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915138959884644</t>
   </si>
   <si>
     <t xml:space="preserve">0.924055397510529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947561919689178</t>
+    <t xml:space="preserve">0.947562038898468</t>
   </si>
   <si>
     <t xml:space="preserve">0.928918778896332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921623587608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91838127374649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601573944092</t>
+    <t xml:space="preserve">0.921623528003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381214141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917570769786835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601693153381</t>
   </si>
   <si>
     <t xml:space="preserve">0.898116946220398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890011131763458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
+    <t xml:space="preserve">0.890011191368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654510974884</t>
   </si>
   <si>
     <t xml:space="preserve">0.922434210777283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855967044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451672554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156481266022</t>
+    <t xml:space="preserve">0.855966985225677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859209418296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862451612949371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156421661377</t>
   </si>
   <si>
     <t xml:space="preserve">0.848671972751617</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">0.881094872951508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863262295722961</t>
+    <t xml:space="preserve">0.863262355327606</t>
   </si>
   <si>
     <t xml:space="preserve">0.868125736713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882716059684753</t>
+    <t xml:space="preserve">0.882716119289398</t>
   </si>
   <si>
     <t xml:space="preserve">0.877042055130005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899738073348999</t>
+    <t xml:space="preserve">0.899738013744354</t>
   </si>
   <si>
     <t xml:space="preserve">0.886768996715546</t>
@@ -323,22 +323,22 @@
     <t xml:space="preserve">0.962786376476288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289441585541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771324157715</t>
+    <t xml:space="preserve">0.98628956079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98377138376236</t>
   </si>
   <si>
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974537909030914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662202358246</t>
+    <t xml:space="preserve">0.974537968635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304613113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662142753601</t>
   </si>
   <si>
     <t xml:space="preserve">0.977895498275757</t>
@@ -347,43 +347,43 @@
     <t xml:space="preserve">0.967822849750519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946837961673737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604606151581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939283430576324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180319786072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356079101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231785774231</t>
+    <t xml:space="preserve">0.946837842464447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933407664299011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604546546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939283311367035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971180260181427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949356138706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955231845378876</t>
   </si>
   <si>
     <t xml:space="preserve">0.954392433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956910789012909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159077644348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640900611877</t>
+    <t xml:space="preserve">0.956910669803619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159137248993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942641079425812</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334836959839</t>
+    <t xml:space="preserve">0.923334896564484</t>
   </si>
   <si>
     <t xml:space="preserve">0.915780246257782</t>
@@ -392,37 +392,37 @@
     <t xml:space="preserve">0.931728780269623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916619718074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906546950340271</t>
+    <t xml:space="preserve">0.916619658470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906547009944916</t>
   </si>
   <si>
     <t xml:space="preserve">0.925013661384583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925853133201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926692426204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934246957302094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137895107269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101600646973</t>
+    <t xml:space="preserve">0.925853073596954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926692306995392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247076511383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919138014316559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101541042328</t>
   </si>
   <si>
     <t xml:space="preserve">0.908225774765015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910743951797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671124458313</t>
+    <t xml:space="preserve">0.910743892192841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
     <t xml:space="preserve">0.905707538127899</t>
@@ -431,19 +431,19 @@
     <t xml:space="preserve">0.893956065177917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895634889602661</t>
+    <t xml:space="preserve">0.895634829998016</t>
   </si>
   <si>
     <t xml:space="preserve">0.894795417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913262128829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816659927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904539585114</t>
+    <t xml:space="preserve">0.913262188434601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816600322723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904599189758</t>
   </si>
   <si>
     <t xml:space="preserve">0.903189361095428</t>
@@ -455,37 +455,37 @@
     <t xml:space="preserve">0.889759063720703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881365060806274</t>
+    <t xml:space="preserve">0.88136500120163</t>
   </si>
   <si>
     <t xml:space="preserve">0.878846943378448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87968635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437828540802</t>
+    <t xml:space="preserve">0.879686295986176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
     <t xml:space="preserve">0.872971057891846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947677373886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422597408295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328766345978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874650001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886401474475861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865416586399078</t>
+    <t xml:space="preserve">0.947677314281464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912422716617584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876328706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650061130524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886401414871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865416646003723</t>
   </si>
   <si>
     <t xml:space="preserve">0.880525708198547</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">0.885562062263489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89059841632843</t>
+    <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919711112976</t>
@@ -503,55 +503,55 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080179691315</t>
+    <t xml:space="preserve">0.88808012008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.911583244800568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982092499732971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874136924744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428787231445</t>
+    <t xml:space="preserve">0.982092440128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959428906440735</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553140163422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964465200901031</t>
+    <t xml:space="preserve">0.964465320110321</t>
   </si>
   <si>
     <t xml:space="preserve">0.956071257591248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960268318653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377202033997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979574382305145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983377933502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501495361328</t>
+    <t xml:space="preserve">0.960268199443817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988807797431946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975377261638641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97957444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983437538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501435756683</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943480312824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925781726837</t>
+    <t xml:space="preserve">0.943480372428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935925722122192</t>
   </si>
   <si>
     <t xml:space="preserve">0.97285920381546</t>
@@ -560,19 +560,19 @@
     <t xml:space="preserve">0.966144025325775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522737503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968325614929</t>
+    <t xml:space="preserve">0.981253027915955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522856712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968385219574</t>
   </si>
   <si>
     <t xml:space="preserve">1.04001069068909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04420781135559</t>
+    <t xml:space="preserve">1.0442076921463</t>
   </si>
   <si>
     <t xml:space="preserve">1.0332955121994</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">1.04840469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05344104766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03581380844116</t>
+    <t xml:space="preserve">1.05344116687775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03581392765045</t>
   </si>
   <si>
     <t xml:space="preserve">1.03077757358551</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">1.02741980552673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650762557983</t>
+    <t xml:space="preserve">1.01650774478912</t>
   </si>
   <si>
     <t xml:space="preserve">1.12143206596375</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18354737758636</t>
+    <t xml:space="preserve">1.18354749679565</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110190868378</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.18942308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16759884357452</t>
+    <t xml:space="preserve">1.16759896278381</t>
   </si>
   <si>
     <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16675937175751</t>
+    <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745330810547</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">1.19781720638275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20788979530334</t>
+    <t xml:space="preserve">1.20788991451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.18270802497864</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26580822467804</t>
+    <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
     <t xml:space="preserve">1.26328992843628</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">1.37409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39255678653717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660837173462</t>
+    <t xml:space="preserve">1.39255690574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
     <t xml:space="preserve">1.38164472579956</t>
@@ -695,22 +695,22 @@
     <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3933961391449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675390720367</t>
+    <t xml:space="preserve">1.39339625835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38919913768768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39675378799438</t>
   </si>
   <si>
     <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3715717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241113185883</t>
+    <t xml:space="preserve">1.37157189846039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37241125106812</t>
   </si>
   <si>
     <t xml:space="preserve">1.35814154148102</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">1.41857814788818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529320716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361438274384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536591529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208121299744</t>
+    <t xml:space="preserve">1.42529308795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361450195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43536603450775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208133220673</t>
   </si>
   <si>
     <t xml:space="preserve">1.47733581066132</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">1.32624471187592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3178505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32372641563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33128094673157</t>
+    <t xml:space="preserve">1.31785070896149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32372629642487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33128082752228</t>
   </si>
   <si>
     <t xml:space="preserve">1.33044159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31617188453674</t>
+    <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
     <t xml:space="preserve">1.31365370750427</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442035198212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588081359863</t>
+    <t xml:space="preserve">1.30442047119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588093280792</t>
   </si>
   <si>
     <t xml:space="preserve">1.29350817203522</t>
@@ -791,37 +791,37 @@
     <t xml:space="preserve">1.34471142292023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35982048511505</t>
+    <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
     <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45299315452576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489034175873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52686011791229</t>
+    <t xml:space="preserve">1.45299327373505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48489022254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
     <t xml:space="preserve">1.5016782283783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53609359264374</t>
+    <t xml:space="preserve">1.53609347343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.51930546760559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50755405426025</t>
+    <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
     <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51957321166992</t>
+    <t xml:space="preserve">1.51957309246063</t>
   </si>
   <si>
     <t xml:space="preserve">1.50240290164948</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">1.53588509559631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53245079517365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962122440338</t>
+    <t xml:space="preserve">1.53245091438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962110519409</t>
   </si>
   <si>
     <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55391371250153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280123233795</t>
+    <t xml:space="preserve">1.55391383171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57280111312866</t>
   </si>
   <si>
     <t xml:space="preserve">1.57966947555542</t>
@@ -851,22 +851,22 @@
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704570770264</t>
+    <t xml:space="preserve">1.54704558849335</t>
   </si>
   <si>
     <t xml:space="preserve">1.54618716239929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365953922272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57451808452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219686031342</t>
+    <t xml:space="preserve">1.57365965843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57451820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679165363312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
     <t xml:space="preserve">1.56850862503052</t>
@@ -875,31 +875,31 @@
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52815842628479</t>
+    <t xml:space="preserve">1.53931903839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5281583070755</t>
   </si>
   <si>
     <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5135635137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871478557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124217033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
+    <t xml:space="preserve">1.51356363296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51871466636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149622440338</t>
+    <t xml:space="preserve">1.47149634361267</t>
   </si>
   <si>
     <t xml:space="preserve">1.49381768703461</t>
@@ -908,34 +908,34 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876267910004</t>
+    <t xml:space="preserve">1.54876279830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5556309223175</t>
+    <t xml:space="preserve">1.55563080310822</t>
   </si>
   <si>
     <t xml:space="preserve">1.58482038974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56765007972717</t>
+    <t xml:space="preserve">1.56764996051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.56507444381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57108426094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56421613693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55906498432159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56593298912048</t>
+    <t xml:space="preserve">1.57108414173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56421601772308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5590648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56593310832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">1.64234089851379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69814467430115</t>
+    <t xml:space="preserve">1.69814455509186</t>
   </si>
   <si>
     <t xml:space="preserve">1.67067193984985</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">1.7170318365097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74793827533722</t>
+    <t xml:space="preserve">1.74793839454651</t>
   </si>
   <si>
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561705112457</t>
+    <t xml:space="preserve">1.72561693191528</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
@@ -974,25 +974,25 @@
     <t xml:space="preserve">1.72905099391937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69986140727997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73076820373535</t>
+    <t xml:space="preserve">1.69986152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73076808452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72733390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445620059967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67238891124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62259495258331</t>
+    <t xml:space="preserve">1.72733414173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71445631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67238903045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62259519100189</t>
   </si>
   <si>
     <t xml:space="preserve">1.58997142314911</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">1.51098799705505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45947706699371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46977913379669</t>
+    <t xml:space="preserve">1.45947694778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46977925300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.47578883171082</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6698135137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.66981339454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60284912586212</t>
+    <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
     <t xml:space="preserve">1.588254570961</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739590644836</t>
+    <t xml:space="preserve">1.58739578723907</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54103600978851</t>
+    <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
     <t xml:space="preserve">1.54275321960449</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361164569855</t>
+    <t xml:space="preserve">1.54361152648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.54447019100189</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67410612106323</t>
+    <t xml:space="preserve">1.61400997638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67410600185394</t>
   </si>
   <si>
     <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69127643108368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68698370456696</t>
+    <t xml:space="preserve">1.69127631187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68698382377625</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688755989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820655822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669550895691</t>
+    <t xml:space="preserve">1.62688767910004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820643901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669538974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">1.52386581897736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48523259162903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43801414966583</t>
+    <t xml:space="preserve">1.48523247241974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43801403045654</t>
   </si>
   <si>
     <t xml:space="preserve">1.48952519893646</t>
@@ -1121,55 +1121,55 @@
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683954715729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542476177216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118016719818</t>
+    <t xml:space="preserve">1.59683966636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118028640747</t>
   </si>
   <si>
     <t xml:space="preserve">1.64405786991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66122829914093</t>
+    <t xml:space="preserve">1.66122817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839872837067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693557262421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60971736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113227367401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976538181305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264308452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66552090644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6569356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6097172498703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113227367401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976538181305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264308452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66552090644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71273934841156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839848995209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71382641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70496940612793</t>
+    <t xml:space="preserve">1.71382653713226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70496952533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725550174713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67396998405457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65182757377625</t>
+    <t xml:space="preserve">1.68725562095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068470478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397022247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
     <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625607967377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64739906787872</t>
+    <t xml:space="preserve">1.65625619888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64739918708801</t>
   </si>
   <si>
     <t xml:space="preserve">1.66511309146881</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62968528270721</t>
+    <t xml:space="preserve">1.62968516349792</t>
   </si>
   <si>
     <t xml:space="preserve">1.61197125911713</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">1.62082827091217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6429705619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58097171783447</t>
+    <t xml:space="preserve">1.64297068119049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58097183704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340137958527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49683046340942</t>
+    <t xml:space="preserve">1.52340149879456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49683058261871</t>
   </si>
   <si>
     <t xml:space="preserve">1.43040299415588</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48354482650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51897287368774</t>
+    <t xml:space="preserve">1.48354494571686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51897299289703</t>
   </si>
   <si>
     <t xml:space="preserve">1.52782988548279</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982872962952</t>
+    <t xml:space="preserve">1.58982884883881</t>
   </si>
   <si>
     <t xml:space="preserve">1.54997229576111</t>
@@ -1295,25 +1295,25 @@
     <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47025942802429</t>
+    <t xml:space="preserve">1.47025954723358</t>
   </si>
   <si>
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140241622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4525454044342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797333240509</t>
+    <t xml:space="preserve">1.46140253543854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45254564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797357082367</t>
   </si>
   <si>
     <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55440080165863</t>
+    <t xml:space="preserve">1.55440092086792</t>
   </si>
   <si>
     <t xml:space="preserve">1.56325781345367</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
+    <t xml:space="preserve">1.6828271150589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69611251354218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70939791202545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72268354892731</t>
+    <t xml:space="preserve">1.69611263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70939803123474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7226836681366</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596894741058</t>
@@ -1343,31 +1343,31 @@
     <t xml:space="preserve">1.75368297100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682492256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79796802997589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83339583873749</t>
+    <t xml:space="preserve">1.80682480335236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7979679107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8333957195282</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82453894615173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78911101818085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84225285053253</t>
+    <t xml:space="preserve">1.82453882694244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78911089897156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
     <t xml:space="preserve">1.85996675491333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85110986232758</t>
+    <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
@@ -1379,31 +1379,31 @@
     <t xml:space="preserve">1.88653790950775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93082273006439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98396468162537</t>
+    <t xml:space="preserve">1.93082284927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
     <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99282169342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">1.99282157421112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01053547859192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06367754936218</t>
+    <t xml:space="preserve">2.00167846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0105357170105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0636773109436</t>
   </si>
   <si>
     <t xml:space="preserve">2.04596352577209</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08139133453369</t>
+    <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12567663192749</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1079626083374</t>
+    <t xml:space="preserve">2.10796236991882</t>
   </si>
   <si>
     <t xml:space="preserve">2.09910535812378</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">2.23196029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25853133201599</t>
+    <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
     <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18767547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996145248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17881846427917</t>
+    <t xml:space="preserve">2.18767523765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996121406555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1788182258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -59387,7 +59387,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6496180556</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>39809</v>
@@ -59408,6 +59408,32 @@
         <v>741</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6495717593</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>32709</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>744</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -47,49 +47,49 @@
     <t xml:space="preserve">1.12507784366608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563269138336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454918861389</t>
+    <t xml:space="preserve">1.10886657238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643458366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07563281059265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0845490694046</t>
   </si>
   <si>
     <t xml:space="preserve">1.09346544742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0861701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06833755970001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374717712402</t>
+    <t xml:space="preserve">1.08617031574249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0683376789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05374729633331</t>
   </si>
   <si>
     <t xml:space="preserve">0.975932121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988901436328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531294345856</t>
+    <t xml:space="preserve">0.988901317119598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960531115531921</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954254150391</t>
+    <t xml:space="preserve">0.992954194545746</t>
   </si>
   <si>
     <t xml:space="preserve">1.00349164009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02051365375519</t>
+    <t xml:space="preserve">1.02051377296448</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727151870728</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">0.985658943653107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984939098358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266788005829</t>
+    <t xml:space="preserve">1.01646077632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984879493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
     <t xml:space="preserve">0.928108155727386</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">0.913517832756042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842997848987579</t>
+    <t xml:space="preserve">0.84299772977829</t>
   </si>
   <si>
     <t xml:space="preserve">0.806522011756897</t>
@@ -131,124 +131,124 @@
     <t xml:space="preserve">0.875420928001404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891632258892059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412077903748</t>
+    <t xml:space="preserve">0.891632378101349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412197113037</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932161092758179</t>
+    <t xml:space="preserve">0.932160973548889</t>
   </si>
   <si>
     <t xml:space="preserve">0.956478297710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936213910579681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910275518894196</t>
+    <t xml:space="preserve">0.936213970184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91027557849884</t>
   </si>
   <si>
     <t xml:space="preserve">0.944319605827332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943509101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372602462769</t>
+    <t xml:space="preserve">0.943509221076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948372542858124</t>
   </si>
   <si>
     <t xml:space="preserve">1.00268113613129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995385885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183106422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152421474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280249595642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511300563812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916564464569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01321864128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0010598897934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584171772003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848499298096</t>
+    <t xml:space="preserve">0.995386064052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949183225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962152361869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280130386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99214369058609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00511288642883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01321852207184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00106000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584052562714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
     <t xml:space="preserve">0.980795621871948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996196448802948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689867019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456343650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701568365097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
+    <t xml:space="preserve">0.996196568012238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689747810364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456224441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068561077118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967015743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962865829468</t>
   </si>
   <si>
     <t xml:space="preserve">0.971879184246063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.950804233551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93459278345108</t>
+    <t xml:space="preserve">0.95080429315567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934592843055725</t>
   </si>
   <si>
     <t xml:space="preserve">0.903791010379791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893253445625305</t>
+    <t xml:space="preserve">0.89325350522995</t>
   </si>
   <si>
     <t xml:space="preserve">0.920002460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526682853699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579441070557</t>
+    <t xml:space="preserve">0.881905555725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883526742458344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887579500675201</t>
   </si>
   <si>
     <t xml:space="preserve">0.915139019489288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924055278301239</t>
+    <t xml:space="preserve">0.924055397510529</t>
   </si>
   <si>
     <t xml:space="preserve">0.947561979293823</t>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">0.928918838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921623647212982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91838127374649</t>
+    <t xml:space="preserve">0.921623528003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918381333351135</t>
   </si>
   <si>
     <t xml:space="preserve">0.91757071018219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904601573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434210777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967044830322</t>
+    <t xml:space="preserve">0.904601633548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117005825043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011191368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654391765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922434091567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855967104434967</t>
   </si>
   <si>
     <t xml:space="preserve">0.859209358692169</t>
@@ -290,61 +290,61 @@
     <t xml:space="preserve">0.862451612949371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855156421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671972751617</t>
+    <t xml:space="preserve">0.855156481266022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671913146973</t>
   </si>
   <si>
     <t xml:space="preserve">0.881094813346863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863262176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86812561750412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716059684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768877506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425479888916</t>
+    <t xml:space="preserve">0.863262355327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868125736713409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716119289398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87704211473465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899738013744354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886768937110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425360679626</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786376476288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289501190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771443367004</t>
+    <t xml:space="preserve">0.986289381980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983771324157715</t>
   </si>
   <si>
     <t xml:space="preserve">0.973698556423187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974538028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662142753601</t>
+    <t xml:space="preserve">0.974537909030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965304493904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968662261962891</t>
   </si>
   <si>
     <t xml:space="preserve">0.977895438671112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967822730541229</t>
+    <t xml:space="preserve">0.967822849750519</t>
   </si>
   <si>
     <t xml:space="preserve">0.946837902069092</t>
@@ -356,40 +356,40 @@
     <t xml:space="preserve">0.944319725036621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937604546546936</t>
+    <t xml:space="preserve">0.937604665756226</t>
   </si>
   <si>
     <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971180319786072</t>
+    <t xml:space="preserve">0.971180200576782</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231904983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392492771149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640841007233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948516607284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780246257782</t>
+    <t xml:space="preserve">0.955231785774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392373561859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956910729408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159137248993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942640960216522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948516726493835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923334896564484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780305862427</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728720664978</t>
@@ -398,28 +398,28 @@
     <t xml:space="preserve">0.916619718074799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906547069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013601779938</t>
+    <t xml:space="preserve">0.906547009944916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925013661384583</t>
   </si>
   <si>
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692306995392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247076511383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137835502625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101541042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908225774765015</t>
+    <t xml:space="preserve">0.926692366600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934246957302094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137895107269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908225834369659</t>
   </si>
   <si>
     <t xml:space="preserve">0.910743892192841</t>
@@ -431,28 +431,28 @@
     <t xml:space="preserve">0.905707597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893956005573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634770393372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795358181</t>
+    <t xml:space="preserve">0.893956124782562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634829998016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894795417785645</t>
   </si>
   <si>
     <t xml:space="preserve">0.913262188434601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920816719532013</t>
+    <t xml:space="preserve">0.920816659927368</t>
   </si>
   <si>
     <t xml:space="preserve">0.909904479980469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903189241886139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898153126239777</t>
+    <t xml:space="preserve">0.903189301490784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898153007030487</t>
   </si>
   <si>
     <t xml:space="preserve">0.889759063720703</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">0.881365060806274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878847002983093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686236381531</t>
+    <t xml:space="preserve">0.878846943378448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686295986176</t>
   </si>
   <si>
     <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87297111749649</t>
+    <t xml:space="preserve">0.872970998287201</t>
   </si>
   <si>
     <t xml:space="preserve">0.947677314281464</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">0.912422657012939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876328766345978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874649941921234</t>
+    <t xml:space="preserve">0.876328706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874650001525879</t>
   </si>
   <si>
     <t xml:space="preserve">0.886401474475861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865416526794434</t>
+    <t xml:space="preserve">0.865416586399078</t>
   </si>
   <si>
     <t xml:space="preserve">0.880525708198547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885561943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89059841632843</t>
+    <t xml:space="preserve">0.885562062263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890598475933075</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919651508331</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">0.875489294528961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888080239295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583244800568</t>
+    <t xml:space="preserve">0.888080179691315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911583185195923</t>
   </si>
   <si>
     <t xml:space="preserve">0.982092499732971</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">0.951874196529388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959428787231445</t>
+    <t xml:space="preserve">0.959428906440735</t>
   </si>
   <si>
     <t xml:space="preserve">0.953553080558777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964465320110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071317195892</t>
+    <t xml:space="preserve">0.964465200901031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071197986603</t>
   </si>
   <si>
     <t xml:space="preserve">0.960268259048462</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">0.988807678222656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975377380847931</t>
+    <t xml:space="preserve">0.975377261638641</t>
   </si>
   <si>
     <t xml:space="preserve">0.979574382305145</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">0.969501614570618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94180154800415</t>
+    <t xml:space="preserve">0.941801428794861</t>
   </si>
   <si>
     <t xml:space="preserve">0.943480312824249</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">0.972859144210815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966144025325775</t>
+    <t xml:space="preserve">0.96614396572113</t>
   </si>
   <si>
     <t xml:space="preserve">0.981253087520599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995522797107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968325614929</t>
+    <t xml:space="preserve">0.995522677898407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98796820640564</t>
   </si>
   <si>
     <t xml:space="preserve">1.04001080989838</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.03329563140869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03665316104889</t>
+    <t xml:space="preserve">1.03665328025818</t>
   </si>
   <si>
     <t xml:space="preserve">1.04840469360352</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">1.03581380844116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03077745437622</t>
+    <t xml:space="preserve">1.03077757358551</t>
   </si>
   <si>
     <t xml:space="preserve">1.02741992473602</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">1.01650762557983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12143218517303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800170898438</t>
+    <t xml:space="preserve">1.12143206596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10800182819366</t>
   </si>
   <si>
     <t xml:space="preserve">1.17347466945648</t>
@@ -623,28 +623,28 @@
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110190868378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18942320346832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1675990819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836560726166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1667594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14745342731476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13318371772766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15668678283691</t>
+    <t xml:space="preserve">1.19110178947449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18942308425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16759896278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15836548805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16675937175751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14745330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13318383693695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15668666362762</t>
   </si>
   <si>
     <t xml:space="preserve">1.16508066654205</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">1.19781720638275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20788991451263</t>
+    <t xml:space="preserve">1.20788979530334</t>
   </si>
   <si>
     <t xml:space="preserve">1.18270814418793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20621109008789</t>
+    <t xml:space="preserve">1.2062109708786</t>
   </si>
   <si>
     <t xml:space="preserve">1.24902021884918</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">1.37660825252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38164472579956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828695774078</t>
+    <t xml:space="preserve">1.38164460659027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37828707695007</t>
   </si>
   <si>
     <t xml:space="preserve">1.39339625835419</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39675378799438</t>
+    <t xml:space="preserve">1.39675390720367</t>
   </si>
   <si>
     <t xml:space="preserve">1.38500225543976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37157201766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814166069031</t>
+    <t xml:space="preserve">1.3715717792511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37241113185883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35814154148102</t>
   </si>
   <si>
     <t xml:space="preserve">1.41018414497375</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">1.41270232200623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41857814788818</t>
+    <t xml:space="preserve">1.41857826709747</t>
   </si>
   <si>
     <t xml:space="preserve">1.42529320716858</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">1.42361438274384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43536579608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208121299744</t>
+    <t xml:space="preserve">1.43536591529846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44208133220673</t>
   </si>
   <si>
     <t xml:space="preserve">1.47733569145203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5201450586319</t>
+    <t xml:space="preserve">1.52014493942261</t>
   </si>
   <si>
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065983772278</t>
+    <t xml:space="preserve">1.36065971851349</t>
   </si>
   <si>
     <t xml:space="preserve">1.32792329788208</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">1.31785070896149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32372653484344</t>
+    <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
     <t xml:space="preserve">1.33128094673157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33044159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617188453674</t>
+    <t xml:space="preserve">1.33044147491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
     <t xml:space="preserve">1.31365358829498</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">1.30106270313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30442035198212</t>
+    <t xml:space="preserve">1.30442047119141</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588093280792</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471118450165</t>
+    <t xml:space="preserve">1.34471130371094</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45215380191803</t>
+    <t xml:space="preserve">1.45215392112732</t>
   </si>
   <si>
     <t xml:space="preserve">1.45299327373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48489010334015</t>
+    <t xml:space="preserve">1.48489022254944</t>
   </si>
   <si>
     <t xml:space="preserve">1.526859998703</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">1.53609347343445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51930558681488</t>
+    <t xml:space="preserve">1.51930546760559</t>
   </si>
   <si>
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729976177216</t>
+    <t xml:space="preserve">1.52729988098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.51957321166992</t>
@@ -830,16 +830,16 @@
     <t xml:space="preserve">1.50240290164948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53588497638702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245091438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962122440338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532861709595</t>
+    <t xml:space="preserve">1.53588509559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245079517365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962134361267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532873630524</t>
   </si>
   <si>
     <t xml:space="preserve">1.55391383171082</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">1.57365965843201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57451832294464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679153442383</t>
+    <t xml:space="preserve">1.57451820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
     <t xml:space="preserve">1.55219674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56850862503052</t>
+    <t xml:space="preserve">1.56850850582123</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
@@ -881,25 +881,25 @@
     <t xml:space="preserve">1.53931891918182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52815818786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48780798912048</t>
+    <t xml:space="preserve">1.5281583070755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48780810832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871466636658</t>
+    <t xml:space="preserve">1.51871478557587</t>
   </si>
   <si>
     <t xml:space="preserve">1.49124205112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46291100978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806216239929</t>
+    <t xml:space="preserve">1.4629111289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
     <t xml:space="preserve">1.47149622440338</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">1.48609101772308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54876279830933</t>
+    <t xml:space="preserve">1.54876267910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.57795226573944</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">1.57108414173126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56421589851379</t>
+    <t xml:space="preserve">1.56421601772308</t>
   </si>
   <si>
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593298912048</t>
+    <t xml:space="preserve">1.56593286991119</t>
   </si>
   <si>
     <t xml:space="preserve">1.52472424507141</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">1.67238891124725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62259519100189</t>
+    <t xml:space="preserve">1.6225950717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.5899715423584</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">1.56936705112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51098799705505</t>
+    <t xml:space="preserve">1.51098811626434</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">1.66294538974762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6698135137558</t>
+    <t xml:space="preserve">1.66981339454651</t>
   </si>
   <si>
     <t xml:space="preserve">1.68269121646881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183279037476</t>
+    <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
     <t xml:space="preserve">1.60885870456696</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">1.60284924507141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57537662982941</t>
+    <t xml:space="preserve">1.588254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
     <t xml:space="preserve">1.58739590644836</t>
@@ -1061,16 +1061,16 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54447019100189</t>
+    <t xml:space="preserve">1.54361152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5444700717926</t>
   </si>
   <si>
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400997638702</t>
+    <t xml:space="preserve">1.61400985717773</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698382377625</t>
+    <t xml:space="preserve">1.68698370456696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70415413379669</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48523247241974</t>
+    <t xml:space="preserve">1.48523259162903</t>
   </si>
   <si>
     <t xml:space="preserve">1.43801403045654</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683966636658</t>
+    <t xml:space="preserve">1.59683954715729</t>
   </si>
   <si>
     <t xml:space="preserve">1.60542476177216</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">1.6569356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60971736907959</t>
+    <t xml:space="preserve">1.6097172498703</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113215446472</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">1.63976526260376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65264320373535</t>
+    <t xml:space="preserve">1.65264308452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.74278736114502</t>
@@ -1163,19 +1163,19 @@
     <t xml:space="preserve">1.66552090644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71273934841156</t>
+    <t xml:space="preserve">1.71273922920227</t>
   </si>
   <si>
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70496964454651</t>
+    <t xml:space="preserve">1.70496952533722</t>
   </si>
   <si>
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825504302979</t>
+    <t xml:space="preserve">1.71825516223907</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">1.68725550174713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397022247314</t>
+    <t xml:space="preserve">1.66068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397010326385</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63854217529297</t>
+    <t xml:space="preserve">1.63854229450226</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625619888306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6473993062973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6651132106781</t>
+    <t xml:space="preserve">1.64739918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66511309146881</t>
   </si>
   <si>
     <t xml:space="preserve">1.66954159736633</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">1.54111528396606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59425723552704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6075427532196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639976501465</t>
+    <t xml:space="preserve">1.59425735473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60754287242889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639988422394</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097183704376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57654321193695</t>
+    <t xml:space="preserve">1.58097171783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
     <t xml:space="preserve">1.52340137958527</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454436779022</t>
+    <t xml:space="preserve">1.51454448699951</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.5499724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882930755615</t>
+    <t xml:space="preserve">1.55882942676544</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140253543854</t>
+    <t xml:space="preserve">1.46140241622925</t>
   </si>
   <si>
     <t xml:space="preserve">1.45254552364349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48797345161438</t>
+    <t xml:space="preserve">1.48797333240509</t>
   </si>
   <si>
     <t xml:space="preserve">1.4924019575119</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6828271150589</t>
+    <t xml:space="preserve">1.68282699584961</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7226836681366</t>
+    <t xml:space="preserve">1.72268354892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.73596906661987</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">1.79796802997589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8333957195282</t>
+    <t xml:space="preserve">1.83339583873749</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996687412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110974311829</t>
+    <t xml:space="preserve">1.85996663570404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110986232758</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87768077850342</t>
+    <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
     <t xml:space="preserve">1.88653779029846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93082284927368</t>
+    <t xml:space="preserve">1.9308226108551</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710627555847</t>
+    <t xml:space="preserve">2.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0105357170105</t>
+    <t xml:space="preserve">2.00167870521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01053547859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.25853109359741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22310304641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767523765564</t>
+    <t xml:space="preserve">2.22310328483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
@@ -59465,7 +59465,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6493287037</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>81239</v>
@@ -59486,6 +59486,32 @@
         <v>730</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6493865741</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>121123</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>2.34999990463257</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886657238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643458366394</t>
+    <t xml:space="preserve">1.12507796287537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10886645317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10643470287323</t>
   </si>
   <si>
     <t xml:space="preserve">1.07563281059265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0845490694046</t>
+    <t xml:space="preserve">1.08454918861389</t>
   </si>
   <si>
     <t xml:space="preserve">1.09346544742584</t>
@@ -68,28 +68,28 @@
     <t xml:space="preserve">1.0683376789093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05374729633331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975932121276855</t>
+    <t xml:space="preserve">1.05374717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975932240486145</t>
   </si>
   <si>
     <t xml:space="preserve">0.988901317119598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960531115531921</t>
+    <t xml:space="preserve">0.960531175136566</t>
   </si>
   <si>
     <t xml:space="preserve">1.01889264583588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992954194545746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349164009094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02051377296448</t>
+    <t xml:space="preserve">0.992954134941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00349175930023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02051365375519</t>
   </si>
   <si>
     <t xml:space="preserve">1.01727151870728</t>
@@ -98,31 +98,31 @@
     <t xml:space="preserve">0.985658943653107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01646077632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984879493713</t>
+    <t xml:space="preserve">1.01646089553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979984998703003</t>
   </si>
   <si>
     <t xml:space="preserve">0.940266847610474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928108155727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517832756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84299772977829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806522011756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82678633928299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389818191528</t>
+    <t xml:space="preserve">0.928108274936676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913517773151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842997848987579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806521952152252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826786398887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796389877796173</t>
   </si>
   <si>
     <t xml:space="preserve">0.818680584430695</t>
@@ -131,52 +131,52 @@
     <t xml:space="preserve">0.875420928001404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891632378101349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412197113037</t>
+    <t xml:space="preserve">0.891632318496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905412137508392</t>
   </si>
   <si>
     <t xml:space="preserve">0.907843828201294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932160973548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478297710419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936213970184326</t>
+    <t xml:space="preserve">0.932161152362823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956478416919708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936214089393616</t>
   </si>
   <si>
     <t xml:space="preserve">0.91027557849884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.944319605827332</t>
+    <t xml:space="preserve">0.944319665431976</t>
   </si>
   <si>
     <t xml:space="preserve">0.943509221076965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948372542858124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00268113613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995386064052582</t>
+    <t xml:space="preserve">0.948372423648834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00268125534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995385944843292</t>
   </si>
   <si>
     <t xml:space="preserve">0.949183225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962152361869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280130386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99214369058609</t>
+    <t xml:space="preserve">0.962152242660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987280070781708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992143630981445</t>
   </si>
   <si>
     <t xml:space="preserve">1.00511288642883</t>
@@ -185,46 +185,46 @@
     <t xml:space="preserve">1.00916576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01321852207184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00106000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584052562714</t>
+    <t xml:space="preserve">1.01321864128113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0010598897934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964584171772003</t>
   </si>
   <si>
     <t xml:space="preserve">0.984848439693451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980795621871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196568012238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689747810364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456224441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068561077118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967015743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962865829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879184246063</t>
+    <t xml:space="preserve">0.980795681476593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996196508407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972689807415009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939456284046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971068799495697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96701580286026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962962925434113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971879243850708</t>
   </si>
   <si>
     <t xml:space="preserve">0.95080429315567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934592843055725</t>
+    <t xml:space="preserve">0.934592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">0.903791010379791</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.920002460479736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881905555725098</t>
+    <t xml:space="preserve">0.881905496120453</t>
   </si>
   <si>
     <t xml:space="preserve">0.883526742458344</t>
@@ -245,16 +245,16 @@
     <t xml:space="preserve">0.887579500675201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915139019489288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055397510529</t>
+    <t xml:space="preserve">0.915138959884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924055278301239</t>
   </si>
   <si>
     <t xml:space="preserve">0.947561979293823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928918838500977</t>
+    <t xml:space="preserve">0.928918719291687</t>
   </si>
   <si>
     <t xml:space="preserve">0.921623528003693</t>
@@ -263,76 +263,76 @@
     <t xml:space="preserve">0.918381333351135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91757071018219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601633548737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117005825043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654391765594</t>
+    <t xml:space="preserve">0.917570769786835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904601693153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890011250972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908654451370239</t>
   </si>
   <si>
     <t xml:space="preserve">0.922434091567993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855967104434967</t>
+    <t xml:space="preserve">0.855967044830322</t>
   </si>
   <si>
     <t xml:space="preserve">0.859209358692169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.862451612949371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156481266022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671913146973</t>
+    <t xml:space="preserve">0.862451672554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855156421661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848671972751617</t>
   </si>
   <si>
     <t xml:space="preserve">0.881094813346863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863262355327606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868125736713409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716119289398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87704211473465</t>
+    <t xml:space="preserve">0.863262295722961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868125557899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882716000080109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877042055130005</t>
   </si>
   <si>
     <t xml:space="preserve">0.899738013744354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886768937110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425360679626</t>
+    <t xml:space="preserve">0.886768817901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952425420284271</t>
   </si>
   <si>
     <t xml:space="preserve">0.962786376476288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986289381980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698556423187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974537909030914</t>
+    <t xml:space="preserve">0.98628956079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983771502971649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973698616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974538087844849</t>
   </si>
   <si>
     <t xml:space="preserve">0.965304493904114</t>
@@ -341,55 +341,52 @@
     <t xml:space="preserve">0.968662261962891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977895438671112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822849750519</t>
+    <t xml:space="preserve">0.977895498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967822730541229</t>
   </si>
   <si>
     <t xml:space="preserve">0.946837902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933407545089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319725036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604665756226</t>
+    <t xml:space="preserve">0.933407604694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937604546546936</t>
   </si>
   <si>
     <t xml:space="preserve">0.939283311367035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971180200576782</t>
+    <t xml:space="preserve">0.971180379390717</t>
   </si>
   <si>
     <t xml:space="preserve">0.949356138706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955231785774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392373561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956910729408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159137248993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942640960216522</t>
+    <t xml:space="preserve">0.955231964588165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954392313957214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95691055059433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945159196853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">0.948516726493835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923334896564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780305862427</t>
+    <t xml:space="preserve">0.923334836959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915780127048492</t>
   </si>
   <si>
     <t xml:space="preserve">0.931728720664978</t>
@@ -407,19 +404,19 @@
     <t xml:space="preserve">0.925853073596954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926692366600037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934246957302094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137895107269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908225834369659</t>
+    <t xml:space="preserve">0.926692426204681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934247016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919137954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914101541042328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90822571516037</t>
   </si>
   <si>
     <t xml:space="preserve">0.910743892192841</t>
@@ -428,49 +425,49 @@
     <t xml:space="preserve">0.900671184062958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905707597732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956124782562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634829998016</t>
+    <t xml:space="preserve">0.905707538127899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893956005573273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895634889602661</t>
   </si>
   <si>
     <t xml:space="preserve">0.894795417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913262188434601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816659927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904479980469</t>
+    <t xml:space="preserve">0.913262128829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920816600322723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909904420375824</t>
   </si>
   <si>
     <t xml:space="preserve">0.903189301490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898153007030487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889759063720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881365060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878846943378448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686295986176</t>
+    <t xml:space="preserve">0.898153066635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889759004116058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88136500120163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878847002983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879686236381531</t>
   </si>
   <si>
     <t xml:space="preserve">0.891437888145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872970998287201</t>
+    <t xml:space="preserve">0.87297111749649</t>
   </si>
   <si>
     <t xml:space="preserve">0.947677314281464</t>
@@ -479,13 +476,13 @@
     <t xml:space="preserve">0.912422657012939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876328706741333</t>
+    <t xml:space="preserve">0.876328766345978</t>
   </si>
   <si>
     <t xml:space="preserve">0.874650001525879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886401474475861</t>
+    <t xml:space="preserve">0.886401534080505</t>
   </si>
   <si>
     <t xml:space="preserve">0.865416586399078</t>
@@ -494,10 +491,10 @@
     <t xml:space="preserve">0.880525708198547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885562062263489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890598475933075</t>
+    <t xml:space="preserve">0.885562002658844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890598356723785</t>
   </si>
   <si>
     <t xml:space="preserve">0.888919651508331</t>
@@ -509,28 +506,28 @@
     <t xml:space="preserve">0.888080179691315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911583185195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092499732971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874196529388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428906440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553080558777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071197986603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268259048462</t>
+    <t xml:space="preserve">0.911583364009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982092440128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951874256134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959428787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953553140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964465320110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960268199443817</t>
   </si>
   <si>
     <t xml:space="preserve">0.988807678222656</t>
@@ -539,46 +536,46 @@
     <t xml:space="preserve">0.975377261638641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979574382305145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983377933502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501614570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801428794861</t>
+    <t xml:space="preserve">0.9795743227005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966983318328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969501554965973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941801488399506</t>
   </si>
   <si>
     <t xml:space="preserve">0.943480312824249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935925841331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859144210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96614396572113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981253087520599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522677898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98796820640564</t>
+    <t xml:space="preserve">0.935925722122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972859084606171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966144025325775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.981253147125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995522797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987968266010284</t>
   </si>
   <si>
     <t xml:space="preserve">1.04001080989838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04420781135559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03329563140869</t>
+    <t xml:space="preserve">1.0442076921463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0332955121994</t>
   </si>
   <si>
     <t xml:space="preserve">1.03665328025818</t>
@@ -599,10 +596,10 @@
     <t xml:space="preserve">1.02741992473602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01650762557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12143206596375</t>
+    <t xml:space="preserve">1.01650774478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12143218517303</t>
   </si>
   <si>
     <t xml:space="preserve">1.10800182819366</t>
@@ -611,22 +608,22 @@
     <t xml:space="preserve">1.17347466945648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20956873893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544444561005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872926712036</t>
+    <t xml:space="preserve">1.2095685005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21544420719147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20872938632965</t>
   </si>
   <si>
     <t xml:space="preserve">1.18354737758636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110178947449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18942308425903</t>
+    <t xml:space="preserve">1.19110202789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18942320346832</t>
   </si>
   <si>
     <t xml:space="preserve">1.16759896278381</t>
@@ -635,19 +632,19 @@
     <t xml:space="preserve">1.15836548805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16675937175751</t>
+    <t xml:space="preserve">1.1667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.14745330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13318383693695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15668666362762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508066654205</t>
+    <t xml:space="preserve">1.13318359851837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15668678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16508078575134</t>
   </si>
   <si>
     <t xml:space="preserve">1.19781720638275</t>
@@ -656,46 +653,46 @@
     <t xml:space="preserve">1.20788979530334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18270814418793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2062109708786</t>
+    <t xml:space="preserve">1.18270802497864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20621109008789</t>
   </si>
   <si>
     <t xml:space="preserve">1.24902021884918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2574143409729</t>
+    <t xml:space="preserve">1.25741422176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.26580810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26328992843628</t>
+    <t xml:space="preserve">1.26329004764557</t>
   </si>
   <si>
     <t xml:space="preserve">1.27672028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29099011421204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303247928619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37409007549286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39255678653717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660825252533</t>
+    <t xml:space="preserve">1.29098987579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34303259849548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37409019470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39255690574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37660837173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.38164460659027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37828707695007</t>
+    <t xml:space="preserve">1.37828695774078</t>
   </si>
   <si>
     <t xml:space="preserve">1.39339625835419</t>
@@ -704,19 +701,19 @@
     <t xml:space="preserve">1.38919913768768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39675390720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500225543976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3715717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241113185883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814154148102</t>
+    <t xml:space="preserve">1.39675378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38500237464905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37157201766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37241125106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35814166069031</t>
   </si>
   <si>
     <t xml:space="preserve">1.41018414497375</t>
@@ -731,19 +728,19 @@
     <t xml:space="preserve">1.41857826709747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42529320716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361438274384</t>
+    <t xml:space="preserve">1.42529308795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42361450195312</t>
   </si>
   <si>
     <t xml:space="preserve">1.43536591529846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44208133220673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47733569145203</t>
+    <t xml:space="preserve">1.44208121299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47733581066132</t>
   </si>
   <si>
     <t xml:space="preserve">1.52014493942261</t>
@@ -752,13 +749,13 @@
     <t xml:space="preserve">1.40179014205933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36065971851349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792329788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32624459266663</t>
+    <t xml:space="preserve">1.36065983772278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32792341709137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32624471187592</t>
   </si>
   <si>
     <t xml:space="preserve">1.31785070896149</t>
@@ -767,16 +764,16 @@
     <t xml:space="preserve">1.32372641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33128094673157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044147491455</t>
+    <t xml:space="preserve">1.33128082752228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33044171333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.31617176532745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31365358829498</t>
+    <t xml:space="preserve">1.31365382671356</t>
   </si>
   <si>
     <t xml:space="preserve">1.30106270313263</t>
@@ -791,7 +788,7 @@
     <t xml:space="preserve">1.29350817203522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34471130371094</t>
+    <t xml:space="preserve">1.34471118450165</t>
   </si>
   <si>
     <t xml:space="preserve">1.35982036590576</t>
@@ -809,10 +806,10 @@
     <t xml:space="preserve">1.526859998703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5016782283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609347343445</t>
+    <t xml:space="preserve">1.50167810916901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53609335422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.51930546760559</t>
@@ -821,25 +818,25 @@
     <t xml:space="preserve">1.50755393505096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50240290164948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53588509559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245079517365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962134361267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532873630524</t>
+    <t xml:space="preserve">1.52729976177216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51957309246063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50240278244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53588497638702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53245091438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54962110519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54532861709595</t>
   </si>
   <si>
     <t xml:space="preserve">1.55391383171082</t>
@@ -854,10 +851,10 @@
     <t xml:space="preserve">1.56249904632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54704570770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54618716239929</t>
+    <t xml:space="preserve">1.54704558849335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54618728160858</t>
   </si>
   <si>
     <t xml:space="preserve">1.57365965843201</t>
@@ -869,16 +866,16 @@
     <t xml:space="preserve">1.56679165363312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55219674110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56850850582123</t>
+    <t xml:space="preserve">1.55219686031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56850862503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.54790413379669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53931891918182</t>
+    <t xml:space="preserve">1.53931903839111</t>
   </si>
   <si>
     <t xml:space="preserve">1.5281583070755</t>
@@ -890,22 +887,22 @@
     <t xml:space="preserve">1.51356363296509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51871478557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4629111289978</t>
+    <t xml:space="preserve">1.51871466636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49124217033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46291100978851</t>
   </si>
   <si>
     <t xml:space="preserve">1.46806228160858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47149622440338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49381756782532</t>
+    <t xml:space="preserve">1.47149634361267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49381768703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.48609101772308</t>
@@ -914,19 +911,19 @@
     <t xml:space="preserve">1.54876267910004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57795226573944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5556309223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482038974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56765007972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56507444381714</t>
+    <t xml:space="preserve">1.57795238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55563080310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58482027053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56764996051788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56507456302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.57108414173126</t>
@@ -938,13 +935,13 @@
     <t xml:space="preserve">1.5590648651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56593286991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52472424507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143434047699</t>
+    <t xml:space="preserve">1.56593298912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5247243642807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143445968628</t>
   </si>
   <si>
     <t xml:space="preserve">1.64234089851379</t>
@@ -968,19 +965,19 @@
     <t xml:space="preserve">1.71188068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72561693191528</t>
+    <t xml:space="preserve">1.72561705112457</t>
   </si>
   <si>
     <t xml:space="preserve">1.70844662189484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905111312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69986164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73076820373535</t>
+    <t xml:space="preserve">1.72905099391937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69986152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73076808452606</t>
   </si>
   <si>
     <t xml:space="preserve">1.73420214653015</t>
@@ -992,49 +989,49 @@
     <t xml:space="preserve">1.71445620059967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67238891124725</t>
+    <t xml:space="preserve">1.67238903045654</t>
   </si>
   <si>
     <t xml:space="preserve">1.6225950717926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5899715423584</t>
+    <t xml:space="preserve">1.58997142314911</t>
   </si>
   <si>
     <t xml:space="preserve">1.56936705112457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51098811626434</t>
+    <t xml:space="preserve">1.51098799705505</t>
   </si>
   <si>
     <t xml:space="preserve">1.45947706699371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46977925300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4757889509201</t>
+    <t xml:space="preserve">1.46977937221527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47578883171082</t>
   </si>
   <si>
     <t xml:space="preserve">1.61229288578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66294538974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66981339454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269121646881</t>
+    <t xml:space="preserve">1.66294527053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6698135137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68269109725952</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183267116547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60885870456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941506385803</t>
+    <t xml:space="preserve">1.60885882377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59941518306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.60284924507141</t>
@@ -1046,13 +1043,13 @@
     <t xml:space="preserve">1.5753767490387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739590644836</t>
+    <t xml:space="preserve">1.58739578723907</t>
   </si>
   <si>
     <t xml:space="preserve">1.55133831501007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54103600978851</t>
+    <t xml:space="preserve">1.5410361289978</t>
   </si>
   <si>
     <t xml:space="preserve">1.54275321960449</t>
@@ -1061,7 +1058,7 @@
     <t xml:space="preserve">1.52901685237885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54361152648926</t>
+    <t xml:space="preserve">1.54361164569855</t>
   </si>
   <si>
     <t xml:space="preserve">1.5444700717926</t>
@@ -1070,34 +1067,34 @@
     <t xml:space="preserve">1.55047976970673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61400985717773</t>
+    <t xml:space="preserve">1.61400997638702</t>
   </si>
   <si>
     <t xml:space="preserve">1.67410600185394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69556903839111</t>
+    <t xml:space="preserve">1.69556891918182</t>
   </si>
   <si>
     <t xml:space="preserve">1.69127643108368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68698370456696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70415413379669</t>
+    <t xml:space="preserve">1.68698382377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70415425300598</t>
   </si>
   <si>
     <t xml:space="preserve">1.64835047721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62688767910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820643901825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669550895691</t>
+    <t xml:space="preserve">1.62688755989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669538974762</t>
   </si>
   <si>
     <t xml:space="preserve">1.48093998432159</t>
@@ -1112,10 +1109,10 @@
     <t xml:space="preserve">1.52386569976807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48523259162903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43801403045654</t>
+    <t xml:space="preserve">1.48523247241974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43801414966583</t>
   </si>
   <si>
     <t xml:space="preserve">1.48952507972717</t>
@@ -1124,48 +1121,51 @@
     <t xml:space="preserve">1.59254705905914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59683954715729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542476177216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118016719818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405798912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122829914093</t>
+    <t xml:space="preserve">1.59683966636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60542488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63118028640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64405786991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66122817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67839872837067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693557262421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60971736907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113227367401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63976526260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65264308452606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66552090644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71273934841156</t>
   </si>
   <si>
     <t xml:space="preserve">1.67839860916138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6569356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6097172498703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113215446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264308452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66552090644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71273922920227</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.71382653713226</t>
   </si>
   <si>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">1.72711205482483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71825516223907</t>
+    <t xml:space="preserve">1.71825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">1.7005410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68725550174713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397010326385</t>
+    <t xml:space="preserve">1.68725562095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66068470478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67397022247314</t>
   </si>
   <si>
     <t xml:space="preserve">1.65182769298553</t>
@@ -1208,22 +1208,22 @@
     <t xml:space="preserve">1.66954159736633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62968528270721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61197137832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111528396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59425735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60754287242889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639988422394</t>
+    <t xml:space="preserve">1.62968516349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61197125911713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54111540317535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59425723552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6075427532196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61639976501465</t>
   </si>
   <si>
     <t xml:space="preserve">1.62082827091217</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">1.64297068119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097171783447</t>
+    <t xml:space="preserve">1.58097183704376</t>
   </si>
   <si>
     <t xml:space="preserve">1.57654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52340137958527</t>
+    <t xml:space="preserve">1.52340149879456</t>
   </si>
   <si>
     <t xml:space="preserve">1.49683058261871</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.43040299415588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51454448699951</t>
+    <t xml:space="preserve">1.51454436779022</t>
   </si>
   <si>
     <t xml:space="preserve">1.47911643981934</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">1.46583092212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48354482650757</t>
+    <t xml:space="preserve">1.48354494571686</t>
   </si>
   <si>
     <t xml:space="preserve">1.51897299289703</t>
@@ -1277,40 +1277,40 @@
     <t xml:space="preserve">1.5676863193512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58982872962952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5499724149704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882942676544</t>
+    <t xml:space="preserve">1.58982884883881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54997229576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882930755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.50125896930695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45697402954102</t>
+    <t xml:space="preserve">1.45697391033173</t>
   </si>
   <si>
     <t xml:space="preserve">1.58540022373199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47025942802429</t>
+    <t xml:space="preserve">1.47025954723358</t>
   </si>
   <si>
     <t xml:space="preserve">1.51011598110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46140241622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254552364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797333240509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4924019575119</t>
+    <t xml:space="preserve">1.46140253543854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45254564285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48797357082367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49240183830261</t>
   </si>
   <si>
     <t xml:space="preserve">1.55440092086792</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">1.60311424732208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282699584961</t>
+    <t xml:space="preserve">1.6828271150589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69168400764465</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">1.70939803123474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72268354892731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75368309020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682492256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79796802997589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83339583873749</t>
+    <t xml:space="preserve">1.7226836681366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73596894741058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75368297100067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682480335236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7979679107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8333957195282</t>
   </si>
   <si>
     <t xml:space="preserve">1.81568193435669</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">1.84225273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85996663570404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110986232758</t>
+    <t xml:space="preserve">1.85996675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85110974311829</t>
   </si>
   <si>
     <t xml:space="preserve">1.86882364749908</t>
@@ -1376,31 +1376,31 @@
     <t xml:space="preserve">1.87768065929413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88653779029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9308226108551</t>
+    <t xml:space="preserve">1.88653790950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93082284927368</t>
   </si>
   <si>
     <t xml:space="preserve">1.98396456241608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510755062103</t>
+    <t xml:space="preserve">1.97510766983032</t>
   </si>
   <si>
     <t xml:space="preserve">1.99282157421112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03710651397705</t>
+    <t xml:space="preserve">2.03710627555847</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024834632874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00167870521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01053547859192</t>
+    <t xml:space="preserve">2.00167846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0105357170105</t>
   </si>
   <si>
     <t xml:space="preserve">2.0636773109436</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">2.04596352577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07253456115723</t>
+    <t xml:space="preserve">2.07253432273865</t>
   </si>
   <si>
     <t xml:space="preserve">2.08139157295227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12567639350891</t>
+    <t xml:space="preserve">2.12567663192749</t>
   </si>
   <si>
     <t xml:space="preserve">2.11681962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1079626083374</t>
+    <t xml:space="preserve">2.10796236991882</t>
   </si>
   <si>
     <t xml:space="preserve">2.09910535812378</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">2.22310328483582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18767547607422</t>
+    <t xml:space="preserve">2.18767523765564</t>
   </si>
   <si>
     <t xml:space="preserve">2.16996121406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17881846427917</t>
+    <t xml:space="preserve">2.1788182258606</t>
   </si>
   <si>
     <t xml:space="preserve">2.24110770225525</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">2.22281289100647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12219166755676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412834644318</t>
+    <t xml:space="preserve">2.12219142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01242327690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99412846565247</t>
   </si>
   <si>
     <t xml:space="preserve">2.04901266098022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02157044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071784973145</t>
+    <t xml:space="preserve">2.02157068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03071808815002</t>
   </si>
   <si>
     <t xml:space="preserve">2.03986525535583</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.10389685630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.067307472229</t>
+    <t xml:space="preserve">2.06730723381042</t>
   </si>
   <si>
     <t xml:space="preserve">2.09474945068359</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.14963364601135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13133907318115</t>
+    <t xml:space="preserve">2.13133883476257</t>
   </si>
   <si>
     <t xml:space="preserve">2.0856020450592</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.21366548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25940251350403</t>
+    <t xml:space="preserve">2.25940227508545</t>
   </si>
   <si>
     <t xml:space="preserve">1.9666862487793</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">1.77459132671356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288601875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544380187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226503372192</t>
+    <t xml:space="preserve">1.79288613796234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76544392108917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69226491451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.59164381027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60079109668732</t>
+    <t xml:space="preserve">1.60079121589661</t>
   </si>
   <si>
     <t xml:space="preserve">1.51846468448639</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">1.49102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46815407276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636988162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381197929382</t>
+    <t xml:space="preserve">1.46815419197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32636976242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35381186008453</t>
   </si>
   <si>
     <t xml:space="preserve">1.39040148258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30350124835968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745384693146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1479959487915</t>
+    <t xml:space="preserve">1.30350136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20745396614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14799582958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.31722247600555</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">1.17086434364319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21202754974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807495117188</t>
+    <t xml:space="preserve">1.21202766895294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30807507038116</t>
   </si>
   <si>
     <t xml:space="preserve">1.28978025913239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33094358444214</t>
+    <t xml:space="preserve">1.33094346523285</t>
   </si>
   <si>
     <t xml:space="preserve">1.23946964740753</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.40869617462158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42699098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272777557373</t>
+    <t xml:space="preserve">1.42699086666107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47272789478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.43613827228546</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.41784358024597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36295938491821</t>
+    <t xml:space="preserve">1.36295926570892</t>
   </si>
   <si>
     <t xml:space="preserve">1.34923827648163</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.280632853508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26691174507141</t>
+    <t xml:space="preserve">1.2669118642807</t>
   </si>
   <si>
     <t xml:space="preserve">1.29435396194458</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.25319075584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21660125255585</t>
+    <t xml:space="preserve">1.21660137176514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19830644130707</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.22574865818024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117495536804</t>
+    <t xml:space="preserve">1.22117507457733</t>
   </si>
   <si>
     <t xml:space="preserve">1.19373273849487</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.18915903568268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15714335441589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16171705722809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427495956421</t>
+    <t xml:space="preserve">1.1571432352066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13427484035492</t>
   </si>
   <si>
     <t xml:space="preserve">1.11140644550323</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">1.09768545627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14342224597931</t>
+    <t xml:space="preserve">1.14342212677002</t>
   </si>
   <si>
     <t xml:space="preserve">1.11598014831543</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">1.10683274269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1525696516037</t>
+    <t xml:space="preserve">1.15256953239441</t>
   </si>
   <si>
     <t xml:space="preserve">1.24861705303192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39497518539429</t>
+    <t xml:space="preserve">1.394975066185</t>
   </si>
   <si>
     <t xml:space="preserve">1.3858277797699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35838568210602</t>
+    <t xml:space="preserve">1.35838556289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.46358048915863</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">1.4955962896347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50016987323761</t>
+    <t xml:space="preserve">1.5001699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.52303838729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.509317278862</t>
+    <t xml:space="preserve">1.50931739807129</t>
   </si>
   <si>
     <t xml:space="preserve">1.56877529621124</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.66024911403656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71055960655212</t>
+    <t xml:space="preserve">1.71055972576141</t>
   </si>
   <si>
     <t xml:space="preserve">1.75629651546478</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">1.71970701217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70141220092773</t>
+    <t xml:space="preserve">1.70141232013702</t>
   </si>
   <si>
     <t xml:space="preserve">1.73342800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71513330936432</t>
+    <t xml:space="preserve">1.71513342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.738001704216</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.78831243515015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79745972156525</t>
+    <t xml:space="preserve">1.79745984077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.77916502952576</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">1.68311762809753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69683849811554</t>
+    <t xml:space="preserve">1.69683861732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75172281265259</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.87521243095398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93009650707245</t>
+    <t xml:space="preserve">1.93009662628174</t>
   </si>
   <si>
     <t xml:space="preserve">1.92094922065735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.89350712299347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94839155673981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490193843842</t>
+    <t xml:space="preserve">1.9483916759491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82490181922913</t>
   </si>
   <si>
     <t xml:space="preserve">1.8477703332901</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.81575453281403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691773891449</t>
+    <t xml:space="preserve">1.8569176197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.83862292766571</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">1.82947552204132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93924391269684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087009906769</t>
+    <t xml:space="preserve">1.93924403190613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76087021827698</t>
   </si>
   <si>
     <t xml:space="preserve">1.67854392528534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68769133090973</t>
+    <t xml:space="preserve">1.68769121170044</t>
   </si>
   <si>
     <t xml:space="preserve">1.66482281684875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80203342437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598590373993</t>
+    <t xml:space="preserve">1.80203354358673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70598602294922</t>
   </si>
   <si>
     <t xml:space="preserve">1.55048060417175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5047435760498</t>
+    <t xml:space="preserve">1.50474369525909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53675937652588</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.63738059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567541122437</t>
+    <t xml:space="preserve">1.65567529201508</t>
   </si>
   <si>
     <t xml:space="preserve">1.66939651966095</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.81118083000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80660712718964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032823562622</t>
+    <t xml:space="preserve">1.80660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82032811641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.9811145067215</t>
@@ -6989,7 +6989,7 @@
         <v>1.125</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>1.125</v>
       </c>
       <c r="G167" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>1.125</v>
       </c>
       <c r="G168" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>1.125</v>
       </c>
       <c r="G169" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7093,7 +7093,7 @@
         <v>1.11699998378754</v>
       </c>
       <c r="G170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7119,7 +7119,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7171,7 +7171,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7197,7 +7197,7 @@
         <v>1.13100004196167</v>
       </c>
       <c r="G174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7223,7 +7223,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7249,7 +7249,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7275,7 +7275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7301,7 +7301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>1.12300002574921</v>
       </c>
       <c r="G180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>1.09099996089935</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G189" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>1.09200000762939</v>
       </c>
       <c r="G190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>1.10199999809265</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>1.11300003528595</v>
       </c>
       <c r="G196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>1.08899998664856</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>1.08200001716614</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7925,7 +7925,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>1.07299995422363</v>
       </c>
       <c r="G203" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8003,7 +8003,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G206" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>1.06700003147125</v>
       </c>
       <c r="G207" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8107,7 +8107,7 @@
         <v>1.08800005912781</v>
       </c>
       <c r="G209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8133,7 +8133,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8159,7 +8159,7 @@
         <v>1.09700000286102</v>
       </c>
       <c r="G211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>1.07599997520447</v>
       </c>
       <c r="G213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>1.04700005054474</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>1.12899994850159</v>
       </c>
       <c r="G223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G224" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>1.08700001239777</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>1.04200005531311</v>
       </c>
       <c r="G228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>1.05599999427795</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>1.03100001811981</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8757,7 +8757,7 @@
         <v>1.04900002479553</v>
       </c>
       <c r="G234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>1.05499994754791</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>1.06099998950958</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>1.05900001525879</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>1.04299998283386</v>
       </c>
       <c r="G239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>1.05799996852875</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G243" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G244" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>1.08599996566772</v>
       </c>
       <c r="G246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>1.13399994373322</v>
       </c>
       <c r="G249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9225,7 +9225,7 @@
         <v>1.1360000371933</v>
       </c>
       <c r="G252" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9277,7 +9277,7 @@
         <v>1.14900004863739</v>
       </c>
       <c r="G254" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9303,7 +9303,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G256" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>1.14400005340576</v>
       </c>
       <c r="G257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G260" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>1.16700005531311</v>
       </c>
       <c r="G261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G274" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G275" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>1.12199997901917</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>1.12399995326996</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10109,7 +10109,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10135,7 +10135,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>1.15900003910065</v>
       </c>
       <c r="G288" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>1.15100002288818</v>
       </c>
       <c r="G289" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>1.1690000295639</v>
       </c>
       <c r="G290" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>1.18599998950958</v>
       </c>
       <c r="G291" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10369,7 +10369,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10421,7 +10421,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>1.17700004577637</v>
       </c>
       <c r="G299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>1.23099994659424</v>
       </c>
       <c r="G302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G303" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>1.25499999523163</v>
       </c>
       <c r="G305" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>1.23399996757507</v>
       </c>
       <c r="G306" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10655,7 +10655,7 @@
         <v>1.22800004482269</v>
       </c>
       <c r="G307" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>1.21099996566772</v>
       </c>
       <c r="G310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G311" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G312" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G314" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>1.39800000190735</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>1.44099998474121</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>1.44799995422363</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>1.4190000295639</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>1.41700005531311</v>
       </c>
       <c r="G322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>1.39100003242493</v>
       </c>
       <c r="G323" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G324" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G325" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>1.36699998378754</v>
       </c>
       <c r="G326" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G327" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11201,7 +11201,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G328" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11253,7 +11253,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11279,7 +11279,7 @@
         <v>1.43900001049042</v>
       </c>
       <c r="G331" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>1.40900003910065</v>
       </c>
       <c r="G332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G333" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>1.43700003623962</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G336" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G337" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11461,7 +11461,7 @@
         <v>1.50499999523163</v>
       </c>
       <c r="G338" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11487,7 +11487,7 @@
         <v>1.52100002765656</v>
       </c>
       <c r="G339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G340" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G341" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>1.63699996471405</v>
       </c>
       <c r="G342" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G343" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G344" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G346" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G347" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11721,7 +11721,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G350" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G351" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G352" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G353" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G355" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11929,7 +11929,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G356" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>1.68299996852875</v>
       </c>
       <c r="G360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G362" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G363" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G364" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G367" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G368" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>1.81099998950958</v>
       </c>
       <c r="G369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12293,7 +12293,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G370" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G371" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>1.62100005149841</v>
       </c>
       <c r="G372" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G373" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G374" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G375" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>1.57700002193451</v>
       </c>
       <c r="G376" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G378" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>1.58500003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G380" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>1.567999958992</v>
       </c>
       <c r="G381" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>1.56500005722046</v>
       </c>
       <c r="G382" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G384" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G385" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>1.54100000858307</v>
       </c>
       <c r="G386" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G387" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G388" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G390" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G391" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G392" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G393" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G394" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>1.81900000572205</v>
       </c>
       <c r="G395" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G396" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G397" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G398" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G399" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G400" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>1.75</v>
       </c>
       <c r="G402" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G403" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G404" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G405" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G406" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G407" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G408" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G409" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G410" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G411" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G412" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G413" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G416" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G418" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G419" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>1.82700002193451</v>
       </c>
       <c r="G420" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G421" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>1.80299997329712</v>
       </c>
       <c r="G422" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>1.79299998283386</v>
       </c>
       <c r="G423" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G424" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>1.75</v>
       </c>
       <c r="G425" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>1.73300004005432</v>
       </c>
       <c r="G426" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>1.76300001144409</v>
       </c>
       <c r="G427" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>1.75</v>
       </c>
       <c r="G429" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G430" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G431" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G436" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G437" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G439" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G440" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G441" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G442" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G444" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G445" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G446" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G449" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G453" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G455" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G456" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G459" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G460" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G463" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G464" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>2.01399993896484</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>1.99699997901917</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G478" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G479" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G480" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G481" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G482" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G483" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G484" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G485" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G486" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G487" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G488" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G489" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G490" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>1.86300003528595</v>
       </c>
       <c r="G491" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G492" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G493" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G494" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G497" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>1.84899997711182</v>
       </c>
       <c r="G498" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G499" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G502" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G503" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G504" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G505" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>1.79700005054474</v>
       </c>
       <c r="G506" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>1.78100001811981</v>
       </c>
       <c r="G507" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G508" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>1.79900002479553</v>
       </c>
       <c r="G509" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G510" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G511" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G514" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G521" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G522" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G525" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G526" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G528" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G529" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G530" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G531" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G532" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G533" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G534" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G536" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G537" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G538" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>1.75</v>
       </c>
       <c r="G539" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G540" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G541" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G542" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G543" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G545" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G546" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G547" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G549" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G550" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G552" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G553" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G554" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G555" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G556" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G557" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G558" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>1.75</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>1.75</v>
       </c>
       <c r="G560" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>1.75</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G562" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G564" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G565" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G567" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G568" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G569" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G571" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G572" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G574" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G577" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G579" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G581" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G582" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17831,7 +17831,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17857,7 +17857,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17883,7 +17883,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G585" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17909,7 +17909,7 @@
         <v>1.875</v>
       </c>
       <c r="G586" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17935,7 +17935,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17961,7 +17961,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G588" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17987,7 +17987,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G589" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18013,7 +18013,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G590" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18039,7 +18039,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G591" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18065,7 +18065,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G592" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G593" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G594" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G596" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G598" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G601" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G602" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G603" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G604" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G605" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G606" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G607" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G608" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G609" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G610" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G611" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G612" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G613" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G614" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G615" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G616" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G617" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G618" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G619" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G620" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G621" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G622" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>2</v>
       </c>
       <c r="G624" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>2</v>
       </c>
       <c r="G625" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G627" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G628" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G632" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G635" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19235,7 +19235,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G637" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19261,7 +19261,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G641" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G642" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G645" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G647" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G650" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G651" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G652" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G653" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G654" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G656" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -59491,7 +59491,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6493865741</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>121123</v>
@@ -59512,6 +59512,32 @@
         <v>731</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.649525463</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>83688</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>738</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="777">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,2308 +38,2311 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09184432029724</t>
+    <t xml:space="preserve">1.02050411701202</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12507796287537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10643470287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07563281059265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08454918861389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09346544742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08617031574249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0683376789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05374717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975932240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988901317119598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960531175136566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01889264583588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992954134941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00349175930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02051365375519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01727151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985658943653107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01646089553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979984998703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266847610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928108274936676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913517773151398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842997848987579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806521952152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826786398887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796389877796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818680584430695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875420928001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891632318496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905412137508392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907843828201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932161152362823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956478416919708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936214089393616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91027557849884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944319665431976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943509221076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948372423648834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00268125534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995385944843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949183225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962152242660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987280070781708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992143630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00511288642883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916576385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01321864128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0010598897934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964584171772003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984848439693451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980795681476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996196508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972689807415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939456284046173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971068799495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96701580286026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962962925434113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971879243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95080429315567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934592723846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903791010379791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89325350522995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920002460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881905496120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883526742458344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887579500675201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915138959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924055278301239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947561979293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928918719291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921623528003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918381333351135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917570769786835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904601693153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898117065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890011250972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908654451370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922434091567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855967044830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859209358692169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862451672554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855156421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848671972751617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881094813346863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863262295722961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868125557899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882716000080109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877042055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899738013744354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886768817901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952425420284271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962786376476288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98628956079483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983771502971649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974538087844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965304493904114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968662261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977895498275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967822730541229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946837902069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933407604694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937604546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939283311367035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971180379390717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949356138706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955231964588165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954392313957214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95691055059433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945159196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948516726493835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923334836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915780127048492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931728720664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916619718074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906547009944916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925013661384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925853073596954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926692426204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934247016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919137954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914101541042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90822571516037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910743892192841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900671184062958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905707538127899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893956005573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895634889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913262128829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920816600322723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909904420375824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903189301490784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898153066635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889759004116058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88136500120163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878847002983093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879686236381531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891437888145447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87297111749649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947677314281464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912422657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876328766345978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874650001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886401534080505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865416586399078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880525708198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885562002658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890598356723785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888919651508331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875489294528961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888080179691315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911583364009857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982092440128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951874256134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959428787231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953553140163422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964465320110321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960268199443817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975377261638641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9795743227005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966983318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969501554965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941801488399506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943480312824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935925722122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972859084606171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966144025325775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995522797107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987968266010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04001080989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0442076921463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0332955121994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03665328025818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05344116687775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03581380844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03077757358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02741992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01650774478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12143218517303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10800182819366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17347466945648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2095685005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21544420719147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20872938632965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18354737758636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19110202789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18942320346832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16759896278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15836548805237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1667594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14745330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13318359851837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15668678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16508078575134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19781720638275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20788979530334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18270802497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20621109008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24902021884918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25741422176361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26580810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26329004764557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27672028541565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29098987579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34303259849548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37409019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39255690574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38164460659027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37828695774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39339625835419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38919913768768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39675378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38500237464905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37157201766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37241125106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35814166069031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41018414497375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43368721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41270232200623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41857826709747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42529308795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42361450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43536591529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44208121299744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47733581066132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52014493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40179014205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36065983772278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32792341709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32624471187592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31785070896149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32372641563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33128082752228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33044171333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31617176532745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31365382671356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30106270313263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30442047119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588093280792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29350817203522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34471118450165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35982036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45215392112732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45299327373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48489022254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526859998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50167810916901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53609335422516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51930546760559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50755393505096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52729976177216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51957309246063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50240278244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53588497638702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53245091438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54962110519409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54532861709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55391383171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57280111312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57966935634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249904632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54704558849335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54618728160858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365965843201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57451820373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679165363312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55219686031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56850862503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54790413379669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53931903839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5281583070755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48780810832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51356363296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51871466636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49124217033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46291100978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46806228160858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47149634361267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49381768703461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48609101772308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54876267910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57795238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55563080310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58482027053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56764996051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56507456302643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57108414173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56421601772308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5590648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56593298912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5247243642807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143445968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64234089851379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69814455509186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67067193984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75995767116547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7170318365097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74793839454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71188068389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72561705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70844662189484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72905099391937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69986152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73076808452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73420214653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72733402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71445620059967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67238903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6225950717926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58997142314911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56936705112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098799705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45947706699371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46977937221527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47578883171082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61229288578033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66294527053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6698135137558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68269109725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68183267116547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60885882377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59941518306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60284924507141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.588254570961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5753767490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58739578723907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55133831501007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5410361289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54275321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52901685237885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54361164569855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5444700717926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55047976970673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61400997638702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67410600185394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69556891918182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69127643108368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68698382377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70415425300598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64835047721863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62688755989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669538974762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48093998432159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51528060436249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49811029434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52386569976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48523247241974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43801414966583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952507972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59254705905914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59683966636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63118028640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64405786991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66122817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839872837067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65693557262421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60971736907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113227367401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63976526260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65264308452606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66552090644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71273934841156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67839860916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71382653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70496952533722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72711205482483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71825504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7005410194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68725562095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66068470478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67397022247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65182769298553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63854229450226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625619888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64739918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66511309146881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66954159736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62968516349792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61197125911713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54111540317535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59425723552704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6075427532196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61639976501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62082827091217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64297068119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58097183704376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57654333114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52340149879456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49683058261871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43040299415588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51454436779022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47911643981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47468793392181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50568747520447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44811701774597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46583092212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48354494571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51897299289703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52782988548279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5676863193512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58982884883881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54997229576111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50125896930695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697391033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58540022373199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47025954723358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51011598110199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46140253543854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45254564285278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48797357082367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49240183830261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55440092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56325781345367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60311424732208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6828271150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69168400764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70939803123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7226836681366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73596894741058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75368297100067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682480335236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7979679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8333957195282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81568193435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82453882694244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78911089897156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84225273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85996675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85110974311829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86882364749908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87768065929413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88653790950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93082284927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98396456241608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510766983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99282157421112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03710627555847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09024834632874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00167846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0105357170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0636773109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04596352577209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07253432273865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08139157295227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12567663192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11681962013245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10796236991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09910535812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02824950218201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19653248786926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21424627304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23196029663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25853109359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22310328483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18767523765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996121406555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1788182258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24110770225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20451807975769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22281289100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12219142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01242327690125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99412846565247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04901266098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02157068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03071808815002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03986525535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05816006660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10389685630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06730723381042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09474945068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14048624038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14963364601135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13133883476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0856020450592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11304426193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07645463943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00327587127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15878105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19537091255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18622350692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25025510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21366548538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25940227508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9666862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1770761013031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97583365440369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98498106002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88435983657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77459132671356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288613796234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76544392108917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69226491451263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59164381027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60079121589661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51846468448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49102258682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46815419197083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32636976242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35381186008453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39040148258209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30350136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20745396614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14799582958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31722247600555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17086434364319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21202766895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30807507038116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28978025913239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33094346523285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23946964740753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34009087085724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34466457366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28520655632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31264865398407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40869617462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42699086666107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47272789478302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43613827228546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41784358024597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36295926570892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34923827648163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33551716804504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37210667133331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.280632853508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2669118642807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29435396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26233816146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29892766475677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24404335021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27148544788361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2760591506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40412247180939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39954876899719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37668037414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32179617881775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36753296852112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41326987743378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3812540769577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25776445865631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25319075584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21660137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19830644130707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23489594459534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22574865818024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22117507457733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19373273849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18915903568268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1571432352066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13427484035492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11140644550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07939052581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09768545627594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14342212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11598014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08853805065155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09311175346375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10683274269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15256953239441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24861705303192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.394975066185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3858277797699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35838556289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46358048915863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48187518119812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4955962896347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5001699924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52303838729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50931739807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56877529621124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66024911403656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71055972576141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75629651546478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78373873233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7425754070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74714910984039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71970701217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70141232013702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73342800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71513342857361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.738001704216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78831243515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79745984077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77916502952576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77001750469208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68311762809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69683861732483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75172281265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72428071498871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72885429859161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87521243095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93009662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92094922065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91180193424225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90265452861786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89350712299347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9483916759491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82490181922913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8477703332901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86606502532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81575453281403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8569176197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83862292766571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82947552204132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93924403190613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76087021827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67854392528534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68769121170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66482281684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80203354358673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70598602294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55048060417175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50474369525909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53675937652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63738059997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65567529201508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66939651966095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81118083000183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82032811641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9811145067215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95254075527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97158992290497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93349158763885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9144424200058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90015554428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90491783618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89539325237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86681950092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86205720901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88110637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85253262519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84300792217255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88586866855621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85729491710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82872104644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76681125164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75252449512482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79062271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78109812736511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75728678703308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80490958690643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77157354354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74776220321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76204907894135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73823761940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73347532749176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70966374874115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66680312156677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61918020248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5715571641922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58108174800873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6239424943924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63822937011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60013091564178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62870478630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59536862373352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59060633182526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58584403991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65251624584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69061458110809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68585228919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68108999729156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72395062446594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74299991130829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66204082965851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7287130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69537687301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70013916492462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81919646263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78586041927338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8096718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83824563026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83348333835602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81443417072296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87158179283142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94301617145538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89063096046448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82395875453949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80014729499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71442604064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70490145683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61441791057587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65727853775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6763277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64775395393372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71918833255768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77633583545685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7953850030899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87634408473969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02873754501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0858850479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07999992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10999989509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04999995231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02999997138977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00999999046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1800000667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09999990463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14000010490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17000007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16000008583069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19000005722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08999991416931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15000009536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25999999046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3199999332428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29999995231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35999989509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33999991416931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30999994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27999997138977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32999992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26999998092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13000011444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34999990463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24000000953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22000002861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23000001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03999996185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20000004768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11999988555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21000003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0699999332428</t>
+    <t xml:space="preserve">1.05156624317169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03641402721405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03414130210876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00535178184509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01368582248688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02201926708221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01520097255707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998533248901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984896302223206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912165462970734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924287259578705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897770822048187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952319025993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928075432777405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937924385070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953834235668182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950803697109222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921256840229034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950046122074127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915953636169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878830552101135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867466330528259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853829383850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787917017936707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753824532032013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.772764801979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744354367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765188694000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818221569061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83337390422821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846253216266632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848525941371918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87125438451767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893982827663422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875042378902435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850798904895782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882618546485901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88186103105545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886406660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937166690826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930348098278046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887164294719696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899286091327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922772169113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92731773853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939439594745636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943227708339691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947015643119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93565160036087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901558995246887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920499324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916711211204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93110579252243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909135103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878072917461395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907619655132294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903831720352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900043666362762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908377468585968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888679563999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873527228832245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844737946987152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834888935089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859890162944794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824282467365265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8257976770401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82958573102951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855344414710999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863678157329559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885649144649506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868224024772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861405551433563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858374953269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857617437839508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845495641231537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839434623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831858575344086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849283695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862163007259369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.800038874149323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803069293498993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806099712848663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799281239509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.793220400810242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82352489233017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806857347488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811402976512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825039982795715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819736838340759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840949952602386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828828096389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890194833278656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899878740310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921846151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919492602348328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910077810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910862386226654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90223228931427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905370593070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914000630378723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90458607673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884972274303436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872419476509094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876342236995697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877911329269409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90772408246994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887325942516327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892817735671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892033278942108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894386827945709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883403241634369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881049573421478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886541306972504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863004922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855943918228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870850443840027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856728553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84731388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864573895931244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865358531475067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866143047809601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873204112052917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859082221984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854374766349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848883032798767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851236641407013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.841822028160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846529245376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835545718669891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837114751338959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836330115795135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853590309619904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860651135444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850452065467834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844175636768341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839468419551849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831622898578644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823777318000793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.821423828601837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822208225727081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833191990852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815931856632233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885756731033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852805733680725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819070041179657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817501127719879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828484714031219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808871030807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82299280166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827700138092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832407414913177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83083838224411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818285465240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830053806304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852021157741547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889679491519928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8967404961586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89124870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901447892189026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89360237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897525131702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92419958114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911646962165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915569841861725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903801500797272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906155049800873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8802649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881834030151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87477308511734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909293353557587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903016924858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917138814926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930476129055023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923415303230286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972057223320007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975980043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965780913829803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968919277191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979902744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984610140323639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968134462833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963427186012268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960289001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950089871883392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04815852642059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03560602664948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09680080413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13053643703461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13602828979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12975180149078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10621523857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11327624320984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11170721054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09130895137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08267891407013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09052419662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07247972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05914235115051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08110988140106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08895528316498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11955273151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12896728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10543072223663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12739825248718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16741037368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17525565624237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18310117721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18074762821198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20663774013519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2552797794342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28430831432343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3015683889389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28666186332703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29136919975281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2882307767868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30235278606415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29843008518219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30549097061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29450726509094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28195452690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28273916244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26940166950226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31804382801056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34001111984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32039749622345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32588946819305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33216559886932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33059656620026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34158027172089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34785676002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38080775737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4208197593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31019830703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27175533771515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24115800857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23958873748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23174321651459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23723518848419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24429619312286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24351155757904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23017418384552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22782063484192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21605229377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21919059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19251573085785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20899140834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25684893131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27097070217133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3572713136673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35805571079254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38786864280701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42709612846375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40355980396271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43572640419006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42003536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905153751373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42750728130341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42028546333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40423715114594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43553149700165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43232178688049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44837021827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44435811042786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4523823261261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47003543376923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47645497322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46040654182434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44596302509308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44516050815582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47083783149719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47164034843445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46441876888275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45077753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46602344512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44676542282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4387412071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42830967903137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39059579372406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41466867923737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41948294639587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3938056230545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36732578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37214016914368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37534976005554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39621293544769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38899087905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4475679397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47485017776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45398712158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4812695980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46522104740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46281373500824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46843087673187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46201145648956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4571967124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46361613273621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42509996891022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50614440441132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53503167629242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718919754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56151151657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64496326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60484230518341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63372957706451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60002779960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61286652088165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59681808948517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61607623100281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58879387378693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61768114566803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62089085578918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61447143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60243499279022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56311643123627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51657593250275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608410358429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46682584285736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41226124763489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36411619186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3737450838089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37936186790466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50694692134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55428981781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56070911884308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57274556159973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57194304466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50373721122742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4949107170105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49812030792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48447918891907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4724428653717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4836767911911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4499751329422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44034600257874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44195091724396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911207675934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44275331497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44355571269989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44917261600494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50855183601379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5647212266922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58478188514709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58076977729797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57675766944885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59280586242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54064857959747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52058804035187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45639443397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40824913978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38417661190033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41627335548401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4002251625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42429757118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38818860054016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34405541419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39220070838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48849129676819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49250340461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50052762031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52460014820099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53663659095764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55268490314484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56873345375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54867279529572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50453960895538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49651551246643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53262448310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54466068744659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62891483306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55669701099396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60083019733429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60184645652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59356820583344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61426401138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60598564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58942902088165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5770115852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55217683315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56459426879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5438985824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53148114681244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54803776741028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53975939750671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55631601810455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56045520305634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52320301532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50664639472961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44042026996613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49008965492249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50250720977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5107855796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51492476463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47767245769501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47353327274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42386364936829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39902877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33694159984589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41558527946472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38247215747833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37833297252655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40730714797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35349822044373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37005484104156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38661134243011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4197244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42800283432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46525490283966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48595058917999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44869840145111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697665214539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40316796302795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36177635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4818115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37419390678406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41144609451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36591553688049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35763728618622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3907505273819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39488959312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4528374671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46111583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49836802482605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5728725194931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58115077018738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58528995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59770739078522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012482643127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62254214286804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63909876346588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68876838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68049001693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71360301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6970466375351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70532488822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67221188545227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72188138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73843801021576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73015964031219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671626091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7549946308136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76327300071716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80466437339783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85433375835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84605550765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86261212825775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90400350093842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95367324352264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87089037895203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8791686296463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92883837223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91228175163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93711674213409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94539511203766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98678636550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97850823402405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97022986412048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96195149421692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89572525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05301260948181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06956911087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08612561225891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11096048355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07784748077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04473447799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0281777381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03645610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09467554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06047677993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07757616043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08612585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98352932929993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88093316555023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86383366584778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91513156890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948285579681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8980325460434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90658187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92368137836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96642982959747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93223106861115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95788013935089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00062870979309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00917840003967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99207901954651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94933044910431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97497951984406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94078075885773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87238335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01772809028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05192685127258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.043377161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10322523117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06902647018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11177492141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83818459510803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03482747077942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84673428535461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8552839756012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76123714447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65864086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67574036121368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65009117126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58169364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48764705657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49619674682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41924941539764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39360022544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37222611904144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23970592021942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26535487174988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2995537519455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21833157539368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12855982780457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07298672199249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23115611076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09436106681824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13283467292786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22260642051697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2055070400238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24398076534271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1584837436676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25253045558929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25680530071259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20123219490051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22688114643097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31665301322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33375239372253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37650096416473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34230208396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32520270347595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27390456199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26108014583588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.248255610466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28245425224304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19695734977722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18413281440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20978188514709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17985796928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21405673027039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16275858879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18840765953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19268250465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31237816810608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30810332298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28672909736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23543095588684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27817940711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32092785835266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29100394248962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17558312416077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17130827903748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13710963726044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12001001834869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15420889854431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14565932750702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14138448238373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1157351732254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11146032810211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08153653144836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08581137657166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06016230583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878808021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00886404514313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02596342563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0687118768692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04306292533875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01741373538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.021688580513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03451323509216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07726156711578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16703343391418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3038284778595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2952789068222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26962971687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36795127391815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38505053520203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39787518978119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40215003490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42352426052094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41069972515106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46627283096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55176973342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59879302978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64154148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6671906709671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62871694564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63299179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60734272003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59024333953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62016725540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60306787490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6244421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67146551609039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68001520633698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66291582584381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65436589717865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5731440782547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58596849441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63726663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61161768436432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61589241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75268745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80398571491241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79543590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78688621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77833652496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7697868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82108521461487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70566415786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72703850269318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74413776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69711446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73558807373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71848881244659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70993900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.812535405159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64581632614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56886923313141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5774188041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55604457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68429005146027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59451818466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44917345046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40642488002777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43634879589081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5303955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54749476909637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56031954288483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69283962249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68856489658356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70138931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85167002677917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82496333122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84276783466339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80715882778168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78935432434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7760009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78045201301575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77154970169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74484300613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74039196968079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75819647312164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73148965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72258734703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76264750957489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73594069480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70923388004303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65136921405792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6380158662796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67362499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66472268104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64246702194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68697822093964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65582036972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63356471061707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64691817760468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62466251850128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62021136283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59795570373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5578955411911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51338422298431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46887290477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4777752161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51783537864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53118872642517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49557971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49112844467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48667740821838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48222625255585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54454219341278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58015120029449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57570004463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57124888896942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61130905151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62911367416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55344438552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61576020717621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58460223674774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58905339241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70033156871796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66917371749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69142949581146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71813607215881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71368503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69588053226471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74929416179657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81606101989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76709866523743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70478272438049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68252718448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6024067401886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59350454807281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50893318653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899322986603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679773330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54009091854095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60685789585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.660271525383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67807602882385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75374519824982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89618146419525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94959497451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94409441947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97213423252106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605460643768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89736139774323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87866818904877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03756070137024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278762817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00017428398132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02821397781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01886749267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04690718650818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9534410238266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00952076911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11233329772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16841292381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14971971511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20579934120178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18710613250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15906643867493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14037322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13102650642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17775964736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12168002128601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9908275604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19645285606384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10298681259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09364008903503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07494688034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08429360389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90670800209045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05625367164612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.981480717659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06560039520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93474781513214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92540121078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7431423664093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70575594902039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74781572818756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77585554122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78520202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79454863071442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76650893688202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75716233253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73379576206207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70108270645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71977591514587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68706274032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68238937854767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69640934467316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71042931079865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6917359828949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73846912384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72444915771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7291225194931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75248897075653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81324195861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83660852909088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82258856296539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85997498035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86932158470154</t>
   </si>
   <si>
     <t xml:space="preserve">2.05999994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86500000953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82500004768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87000000476837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89999997615814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9099999666214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91999995708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88999998569489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87999999523163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85500001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82000005245209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8400000333786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80499994754791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79999995231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81500005722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83000004291534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86000001430511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84500002861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85000002384186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94000005722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650000333786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95000004768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99000000953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
 </sst>
 </file>
@@ -19781,7 +19784,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19807,7 +19810,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19833,7 +19836,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G660" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19859,7 +19862,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19885,7 +19888,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19911,7 +19914,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19937,7 +19940,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19963,7 +19966,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G665" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19989,7 +19992,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G666" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20015,7 +20018,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G667" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20041,7 +20044,7 @@
         <v>1.875</v>
       </c>
       <c r="G668" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20067,7 +20070,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G669" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20093,7 +20096,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G670" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20119,7 +20122,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G671" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20145,7 +20148,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G672" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20171,7 +20174,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G673" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20197,7 +20200,7 @@
         <v>1.875</v>
       </c>
       <c r="G674" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20223,7 +20226,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G675" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20249,7 +20252,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G676" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20275,7 +20278,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G677" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20301,7 +20304,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G678" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20327,7 +20330,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G679" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20353,7 +20356,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G680" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20379,7 +20382,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G681" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20405,7 +20408,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G682" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20431,7 +20434,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G683" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20457,7 +20460,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G684" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20483,7 +20486,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G685" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20509,7 +20512,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20535,7 +20538,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G687" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20561,7 +20564,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G688" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20587,7 +20590,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G689" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20613,7 +20616,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G690" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20639,7 +20642,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G691" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20665,7 +20668,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G692" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20691,7 +20694,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G693" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20717,7 +20720,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G694" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20743,7 +20746,7 @@
         <v>1.875</v>
       </c>
       <c r="G695" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20769,7 +20772,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G696" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20795,7 +20798,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G697" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20821,7 +20824,7 @@
         <v>1.875</v>
       </c>
       <c r="G698" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20847,7 +20850,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G699" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20873,7 +20876,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20899,7 +20902,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20925,7 +20928,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G702" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20951,7 +20954,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G703" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20977,7 +20980,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G704" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21003,7 +21006,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G705" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21029,7 +21032,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G706" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21055,7 +21058,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G707" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21081,7 +21084,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21107,7 +21110,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G709" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21133,7 +21136,7 @@
         <v>1.61500000953674</v>
       </c>
       <c r="G710" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21159,7 +21162,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21185,7 +21188,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G712" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21211,7 +21214,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G713" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21237,7 +21240,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21263,7 +21266,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21289,7 +21292,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G716" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21315,7 +21318,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G717" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21341,7 +21344,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G718" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21367,7 +21370,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G719" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21393,7 +21396,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G720" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21419,7 +21422,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21445,7 +21448,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G722" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21471,7 +21474,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G723" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21497,7 +21500,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21523,7 +21526,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G725" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21549,7 +21552,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21575,7 +21578,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G727" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21601,7 +21604,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21627,7 +21630,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G729" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21653,7 +21656,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G730" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21679,7 +21682,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21705,7 +21708,7 @@
         <v>1.75</v>
       </c>
       <c r="G732" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21731,7 +21734,7 @@
         <v>1.75</v>
       </c>
       <c r="G733" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21757,7 +21760,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G734" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21783,7 +21786,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G735" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21809,7 +21812,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G736" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21835,7 +21838,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21861,7 +21864,7 @@
         <v>1.64499998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21887,7 +21890,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G739" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21913,7 +21916,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21939,7 +21942,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G741" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21965,7 +21968,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21991,7 +21994,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22017,7 +22020,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G744" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22043,7 +22046,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G745" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22069,7 +22072,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G746" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22095,7 +22098,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G747" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22121,7 +22124,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G748" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22147,7 +22150,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G749" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22173,7 +22176,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G750" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22199,7 +22202,7 @@
         <v>1.75</v>
       </c>
       <c r="G751" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22225,7 +22228,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G752" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22251,7 +22254,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G753" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22277,7 +22280,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G754" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22303,7 +22306,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G755" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22329,7 +22332,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G756" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22355,7 +22358,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G757" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22381,7 +22384,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G758" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22407,7 +22410,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G759" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22433,7 +22436,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G760" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22459,7 +22462,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G761" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22485,7 +22488,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22511,7 +22514,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G763" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22537,7 +22540,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G764" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22563,7 +22566,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G765" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22589,7 +22592,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22615,7 +22618,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G767" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22641,7 +22644,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22667,7 +22670,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G769" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22693,7 +22696,7 @@
         <v>1.75</v>
       </c>
       <c r="G770" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22719,7 +22722,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G771" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22745,7 +22748,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G772" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22771,7 +22774,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G773" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22797,7 +22800,7 @@
         <v>1.75</v>
       </c>
       <c r="G774" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22823,7 +22826,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22849,7 +22852,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G776" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22875,7 +22878,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G777" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22901,7 +22904,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G778" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22927,7 +22930,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22953,7 +22956,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G780" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22979,7 +22982,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G781" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23005,7 +23008,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G782" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23031,7 +23034,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G783" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23057,7 +23060,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G784" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23083,7 +23086,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G785" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23109,7 +23112,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G786" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23135,7 +23138,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G787" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23161,7 +23164,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G788" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23187,7 +23190,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G789" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23213,7 +23216,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G790" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23239,7 +23242,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G791" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23265,7 +23268,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23291,7 +23294,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G793" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23317,7 +23320,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G794" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23343,7 +23346,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G795" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23369,7 +23372,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G796" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23395,7 +23398,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G797" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23421,7 +23424,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23447,7 +23450,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G799" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23473,7 +23476,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G800" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23499,7 +23502,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G801" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23525,7 +23528,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G802" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23551,7 +23554,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G803" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23577,7 +23580,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G804" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23603,7 +23606,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23629,7 +23632,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G806" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23655,7 +23658,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23681,7 +23684,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G808" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23707,7 +23710,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G809" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23733,7 +23736,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G810" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23759,7 +23762,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23785,7 +23788,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G812" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23811,7 +23814,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23837,7 +23840,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G814" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23863,7 +23866,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G815" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23889,7 +23892,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23915,7 +23918,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G817" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23941,7 +23944,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G818" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23967,7 +23970,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G819" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23993,7 +23996,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G820" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24019,7 +24022,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G821" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24045,7 +24048,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24071,7 +24074,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G823" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24097,7 +24100,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G824" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24123,7 +24126,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24149,7 +24152,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G826" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24175,7 +24178,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24201,7 +24204,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G828" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24227,7 +24230,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G829" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24253,7 +24256,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G830" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24279,7 +24282,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24305,7 +24308,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G832" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24331,7 +24334,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24357,7 +24360,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G834" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24383,7 +24386,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G835" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24409,7 +24412,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G836" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24435,7 +24438,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G837" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24461,7 +24464,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G838" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24487,7 +24490,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24513,7 +24516,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G840" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24539,7 +24542,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G841" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24565,7 +24568,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G842" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24591,7 +24594,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G843" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24617,7 +24620,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G844" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24643,7 +24646,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G845" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24669,7 +24672,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24695,7 +24698,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24721,7 +24724,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G848" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24747,7 +24750,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24773,7 +24776,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24799,7 +24802,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24825,7 +24828,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G852" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24851,7 +24854,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G853" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24877,7 +24880,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G854" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24903,7 +24906,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G855" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24929,7 +24932,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G856" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24955,7 +24958,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G857" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24981,7 +24984,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G858" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25007,7 +25010,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G859" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25033,7 +25036,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G860" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25059,7 +25062,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G861" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25085,7 +25088,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25111,7 +25114,7 @@
         <v>2.25</v>
       </c>
       <c r="G863" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25137,7 +25140,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G864" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25163,7 +25166,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G865" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25189,7 +25192,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G866" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25215,7 +25218,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G867" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25241,7 +25244,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G868" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25267,7 +25270,7 @@
         <v>2.25</v>
       </c>
       <c r="G869" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25293,7 +25296,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G870" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25319,7 +25322,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G871" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25345,7 +25348,7 @@
         <v>2.25</v>
       </c>
       <c r="G872" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25371,7 +25374,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25397,7 +25400,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G874" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25423,7 +25426,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G875" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25449,7 +25452,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G876" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25475,7 +25478,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G877" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25501,7 +25504,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G878" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25527,7 +25530,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G879" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25553,7 +25556,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G880" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25579,7 +25582,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G881" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25605,7 +25608,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G882" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25631,7 +25634,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G883" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25657,7 +25660,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G884" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25683,7 +25686,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G885" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25709,7 +25712,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G886" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25735,7 +25738,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G887" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25761,7 +25764,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G888" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25787,7 +25790,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G889" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25813,7 +25816,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G890" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25839,7 +25842,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G891" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25865,7 +25868,7 @@
         <v>2.5</v>
       </c>
       <c r="G892" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25891,7 +25894,7 @@
         <v>2.5</v>
       </c>
       <c r="G893" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25917,7 +25920,7 @@
         <v>2.5</v>
       </c>
       <c r="G894" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25943,7 +25946,7 @@
         <v>2.5</v>
       </c>
       <c r="G895" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25969,7 +25972,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G896" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25995,7 +25998,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G897" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26021,7 +26024,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G898" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26047,7 +26050,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G899" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26073,7 +26076,7 @@
         <v>2.5</v>
       </c>
       <c r="G900" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26099,7 +26102,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G901" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26125,7 +26128,7 @@
         <v>2.5</v>
       </c>
       <c r="G902" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26151,7 +26154,7 @@
         <v>2.5</v>
       </c>
       <c r="G903" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26177,7 +26180,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G904" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26203,7 +26206,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26229,7 +26232,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G906" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26255,7 +26258,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G907" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26281,7 +26284,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G908" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26307,7 +26310,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26333,7 +26336,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G910" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26359,7 +26362,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G911" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26385,7 +26388,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G912" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26411,7 +26414,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G913" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28127,7 +28130,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G979" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28153,7 +28156,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G980" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28205,7 +28208,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G982" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28257,7 +28260,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G984" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28361,7 +28364,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G988" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28413,7 +28416,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G990" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28855,7 +28858,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1007" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28881,7 +28884,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1008" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28933,7 +28936,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1010" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28959,7 +28962,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1011" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29011,7 +29014,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1013" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29037,7 +29040,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1014" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29115,7 +29118,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1017" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29193,7 +29196,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1020" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29219,7 +29222,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1021" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29245,7 +29248,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1022" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29271,7 +29274,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1023" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -59517,7 +59520,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.649525463</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>83688</v>
@@ -59538,6 +59541,32 @@
         <v>738</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.4268287037</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>10412</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>1.92499995231628</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>776</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02050423622131</t>
+    <t xml:space="preserve">1.02050411701202</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">1.05156624317169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03641414642334</t>
+    <t xml:space="preserve">1.03641390800476</t>
   </si>
   <si>
     <t xml:space="preserve">1.03414118289948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00535190105438</t>
+    <t xml:space="preserve">1.00535202026367</t>
   </si>
   <si>
     <t xml:space="preserve">1.01368570327759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02201926708221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01520097255707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998533308506012</t>
+    <t xml:space="preserve">1.02201914787292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01520085334778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998533248901367</t>
   </si>
   <si>
     <t xml:space="preserve">0.984896183013916</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">0.912165462970734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924287438392639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897770881652832</t>
+    <t xml:space="preserve">0.92428731918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897770762443542</t>
   </si>
   <si>
     <t xml:space="preserve">0.952318906784058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928075432777405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937924385070801</t>
+    <t xml:space="preserve">0.92807549238205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937924265861511</t>
   </si>
   <si>
     <t xml:space="preserve">0.953834235668182</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.950803697109222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921256840229034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950046002864838</t>
+    <t xml:space="preserve">0.921256959438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950046062469482</t>
   </si>
   <si>
     <t xml:space="preserve">0.915953636169434</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">0.87883049249649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867466509342194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853829324245453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787917077541351</t>
+    <t xml:space="preserve">0.867466330528259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853829264640808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787916958332062</t>
   </si>
   <si>
     <t xml:space="preserve">0.753824472427368</t>
@@ -122,37 +122,37 @@
     <t xml:space="preserve">0.772764801979065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74435430765152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.765188694000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818221628665924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833373844623566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846253156661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848526120185852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871254324913025</t>
+    <t xml:space="preserve">0.744354367256165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765188634395599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818221569061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833373785018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846253097057343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848526000976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871254503726959</t>
   </si>
   <si>
     <t xml:space="preserve">0.893982708454132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875042378902435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850799024105072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882618546485901</t>
+    <t xml:space="preserve">0.875042498111725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850798845291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882618606090546</t>
   </si>
   <si>
     <t xml:space="preserve">0.88186103105545</t>
@@ -164,64 +164,64 @@
     <t xml:space="preserve">0.937166750431061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930348217487335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887164354324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899286150932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922772109508514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927317798137665</t>
+    <t xml:space="preserve">0.930348098278046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887164294719696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899286091327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92277204990387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927317678928375</t>
   </si>
   <si>
     <t xml:space="preserve">0.939439594745636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943227589130402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947015583515167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935651421546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901558816432953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92049914598465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916711151599884</t>
+    <t xml:space="preserve">0.943227648735046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947015762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935651540756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901558876037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920499265193939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916711270809174</t>
   </si>
   <si>
     <t xml:space="preserve">0.93110579252243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909135103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87807297706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907619953155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903831720352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900043725967407</t>
+    <t xml:space="preserve">0.909134984016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878073036670685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907619774341583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903831779956818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900043606758118</t>
   </si>
   <si>
     <t xml:space="preserve">0.908377528190613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888679504394531</t>
+    <t xml:space="preserve">0.888679563999176</t>
   </si>
   <si>
     <t xml:space="preserve">0.873527348041534</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">0.844737946987152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834888994693756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859890222549438</t>
+    <t xml:space="preserve">0.834889054298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859890282154083</t>
   </si>
   <si>
     <t xml:space="preserve">0.824282467365265</t>
@@ -242,31 +242,31 @@
     <t xml:space="preserve">0.825797617435455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829585671424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855344474315643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863678216934204</t>
+    <t xml:space="preserve">0.829585790634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855344593524933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863678276538849</t>
   </si>
   <si>
     <t xml:space="preserve">0.885649085044861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868224143981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861405253410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858375072479248</t>
+    <t xml:space="preserve">0.868223965167999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861405313014984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858375012874603</t>
   </si>
   <si>
     <t xml:space="preserve">0.857617318630219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845495700836182</t>
+    <t xml:space="preserve">0.845495641231537</t>
   </si>
   <si>
     <t xml:space="preserve">0.839434623718262</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">0.831858694553375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849283695220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862163126468658</t>
+    <t xml:space="preserve">0.849283635616302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862163066864014</t>
   </si>
   <si>
     <t xml:space="preserve">0.800038874149323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803069353103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806099653244019</t>
+    <t xml:space="preserve">0.803069233894348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806099712848663</t>
   </si>
   <si>
     <t xml:space="preserve">0.799281179904938</t>
@@ -296,109 +296,106 @@
     <t xml:space="preserve">0.793220341205597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823524832725525</t>
+    <t xml:space="preserve">0.823524951934814</t>
   </si>
   <si>
     <t xml:space="preserve">0.806857407093048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811403036117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82504004240036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819736778736115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840949833393097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828828096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890194714069366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899878680706024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921846151351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919492483139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910077810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910862326622009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90223228931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905370712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914000630378723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904586017131805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884972214698792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872419416904449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88261866569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876342117786407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877911329269409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90772420167923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887326002120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892817735671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892033100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894386827945709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883403122425079</t>
+    <t xml:space="preserve">0.811402976512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825040102005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819736897945404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840949952602386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828828155994415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890194654464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899878621101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921845972537994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919492363929749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91007786989212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910862386226654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902232348918915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905370593070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914000570774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90458607673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884972274303436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872419536113739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876342177391052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877911269664764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90772408246994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887325942516327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892817795276642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892033159732819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894386887550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883403241634369</t>
   </si>
   <si>
     <t xml:space="preserve">0.881049573421478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886541306972504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863004922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855943918228149</t>
+    <t xml:space="preserve">0.886541366577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863004863262177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855943858623505</t>
   </si>
   <si>
     <t xml:space="preserve">0.870850384235382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.856728613376617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847313940525055</t>
+    <t xml:space="preserve">0.856728494167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847313821315765</t>
   </si>
   <si>
     <t xml:space="preserve">0.864574015140533</t>
@@ -407,10 +404,10 @@
     <t xml:space="preserve">0.865358650684357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866143047809601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873204052448273</t>
+    <t xml:space="preserve">0.866143107414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873204112052917</t>
   </si>
   <si>
     <t xml:space="preserve">0.859082102775574</t>
@@ -422,7 +419,7 @@
     <t xml:space="preserve">0.848883032798767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851236641407013</t>
+    <t xml:space="preserve">0.851236701011658</t>
   </si>
   <si>
     <t xml:space="preserve">0.841821908950806</t>
@@ -431,61 +428,61 @@
     <t xml:space="preserve">0.846529304981232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835545718669891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837114751338959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83633017539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853590309619904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860651195049286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85045200586319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844175636768341</t>
+    <t xml:space="preserve">0.835545599460602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837114810943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836330115795135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853590369224548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860651314258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850452125072479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844175577163696</t>
   </si>
   <si>
     <t xml:space="preserve">0.839468419551849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831622838973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823777318000793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821423768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822208166122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833191931247711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815931916236877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885756850242615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85280579328537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819070041179657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817501068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828484714031219</t>
+    <t xml:space="preserve">0.831622779369354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823777258396149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.821423709392548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822208285331726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833192050457001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815931856632233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88575679063797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852805733680725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819070100784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81750100851059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828484773635864</t>
   </si>
   <si>
     <t xml:space="preserve">0.80887097120285</t>
@@ -500,49 +497,49 @@
     <t xml:space="preserve">0.832407355308533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830838322639465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818285584449768</t>
+    <t xml:space="preserve">0.83083838224411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818285524845123</t>
   </si>
   <si>
     <t xml:space="preserve">0.830053746700287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.852021098136902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917923331260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889679670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896740615367889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891248643398285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901447832584381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893602311611176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897525191307068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924199879169464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911646902561188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915569841861725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903801441192627</t>
+    <t xml:space="preserve">0.852021038532257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889679551124573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896740555763245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891248762607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901447892189026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89360237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897525072097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924199640750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911646962165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91556978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903801381587982</t>
   </si>
   <si>
     <t xml:space="preserve">0.906155169010162</t>
@@ -551,52 +548,52 @@
     <t xml:space="preserve">0.880264937877655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881834089756012</t>
+    <t xml:space="preserve">0.881834030151367</t>
   </si>
   <si>
     <t xml:space="preserve">0.87477308511734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909293234348297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903016865253448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917138695716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930476188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923415303230286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972057342529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975979924201965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965780973434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968919098377228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979902863502502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984610080718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968134522438049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963427364826202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960289061069489</t>
+    <t xml:space="preserve">0.909293472766876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903016924858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917138814926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930476069450378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923415243625641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972057223320007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97597998380661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965780913829803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968919157981873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979902744293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984610140323639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968134582042694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963427245616913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960289001464844</t>
   </si>
   <si>
     <t xml:space="preserve">0.950089812278748</t>
@@ -611,58 +608,58 @@
     <t xml:space="preserve">1.09680080413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13053643703461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13602828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12975203990936</t>
+    <t xml:space="preserve">1.13053631782532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13602840900421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12975180149078</t>
   </si>
   <si>
     <t xml:space="preserve">1.10621535778046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11327624320984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11170721054077</t>
+    <t xml:space="preserve">1.11327636241913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11170709133148</t>
   </si>
   <si>
     <t xml:space="preserve">1.09130883216858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08267891407013</t>
+    <t xml:space="preserve">1.08267867565155</t>
   </si>
   <si>
     <t xml:space="preserve">1.09052431583405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07247972488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05914235115051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08110976219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08895528316498</t>
+    <t xml:space="preserve">1.07247984409332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05914223194122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08110988140106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08895516395569</t>
   </si>
   <si>
     <t xml:space="preserve">1.11955273151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12896740436554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10543084144592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12739825248718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16741013526917</t>
+    <t xml:space="preserve">1.12896728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10543072223663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12739813327789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16741025447845</t>
   </si>
   <si>
     <t xml:space="preserve">1.17525565624237</t>
@@ -671,43 +668,43 @@
     <t xml:space="preserve">1.18310129642487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18074774742126</t>
+    <t xml:space="preserve">1.18074762821198</t>
   </si>
   <si>
     <t xml:space="preserve">1.19330036640167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2066376209259</t>
+    <t xml:space="preserve">1.20663774013519</t>
   </si>
   <si>
     <t xml:space="preserve">1.2552797794342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28430819511414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3015683889389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28666186332703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29136908054352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28823089599609</t>
+    <t xml:space="preserve">1.28430807590485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30156826972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28666174411774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29136919975281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28823101520538</t>
   </si>
   <si>
     <t xml:space="preserve">1.30235278606415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29843008518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30549120903015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29450738430023</t>
+    <t xml:space="preserve">1.2984299659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30549108982086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29450726509094</t>
   </si>
   <si>
     <t xml:space="preserve">1.28195440769196</t>
@@ -716,64 +713,64 @@
     <t xml:space="preserve">1.28273904323578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26940166950226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31804382801056</t>
+    <t xml:space="preserve">1.26940190792084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31804370880127</t>
   </si>
   <si>
     <t xml:space="preserve">1.34001123905182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32039761543274</t>
+    <t xml:space="preserve">1.32039749622345</t>
   </si>
   <si>
     <t xml:space="preserve">1.32588934898376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33216559886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33059668540955</t>
+    <t xml:space="preserve">1.33216571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33059656620026</t>
   </si>
   <si>
     <t xml:space="preserve">1.34158027172089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34785664081573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38080763816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42081987857819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31019830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27175533771515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24115788936615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23958873748779</t>
+    <t xml:space="preserve">1.34785676002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38080787658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4208197593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31019842624664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27175545692444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24115800857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23958897590637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23174333572388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23723518848419</t>
+    <t xml:space="preserve">1.2372350692749</t>
   </si>
   <si>
     <t xml:space="preserve">1.24429619312286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24351155757904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23017430305481</t>
+    <t xml:space="preserve">1.24351143836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23017418384552</t>
   </si>
   <si>
     <t xml:space="preserve">1.22782063484192</t>
@@ -782,22 +779,22 @@
     <t xml:space="preserve">1.21605229377747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21919047832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19251573085785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20899128913879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25684881210327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27097082138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35727143287659</t>
+    <t xml:space="preserve">1.21919059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19251585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20899140834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25684893131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27097070217133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3572713136673</t>
   </si>
   <si>
     <t xml:space="preserve">1.35805583000183</t>
@@ -806,16 +803,16 @@
     <t xml:space="preserve">1.38786888122559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42709624767303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40355980396271</t>
+    <t xml:space="preserve">1.42709612846375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.403559923172</t>
   </si>
   <si>
     <t xml:space="preserve">1.43572640419006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42003536224365</t>
+    <t xml:space="preserve">1.42003524303436</t>
   </si>
   <si>
     <t xml:space="preserve">1.40905153751373</t>
@@ -827,10 +824,10 @@
     <t xml:space="preserve">1.42028546333313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40423715114594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43553149700165</t>
+    <t xml:space="preserve">1.40423703193665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43553161621094</t>
   </si>
   <si>
     <t xml:space="preserve">1.4323216676712</t>
@@ -842,19 +839,19 @@
     <t xml:space="preserve">1.44435811042786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4523823261261</t>
+    <t xml:space="preserve">1.45238220691681</t>
   </si>
   <si>
     <t xml:space="preserve">1.47003567218781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47645485401154</t>
+    <t xml:space="preserve">1.47645509243011</t>
   </si>
   <si>
     <t xml:space="preserve">1.46040654182434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44596290588379</t>
+    <t xml:space="preserve">1.44596302509308</t>
   </si>
   <si>
     <t xml:space="preserve">1.44516050815582</t>
@@ -866,13 +863,13 @@
     <t xml:space="preserve">1.47164034843445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46441876888275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45077741146088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46602344512939</t>
+    <t xml:space="preserve">1.46441864967346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45077753067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46602356433868</t>
   </si>
   <si>
     <t xml:space="preserve">1.44676530361176</t>
@@ -881,10 +878,10 @@
     <t xml:space="preserve">1.43874108791351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42830955982208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39059579372406</t>
+    <t xml:space="preserve">1.42830979824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39059591293335</t>
   </si>
   <si>
     <t xml:space="preserve">1.41466844081879</t>
@@ -896,7 +893,7 @@
     <t xml:space="preserve">1.3938056230545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3673255443573</t>
+    <t xml:space="preserve">1.36732566356659</t>
   </si>
   <si>
     <t xml:space="preserve">1.37214028835297</t>
@@ -905,13 +902,13 @@
     <t xml:space="preserve">1.37534987926483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39621269702911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38899111747742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44756782054901</t>
+    <t xml:space="preserve">1.3962128162384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38899099826813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44756770133972</t>
   </si>
   <si>
     <t xml:space="preserve">1.4748500585556</t>
@@ -920,10 +917,10 @@
     <t xml:space="preserve">1.45398724079132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48126935958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46522092819214</t>
+    <t xml:space="preserve">1.48126947879791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46522104740143</t>
   </si>
   <si>
     <t xml:space="preserve">1.46281373500824</t>
@@ -932,16 +929,16 @@
     <t xml:space="preserve">1.46843087673187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46201133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45719683170319</t>
+    <t xml:space="preserve">1.46201145648956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45719695091248</t>
   </si>
   <si>
     <t xml:space="preserve">1.46361613273621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42510008811951</t>
+    <t xml:space="preserve">1.42509996891022</t>
   </si>
   <si>
     <t xml:space="preserve">1.50614452362061</t>
@@ -956,52 +953,52 @@
     <t xml:space="preserve">1.56151151657104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64496338367462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6048424243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63372957706451</t>
+    <t xml:space="preserve">1.64496326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60484230518341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63372933864594</t>
   </si>
   <si>
     <t xml:space="preserve">1.60002779960632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61286640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59681820869446</t>
+    <t xml:space="preserve">1.61286664009094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59681808948517</t>
   </si>
   <si>
     <t xml:space="preserve">1.61607623100281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58879387378693</t>
+    <t xml:space="preserve">1.58879375457764</t>
   </si>
   <si>
     <t xml:space="preserve">1.61768114566803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62089061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61447155475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60243511199951</t>
+    <t xml:space="preserve">1.6208907365799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61447131633759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60243499279022</t>
   </si>
   <si>
     <t xml:space="preserve">1.56311631202698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51657605171204</t>
+    <t xml:space="preserve">1.51657593250275</t>
   </si>
   <si>
     <t xml:space="preserve">1.486083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46682584285736</t>
+    <t xml:space="preserve">1.46682572364807</t>
   </si>
   <si>
     <t xml:space="preserve">1.41226124763489</t>
@@ -1010,7 +1007,7 @@
     <t xml:space="preserve">1.36411595344543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3737450838089</t>
+    <t xml:space="preserve">1.37374496459961</t>
   </si>
   <si>
     <t xml:space="preserve">1.37936198711395</t>
@@ -1019,34 +1016,34 @@
     <t xml:space="preserve">1.50694692134857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55428969860077</t>
+    <t xml:space="preserve">1.55428981781006</t>
   </si>
   <si>
     <t xml:space="preserve">1.56070923805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57274544239044</t>
+    <t xml:space="preserve">1.57274556159973</t>
   </si>
   <si>
     <t xml:space="preserve">1.57194304466248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50373721122742</t>
+    <t xml:space="preserve">1.50373709201813</t>
   </si>
   <si>
     <t xml:space="preserve">1.4949107170105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49812030792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48447918891907</t>
+    <t xml:space="preserve">1.49812018871307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48447930812836</t>
   </si>
   <si>
     <t xml:space="preserve">1.4724428653717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4836767911911</t>
+    <t xml:space="preserve">1.48367667198181</t>
   </si>
   <si>
     <t xml:space="preserve">1.4499751329422</t>
@@ -1058,7 +1055,7 @@
     <t xml:space="preserve">1.44195091724396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42911219596863</t>
+    <t xml:space="preserve">1.42911207675934</t>
   </si>
   <si>
     <t xml:space="preserve">1.44275331497192</t>
@@ -1070,7 +1067,7 @@
     <t xml:space="preserve">1.44917261600494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50855183601379</t>
+    <t xml:space="preserve">1.5085517168045</t>
   </si>
   <si>
     <t xml:space="preserve">1.56472134590149</t>
@@ -1082,22 +1079,22 @@
     <t xml:space="preserve">1.58076977729797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57675766944885</t>
+    <t xml:space="preserve">1.57675755023956</t>
   </si>
   <si>
     <t xml:space="preserve">1.59280610084534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54064869880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52058792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45639443397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40824913978577</t>
+    <t xml:space="preserve">1.54064857959747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52058804035187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45639455318451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40824925899506</t>
   </si>
   <si>
     <t xml:space="preserve">1.38417649269104</t>
@@ -1106,31 +1103,31 @@
     <t xml:space="preserve">1.41627335548401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40022504329681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42429745197296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38818860054016</t>
+    <t xml:space="preserve">1.40022492408752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42429769039154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38818871974945</t>
   </si>
   <si>
     <t xml:space="preserve">1.34405541419983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39220070838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4884911775589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49250340461731</t>
+    <t xml:space="preserve">1.39220082759857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48849129676819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49250328540802</t>
   </si>
   <si>
     <t xml:space="preserve">1.50052762031555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5246000289917</t>
+    <t xml:space="preserve">1.52460014820099</t>
   </si>
   <si>
     <t xml:space="preserve">1.53663647174835</t>
@@ -1145,19 +1142,19 @@
     <t xml:space="preserve">1.54867279529572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50453972816467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49651563167572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53262448310852</t>
+    <t xml:space="preserve">1.50453960895538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49651551246643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53262436389923</t>
   </si>
   <si>
     <t xml:space="preserve">1.54466068744659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62891495227814</t>
+    <t xml:space="preserve">1.62891507148743</t>
   </si>
   <si>
     <t xml:space="preserve">1.55669713020325</t>
@@ -1166,13 +1163,16 @@
     <t xml:space="preserve">1.60083031654358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60184645652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59356820583344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61426401138306</t>
+    <t xml:space="preserve">1.56873321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60184633731842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59356808662415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61426389217377</t>
   </si>
   <si>
     <t xml:space="preserve">1.60598564147949</t>
@@ -1184,40 +1184,40 @@
     <t xml:space="preserve">1.5770115852356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55217683315277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56459438800812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5438985824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53148114681244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54803776741028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.539759516716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55631601810455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56045496463776</t>
+    <t xml:space="preserve">1.55217671394348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56459414958954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54389846324921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53148126602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54803764820099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53975927829742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55631589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56045508384705</t>
   </si>
   <si>
     <t xml:space="preserve">1.52320289611816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50664639472961</t>
+    <t xml:space="preserve">1.50664627552032</t>
   </si>
   <si>
     <t xml:space="preserve">1.44042015075684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49008965492249</t>
+    <t xml:space="preserve">1.49008977413177</t>
   </si>
   <si>
     <t xml:space="preserve">1.50250720977783</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">1.51492464542389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53562033176422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47767245769501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47353315353394</t>
+    <t xml:space="preserve">1.53562021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47767221927643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47353327274323</t>
   </si>
   <si>
     <t xml:space="preserve">1.423863530159</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">1.39902877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33694171905518</t>
+    <t xml:space="preserve">1.33694159984589</t>
   </si>
   <si>
     <t xml:space="preserve">1.41558527946472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38247227668762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37833285331726</t>
+    <t xml:space="preserve">1.38247215747833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37833297252655</t>
   </si>
   <si>
     <t xml:space="preserve">1.40730702877045</t>
@@ -1268,52 +1268,52 @@
     <t xml:space="preserve">1.38661122322083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4197244644165</t>
+    <t xml:space="preserve">1.41972434520721</t>
   </si>
   <si>
     <t xml:space="preserve">1.42800271511078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46525478363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48595070838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4486985206604</t>
+    <t xml:space="preserve">1.46525490283966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48595058917999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44869828224182</t>
   </si>
   <si>
     <t xml:space="preserve">1.45697665214539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40316796302795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.361776471138</t>
+    <t xml:space="preserve">1.40316784381866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36177635192871</t>
   </si>
   <si>
     <t xml:space="preserve">1.48181140422821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37419390678406</t>
+    <t xml:space="preserve">1.37419378757477</t>
   </si>
   <si>
     <t xml:space="preserve">1.41144621372223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36591565608978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35763740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3907505273819</t>
+    <t xml:space="preserve">1.36591553688049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35763728618622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39075028896332</t>
   </si>
   <si>
     <t xml:space="preserve">1.3948894739151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45283758640289</t>
+    <t xml:space="preserve">1.4528374671936</t>
   </si>
   <si>
     <t xml:space="preserve">1.46111583709717</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">1.49836802482605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57287263870239</t>
+    <t xml:space="preserve">1.57287240028381</t>
   </si>
   <si>
     <t xml:space="preserve">1.58115077018738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58528995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59770727157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012494564056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62254226207733</t>
+    <t xml:space="preserve">1.58528983592987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59770715236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012482643127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62254214286804</t>
   </si>
   <si>
     <t xml:space="preserve">1.63909876346588</t>
@@ -1346,19 +1346,19 @@
     <t xml:space="preserve">1.68876838684082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68049013614655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71360313892365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6970466375351</t>
+    <t xml:space="preserve">1.68049025535583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71360325813293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69704675674438</t>
   </si>
   <si>
     <t xml:space="preserve">1.70532500743866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67221176624298</t>
+    <t xml:space="preserve">1.67221188545227</t>
   </si>
   <si>
     <t xml:space="preserve">1.72188150882721</t>
@@ -1367,70 +1367,70 @@
     <t xml:space="preserve">1.73843801021576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73015964031219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671626091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7549946308136</t>
+    <t xml:space="preserve">1.73015975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671614170074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75499451160431</t>
   </si>
   <si>
     <t xml:space="preserve">1.76327300071716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80466437339783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85433387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8460556268692</t>
+    <t xml:space="preserve">1.80466425418854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85433399677277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84605574607849</t>
   </si>
   <si>
     <t xml:space="preserve">1.86261224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90400350093842</t>
+    <t xml:space="preserve">1.90400362014771</t>
   </si>
   <si>
     <t xml:space="preserve">1.95367312431335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87089049816132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87916874885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92883861064911</t>
+    <t xml:space="preserve">1.87089061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8791686296463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92883849143982</t>
   </si>
   <si>
     <t xml:space="preserve">1.91228187084198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93711650371552</t>
+    <t xml:space="preserve">1.9371166229248</t>
   </si>
   <si>
     <t xml:space="preserve">1.94539487361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98678648471832</t>
+    <t xml:space="preserve">1.98678660392761</t>
   </si>
   <si>
     <t xml:space="preserve">1.97850835323334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97022986412048</t>
+    <t xml:space="preserve">1.97022998332977</t>
   </si>
   <si>
     <t xml:space="preserve">1.96195149421692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89572536945343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05301260948181</t>
+    <t xml:space="preserve">1.89572525024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05301284790039</t>
   </si>
   <si>
     <t xml:space="preserve">2.06956911087036</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">2.08612585067749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11096024513245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07784724235535</t>
+    <t xml:space="preserve">2.1109607219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07784748077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.04473447799683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0281777381897</t>
+    <t xml:space="preserve">2.02817797660828</t>
   </si>
   <si>
     <t xml:space="preserve">2.03645610809326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09467530250549</t>
+    <t xml:space="preserve">2.09467554092407</t>
   </si>
   <si>
     <t xml:space="preserve">2.06047654151917</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">1.88093292713165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86383378505707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91513168811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948273658752</t>
+    <t xml:space="preserve">1.86383354663849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91513180732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948261737823</t>
   </si>
   <si>
     <t xml:space="preserve">1.89803230762482</t>
@@ -1487,13 +1487,13 @@
     <t xml:space="preserve">1.92368149757385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96642982959747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93223106861115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95788025856018</t>
+    <t xml:space="preserve">1.96642994880676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93223118782043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95788013935089</t>
   </si>
   <si>
     <t xml:space="preserve">2.00062847137451</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">1.99207901954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9493305683136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97497951984406</t>
+    <t xml:space="preserve">1.94933044910431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97497963905334</t>
   </si>
   <si>
     <t xml:space="preserve">1.94078075885773</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">2.04337739944458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10322499275208</t>
+    <t xml:space="preserve">2.10322523117065</t>
   </si>
   <si>
     <t xml:space="preserve">2.06902623176575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11177468299866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83818459510803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03482747077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8467344045639</t>
+    <t xml:space="preserve">2.11177492141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83818447589874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.034827709198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84673428535461</t>
   </si>
   <si>
     <t xml:space="preserve">1.8552839756012</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">1.65864098072052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67574036121368</t>
+    <t xml:space="preserve">1.67574024200439</t>
   </si>
   <si>
     <t xml:space="preserve">1.65009105205536</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">1.58169376850128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4876469373703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49619674682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41924953460693</t>
+    <t xml:space="preserve">1.48764705657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49619662761688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41924941539764</t>
   </si>
   <si>
     <t xml:space="preserve">1.3936003446579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37222611904144</t>
+    <t xml:space="preserve">1.37222599983215</t>
   </si>
   <si>
     <t xml:space="preserve">1.23970592021942</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">1.26535499095917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29955363273621</t>
+    <t xml:space="preserve">1.2995537519455</t>
   </si>
   <si>
     <t xml:space="preserve">1.21833145618439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12855970859528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07298672199249</t>
+    <t xml:space="preserve">1.12855982780457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07298684120178</t>
   </si>
   <si>
     <t xml:space="preserve">1.23115622997284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09436106681824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13283479213715</t>
+    <t xml:space="preserve">1.09436094760895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13283467292786</t>
   </si>
   <si>
     <t xml:space="preserve">1.22260642051697</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.24398076534271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1584837436676</t>
+    <t xml:space="preserve">1.15848362445831</t>
   </si>
   <si>
     <t xml:space="preserve">1.25253033638</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">1.22688126564026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31665301322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33375239372253</t>
+    <t xml:space="preserve">1.31665313243866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33375251293182</t>
   </si>
   <si>
     <t xml:space="preserve">1.37650096416473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34230220317841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32520270347595</t>
+    <t xml:space="preserve">1.34230208396912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32520282268524</t>
   </si>
   <si>
     <t xml:space="preserve">1.27390468120575</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">1.26108014583588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.248255610466</t>
+    <t xml:space="preserve">1.24825549125671</t>
   </si>
   <si>
     <t xml:space="preserve">1.28245425224304</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">1.19695734977722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18413293361664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20978176593781</t>
+    <t xml:space="preserve">1.18413269519806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20978188514709</t>
   </si>
   <si>
     <t xml:space="preserve">1.17985796928406</t>
@@ -1670,34 +1670,34 @@
     <t xml:space="preserve">1.21405673027039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1627584695816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18840765953064</t>
+    <t xml:space="preserve">1.16275858879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18840754032135</t>
   </si>
   <si>
     <t xml:space="preserve">1.19268250465393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31237828731537</t>
+    <t xml:space="preserve">1.31237816810608</t>
   </si>
   <si>
     <t xml:space="preserve">1.30810332298279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28672909736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23543095588684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27817952632904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32092785835266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29100394248962</t>
+    <t xml:space="preserve">1.28672921657562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23543107509613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27817940711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32092797756195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29100406169891</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558312416077</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">1.12001001834869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15420889854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14565908908844</t>
+    <t xml:space="preserve">1.15420877933502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14565920829773</t>
   </si>
   <si>
     <t xml:space="preserve">1.14138436317444</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">1.1157351732254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1114604473114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08153641223907</t>
+    <t xml:space="preserve">1.11146032810211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08153653144836</t>
   </si>
   <si>
     <t xml:space="preserve">1.08581137657166</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">1.02596354484558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0687118768692</t>
+    <t xml:space="preserve">1.06871199607849</t>
   </si>
   <si>
     <t xml:space="preserve">1.04306292533875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01741373538971</t>
+    <t xml:space="preserve">1.017413854599</t>
   </si>
   <si>
     <t xml:space="preserve">1.02168869972229</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">1.07726168632507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16703355312347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3038284778595</t>
+    <t xml:space="preserve">1.16703343391418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30382859706879</t>
   </si>
   <si>
     <t xml:space="preserve">1.2952789068222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26962971687317</t>
+    <t xml:space="preserve">1.26962983608246</t>
   </si>
   <si>
     <t xml:space="preserve">1.36795127391815</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">1.38505065441132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3978750705719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40215015411377</t>
+    <t xml:space="preserve">1.39787518978119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40214991569519</t>
   </si>
   <si>
     <t xml:space="preserve">1.42352426052094</t>
@@ -1793,58 +1793,58 @@
     <t xml:space="preserve">1.41069972515106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46627283096313</t>
+    <t xml:space="preserve">1.46627271175385</t>
   </si>
   <si>
     <t xml:space="preserve">1.55176973342896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59879314899445</t>
+    <t xml:space="preserve">1.59879302978516</t>
   </si>
   <si>
     <t xml:space="preserve">1.64154148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66719055175781</t>
+    <t xml:space="preserve">1.6671906709671</t>
   </si>
   <si>
     <t xml:space="preserve">1.62871694564819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63299167156219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60734283924103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59024333953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62016725540161</t>
+    <t xml:space="preserve">1.63299179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60734272003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59024322032928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62016713619232</t>
   </si>
   <si>
     <t xml:space="preserve">1.60306787490845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62444221973419</t>
+    <t xml:space="preserve">1.6244421005249</t>
   </si>
   <si>
     <t xml:space="preserve">1.67146551609039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68001520633698</t>
+    <t xml:space="preserve">1.68001508712769</t>
   </si>
   <si>
     <t xml:space="preserve">1.66291582584381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65436613559723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57314395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58596849441528</t>
+    <t xml:space="preserve">1.65436601638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5731440782547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58596837520599</t>
   </si>
   <si>
     <t xml:space="preserve">1.63726663589478</t>
@@ -1853,13 +1853,13 @@
     <t xml:space="preserve">1.61161756515503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61589241027832</t>
+    <t xml:space="preserve">1.61589229106903</t>
   </si>
   <si>
     <t xml:space="preserve">1.75268757343292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80398571491241</t>
+    <t xml:space="preserve">1.80398547649384</t>
   </si>
   <si>
     <t xml:space="preserve">1.79543590545654</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">1.78688633441925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77833652496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76978695392609</t>
+    <t xml:space="preserve">1.77833664417267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7697868347168</t>
   </si>
   <si>
     <t xml:space="preserve">1.82108521461487</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">1.72703850269318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74413788318634</t>
+    <t xml:space="preserve">1.74413776397705</t>
   </si>
   <si>
     <t xml:space="preserve">1.69711458683014</t>
@@ -1895,19 +1895,19 @@
     <t xml:space="preserve">1.71848881244659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70993912220001</t>
+    <t xml:space="preserve">1.70993900299072</t>
   </si>
   <si>
     <t xml:space="preserve">1.81253528594971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64581632614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56886911392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5774188041687</t>
+    <t xml:space="preserve">1.64581620693207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56886923313141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57741892337799</t>
   </si>
   <si>
     <t xml:space="preserve">1.55604457855225</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">1.40642488002777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4363489151001</t>
+    <t xml:space="preserve">1.43634879589081</t>
   </si>
   <si>
     <t xml:space="preserve">1.5303955078125</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">1.68856489658356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70138931274414</t>
+    <t xml:space="preserve">1.70138943195343</t>
   </si>
   <si>
     <t xml:space="preserve">1.85167002677917</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.78935432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7760009765625</t>
+    <t xml:space="preserve">1.77600085735321</t>
   </si>
   <si>
     <t xml:space="preserve">1.78045201301575</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">1.74484300613403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74039196968079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75819647312164</t>
+    <t xml:space="preserve">1.7403918504715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75819635391235</t>
   </si>
   <si>
     <t xml:space="preserve">1.73148965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72258734703064</t>
+    <t xml:space="preserve">1.72258722782135</t>
   </si>
   <si>
     <t xml:space="preserve">1.76264750957489</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">1.65136921405792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6380158662796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67362499237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66472268104553</t>
+    <t xml:space="preserve">1.63801598548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67362487316132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66472256183624</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246702194214</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">1.65582036972046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63356471061707</t>
+    <t xml:space="preserve">1.63356482982635</t>
   </si>
   <si>
     <t xml:space="preserve">1.64691817760468</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">1.62466251850128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62021136283875</t>
+    <t xml:space="preserve">1.62021148204803</t>
   </si>
   <si>
     <t xml:space="preserve">1.59795570373535</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.46887290477753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4777752161026</t>
+    <t xml:space="preserve">1.47777509689331</t>
   </si>
   <si>
     <t xml:space="preserve">1.51783537864685</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">1.53118872642517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49557971954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5222864151001</t>
+    <t xml:space="preserve">1.49557960033417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52228653430939</t>
   </si>
   <si>
     <t xml:space="preserve">1.49112844467163</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.55344438552856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61576020717621</t>
+    <t xml:space="preserve">1.6157603263855</t>
   </si>
   <si>
     <t xml:space="preserve">1.58460223674774</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">1.66917371749878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69142949581146</t>
+    <t xml:space="preserve">1.69142937660217</t>
   </si>
   <si>
     <t xml:space="preserve">1.71813607215881</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">1.70478272438049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68252718448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6024067401886</t>
+    <t xml:space="preserve">1.6825270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60240685939789</t>
   </si>
   <si>
     <t xml:space="preserve">1.59350454807281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50893318653107</t>
+    <t xml:space="preserve">1.50893306732178</t>
   </si>
   <si>
     <t xml:space="preserve">1.54899322986603</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">1.56679773330688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54009091854095</t>
+    <t xml:space="preserve">1.54009103775024</t>
   </si>
   <si>
     <t xml:space="preserve">1.60685789585114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.660271525383</t>
+    <t xml:space="preserve">1.66027140617371</t>
   </si>
   <si>
     <t xml:space="preserve">1.67807602882385</t>
@@ -7001,7 +7001,7 @@
         <v>1.125</v>
       </c>
       <c r="G166" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -7027,7 +7027,7 @@
         <v>1.125</v>
       </c>
       <c r="G167" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -7053,7 +7053,7 @@
         <v>1.125</v>
       </c>
       <c r="G168" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7079,7 +7079,7 @@
         <v>1.125</v>
       </c>
       <c r="G169" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7105,7 +7105,7 @@
         <v>1.11699998378754</v>
       </c>
       <c r="G170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7131,7 +7131,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7157,7 +7157,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7183,7 +7183,7 @@
         <v>1.15699994564056</v>
       </c>
       <c r="G173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7209,7 +7209,7 @@
         <v>1.13100004196167</v>
       </c>
       <c r="G174" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7235,7 +7235,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7261,7 +7261,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7287,7 +7287,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7313,7 +7313,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7339,7 +7339,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7365,7 +7365,7 @@
         <v>1.12300002574921</v>
       </c>
       <c r="G180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7391,7 +7391,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7417,7 +7417,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7443,7 +7443,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G183" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7495,7 +7495,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7521,7 +7521,7 @@
         <v>1.09099996089935</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7547,7 +7547,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7573,7 +7573,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7599,7 +7599,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G189" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7625,7 +7625,7 @@
         <v>1.09200000762939</v>
       </c>
       <c r="G190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7651,7 +7651,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G191" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7677,7 +7677,7 @@
         <v>1.10199999809265</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7703,7 +7703,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7729,7 +7729,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G194" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7755,7 +7755,7 @@
         <v>1.10399997234344</v>
       </c>
       <c r="G195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7781,7 +7781,7 @@
         <v>1.11300003528595</v>
       </c>
       <c r="G196" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7807,7 +7807,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G197" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7833,7 +7833,7 @@
         <v>1.08899998664856</v>
       </c>
       <c r="G198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7859,7 +7859,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7885,7 +7885,7 @@
         <v>1.08200001716614</v>
       </c>
       <c r="G200" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7911,7 +7911,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7937,7 +7937,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7963,7 +7963,7 @@
         <v>1.07299995422363</v>
       </c>
       <c r="G203" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7989,7 +7989,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -8015,7 +8015,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G205" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -8041,7 +8041,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G206" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8067,7 +8067,7 @@
         <v>1.06700003147125</v>
       </c>
       <c r="G207" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8093,7 +8093,7 @@
         <v>1.06599998474121</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8119,7 +8119,7 @@
         <v>1.08800005912781</v>
       </c>
       <c r="G209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8145,7 +8145,7 @@
         <v>1.0789999961853</v>
       </c>
       <c r="G210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8171,7 +8171,7 @@
         <v>1.09700000286102</v>
       </c>
       <c r="G211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8197,7 +8197,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8223,7 +8223,7 @@
         <v>1.07599997520447</v>
       </c>
       <c r="G213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8249,7 +8249,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8275,7 +8275,7 @@
         <v>1.05999994277954</v>
       </c>
       <c r="G215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8301,7 +8301,7 @@
         <v>1.04999995231628</v>
       </c>
       <c r="G216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8327,7 +8327,7 @@
         <v>1.04700005054474</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8353,7 +8353,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8379,7 +8379,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G219" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8405,7 +8405,7 @@
         <v>1.06200003623962</v>
       </c>
       <c r="G220" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8431,7 +8431,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8457,7 +8457,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8483,7 +8483,7 @@
         <v>1.12899994850159</v>
       </c>
       <c r="G223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8509,7 +8509,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G224" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8535,7 +8535,7 @@
         <v>1.08700001239777</v>
       </c>
       <c r="G225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8561,7 +8561,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8587,7 +8587,7 @@
         <v>1.0440000295639</v>
       </c>
       <c r="G227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8613,7 +8613,7 @@
         <v>1.04200005531311</v>
       </c>
       <c r="G228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8639,7 +8639,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8665,7 +8665,7 @@
         <v>1.05599999427795</v>
       </c>
       <c r="G230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8691,7 +8691,7 @@
         <v>1.03100001811981</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8717,7 +8717,7 @@
         <v>1.08399999141693</v>
       </c>
       <c r="G232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8743,7 +8743,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8769,7 +8769,7 @@
         <v>1.04900002479553</v>
       </c>
       <c r="G234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8795,7 +8795,7 @@
         <v>1.05499994754791</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8821,7 +8821,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8847,7 +8847,7 @@
         <v>1.06099998950958</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8873,7 +8873,7 @@
         <v>1.05900001525879</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8899,7 +8899,7 @@
         <v>1.04299998283386</v>
       </c>
       <c r="G239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8925,7 +8925,7 @@
         <v>1.04799997806549</v>
       </c>
       <c r="G240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8951,7 +8951,7 @@
         <v>1.05799996852875</v>
       </c>
       <c r="G241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8977,7 +8977,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -9003,7 +9003,7 @@
         <v>1.10300004482269</v>
       </c>
       <c r="G243" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -9029,7 +9029,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G244" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -9055,7 +9055,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G245" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9081,7 +9081,7 @@
         <v>1.08599996566772</v>
       </c>
       <c r="G246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9107,7 +9107,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9133,7 +9133,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9159,7 +9159,7 @@
         <v>1.13399994373322</v>
       </c>
       <c r="G249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9185,7 +9185,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9237,7 +9237,7 @@
         <v>1.1360000371933</v>
       </c>
       <c r="G252" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9263,7 +9263,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G253" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9289,7 +9289,7 @@
         <v>1.14900004863739</v>
       </c>
       <c r="G254" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9315,7 +9315,7 @@
         <v>1.13800001144409</v>
       </c>
       <c r="G255" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9341,7 +9341,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G256" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9367,7 +9367,7 @@
         <v>1.14400005340576</v>
       </c>
       <c r="G257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9393,7 +9393,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9419,7 +9419,7 @@
         <v>1.17799997329712</v>
       </c>
       <c r="G259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9445,7 +9445,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G260" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9471,7 +9471,7 @@
         <v>1.16700005531311</v>
       </c>
       <c r="G261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9497,7 +9497,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9523,7 +9523,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9575,7 +9575,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G265" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9601,7 +9601,7 @@
         <v>1.11899995803833</v>
       </c>
       <c r="G266" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9627,7 +9627,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9653,7 +9653,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9679,7 +9679,7 @@
         <v>1.16199994087219</v>
       </c>
       <c r="G269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9705,7 +9705,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9731,7 +9731,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9809,7 +9809,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G274" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9835,7 +9835,7 @@
         <v>1.14300000667572</v>
       </c>
       <c r="G275" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9861,7 +9861,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9887,7 +9887,7 @@
         <v>1.15199995040894</v>
       </c>
       <c r="G277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9913,7 +9913,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9939,7 +9939,7 @@
         <v>1.12199997901917</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9965,7 +9965,7 @@
         <v>1.12600004673004</v>
       </c>
       <c r="G280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9991,7 +9991,7 @@
         <v>1.13699996471405</v>
       </c>
       <c r="G281" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -10017,7 +10017,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -10043,7 +10043,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10069,7 +10069,7 @@
         <v>1.12399995326996</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10121,7 +10121,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10147,7 +10147,7 @@
         <v>1.13900005817413</v>
       </c>
       <c r="G287" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10173,7 +10173,7 @@
         <v>1.15900003910065</v>
       </c>
       <c r="G288" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10199,7 +10199,7 @@
         <v>1.15100002288818</v>
       </c>
       <c r="G289" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10225,7 +10225,7 @@
         <v>1.1690000295639</v>
       </c>
       <c r="G290" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10251,7 +10251,7 @@
         <v>1.18599998950958</v>
       </c>
       <c r="G291" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10381,7 +10381,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G296" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10407,7 +10407,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G297" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10433,7 +10433,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G298" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10459,7 +10459,7 @@
         <v>1.17700004577637</v>
       </c>
       <c r="G299" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10485,7 +10485,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10511,7 +10511,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10537,7 +10537,7 @@
         <v>1.23099994659424</v>
       </c>
       <c r="G302" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10563,7 +10563,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G303" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10589,7 +10589,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10615,7 +10615,7 @@
         <v>1.25499999523163</v>
       </c>
       <c r="G305" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10641,7 +10641,7 @@
         <v>1.23399996757507</v>
       </c>
       <c r="G306" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10667,7 +10667,7 @@
         <v>1.22800004482269</v>
       </c>
       <c r="G307" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10693,7 +10693,7 @@
         <v>1.2389999628067</v>
       </c>
       <c r="G308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10719,7 +10719,7 @@
         <v>1.22399997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10745,7 +10745,7 @@
         <v>1.21099996566772</v>
       </c>
       <c r="G310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10771,7 +10771,7 @@
         <v>1.24899995326996</v>
       </c>
       <c r="G311" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10797,7 +10797,7 @@
         <v>1.24399995803833</v>
       </c>
       <c r="G312" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10823,7 +10823,7 @@
         <v>1.33599996566772</v>
       </c>
       <c r="G313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10849,7 +10849,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G314" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10875,7 +10875,7 @@
         <v>1.32000005245209</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10901,7 +10901,7 @@
         <v>1.39800000190735</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10927,7 +10927,7 @@
         <v>1.44099998474121</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10953,7 +10953,7 @@
         <v>1.44799995422363</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10979,7 +10979,7 @@
         <v>1.44000005722046</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -11005,7 +11005,7 @@
         <v>1.4099999666214</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -11031,7 +11031,7 @@
         <v>1.4190000295639</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -11057,7 +11057,7 @@
         <v>1.41700005531311</v>
       </c>
       <c r="G322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11083,7 +11083,7 @@
         <v>1.39100003242493</v>
       </c>
       <c r="G323" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11109,7 +11109,7 @@
         <v>1.37999999523163</v>
       </c>
       <c r="G324" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11135,7 +11135,7 @@
         <v>1.38999998569489</v>
       </c>
       <c r="G325" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11161,7 +11161,7 @@
         <v>1.36699998378754</v>
       </c>
       <c r="G326" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -11187,7 +11187,7 @@
         <v>1.35000002384186</v>
       </c>
       <c r="G327" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11213,7 +11213,7 @@
         <v>1.37800002098083</v>
       </c>
       <c r="G328" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11239,7 +11239,7 @@
         <v>1.38800001144409</v>
       </c>
       <c r="G329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11265,7 +11265,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11291,7 +11291,7 @@
         <v>1.43900001049042</v>
       </c>
       <c r="G331" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11317,7 +11317,7 @@
         <v>1.40900003910065</v>
       </c>
       <c r="G332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11343,7 +11343,7 @@
         <v>1.42700004577637</v>
       </c>
       <c r="G333" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11369,7 +11369,7 @@
         <v>1.43700003623962</v>
       </c>
       <c r="G334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11395,7 +11395,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11421,7 +11421,7 @@
         <v>1.49800002574921</v>
       </c>
       <c r="G336" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11447,7 +11447,7 @@
         <v>1.50800001621246</v>
       </c>
       <c r="G337" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -11473,7 +11473,7 @@
         <v>1.50499999523163</v>
       </c>
       <c r="G338" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -11499,7 +11499,7 @@
         <v>1.52100002765656</v>
       </c>
       <c r="G339" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -11525,7 +11525,7 @@
         <v>1.53799998760223</v>
       </c>
       <c r="G340" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11551,7 +11551,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G341" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11577,7 +11577,7 @@
         <v>1.63699996471405</v>
       </c>
       <c r="G342" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11603,7 +11603,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G343" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11629,7 +11629,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G344" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11655,7 +11655,7 @@
         <v>1.64600002765656</v>
       </c>
       <c r="G345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11681,7 +11681,7 @@
         <v>1.64199995994568</v>
       </c>
       <c r="G346" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11707,7 +11707,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G347" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11733,7 +11733,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11759,7 +11759,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11785,7 +11785,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G350" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11811,7 +11811,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G351" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11837,7 +11837,7 @@
         <v>1.63399994373322</v>
       </c>
       <c r="G352" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11863,7 +11863,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G353" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11889,7 +11889,7 @@
         <v>1.61800003051758</v>
       </c>
       <c r="G354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11915,7 +11915,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G355" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11941,7 +11941,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G356" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11967,7 +11967,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11993,7 +11993,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -12019,7 +12019,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -12045,7 +12045,7 @@
         <v>1.68299996852875</v>
       </c>
       <c r="G360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12071,7 +12071,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12097,7 +12097,7 @@
         <v>1.69799995422363</v>
       </c>
       <c r="G362" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12123,7 +12123,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G363" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12149,7 +12149,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G364" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12175,7 +12175,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G365" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12201,7 +12201,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G366" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12227,7 +12227,7 @@
         <v>1.71800005435944</v>
       </c>
       <c r="G367" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12253,7 +12253,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G368" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12279,7 +12279,7 @@
         <v>1.81099998950958</v>
       </c>
       <c r="G369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12305,7 +12305,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G370" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12331,7 +12331,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G371" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12357,7 +12357,7 @@
         <v>1.62100005149841</v>
       </c>
       <c r="G372" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12383,7 +12383,7 @@
         <v>1.58200001716614</v>
       </c>
       <c r="G373" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12409,7 +12409,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G374" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12435,7 +12435,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G375" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12461,7 +12461,7 @@
         <v>1.57700002193451</v>
       </c>
       <c r="G376" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12487,7 +12487,7 @@
         <v>1.58599996566772</v>
       </c>
       <c r="G377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12513,7 +12513,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G378" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12539,7 +12539,7 @@
         <v>1.58500003814697</v>
       </c>
       <c r="G379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12565,7 +12565,7 @@
         <v>1.58000004291534</v>
       </c>
       <c r="G380" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12591,7 +12591,7 @@
         <v>1.567999958992</v>
       </c>
       <c r="G381" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12617,7 +12617,7 @@
         <v>1.56500005722046</v>
       </c>
       <c r="G382" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12643,7 +12643,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="G383" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12669,7 +12669,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G384" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12695,7 +12695,7 @@
         <v>1.51999998092651</v>
       </c>
       <c r="G385" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12721,7 +12721,7 @@
         <v>1.54100000858307</v>
       </c>
       <c r="G386" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12747,7 +12747,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G387" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12773,7 +12773,7 @@
         <v>1.57000005245209</v>
       </c>
       <c r="G388" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12799,7 +12799,7 @@
         <v>1.60199999809265</v>
       </c>
       <c r="G389" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12825,7 +12825,7 @@
         <v>1.60000002384186</v>
       </c>
       <c r="G390" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12851,7 +12851,7 @@
         <v>1.62000000476837</v>
       </c>
       <c r="G391" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12877,7 +12877,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G392" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12903,7 +12903,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G393" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12929,7 +12929,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G394" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12955,7 +12955,7 @@
         <v>1.81900000572205</v>
       </c>
       <c r="G395" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12981,7 +12981,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G396" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -13007,7 +13007,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G397" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -13033,7 +13033,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G398" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -13059,7 +13059,7 @@
         <v>1.7960000038147</v>
       </c>
       <c r="G399" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13085,7 +13085,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G400" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13111,7 +13111,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G401" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13137,7 +13137,7 @@
         <v>1.75</v>
       </c>
       <c r="G402" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13163,7 +13163,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G403" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13189,7 +13189,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G404" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13215,7 +13215,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G405" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13241,7 +13241,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G406" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13267,7 +13267,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G407" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13293,7 +13293,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G408" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13319,7 +13319,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G409" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13345,7 +13345,7 @@
         <v>1.83200001716614</v>
       </c>
       <c r="G410" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13371,7 +13371,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G411" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13397,7 +13397,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G412" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13423,7 +13423,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G413" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13449,7 +13449,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G414" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13475,7 +13475,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G415" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13501,7 +13501,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G416" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13527,7 +13527,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G417" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13553,7 +13553,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G418" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13579,7 +13579,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G419" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13605,7 +13605,7 @@
         <v>1.82700002193451</v>
       </c>
       <c r="G420" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13631,7 +13631,7 @@
         <v>1.83299994468689</v>
       </c>
       <c r="G421" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13657,7 +13657,7 @@
         <v>1.80299997329712</v>
       </c>
       <c r="G422" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13683,7 +13683,7 @@
         <v>1.79299998283386</v>
       </c>
       <c r="G423" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13709,7 +13709,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G424" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13735,7 +13735,7 @@
         <v>1.75</v>
       </c>
       <c r="G425" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13761,7 +13761,7 @@
         <v>1.73300004005432</v>
       </c>
       <c r="G426" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13787,7 +13787,7 @@
         <v>1.76300001144409</v>
       </c>
       <c r="G427" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13813,7 +13813,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G428" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13839,7 +13839,7 @@
         <v>1.75</v>
       </c>
       <c r="G429" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13865,7 +13865,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G430" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13891,7 +13891,7 @@
         <v>1.7039999961853</v>
       </c>
       <c r="G431" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13917,7 +13917,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13943,7 +13943,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G433" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13969,7 +13969,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13995,7 +13995,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -14021,7 +14021,7 @@
         <v>1.80400002002716</v>
       </c>
       <c r="G436" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -14047,7 +14047,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G437" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14073,7 +14073,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G438" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14099,7 +14099,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G439" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14125,7 +14125,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G440" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14151,7 +14151,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G441" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14177,7 +14177,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G442" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14203,7 +14203,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G443" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14229,7 +14229,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G444" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14255,7 +14255,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G445" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14281,7 +14281,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G446" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14307,7 +14307,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G447" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14333,7 +14333,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14359,7 +14359,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G449" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14385,7 +14385,7 @@
         <v>1.81200003623962</v>
       </c>
       <c r="G450" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14411,7 +14411,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14437,7 +14437,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14463,7 +14463,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G453" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14489,7 +14489,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14515,7 +14515,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G455" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14541,7 +14541,7 @@
         <v>1.77600002288818</v>
       </c>
       <c r="G456" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14567,7 +14567,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14593,7 +14593,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14619,7 +14619,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G459" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14645,7 +14645,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G460" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14671,7 +14671,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14697,7 +14697,7 @@
         <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14723,7 +14723,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G463" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14749,7 +14749,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G464" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14775,7 +14775,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14801,7 +14801,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14827,7 +14827,7 @@
         <v>2.01399993896484</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14853,7 +14853,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14879,7 +14879,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14905,7 +14905,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14931,7 +14931,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14957,7 +14957,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G472" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14983,7 +14983,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -15009,7 +15009,7 @@
         <v>1.99699997901917</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -15035,7 +15035,7 @@
         <v>1.94799995422363</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15061,7 +15061,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15087,7 +15087,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15113,7 +15113,7 @@
         <v>1.85199999809265</v>
       </c>
       <c r="G478" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15139,7 +15139,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G479" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15165,7 +15165,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G480" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15191,7 +15191,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G481" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15217,7 +15217,7 @@
         <v>1.71200001239777</v>
       </c>
       <c r="G482" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15243,7 +15243,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G483" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15269,7 +15269,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G484" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15295,7 +15295,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G485" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15321,7 +15321,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G486" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15347,7 +15347,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G487" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15373,7 +15373,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G488" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15399,7 +15399,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G489" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15425,7 +15425,7 @@
         <v>1.87399995326996</v>
       </c>
       <c r="G490" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15451,7 +15451,7 @@
         <v>1.86300003528595</v>
       </c>
       <c r="G491" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15477,7 +15477,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G492" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15503,7 +15503,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G493" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15529,7 +15529,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G494" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15555,7 +15555,7 @@
         <v>1.86699998378754</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15581,7 +15581,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15607,7 +15607,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G497" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15633,7 +15633,7 @@
         <v>1.84899997711182</v>
       </c>
       <c r="G498" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15659,7 +15659,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G499" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15685,7 +15685,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G500" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15711,7 +15711,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G501" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15737,7 +15737,7 @@
         <v>1.82299995422363</v>
       </c>
       <c r="G502" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15763,7 +15763,7 @@
         <v>1.807000041008</v>
       </c>
       <c r="G503" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15789,7 +15789,7 @@
         <v>1.80799996852875</v>
       </c>
       <c r="G504" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15815,7 +15815,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G505" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15841,7 +15841,7 @@
         <v>1.79700005054474</v>
       </c>
       <c r="G506" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15867,7 +15867,7 @@
         <v>1.78100001811981</v>
       </c>
       <c r="G507" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15893,7 +15893,7 @@
         <v>1.79799997806549</v>
       </c>
       <c r="G508" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15919,7 +15919,7 @@
         <v>1.79900002479553</v>
       </c>
       <c r="G509" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15945,7 +15945,7 @@
         <v>1.82799994945526</v>
       </c>
       <c r="G510" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15971,7 +15971,7 @@
         <v>1.80599999427795</v>
       </c>
       <c r="G511" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15997,7 +15997,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G512" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16023,7 +16023,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G513" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16049,7 +16049,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G514" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16075,7 +16075,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G515" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16101,7 +16101,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G516" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16127,7 +16127,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G517" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16153,7 +16153,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16179,7 +16179,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16205,7 +16205,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16231,7 +16231,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G521" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16257,7 +16257,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G522" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16283,7 +16283,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G523" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16309,7 +16309,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16335,7 +16335,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G525" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16361,7 +16361,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G526" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16387,7 +16387,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G527" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16413,7 +16413,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G528" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16439,7 +16439,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G529" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16465,7 +16465,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G530" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16491,7 +16491,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G531" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16517,7 +16517,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G532" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16543,7 +16543,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G533" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16569,7 +16569,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G534" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16595,7 +16595,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G535" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16621,7 +16621,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G536" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16647,7 +16647,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G537" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16673,7 +16673,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G538" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16699,7 +16699,7 @@
         <v>1.75</v>
       </c>
       <c r="G539" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16725,7 +16725,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G540" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16751,7 +16751,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G541" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16777,7 +16777,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G542" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16803,7 +16803,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G543" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16829,7 +16829,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G544" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16855,7 +16855,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G545" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16881,7 +16881,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G546" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16907,7 +16907,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G547" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16933,7 +16933,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16959,7 +16959,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G549" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16985,7 +16985,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G550" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -17011,7 +17011,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -17037,7 +17037,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G552" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17063,7 +17063,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G553" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17089,7 +17089,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G554" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17115,7 +17115,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G555" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17141,7 +17141,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G556" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17167,7 +17167,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G557" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17193,7 +17193,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G558" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17219,7 +17219,7 @@
         <v>1.75</v>
       </c>
       <c r="G559" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17245,7 +17245,7 @@
         <v>1.75</v>
       </c>
       <c r="G560" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17271,7 +17271,7 @@
         <v>1.75</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17297,7 +17297,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G562" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17323,7 +17323,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G563" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17349,7 +17349,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G564" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17375,7 +17375,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G565" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17401,7 +17401,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17427,7 +17427,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G567" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17453,7 +17453,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G568" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17479,7 +17479,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G569" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17505,7 +17505,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G570" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17531,7 +17531,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G571" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17557,7 +17557,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G572" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17583,7 +17583,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G573" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17609,7 +17609,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G574" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17635,7 +17635,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G575" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17661,7 +17661,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17687,7 +17687,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G577" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17713,7 +17713,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G578" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17739,7 +17739,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G579" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17765,7 +17765,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G580" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17791,7 +17791,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G581" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17817,7 +17817,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G582" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17843,7 +17843,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17869,7 +17869,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17895,7 +17895,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G585" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17921,7 +17921,7 @@
         <v>1.875</v>
       </c>
       <c r="G586" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17947,7 +17947,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17973,7 +17973,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G588" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17999,7 +17999,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G589" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -18025,7 +18025,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G590" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -18051,7 +18051,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G591" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18077,7 +18077,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G592" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18103,7 +18103,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G593" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18129,7 +18129,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G594" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18155,7 +18155,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G595" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18181,7 +18181,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G596" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18207,7 +18207,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G597" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18233,7 +18233,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G598" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18259,7 +18259,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18285,7 +18285,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18311,7 +18311,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G601" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18337,7 +18337,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G602" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18363,7 +18363,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G603" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18389,7 +18389,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G604" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18415,7 +18415,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G605" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18441,7 +18441,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G606" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18467,7 +18467,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G607" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18493,7 +18493,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G608" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18519,7 +18519,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G609" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18545,7 +18545,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G610" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18571,7 +18571,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G611" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18597,7 +18597,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G612" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18623,7 +18623,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G613" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18649,7 +18649,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G614" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18675,7 +18675,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G615" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18701,7 +18701,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G616" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18727,7 +18727,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G617" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18753,7 +18753,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G618" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18779,7 +18779,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G619" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18805,7 +18805,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G620" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18831,7 +18831,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G621" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18857,7 +18857,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G622" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18883,7 +18883,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18909,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="G624" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18935,7 +18935,7 @@
         <v>2</v>
       </c>
       <c r="G625" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18961,7 +18961,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G626" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18987,7 +18987,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G627" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19013,7 +19013,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G628" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19039,7 +19039,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G629" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19065,7 +19065,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G630" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19091,7 +19091,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G631" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19117,7 +19117,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G632" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19143,7 +19143,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19169,7 +19169,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19195,7 +19195,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G635" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19221,7 +19221,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19247,7 +19247,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G637" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19273,7 +19273,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19299,7 +19299,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19325,7 +19325,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G640" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19351,7 +19351,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G641" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19377,7 +19377,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G642" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19403,7 +19403,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19429,7 +19429,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19455,7 +19455,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G645" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19481,7 +19481,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19507,7 +19507,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G647" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19533,7 +19533,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19559,7 +19559,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G649" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19585,7 +19585,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G650" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19611,7 +19611,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G651" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19637,7 +19637,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G652" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19663,7 +19663,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G653" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19689,7 +19689,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G654" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19715,7 +19715,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G655" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19741,7 +19741,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G656" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19767,7 +19767,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19793,7 +19793,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -59659,7 +59659,7 @@
     </row>
     <row r="2192">
       <c r="A2192" s="1" t="n">
-        <v>45513.6493287037</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B2192" t="n">
         <v>17787</v>
@@ -59680,6 +59680,32 @@
         <v>776</v>
       </c>
       <c r="H2192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>45516.6494560185</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>779</v>
+      </c>
+      <c r="H2193" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PQ.MI.xlsx
+++ b/data/PQ.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02050411701202</t>
+    <t xml:space="preserve">1.02050399780273</t>
   </si>
   <si>
     <t xml:space="preserve">PQ.MI</t>
@@ -50,82 +50,82 @@
     <t xml:space="preserve">1.03641390800476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03414106369019</t>
+    <t xml:space="preserve">1.03414118289948</t>
   </si>
   <si>
     <t xml:space="preserve">1.00535190105438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0136855840683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02201926708221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01520085334778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998533248901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984896183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912165462970734</t>
+    <t xml:space="preserve">1.01368570327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0220193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01520097255707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998533368110657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984896302223206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912165522575378</t>
   </si>
   <si>
     <t xml:space="preserve">0.92428731918335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897770762443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952318906784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92807549238205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937924265861511</t>
+    <t xml:space="preserve">0.897770702838898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952319025993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928075432777405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937924325466156</t>
   </si>
   <si>
     <t xml:space="preserve">0.953834235668182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.950803697109222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921256840229034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950046122074127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915953636169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878830432891846</t>
+    <t xml:space="preserve">0.950803875923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921256601810455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950046181678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915953516960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87883061170578</t>
   </si>
   <si>
     <t xml:space="preserve">0.867466330528259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853829264640808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787917017936707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753824532032013</t>
+    <t xml:space="preserve">0.853829383850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787916898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753824472427368</t>
   </si>
   <si>
     <t xml:space="preserve">0.772764801979065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744354367256165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.765188634395599</t>
+    <t xml:space="preserve">0.74435430765152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765188694000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.818221569061279</t>
@@ -134,25 +134,25 @@
     <t xml:space="preserve">0.833373785018921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846253097057343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848526000976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871254503726959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893982827663422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875042498111725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850798845291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882618606090546</t>
+    <t xml:space="preserve">0.846253216266632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848525941371918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87125438451767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893982648849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87504255771637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850798904895782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882618725299835</t>
   </si>
   <si>
     <t xml:space="preserve">0.881861090660095</t>
@@ -161,79 +161,79 @@
     <t xml:space="preserve">0.886406600475311</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937166631221771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930348217487335</t>
+    <t xml:space="preserve">0.937166750431061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93034827709198</t>
   </si>
   <si>
     <t xml:space="preserve">0.887164235115051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899286031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92277204990387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927317678928375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939439475536346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943227589130402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947015762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935651540756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901558876037598</t>
+    <t xml:space="preserve">0.899286150932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922771990299225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92731785774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939439535140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943227529525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947015702724457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93565160036087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901558935642242</t>
   </si>
   <si>
     <t xml:space="preserve">0.92049914598465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916711270809174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93110591173172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909135103225708</t>
+    <t xml:space="preserve">0.916711211204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931105852127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909135162830353</t>
   </si>
   <si>
     <t xml:space="preserve">0.878073036670685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907619774341583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903831779956818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900043606758118</t>
+    <t xml:space="preserve">0.907619714736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903831839561462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900043785572052</t>
   </si>
   <si>
     <t xml:space="preserve">0.908377528190613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888679623603821</t>
+    <t xml:space="preserve">0.888679444789886</t>
   </si>
   <si>
     <t xml:space="preserve">0.87352728843689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844737946987152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834889113903046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859890282154083</t>
+    <t xml:space="preserve">0.844738006591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834888994693756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859890222549438</t>
   </si>
   <si>
     <t xml:space="preserve">0.82428252696991</t>
@@ -242,13 +242,13 @@
     <t xml:space="preserve">0.825797617435455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829585790634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855344533920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863678216934204</t>
+    <t xml:space="preserve">0.82958573102951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855344593524933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863678276538849</t>
   </si>
   <si>
     <t xml:space="preserve">0.885649085044861</t>
@@ -257,37 +257,37 @@
     <t xml:space="preserve">0.868223965167999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861405432224274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858375072479248</t>
+    <t xml:space="preserve">0.861405372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858375012874603</t>
   </si>
   <si>
     <t xml:space="preserve">0.857617378234863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845495581626892</t>
+    <t xml:space="preserve">0.845495700836182</t>
   </si>
   <si>
     <t xml:space="preserve">0.839434683322906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83185875415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849283695220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862163186073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.800038874149323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803069174289703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806099712848663</t>
+    <t xml:space="preserve">0.83185863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849283635616302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862163066864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.800038933753967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803069293498993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806099832057953</t>
   </si>
   <si>
     <t xml:space="preserve">0.799281239509583</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">0.793220341205597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82352489233017</t>
+    <t xml:space="preserve">0.823524832725525</t>
   </si>
   <si>
     <t xml:space="preserve">0.806857407093048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811403036117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825040102005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819736838340759</t>
+    <t xml:space="preserve">0.811402976512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82504004240036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81973671913147</t>
   </si>
   <si>
     <t xml:space="preserve">0.840949892997742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828828096389771</t>
+    <t xml:space="preserve">0.828828036785126</t>
   </si>
   <si>
     <t xml:space="preserve">0.890194654464722</t>
@@ -323,70 +323,70 @@
     <t xml:space="preserve">0.899878680706024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921846091747284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919492483139038</t>
+    <t xml:space="preserve">0.921846151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919492542743683</t>
   </si>
   <si>
     <t xml:space="preserve">0.91007786989212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910862386226654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90223240852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905370712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914000570774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90458607673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884972274303436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872419536113739</t>
+    <t xml:space="preserve">0.910862445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90223228931427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905370593070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914000689983368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904585957527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884972333908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872419416904449</t>
   </si>
   <si>
     <t xml:space="preserve">0.876342177391052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877911269664764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907724142074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887326002120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892817795276642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892033159732819</t>
+    <t xml:space="preserve">0.877911329269409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90772420167923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887326061725616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892817735671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892033278942108</t>
   </si>
   <si>
     <t xml:space="preserve">0.894386827945709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883403182029724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881049573421478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886541306972504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863004922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85594379901886</t>
+    <t xml:space="preserve">0.883403241634369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881049633026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886541366577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863004863262177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855943918228149</t>
   </si>
   <si>
     <t xml:space="preserve">0.870850384235382</t>
@@ -398,49 +398,49 @@
     <t xml:space="preserve">0.84731388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864574074745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865358650684357</t>
+    <t xml:space="preserve">0.864574015140533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865358531475067</t>
   </si>
   <si>
     <t xml:space="preserve">0.866143047809601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873204112052917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859082162380219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854374766349792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848883092403412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851236581802368</t>
+    <t xml:space="preserve">0.873204052448273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859082102775574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854374825954437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848882973194122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851236701011658</t>
   </si>
   <si>
     <t xml:space="preserve">0.84182196855545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846529304981232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835545599460602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837114751338959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836330115795135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853590309619904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860651314258575</t>
+    <t xml:space="preserve">0.846529245376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835545659065247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837114810943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83633017539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853590250015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860651195049286</t>
   </si>
   <si>
     <t xml:space="preserve">0.850452065467834</t>
@@ -449,22 +449,22 @@
     <t xml:space="preserve">0.844175636768341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839468479156494</t>
+    <t xml:space="preserve">0.839468359947205</t>
   </si>
   <si>
     <t xml:space="preserve">0.831622838973999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823777258396149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821423709392548</t>
+    <t xml:space="preserve">0.823777318000793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.821423768997192</t>
   </si>
   <si>
     <t xml:space="preserve">0.822208285331726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833192050457001</t>
+    <t xml:space="preserve">0.833191990852356</t>
   </si>
   <si>
     <t xml:space="preserve">0.815931856632233</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">0.885756850242615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.852805733680725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819070160388947</t>
+    <t xml:space="preserve">0.85280579328537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819070100784302</t>
   </si>
   <si>
     <t xml:space="preserve">0.81750100851059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828484773635864</t>
+    <t xml:space="preserve">0.828484654426575</t>
   </si>
   <si>
     <t xml:space="preserve">0.80887097120285</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.827700078487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832407414913177</t>
+    <t xml:space="preserve">0.832407355308533</t>
   </si>
   <si>
     <t xml:space="preserve">0.830838322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818285524845123</t>
+    <t xml:space="preserve">0.818285584449768</t>
   </si>
   <si>
     <t xml:space="preserve">0.830053746700287</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">0.917923331260681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889679610729218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896740555763245</t>
+    <t xml:space="preserve">0.889679670333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896740615367889</t>
   </si>
   <si>
     <t xml:space="preserve">0.891248762607574</t>
@@ -524,43 +524,43 @@
     <t xml:space="preserve">0.901447892189026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893602430820465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897525131702423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924199640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911646962165833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915569663047791</t>
+    <t xml:space="preserve">0.893602311611176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897525072097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92419970035553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911646902561188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915569841861725</t>
   </si>
   <si>
     <t xml:space="preserve">0.903801441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906155169010162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88026487827301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881833970546722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87477320432663</t>
+    <t xml:space="preserve">0.906155109405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8802649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881834030151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87477308511734</t>
   </si>
   <si>
     <t xml:space="preserve">0.909293353557587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903016984462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917138874530792</t>
+    <t xml:space="preserve">0.903016924858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917138934135437</t>
   </si>
   <si>
     <t xml:space="preserve">0.930476069450378</t>
@@ -569,19 +569,19 @@
     <t xml:space="preserve">0.923415243625641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972057223320007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9759801030159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965780913829803</t>
+    <t xml:space="preserve">0.972057342529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975980043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965780973434448</t>
   </si>
   <si>
     <t xml:space="preserve">0.968919157981873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979902744293213</t>
+    <t xml:space="preserve">0.979902863502502</t>
   </si>
   <si>
     <t xml:space="preserve">0.984610140323639</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">0.968134582042694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963427364826202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960289120674133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950089812278748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04815864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03560590744019</t>
+    <t xml:space="preserve">0.963427305221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960289001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950089991092682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04815852642059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03560602664948</t>
   </si>
   <si>
     <t xml:space="preserve">1.09680080413818</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">1.13053631782532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13602840900421</t>
+    <t xml:space="preserve">1.13602817058563</t>
   </si>
   <si>
     <t xml:space="preserve">1.12975192070007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10621535778046</t>
+    <t xml:space="preserve">1.10621523857117</t>
   </si>
   <si>
     <t xml:space="preserve">1.11327636241913</t>
@@ -626,22 +626,22 @@
     <t xml:space="preserve">1.11170709133148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09130883216858</t>
+    <t xml:space="preserve">1.09130895137787</t>
   </si>
   <si>
     <t xml:space="preserve">1.08267879486084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09052419662476</t>
+    <t xml:space="preserve">1.09052431583405</t>
   </si>
   <si>
     <t xml:space="preserve">1.07247972488403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05914223194122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08110976219177</t>
+    <t xml:space="preserve">1.05914235115051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08110988140106</t>
   </si>
   <si>
     <t xml:space="preserve">1.08895516395569</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">1.10543072223663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12739813327789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16741025447845</t>
+    <t xml:space="preserve">1.12739837169647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16741013526917</t>
   </si>
   <si>
     <t xml:space="preserve">1.17525565624237</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">1.2552797794342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28430807590485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3015683889389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28666186332703</t>
+    <t xml:space="preserve">1.28430831432343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30156826972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28666174411774</t>
   </si>
   <si>
     <t xml:space="preserve">1.29136919975281</t>
@@ -695,55 +695,55 @@
     <t xml:space="preserve">1.28823089599609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30235278606415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29843008518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30549097061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29450714588165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28195440769196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28273904323578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26940178871155</t>
+    <t xml:space="preserve">1.30235290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29843020439148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30549120903015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29450726509094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28195452690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28273916244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26940166950226</t>
   </si>
   <si>
     <t xml:space="preserve">1.31804370880127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34001111984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32039761543274</t>
+    <t xml:space="preserve">1.34001123905182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32039737701416</t>
   </si>
   <si>
     <t xml:space="preserve">1.32588934898376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3321658372879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33059656620026</t>
+    <t xml:space="preserve">1.33216559886932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33059668540955</t>
   </si>
   <si>
     <t xml:space="preserve">1.34158039093018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34785676002502</t>
+    <t xml:space="preserve">1.34785664081573</t>
   </si>
   <si>
     <t xml:space="preserve">1.38080775737762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42081987857819</t>
+    <t xml:space="preserve">1.4208197593689</t>
   </si>
   <si>
     <t xml:space="preserve">1.31019830703735</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">1.27175545692444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24115800857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23958897590637</t>
+    <t xml:space="preserve">1.24115788936615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23958885669708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23174333572388</t>
@@ -767,49 +767,49 @@
     <t xml:space="preserve">1.24429607391357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24351155757904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23017430305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22782075405121</t>
+    <t xml:space="preserve">1.24351167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23017418384552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22782063484192</t>
   </si>
   <si>
     <t xml:space="preserve">1.21605229377747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21919047832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19251573085785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20899140834808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25684905052185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2709709405899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35727143287659</t>
+    <t xml:space="preserve">1.21919059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19251585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20899128913879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25684893131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27097082138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3572713136673</t>
   </si>
   <si>
     <t xml:space="preserve">1.35805571079254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38786888122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42709612846375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40355980396271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43572640419006</t>
+    <t xml:space="preserve">1.3878687620163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42709636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40355968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43572628498077</t>
   </si>
   <si>
     <t xml:space="preserve">1.42003524303436</t>
@@ -818,52 +818,52 @@
     <t xml:space="preserve">1.40905165672302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42750728130341</t>
+    <t xml:space="preserve">1.4275074005127</t>
   </si>
   <si>
     <t xml:space="preserve">1.42028546333313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40423703193665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43553161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4323216676712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44837021827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44435822963715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4523823261261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47003567218781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47645509243011</t>
+    <t xml:space="preserve">1.40423715114594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43553149700165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43232178688049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44837009906769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44435799121857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45238220691681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47003555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47645485401154</t>
   </si>
   <si>
     <t xml:space="preserve">1.46040654182434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44596302509308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44516050815582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47083783149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47164034843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46441864967346</t>
+    <t xml:space="preserve">1.44596290588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44516038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47083795070648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47164022922516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46441876888275</t>
   </si>
   <si>
     <t xml:space="preserve">1.45077753067017</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">1.43874108791351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42830979824066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39059603214264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41466844081879</t>
+    <t xml:space="preserve">1.42830955982208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39059591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41466856002808</t>
   </si>
   <si>
     <t xml:space="preserve">1.41948306560516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39380550384521</t>
+    <t xml:space="preserve">1.3938056230545</t>
   </si>
   <si>
     <t xml:space="preserve">1.36732566356659</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">1.37534987926483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39621293544769</t>
+    <t xml:space="preserve">1.3962128162384</t>
   </si>
   <si>
     <t xml:space="preserve">1.38899087905884</t>
@@ -911,31 +911,31 @@
     <t xml:space="preserve">1.44756770133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47485017776489</t>
+    <t xml:space="preserve">1.4748500585556</t>
   </si>
   <si>
     <t xml:space="preserve">1.45398724079132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48126947879791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46522104740143</t>
+    <t xml:space="preserve">1.48126935958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46522092819214</t>
   </si>
   <si>
     <t xml:space="preserve">1.46281373500824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46843087673187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46201145648956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45719695091248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4636162519455</t>
+    <t xml:space="preserve">1.46843075752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46201133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45719683170319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46361613273621</t>
   </si>
   <si>
     <t xml:space="preserve">1.42509996891022</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">1.50614452362061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53503179550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58718919754028</t>
+    <t xml:space="preserve">1.53503167629242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718907833099</t>
   </si>
   <si>
     <t xml:space="preserve">1.56151163578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64496338367462</t>
+    <t xml:space="preserve">1.64496326446533</t>
   </si>
   <si>
     <t xml:space="preserve">1.60484230518341</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">1.63372945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60002791881561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61286664009094</t>
+    <t xml:space="preserve">1.60002779960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61286652088165</t>
   </si>
   <si>
     <t xml:space="preserve">1.59681820869446</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">1.61607623100281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58879387378693</t>
+    <t xml:space="preserve">1.58879399299622</t>
   </si>
   <si>
     <t xml:space="preserve">1.61768114566803</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.6208907365799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61447143554688</t>
+    <t xml:space="preserve">1.61447155475616</t>
   </si>
   <si>
     <t xml:space="preserve">1.60243499279022</t>
@@ -992,16 +992,16 @@
     <t xml:space="preserve">1.56311643123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51657593250275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608410358429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46682584285736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41226124763489</t>
+    <t xml:space="preserve">1.51657617092133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.486083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46682596206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4122611284256</t>
   </si>
   <si>
     <t xml:space="preserve">1.36411607265472</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">1.3737450838089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37936198711395</t>
+    <t xml:space="preserve">1.37936186790466</t>
   </si>
   <si>
     <t xml:space="preserve">1.50694704055786</t>
@@ -1028,25 +1028,25 @@
     <t xml:space="preserve">1.57194304466248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50373709201813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4949107170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49812018871307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48447930812836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4724428653717</t>
+    <t xml:space="preserve">1.50373733043671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49491059780121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49812030792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48447906970978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47244274616241</t>
   </si>
   <si>
     <t xml:space="preserve">1.48367667198181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4499751329422</t>
+    <t xml:space="preserve">1.44997501373291</t>
   </si>
   <si>
     <t xml:space="preserve">1.44034588336945</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">1.42911207675934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44275331497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4435555934906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44917261600494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50855183601379</t>
+    <t xml:space="preserve">1.44275307655334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44355571269989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44917249679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5085517168045</t>
   </si>
   <si>
     <t xml:space="preserve">1.56472134590149</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">1.58076977729797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57675755023956</t>
+    <t xml:space="preserve">1.57675766944885</t>
   </si>
   <si>
     <t xml:space="preserve">1.59280610084534</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.54064869880676</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52058804035187</t>
+    <t xml:space="preserve">1.52058815956116</t>
   </si>
   <si>
     <t xml:space="preserve">1.45639443397522</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">1.38417649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41627335548401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40022480487823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42429769039154</t>
+    <t xml:space="preserve">1.41627323627472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40022492408752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42429745197296</t>
   </si>
   <si>
     <t xml:space="preserve">1.38818871974945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34405529499054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39220082759857</t>
+    <t xml:space="preserve">1.34405553340912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39220070838928</t>
   </si>
   <si>
     <t xml:space="preserve">1.4884911775589</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.50052762031555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52460014820099</t>
+    <t xml:space="preserve">1.52460026741028</t>
   </si>
   <si>
     <t xml:space="preserve">1.53663647174835</t>
@@ -1139,40 +1139,37 @@
     <t xml:space="preserve">1.56873333454132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54867279529572</t>
+    <t xml:space="preserve">1.548672914505</t>
   </si>
   <si>
     <t xml:space="preserve">1.50453960895538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49651539325714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53262436389923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5446605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62891507148743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55669713020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60083031654358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56873321533203</t>
+    <t xml:space="preserve">1.49651551246643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53262448310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54466068744659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62891483306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55669724941254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60083019733429</t>
   </si>
   <si>
     <t xml:space="preserve">1.60184633731842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59356808662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61426389217377</t>
+    <t xml:space="preserve">1.59356820583344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61426401138306</t>
   </si>
   <si>
     <t xml:space="preserve">1.60598564147949</t>
@@ -1181,64 +1178,64 @@
     <t xml:space="preserve">1.58942902088165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5770115852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55217671394348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56459414958954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54389846324921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53148126602173</t>
+    <t xml:space="preserve">1.57701170444489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55217683315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56459426879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5438985824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53148114681244</t>
   </si>
   <si>
     <t xml:space="preserve">1.54803764820099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53975927829742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55631589889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56045508384705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52320289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50664627552032</t>
+    <t xml:space="preserve">1.53975939750671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55631601810455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56045520305634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52320301532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50664639472961</t>
   </si>
   <si>
     <t xml:space="preserve">1.44042015075684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49008977413177</t>
+    <t xml:space="preserve">1.49008965492249</t>
   </si>
   <si>
     <t xml:space="preserve">1.50250720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51078546047211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51492464542389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562021255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47767221927643</t>
+    <t xml:space="preserve">1.5107855796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51492476463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562033176422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47767233848572</t>
   </si>
   <si>
     <t xml:space="preserve">1.47353327274323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.423863530159</t>
+    <t xml:space="preserve">1.42386364936829</t>
   </si>
   <si>
     <t xml:space="preserve">1.39902877807617</t>
@@ -1247,7 +1244,7 @@
     <t xml:space="preserve">1.33694159984589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41558527946472</t>
+    <t xml:space="preserve">1.41558539867401</t>
   </si>
   <si>
     <t xml:space="preserve">1.38247215747833</t>
@@ -1256,61 +1253,61 @@
     <t xml:space="preserve">1.37833297252655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40730702877045</t>
+    <t xml:space="preserve">1.40730714797974</t>
   </si>
   <si>
     <t xml:space="preserve">1.35349822044373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37005472183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38661122322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41972434520721</t>
+    <t xml:space="preserve">1.37005484104156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38661134243011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4197244644165</t>
   </si>
   <si>
     <t xml:space="preserve">1.42800271511078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46525490283966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48595058917999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44869828224182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45697665214539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40316784381866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36177635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48181140422821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37419378757477</t>
+    <t xml:space="preserve">1.46525502204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48595070838928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44869840145111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45697677135468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40316796302795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.361776471138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4818115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37419390678406</t>
   </si>
   <si>
     <t xml:space="preserve">1.41144621372223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36591553688049</t>
+    <t xml:space="preserve">1.36591565608978</t>
   </si>
   <si>
     <t xml:space="preserve">1.35763728618622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39075028896332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3948894739151</t>
+    <t xml:space="preserve">1.39075040817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39488959312439</t>
   </si>
   <si>
     <t xml:space="preserve">1.4528374671936</t>
@@ -1319,109 +1316,109 @@
     <t xml:space="preserve">1.46111583709717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49836802482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57287240028381</t>
+    <t xml:space="preserve">1.49836790561676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5728725194931</t>
   </si>
   <si>
     <t xml:space="preserve">1.58115077018738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58528983592987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59770715236664</t>
+    <t xml:space="preserve">1.58528995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59770727157593</t>
   </si>
   <si>
     <t xml:space="preserve">1.61012482643127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62254214286804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63909876346588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68876838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68049025535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71360325813293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69704675674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70532500743866</t>
+    <t xml:space="preserve">1.62254226207733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63909864425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68876826763153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68049001693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71360313892365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6970466375351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70532488822937</t>
   </si>
   <si>
     <t xml:space="preserve">1.67221188545227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72188150882721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73843801021576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73015975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671614170074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75499451160431</t>
+    <t xml:space="preserve">1.72188138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73843789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73015964031219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671638011932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7549946308136</t>
   </si>
   <si>
     <t xml:space="preserve">1.76327300071716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80466425418854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85433399677277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84605574607849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86261224746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90400362014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95367312431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87089061737061</t>
+    <t xml:space="preserve">1.80466437339783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85433375835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84605550765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86261212825775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90400350093842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95367324352264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87089037895203</t>
   </si>
   <si>
     <t xml:space="preserve">1.8791686296463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92883849143982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91228187084198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9371166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94539487361908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98678660392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97850835323334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97022998332977</t>
+    <t xml:space="preserve">1.92883837223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91228175163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93711674213409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94539499282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98678636550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97850799560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97022974491119</t>
   </si>
   <si>
     <t xml:space="preserve">1.96195149421692</t>
@@ -1430,73 +1427,76 @@
     <t xml:space="preserve">1.89572525024414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05301284790039</t>
+    <t xml:space="preserve">2.05301260948181</t>
   </si>
   <si>
     <t xml:space="preserve">2.06956911087036</t>
   </si>
   <si>
+    <t xml:space="preserve">2.08612561225891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1109607219696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07784724235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04473447799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02817797660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03645610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09467554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06047677993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07757616043091</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.08612585067749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1109607219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07784748077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04473447799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02817797660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03645610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09467554092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06047654151917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07757616043091</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.98352932929993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88093292713165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86383354663849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91513180732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948261737823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89803230762482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90658211708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92368149757385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96642994880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93223118782043</t>
+    <t xml:space="preserve">1.88093316555023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86383366584778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91513156890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948285579681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8980325460434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90658187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92368137836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96642982959747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93223106861115</t>
   </si>
   <si>
     <t xml:space="preserve">1.95788013935089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00062847137451</t>
+    <t xml:space="preserve">2.00062870979309</t>
   </si>
   <si>
     <t xml:space="preserve">2.00917840003967</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">1.94933044910431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97497963905334</t>
+    <t xml:space="preserve">1.97497951984406</t>
   </si>
   <si>
     <t xml:space="preserve">1.94078075885773</t>
@@ -1520,25 +1520,25 @@
     <t xml:space="preserve">2.01772809028625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05192708969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04337739944458</t>
+    <t xml:space="preserve">2.05192685127258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.043377161026</t>
   </si>
   <si>
     <t xml:space="preserve">2.10322523117065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06902623176575</t>
+    <t xml:space="preserve">2.06902647018433</t>
   </si>
   <si>
     <t xml:space="preserve">2.11177492141724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83818447589874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.034827709198</t>
+    <t xml:space="preserve">1.83818459510803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03482747077942</t>
   </si>
   <si>
     <t xml:space="preserve">1.84673428535461</t>
@@ -1547,58 +1547,58 @@
     <t xml:space="preserve">1.8552839756012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7612372636795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65864098072052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67574024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65009105205536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58169376850128</t>
+    <t xml:space="preserve">1.76123714447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65864086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67574036121368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65009117126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58169364929199</t>
   </si>
   <si>
     <t xml:space="preserve">1.48764705657959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49619662761688</t>
+    <t xml:space="preserve">1.49619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">1.41924941539764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3936003446579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37222599983215</t>
+    <t xml:space="preserve">1.39360022544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37222611904144</t>
   </si>
   <si>
     <t xml:space="preserve">1.23970592021942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26535499095917</t>
+    <t xml:space="preserve">1.26535487174988</t>
   </si>
   <si>
     <t xml:space="preserve">1.2995537519455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21833145618439</t>
+    <t xml:space="preserve">1.21833157539368</t>
   </si>
   <si>
     <t xml:space="preserve">1.12855982780457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07298684120178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23115622997284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09436094760895</t>
+    <t xml:space="preserve">1.07298672199249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23115611076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09436106681824</t>
   </si>
   <si>
     <t xml:space="preserve">1.13283467292786</t>
@@ -1613,10 +1613,10 @@
     <t xml:space="preserve">1.24398076534271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15848362445831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25253033638</t>
+    <t xml:space="preserve">1.1584837436676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25253045558929</t>
   </si>
   <si>
     <t xml:space="preserve">1.25680530071259</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">1.20123219490051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22688126564026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31665313243866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33375251293182</t>
+    <t xml:space="preserve">1.22688114643097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31665301322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33375239372253</t>
   </si>
   <si>
     <t xml:space="preserve">1.37650096416473</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">1.34230208396912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32520282268524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27390468120575</t>
+    <t xml:space="preserve">1.32520270347595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27390456199646</t>
   </si>
   <si>
     <t xml:space="preserve">1.26108014583588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24825549125671</t>
+    <t xml:space="preserve">1.248255610466</t>
   </si>
   <si>
     <t xml:space="preserve">1.28245425224304</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.19695734977722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18413269519806</t>
+    <t xml:space="preserve">1.18413281440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.20978188514709</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">1.16275858879089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18840754032135</t>
+    <t xml:space="preserve">1.18840765953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.19268250465393</t>
@@ -1685,19 +1685,19 @@
     <t xml:space="preserve">1.30810332298279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28672921657562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23543107509613</t>
+    <t xml:space="preserve">1.28672909736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23543095588684</t>
   </si>
   <si>
     <t xml:space="preserve">1.27817940711975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32092797756195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29100406169891</t>
+    <t xml:space="preserve">1.32092785835266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29100394248962</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558312416077</t>
@@ -1706,19 +1706,19 @@
     <t xml:space="preserve">1.17130827903748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13710951805115</t>
+    <t xml:space="preserve">1.13710963726044</t>
   </si>
   <si>
     <t xml:space="preserve">1.12001001834869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15420877933502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14565920829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14138436317444</t>
+    <t xml:space="preserve">1.15420889854431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14565932750702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14138448238373</t>
   </si>
   <si>
     <t xml:space="preserve">1.1157351732254</t>
@@ -1742,49 +1742,49 @@
     <t xml:space="preserve">1.00886404514313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02596354484558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06871199607849</t>
+    <t xml:space="preserve">1.02596342563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0687118768692</t>
   </si>
   <si>
     <t xml:space="preserve">1.04306292533875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.017413854599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02168869972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03451311588287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07726168632507</t>
+    <t xml:space="preserve">1.01741373538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.021688580513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03451323509216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07726156711578</t>
   </si>
   <si>
     <t xml:space="preserve">1.16703343391418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30382859706879</t>
+    <t xml:space="preserve">1.3038284778595</t>
   </si>
   <si>
     <t xml:space="preserve">1.2952789068222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26962983608246</t>
+    <t xml:space="preserve">1.26962971687317</t>
   </si>
   <si>
     <t xml:space="preserve">1.36795127391815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38505065441132</t>
+    <t xml:space="preserve">1.38505053520203</t>
   </si>
   <si>
     <t xml:space="preserve">1.39787518978119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40214991569519</t>
+    <t xml:space="preserve">1.40215003490448</t>
   </si>
   <si>
     <t xml:space="preserve">1.42352426052094</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.41069972515106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46627271175385</t>
+    <t xml:space="preserve">1.46627283096313</t>
   </si>
   <si>
     <t xml:space="preserve">1.55176973342896</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">1.60734272003174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59024322032928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62016713619232</t>
+    <t xml:space="preserve">1.59024333953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62016725540161</t>
   </si>
   <si>
     <t xml:space="preserve">1.60306787490845</t>
@@ -1832,43 +1832,43 @@
     <t xml:space="preserve">1.67146551609039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68001508712769</t>
+    <t xml:space="preserve">1.68001520633698</t>
   </si>
   <si>
     <t xml:space="preserve">1.66291582584381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65436601638794</t>
+    <t xml:space="preserve">1.65436589717865</t>
   </si>
   <si>
     <t xml:space="preserve">1.5731440782547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58596837520599</t>
+    <t xml:space="preserve">1.58596849441528</t>
   </si>
   <si>
     <t xml:space="preserve">1.63726663589478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61161756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61589229106903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75268757343292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80398547649384</t>
+    <t xml:space="preserve">1.61161768436432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61589241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75268745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80398571491241</t>
   </si>
   <si>
     <t xml:space="preserve">1.79543590545654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78688633441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77833664417267</t>
+    <t xml:space="preserve">1.78688621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77833652496338</t>
   </si>
   <si>
     <t xml:space="preserve">1.7697868347168</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.82108521461487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70566427707672</t>
+    <t xml:space="preserve">1.70566415786743</t>
   </si>
   <si>
     <t xml:space="preserve">1.72703850269318</t>
@@ -1886,10 +1886,10 @@
     <t xml:space="preserve">1.74413776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69711458683014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73558819293976</t>
+    <t xml:space="preserve">1.69711446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73558807373047</t>
   </si>
   <si>
     <t xml:space="preserve">1.71848881244659</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">1.70993900299072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81253528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64581620693207</t>
+    <t xml:space="preserve">1.812535405159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64581632614136</t>
   </si>
   <si>
     <t xml:space="preserve">1.56886923313141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57741892337799</t>
+    <t xml:space="preserve">1.5774188041687</t>
   </si>
   <si>
     <t xml:space="preserve">1.55604457855225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68428993225098</t>
+    <t xml:space="preserve">1.68429005146027</t>
   </si>
   <si>
     <t xml:space="preserve">1.59451818466187</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">1.5303955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54749488830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56031942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69283974170685</t>
+    <t xml:space="preserve">1.54749476909637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56031954288483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69283962249756</t>
   </si>
   <si>
     <t xml:space="preserve">1.68856489658356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70138943195343</t>
+    <t xml:space="preserve">1.70138931274414</t>
   </si>
   <si>
     <t xml:space="preserve">1.85167002677917</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.78935432434082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77600085735321</t>
+    <t xml:space="preserve">1.7760009765625</t>
   </si>
   <si>
     <t xml:space="preserve">1.78045201301575</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">1.74484300613403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7403918504715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75819635391235</t>
+    <t xml:space="preserve">1.74039196968079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75819647312164</t>
   </si>
   <si>
     <t xml:space="preserve">1.73148965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72258722782135</t>
+    <t xml:space="preserve">1.72258734703064</t>
   </si>
   <si>
     <t xml:space="preserve">1.76264750957489</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">1.65136921405792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63801598548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67362487316132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66472256183624</t>
+    <t xml:space="preserve">1.6380158662796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67362499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66472268104553</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246702194214</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">1.65582036972046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63356482982635</t>
+    <t xml:space="preserve">1.63356471061707</t>
   </si>
   <si>
     <t xml:space="preserve">1.64691817760468</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">1.62466251850128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62021148204803</t>
+    <t xml:space="preserve">1.62021136283875</t>
   </si>
   <si>
     <t xml:space="preserve">1.59795570373535</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.46887290477753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47777509689331</t>
+    <t xml:space="preserve">1.4777752161026</t>
   </si>
   <si>
     <t xml:space="preserve">1.51783537864685</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">1.53118872642517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49557960033417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52228653430939</t>
+    <t xml:space="preserve">1.49557971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5222864151001</t>
   </si>
   <si>
     <t xml:space="preserve">1.49112844467163</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.55344438552856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6157603263855</t>
+    <t xml:space="preserve">1.61576020717621</t>
   </si>
   <si>
     <t xml:space="preserve">1.58460223674774</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">1.66917371749878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69142937660217</t>
+    <t xml:space="preserve">1.69142949581146</t>
   </si>
   <si>
     <t xml:space="preserve">1.71813607215881</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">1.70478272438049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6825270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60240685939789</t>
+    <t xml:space="preserve">1.68252718448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6024067401886</t>
   </si>
   <si>
     <t xml:space="preserve">1.59350454807281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50893306732178</t>
+    <t xml:space="preserve">1.50893318653107</t>
   </si>
   <si>
     <t xml:space="preserve">1.54899322986603</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">1.56679773330688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54009103775024</t>
+    <t xml:space="preserve">1.54009091854095</t>
   </si>
   <si>
     <t xml:space="preserve">1.60685789585114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66027140617371</t>
+    <t xml:space="preserve">1.660271525383</t>
   </si>
   <si>
     <t xml:space="preserve">1.67807602882385</t>
@@ -19793,7 +19793,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G658" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19819,7 +19819,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G659" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19845,7 +19845,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G660" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19871,7 +19871,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19897,7 +19897,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19923,7 +19923,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19949,7 +19949,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19975,7 +19975,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G665" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20001,7 +20001,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G666" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20027,7 +20027,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G667" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20053,7 +20053,7 @@
         <v>1.875</v>
       </c>
       <c r="G668" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20079,7 +20079,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G669" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20105,7 +20105,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G670" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20131,7 +20131,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G671" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20157,7 +20157,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G672" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20183,7 +20183,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G673" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20209,7 +20209,7 @@
         <v>1.875</v>
       </c>
       <c r="G674" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20235,7 +20235,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G675" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20261,7 +20261,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G676" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20287,7 +20287,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G677" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20313,7 +20313,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G678" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20339,7 +20339,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G679" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20365,7 +20365,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G680" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20391,7 +20391,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G681" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20417,7 +20417,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G682" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20443,7 +20443,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G683" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20469,7 +20469,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G684" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20495,7 +20495,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G685" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20521,7 +20521,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G686" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20547,7 +20547,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G687" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20573,7 +20573,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G688" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20599,7 +20599,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G689" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20625,7 +20625,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G690" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20651,7 +20651,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G691" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20677,7 +20677,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G692" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20703,7 +20703,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G693" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20729,7 +20729,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G694" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20755,7 +20755,7 @@
         <v>1.875</v>
       </c>
       <c r="G695" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20781,7 +20781,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G696" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20807,7 +20807,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G697" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20833,7 +20833,7 @@
         <v>1.875</v>
       </c>
       <c r="G698" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20859,7 +20859,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G699" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20885,7 +20885,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20911,7 +20911,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G701" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20937,7 +20937,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G702" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20963,7 +20963,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G703" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20989,7 +20989,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G704" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21015,7 +21015,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G705" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21041,7 +21041,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G706" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21067,7 +21067,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G707" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21093,7 +21093,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21119,7 +21119,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G709" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21145,7 +21145,7 @@
         <v>1.61500000953674</v>
       </c>
       <c r="G710" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21171,7 +21171,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G711" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21197,7 +21197,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G712" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21223,7 +21223,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G713" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21249,7 +21249,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21275,7 +21275,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G715" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21301,7 +21301,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G716" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21327,7 +21327,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G717" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21353,7 +21353,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G718" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21379,7 +21379,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G719" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21405,7 +21405,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G720" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21431,7 +21431,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21457,7 +21457,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G722" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21483,7 +21483,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G723" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21509,7 +21509,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21535,7 +21535,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G725" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21561,7 +21561,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21587,7 +21587,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G727" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21613,7 +21613,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21639,7 +21639,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G729" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21665,7 +21665,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G730" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21691,7 +21691,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21717,7 +21717,7 @@
         <v>1.75</v>
       </c>
       <c r="G732" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21743,7 +21743,7 @@
         <v>1.75</v>
       </c>
       <c r="G733" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21769,7 +21769,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G734" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21795,7 +21795,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G735" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21821,7 +21821,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G736" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21847,7 +21847,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21873,7 +21873,7 @@
         <v>1.64499998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21899,7 +21899,7 @@
         <v>1.67499995231628</v>
       </c>
       <c r="G739" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21925,7 +21925,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21951,7 +21951,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G741" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21977,7 +21977,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22003,7 +22003,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22029,7 +22029,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G744" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22055,7 +22055,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G745" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22081,7 +22081,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G746" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22107,7 +22107,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G747" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22133,7 +22133,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G748" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22159,7 +22159,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G749" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22185,7 +22185,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G750" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22211,7 +22211,7 @@
         <v>1.75</v>
       </c>
       <c r="G751" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22237,7 +22237,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G752" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22263,7 +22263,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G753" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22289,7 +22289,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G754" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22315,7 +22315,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G755" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22341,7 +22341,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G756" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22367,7 +22367,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G757" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22393,7 +22393,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G758" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22419,7 +22419,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G759" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22445,7 +22445,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G760" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22471,7 +22471,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G761" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22497,7 +22497,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22523,7 +22523,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G763" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22549,7 +22549,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G764" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22575,7 +22575,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G765" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22601,7 +22601,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22627,7 +22627,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G767" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22653,7 +22653,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22679,7 +22679,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G769" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22705,7 +22705,7 @@
         <v>1.75</v>
       </c>
       <c r="G770" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22731,7 +22731,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G771" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22757,7 +22757,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G772" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22783,7 +22783,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G773" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22809,7 +22809,7 @@
         <v>1.75</v>
       </c>
       <c r="G774" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22835,7 +22835,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22861,7 +22861,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G776" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22887,7 +22887,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G777" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22913,7 +22913,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G778" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22939,7 +22939,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22965,7 +22965,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G780" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22991,7 +22991,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G781" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23017,7 +23017,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G782" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23043,7 +23043,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G783" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23069,7 +23069,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G784" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23095,7 +23095,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G785" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23121,7 +23121,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G786" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23147,7 +23147,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G787" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23173,7 +23173,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G788" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23199,7 +23199,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G789" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23225,7 +23225,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G790" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23251,7 +23251,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G791" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23277,7 +23277,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G792" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23303,7 +23303,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G793" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23329,7 +23329,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G794" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23355,7 +23355,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G795" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23381,7 +23381,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G796" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23407,7 +23407,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G797" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23433,7 +23433,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G798" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23459,7 +23459,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G799" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23485,7 +23485,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G800" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23511,7 +23511,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G801" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23537,7 +23537,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G802" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23563,7 +23563,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G803" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23589,7 +23589,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G804" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23615,7 +23615,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23641,7 +23641,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G806" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23667,7 +23667,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G807" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23693,7 +23693,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G808" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23719,7 +23719,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G809" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23745,7 +23745,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G810" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23771,7 +23771,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23797,7 +23797,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G812" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23823,7 +23823,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G813" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23849,7 +23849,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G814" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23875,7 +23875,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G815" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23901,7 +23901,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23927,7 +23927,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G817" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23953,7 +23953,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G818" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23979,7 +23979,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G819" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24005,7 +24005,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G820" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24031,7 +24031,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G821" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24057,7 +24057,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24083,7 +24083,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G823" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24109,7 +24109,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G824" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24135,7 +24135,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24161,7 +24161,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G826" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24187,7 +24187,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G827" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24213,7 +24213,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G828" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24239,7 +24239,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G829" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24265,7 +24265,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G830" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24291,7 +24291,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24317,7 +24317,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G832" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24343,7 +24343,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G833" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24369,7 +24369,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G834" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24395,7 +24395,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G835" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24421,7 +24421,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G836" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24447,7 +24447,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G837" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24473,7 +24473,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G838" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24499,7 +24499,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G839" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24525,7 +24525,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G840" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24551,7 +24551,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G841" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24577,7 +24577,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G842" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24603,7 +24603,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G843" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24629,7 +24629,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G844" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24655,7 +24655,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G845" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24681,7 +24681,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G846" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24707,7 +24707,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24733,7 +24733,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G848" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24759,7 +24759,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G849" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24785,7 +24785,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24811,7 +24811,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G851" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24837,7 +24837,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G852" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24863,7 +24863,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G853" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24889,7 +24889,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G854" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24915,7 +24915,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G855" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24941,7 +24941,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G856" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24967,7 +24967,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G857" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24993,7 +24993,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G858" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25019,7 +25019,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G859" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25045,7 +25045,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G860" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25071,7 +25071,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G861" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25097,7 +25097,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25123,7 +25123,7 @@
         <v>2.25</v>
       </c>
       <c r="G863" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25149,7 +25149,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G864" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25175,7 +25175,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G865" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25201,7 +25201,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G866" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25227,7 +25227,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G867" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25253,7 +25253,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G868" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25279,7 +25279,7 @@
         <v>2.25</v>
       </c>
       <c r="G869" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25305,7 +25305,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G870" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25331,7 +25331,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G871" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25357,7 +25357,7 @@
         <v>2.25</v>
       </c>
       <c r="G872" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25383,7 +25383,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25409,7 +25409,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G874" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25435,7 +25435,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G875" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25461,7 +25461,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G876" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25487,7 +25487,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G877" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25513,7 +25513,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G878" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25539,7 +25539,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G879" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25565,7 +25565,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G880" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25591,7 +25591,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G881" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25617,7 +25617,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G882" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25643,7 +25643,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G883" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25669,7 +25669,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G884" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25695,7 +25695,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G885" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25721,7 +25721,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G886" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25747,7 +25747,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G887" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25773,7 +25773,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G888" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25799,7 +25799,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G889" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25825,7 +25825,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G890" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25851,7 +25851,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G891" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25877,7 +25877,7 @@
         <v>2.5</v>
       </c>
       <c r="G892" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25903,7 +25903,7 @@
         <v>2.5</v>
       </c>
       <c r="G893" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25929,7 +25929,7 @@
         <v>2.5</v>
       </c>
       <c r="G894" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25955,7 +25955,7 @@
         <v>2.5</v>
       </c>
       <c r="G895" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25981,7 +25981,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G896" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26007,7 +26007,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G897" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26033,7 +26033,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G898" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26059,7 +26059,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G899" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26085,7 +26085,7 @@
         <v>2.5</v>
       </c>
       <c r="G900" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26111,7 +26111,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G901" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26137,7 +26137,7 @@
         <v>2.5</v>
       </c>
       <c r="G902" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26163,7 +26163,7 @@
         <v>2.5</v>
       </c>
       <c r="G903" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26189,7 +26189,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G904" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26215,7 +26215,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26241,7 +26241,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G906" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26267,7 +26267,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G907" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26293,7 +26293,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G908" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26319,7 +26319,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26345,7 +26345,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G910" t="